--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB75EF-BB15-4C2E-B7BC-789B7B0851C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58135678-0D6E-40DF-91BC-CCE2147AD154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="45" windowWidth="14400" windowHeight="8685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="45" windowWidth="14400" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Periodo</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>tasa_IPC_acum</t>
+  </si>
+  <si>
+    <t>Pauli linda</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,6 +1490,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -49492,7 +49496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC272FD2-5EC4-4BE4-878F-346441666433}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -54153,10 +54157,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54444,6 +54448,11 @@
       </c>
       <c r="G15" s="35"/>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
@@ -54453,9 +54462,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54623,19 +54635,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54659,9 +54667,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58135678-0D6E-40DF-91BC-CCE2147AD154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59EFD8-D235-4146-8957-FB0DA9D41844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="45" windowWidth="14400" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="120" windowWidth="14400" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Periodo</t>
   </si>
@@ -1086,9 +1086,6 @@
   </si>
   <si>
     <t>tasa_IPC_acum</t>
-  </si>
-  <si>
-    <t>Pauli linda</t>
   </si>
 </sst>
 </file>
@@ -1481,6 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,7 +1488,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -54159,8 +54156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54173,14 +54170,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
@@ -54292,18 +54289,18 @@
         <v>24</v>
       </c>
       <c r="D8" s="30">
-        <v>0.64249999999999996</v>
+        <v>4.4839999999999998E-2</v>
       </c>
       <c r="E8" s="31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
       <c r="G8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -54449,9 +54446,7 @@
       <c r="G15" s="35"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>33</v>
-      </c>
+      <c r="B18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -54462,12 +54457,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54635,15 +54627,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54667,10 +54663,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59EFD8-D235-4146-8957-FB0DA9D41844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5BA538-0922-44BF-9E7E-F74ABB5A8780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="120" windowWidth="14400" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1170" windowWidth="14400" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" r:id="rId2"/>
     <sheet name="DATOS.TS" sheetId="3" r:id="rId3"/>
     <sheet name="Estadistica Descriptiva" sheetId="4" r:id="rId4"/>
+    <sheet name="Datossindummys" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -987,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Periodo</t>
   </si>
@@ -1086,6 +1087,9 @@
   </si>
   <si>
     <t>tasa_IPC_acum</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1488,6 +1492,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25842,8 +25847,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1318175006233086"/>
-          <c:y val="2.3151359542887183E-2"/>
+          <c:x val="8.0333497096185424E-2"/>
+          <c:y val="0.11903139635252698"/>
           <c:w val="0.86818249937669145"/>
           <c:h val="0.61397518352152902"/>
         </c:manualLayout>
@@ -36426,16 +36431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>701432</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>510931</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36663,8 +36668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView topLeftCell="C132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H145"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44399,13 +44404,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBE68D-75F6-4A84-A8BB-49D71CA44100}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H145"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -46647,7 +46655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>36800</v>
       </c>
@@ -46682,7 +46690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>36892</v>
       </c>
@@ -46716,8 +46724,18 @@
       <c r="K66" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O66" s="36">
+        <v>153919.29999999999</v>
+      </c>
+      <c r="P66" s="40">
+        <v>100</v>
+      </c>
+      <c r="R66">
+        <f>(O67*P66)/O66</f>
+        <v>23.62783614530472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>36982</v>
       </c>
@@ -46751,8 +46769,14 @@
       <c r="K67" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O67" s="36">
+        <v>36367.800000000003</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>37073</v>
       </c>
@@ -46787,7 +46811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>37165</v>
       </c>
@@ -46822,7 +46846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>37257</v>
       </c>
@@ -46857,7 +46881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>37347</v>
       </c>
@@ -46892,7 +46916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>37438</v>
       </c>
@@ -46927,7 +46951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>37530</v>
       </c>
@@ -46962,7 +46986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>37622</v>
       </c>
@@ -46997,7 +47021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>37712</v>
       </c>
@@ -47032,7 +47056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>37803</v>
       </c>
@@ -47067,7 +47091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>37895</v>
       </c>
@@ -47102,7 +47126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>37987</v>
       </c>
@@ -47137,7 +47161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>38078</v>
       </c>
@@ -47172,7 +47196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>38169</v>
       </c>
@@ -49493,8 +49517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC272FD2-5EC4-4BE4-878F-346441666433}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A99" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54156,8 +54180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54456,13 +54480,3811 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF288-FF60-4900-B0A4-CB55DAD23E72}">
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:H145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>AVERAGE(81.1,80.4,86.2)</f>
+        <v>82.566666666666663</v>
+      </c>
+      <c r="B2" s="8">
+        <v>406.51969480000002</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1.3341967319121519</v>
+      </c>
+      <c r="D2" s="12">
+        <v>28.92</v>
+      </c>
+      <c r="E2" s="12">
+        <v>39.64</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2.6333333333333302</v>
+      </c>
+      <c r="G2" s="12">
+        <v>28.77</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>AVERAGE(87.1,86.7,85.3)</f>
+        <v>86.366666666666674</v>
+      </c>
+      <c r="B3" s="8">
+        <v>455.97590480000002</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1.6669992498124533</v>
+      </c>
+      <c r="D3" s="12">
+        <v>35.96</v>
+      </c>
+      <c r="E3" s="12">
+        <v>41.96</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="G3" s="12">
+        <v>32.67</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>AVERAGE(93.8,97,96.1,97.9)</f>
+        <v>96.199999999999989</v>
+      </c>
+      <c r="B4" s="8">
+        <v>525.48840919999998</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1.00049887471868</v>
+      </c>
+      <c r="D4" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>31.04</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="G4" s="12">
+        <v>35.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.64333333333333298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>AVERAGE(99.4,99.6,90.9)</f>
+        <v>96.633333333333326</v>
+      </c>
+      <c r="B5" s="8">
+        <v>542.35467389999997</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.3339984996249059</v>
+      </c>
+      <c r="D5" s="12">
+        <v>21.4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>26.24</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.4666666666666699</v>
+      </c>
+      <c r="G5" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.62666666666666704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>99.905171929999995</v>
+      </c>
+      <c r="B6" s="8">
+        <v>560.75918179999996</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.6674981245311324</v>
+      </c>
+      <c r="D6" s="12">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E6" s="12">
+        <v>27.6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="12">
+        <v>24.43</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>98.161851126666704</v>
+      </c>
+      <c r="B7" s="8">
+        <v>565.90945880000004</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.0009977494373596</v>
+      </c>
+      <c r="D7" s="12">
+        <v>16.48</v>
+      </c>
+      <c r="E7" s="12">
+        <v>22.68</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="G7" s="12">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.64433333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>101.01772131</v>
+      </c>
+      <c r="B8" s="8">
+        <v>583.14349770000001</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2.3344973743435853</v>
+      </c>
+      <c r="D8" s="12">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="G8" s="12">
+        <v>17.13</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.60333333333333306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>101.018123033333</v>
+      </c>
+      <c r="B9" s="8">
+        <v>605.35673910000003</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2.6679969992498127</v>
+      </c>
+      <c r="D9" s="12">
+        <v>19.28</v>
+      </c>
+      <c r="E9" s="12">
+        <v>23.96</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.4666666666666699</v>
+      </c>
+      <c r="G9" s="12">
+        <v>17.27</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.59666666666666701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>101.77643853333301</v>
+      </c>
+      <c r="B10" s="8">
+        <v>618.36862550000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="D10" s="12">
+        <v>22.88</v>
+      </c>
+      <c r="E10" s="12">
+        <v>28.32</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.7666666666666699</v>
+      </c>
+      <c r="G10" s="12">
+        <v>17.27</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>103.669256733333</v>
+      </c>
+      <c r="B11" s="8">
+        <v>642.21205259999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>23.12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>29.52</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="G11" s="12">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>104.43316876666699</v>
+      </c>
+      <c r="B12" s="8">
+        <v>673.85506320000002</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D12" s="12">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E12" s="12">
+        <v>24.84</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="G12" s="12">
+        <v>20.6</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.793333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>107.46899809999999</v>
+      </c>
+      <c r="B13" s="8">
+        <v>698.43554759999995</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4.74</v>
+      </c>
+      <c r="D13" s="12">
+        <v>25.84</v>
+      </c>
+      <c r="E13" s="12">
+        <v>32.36</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="G13" s="12">
+        <v>22.23</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>110.94400546666699</v>
+      </c>
+      <c r="B14" s="8">
+        <v>727.04879510000001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10.96</v>
+      </c>
+      <c r="E14" s="12">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>18.93</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.11333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>113.1124708</v>
+      </c>
+      <c r="B15" s="8">
+        <v>735.33868180000002</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D15" s="12">
+        <v>14.6</v>
+      </c>
+      <c r="E15" s="12">
+        <v>20.12</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G15" s="12">
+        <v>15.97</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>110.993049633333</v>
+      </c>
+      <c r="B16" s="8">
+        <v>739.58415579999996</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E16" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.0333333333333301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>109.63786159999999</v>
+      </c>
+      <c r="B17" s="8">
+        <v>738.15566420000005</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D17" s="12">
+        <v>20.88</v>
+      </c>
+      <c r="E17" s="12">
+        <v>25.12</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.7666666666666699</v>
+      </c>
+      <c r="G17" s="12">
+        <v>11.53</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1.4733333333333301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>107.57390056666701</v>
+      </c>
+      <c r="B18" s="8">
+        <v>742.58945449999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.49</v>
+      </c>
+      <c r="D18" s="12">
+        <v>17.64</v>
+      </c>
+      <c r="E18" s="12">
+        <v>25.2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="G18" s="12">
+        <v>12.93</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1.4733333333333301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>104.112244766667</v>
+      </c>
+      <c r="B19" s="8">
+        <v>765.45171430000005</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.87</v>
+      </c>
+      <c r="D19" s="12">
+        <v>23.52</v>
+      </c>
+      <c r="E19" s="12">
+        <v>29.28</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>14.73</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1.2666666666666699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>110.869434066667</v>
+      </c>
+      <c r="B20" s="8">
+        <v>829.61198420000005</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>24.52</v>
+      </c>
+      <c r="E20" s="12">
+        <v>30.96</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G20" s="12">
+        <v>18.73</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>111.65457266666699</v>
+      </c>
+      <c r="B21" s="8">
+        <v>865.78595229999996</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>32.64</v>
+      </c>
+      <c r="E21" s="12">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.2333333333333298</v>
+      </c>
+      <c r="G21" s="12">
+        <v>21.3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>115.157569833333</v>
+      </c>
+      <c r="B22" s="8">
+        <v>885.88300000000004</v>
+      </c>
+      <c r="C22" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D22" s="12">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="E22" s="12">
+        <v>39.6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="G22" s="12">
+        <v>23.43</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>111.127894633333</v>
+      </c>
+      <c r="B23" s="8">
+        <v>890.17139980000002</v>
+      </c>
+      <c r="C23" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D23" s="12">
+        <v>31.72</v>
+      </c>
+      <c r="E23" s="12">
+        <v>37.6</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="G23" s="12">
+        <v>24.63</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>110.6681914</v>
+      </c>
+      <c r="B24" s="8">
+        <v>908.45577539999999</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D24" s="12">
+        <v>33.64</v>
+      </c>
+      <c r="E24" s="12">
+        <v>38.72</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2.8666666666666698</v>
+      </c>
+      <c r="G24" s="12">
+        <v>26.57</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>113.862006966667</v>
+      </c>
+      <c r="B25" s="8">
+        <v>974.33220210000002</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7.39</v>
+      </c>
+      <c r="D25" s="12">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44.28</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="G25" s="12">
+        <v>29.03</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>113.728902866667</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1014.9944545</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.48</v>
+      </c>
+      <c r="D26" s="12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E26" s="12">
+        <v>15.84</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="G26" s="12">
+        <v>24.1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.1033333333333299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>104.89374890000001</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1025.1245908999999</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D27" s="12">
+        <v>25.16</v>
+      </c>
+      <c r="E27" s="12">
+        <v>29.2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.0333333333333301</v>
+      </c>
+      <c r="G27" s="12">
+        <v>23.73</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>103.238185766667</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1055.2143719999999</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="D28" s="12">
+        <v>22.24</v>
+      </c>
+      <c r="E28" s="12">
+        <v>27.56</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G28" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1.0233333333333301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>103.64495056666701</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1095.2444347999999</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5.45</v>
+      </c>
+      <c r="D29" s="12">
+        <v>23.04</v>
+      </c>
+      <c r="E29" s="12">
+        <v>28.12</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="G29" s="12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.0533333333333299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>99.051597053333296</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1065.9585</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="D30" s="12">
+        <v>10.84</v>
+      </c>
+      <c r="E30" s="12">
+        <v>16.84</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.99333333333333296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>95.2003411266667</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1047.8606579</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="E31" s="12">
+        <v>20</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="G31" s="12">
+        <v>15.9</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1.0166666666666699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>100.34320437333299</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1106.148588</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5.37</v>
+      </c>
+      <c r="D32" s="12">
+        <v>18.32</v>
+      </c>
+      <c r="E32" s="12">
+        <v>22.28</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="G32" s="12">
+        <v>14.23</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1.12666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>95.848846963333301</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1130.9508334</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6.23</v>
+      </c>
+      <c r="D33" s="12">
+        <v>22.08</v>
+      </c>
+      <c r="E33" s="12">
+        <v>27.08</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="G33" s="12">
+        <v>13.37</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>96.7961166533333</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1169.0538260999999</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="12">
+        <v>8.44</v>
+      </c>
+      <c r="E34" s="12">
+        <v>13.72</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>99.635460440000003</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1209.4734286</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D35" s="12">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12">
+        <v>23.24</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.84333333333333305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>96.684344896666701</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1220.645</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="12">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="E36" s="12">
+        <v>25.28</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G36" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0.86333333333333295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>94.461724520000004</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1250.8251667</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D37" s="12">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="E37" s="12">
+        <v>24.88</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="G37" s="12">
+        <v>12.63</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.75666666666666704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>96.023032639999997</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1289.5884771999999</v>
+      </c>
+      <c r="C38" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D38" s="12">
+        <v>13</v>
+      </c>
+      <c r="E38" s="12">
+        <v>17.72</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G38" s="12">
+        <v>13.33</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.84666666666666701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>93.620878410000003</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1269.8486817999999</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D39" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>21.48</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G39" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.96666666666666701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>94.487796590000002</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1254.7933333000001</v>
+      </c>
+      <c r="C40" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D40" s="12">
+        <v>14.6</v>
+      </c>
+      <c r="E40" s="12">
+        <v>19.04</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G40" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1.11666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>92.863089819999999</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1227.8949524</v>
+      </c>
+      <c r="C41" s="9">
+        <v>6.22</v>
+      </c>
+      <c r="D41" s="12">
+        <v>11.72</v>
+      </c>
+      <c r="E41" s="12">
+        <v>16.28</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>93.393406510000005</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1228.3750731</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="E42" s="12">
+        <v>15.28</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="G42" s="12">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>88.348367249999995</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1145.0877846999999</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6</v>
+      </c>
+      <c r="D43" s="12">
+        <v>12.36</v>
+      </c>
+      <c r="E43" s="12">
+        <v>16</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G43" s="12">
+        <v>7.77</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1.3133333333333299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>85.722357336666704</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1159.9049639</v>
+      </c>
+      <c r="C44" s="9">
+        <v>5.76</v>
+      </c>
+      <c r="D44" s="12">
+        <v>16.72</v>
+      </c>
+      <c r="E44" s="12">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12">
+        <v>8.33</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1.36666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>88.081120276666695</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1227.9108772</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6.69</v>
+      </c>
+      <c r="D45" s="12">
+        <v>11.32</v>
+      </c>
+      <c r="E45" s="12">
+        <v>15.56</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>86.888832716666698</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1231.0441992000001</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6.78</v>
+      </c>
+      <c r="D46" s="12">
+        <v>10.88</v>
+      </c>
+      <c r="E46" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="12">
+        <v>7.83</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1.1666666666666701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>84.186495679999993</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1224.5020801999999</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="E47" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G47" s="12">
+        <v>8.43</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1.12666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>83.808875599999993</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1233.6679641000001</v>
+      </c>
+      <c r="C48" s="9">
+        <v>7.44</v>
+      </c>
+      <c r="D48" s="12">
+        <v>11.24</v>
+      </c>
+      <c r="E48" s="12">
+        <v>14.88</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G48" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.89666666666666694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>83.76482378</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1257.9926086999999</v>
+      </c>
+      <c r="C49" s="9">
+        <v>7.38</v>
+      </c>
+      <c r="D49" s="12">
+        <v>12.56</v>
+      </c>
+      <c r="E49" s="12">
+        <v>15.92</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>6.47</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0.97666666666666702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>80.482798033333296</v>
+      </c>
+      <c r="B50" s="8">
+        <v>1254.0376818</v>
+      </c>
+      <c r="C50" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="D50" s="12">
+        <v>12.76</v>
+      </c>
+      <c r="E50" s="12">
+        <v>16</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="G50" s="12">
+        <v>6.97</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1.09666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>79.072382869999998</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1253.6041855000001</v>
+      </c>
+      <c r="C51" s="8">
+        <v>6.9682539682539701</v>
+      </c>
+      <c r="D51" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E51" s="12">
+        <v>12.68</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G51" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1.13666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>76.787387503333306</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1246.3597083</v>
+      </c>
+      <c r="C52" s="8">
+        <v>6.6785714285714297</v>
+      </c>
+      <c r="D52" s="12">
+        <v>10.68</v>
+      </c>
+      <c r="E52" s="12">
+        <v>13.76</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G52" s="12">
+        <v>5.73</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>76.286067826666695</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1277.6600435</v>
+      </c>
+      <c r="C53" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D53" s="12">
+        <v>12.92</v>
+      </c>
+      <c r="E53" s="12">
+        <v>16.04</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="G53" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.86666666666666703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>77.8207092166667</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1354.4514111999999</v>
+      </c>
+      <c r="C54" s="8">
+        <v>7.92063492063492</v>
+      </c>
+      <c r="D54" s="12">
+        <v>11.44</v>
+      </c>
+      <c r="E54" s="12">
+        <v>15.64</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G54" s="12">
+        <v>5.57</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.77166666666666694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>77.581767499999998</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1363.3471228000001</v>
+      </c>
+      <c r="C55" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D55" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="E55" s="12">
+        <v>15.4</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="12">
+        <v>5.37</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.78666666666666696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>78.392978373333307</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1406.3960423999999</v>
+      </c>
+      <c r="C56" s="8">
+        <v>9.2734375</v>
+      </c>
+      <c r="D56" s="12">
+        <v>17.68</v>
+      </c>
+      <c r="E56" s="12">
+        <v>23.72</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.74666666666666703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>78.24356822</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1399.2450953</v>
+      </c>
+      <c r="C57" s="8">
+        <v>10.2904761904762</v>
+      </c>
+      <c r="D57" s="12">
+        <v>14.4</v>
+      </c>
+      <c r="E57" s="12">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="G57" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>79.003184383333306</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1461.6143477999999</v>
+      </c>
+      <c r="C58" s="8">
+        <v>7.3349206349206302</v>
+      </c>
+      <c r="D58" s="12">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E58" s="12">
+        <v>12.52</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G58" s="12">
+        <v>3.83</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>78.759715043333301</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1469.532119</v>
+      </c>
+      <c r="C59" s="8">
+        <v>6.07258064516129</v>
+      </c>
+      <c r="D59" s="12">
+        <v>9.76</v>
+      </c>
+      <c r="E59" s="12">
+        <v>13.48</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G59" s="12">
+        <v>3.93</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>83.643016043333304</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1554.3194587999999</v>
+      </c>
+      <c r="C60" s="8">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12">
+        <v>6.44</v>
+      </c>
+      <c r="E60" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G60" s="12">
+        <v>3.17</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>87.753102606666701</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1619.9042618999999</v>
+      </c>
+      <c r="C61" s="8">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="E61" s="12">
+        <v>11.92</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G61" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.78666666666666696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>83.045629586666706</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1537.6790062</v>
+      </c>
+      <c r="C62" s="8">
+        <v>5.2182539682539701</v>
+      </c>
+      <c r="D62" s="12">
+        <v>9.32</v>
+      </c>
+      <c r="E62" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="12">
+        <v>3.17</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0.81408418760773005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>82.963746926666701</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1559.5001554999999</v>
+      </c>
+      <c r="C63" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D63" s="12">
+        <v>9.48</v>
+      </c>
+      <c r="E63" s="12">
+        <v>14.24</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G63" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0.78888838489219504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>88.377872859999997</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1659.6347836</v>
+      </c>
+      <c r="C64" s="8">
+        <v>5.3253968253968296</v>
+      </c>
+      <c r="D64" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>12.92</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G64" s="12">
+        <v>3.97</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0.84907617406029801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>89.688116436666604</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1717.0669926</v>
+      </c>
+      <c r="C65" s="8">
+        <v>5</v>
+      </c>
+      <c r="D65" s="12">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E65" s="12">
+        <v>15.28</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G65" s="12">
+        <v>4.57</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0.83828207686957601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>89.807629293333306</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1722.0312727</v>
+      </c>
+      <c r="C66" s="8">
+        <v>4.53515625</v>
+      </c>
+      <c r="D66" s="12">
+        <v>5</v>
+      </c>
+      <c r="E66" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G66" s="12">
+        <v>4</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0.80013305512715804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>91.981607546666694</v>
+      </c>
+      <c r="B67" s="8">
+        <v>1819.1785952</v>
+      </c>
+      <c r="C67" s="8">
+        <v>3.7258064516128999</v>
+      </c>
+      <c r="D67" s="12">
+        <v>7.52</v>
+      </c>
+      <c r="E67" s="12">
+        <v>12.8</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G67" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0.74916386948501601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>100.19087841</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2011.4006608</v>
+      </c>
+      <c r="C68" s="8">
+        <v>5.1779661016949197</v>
+      </c>
+      <c r="D68" s="12">
+        <v>5.36</v>
+      </c>
+      <c r="E68" s="12">
+        <v>10.32</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G68" s="12">
+        <v>3.63</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0.66768877196165599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>101.024328383333</v>
+      </c>
+      <c r="B69" s="8">
+        <v>2066.6375051</v>
+      </c>
+      <c r="C69" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D69" s="12">
+        <v>6.16</v>
+      </c>
+      <c r="E69" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F69" s="8">
+        <v>-6.6666666666666693E-2</v>
+      </c>
+      <c r="G69" s="12">
+        <v>3.03</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0.64664035803925102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>94.106552406666694</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2009.3808182</v>
+      </c>
+      <c r="C70" s="8">
+        <v>5.6935483870967696</v>
+      </c>
+      <c r="D70" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="E70" s="12">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G70" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0.70620974326408403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>92.694273666666703</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1978.4934524</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4.3319672131147504</v>
+      </c>
+      <c r="D71" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="E71" s="12">
+        <v>8.08</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G71" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0.730826453778463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>99.926025436666706</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2125.6180571</v>
+      </c>
+      <c r="C72" s="8">
+        <v>3.2222222222222201</v>
+      </c>
+      <c r="D72" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="E72" s="12">
+        <v>6.96</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="G72" s="12">
+        <v>2.37</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0.687610753273459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>100.697737933333</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2153.7428912999999</v>
+      </c>
+      <c r="C73" s="8">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="E73" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G73" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0.70484895219087396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>107.616457833333</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2210.9745606000001</v>
+      </c>
+      <c r="C74" s="8">
+        <v>2.7738095238095202</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="E74" s="12">
+        <v>5.76</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G74" s="12">
+        <v>3.77</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0.75454957815476797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>106.98439386666701</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2131.0178332999999</v>
+      </c>
+      <c r="C75" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="D75" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="E75" s="12">
+        <v>5.92</v>
+      </c>
+      <c r="F75" s="8">
+        <v>-0.16666666666666699</v>
+      </c>
+      <c r="G75" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0.74423931779007502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>105.04781413333301</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2080.3549348000001</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="E76" s="12">
+        <v>6.32</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G76" s="12">
+        <v>2.73</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0.79527654298587802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>97.56635618</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1874.4410651999999</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2.6547619047619002</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="E77" s="12">
+        <v>6.04</v>
+      </c>
+      <c r="F77" s="8">
+        <v>-0.266666666666667</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0.93399558498896196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>94.544257656666701</v>
+      </c>
+      <c r="B78" s="8">
+        <v>1761.8596024999999</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1.7890625</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E78" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="F78" s="8">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="H78" s="12">
+        <v>1.2385950588164201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>100.947072906667</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1887.4411428999999</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="E79" s="12">
+        <v>4.88</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H79" s="12">
+        <v>1.2653724031570399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>101.89872440000001</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1884.8773593999999</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1.81153846153846</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E80" s="12">
+        <v>5</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G80" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H80" s="12">
+        <v>1.29265928815507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>99.371568213333305</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1780.1685</v>
+      </c>
+      <c r="C81" s="8">
+        <v>2.1352459016393399</v>
+      </c>
+      <c r="D81" s="12">
+        <v>2.36</v>
+      </c>
+      <c r="E81" s="12">
+        <v>4.92</v>
+      </c>
+      <c r="F81" s="8">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G81" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="H81" s="12">
+        <v>1.40320088300221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>98.795403473333295</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1734.1862510999999</v>
+      </c>
+      <c r="C82" s="8">
+        <v>2.6071428571428599</v>
+      </c>
+      <c r="D82" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="E82" s="12">
+        <v>5.76</v>
+      </c>
+      <c r="F82" s="8">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G82" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H82" s="12">
+        <v>1.4822492364450099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>98.999865020000001</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1744.2380952000001</v>
+      </c>
+      <c r="C83" s="8">
+        <v>3.1111111111111098</v>
+      </c>
+      <c r="D83" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="E83" s="12">
+        <v>6.24</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="G83" s="12">
+        <v>2.77</v>
+      </c>
+      <c r="H83" s="12">
+        <v>1.5373385950588201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>93.833876976666701</v>
+      </c>
+      <c r="B84" s="8">
+        <v>1659.0762122000001</v>
+      </c>
+      <c r="C84" s="8">
+        <v>3.66015625</v>
+      </c>
+      <c r="D84" s="12">
+        <v>3.84</v>
+      </c>
+      <c r="E84" s="12">
+        <v>6.56</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G84" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="H84" s="12">
+        <v>1.70398258187427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>88.743747543333299</v>
+      </c>
+      <c r="B85" s="8">
+        <v>1579.7093809999999</v>
+      </c>
+      <c r="C85" s="8">
+        <v>4.3669354838709697</v>
+      </c>
+      <c r="D85" s="12">
+        <v>4.96</v>
+      </c>
+      <c r="E85" s="12">
+        <v>7.36</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H85" s="12">
+        <v>1.9513547431128799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>89.574733269999996</v>
+      </c>
+      <c r="B86" s="8">
+        <v>1578.9521878</v>
+      </c>
+      <c r="C86" s="8">
+        <v>4.6384615384615397</v>
+      </c>
+      <c r="D86" s="12">
+        <v>4.72</v>
+      </c>
+      <c r="E86" s="12">
+        <v>7.48</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G86" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="H86" s="12">
+        <v>2.2407057969699702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>90.996022463333304</v>
+      </c>
+      <c r="B87" s="8">
+        <v>1580.5804066999999</v>
+      </c>
+      <c r="C87" s="8">
+        <v>4.9631147540983598</v>
+      </c>
+      <c r="D87" s="12">
+        <v>4.92</v>
+      </c>
+      <c r="E87" s="12">
+        <v>7.48</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="G87" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H87" s="12">
+        <v>3.27062354470955</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>93.701873696666695</v>
+      </c>
+      <c r="B88" s="8">
+        <v>1617.8003805000001</v>
+      </c>
+      <c r="C88" s="8">
+        <v>5.2137096774193603</v>
+      </c>
+      <c r="D88" s="12">
+        <v>5.12</v>
+      </c>
+      <c r="E88" s="12">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="G88" s="12">
+        <v>3.47</v>
+      </c>
+      <c r="H88" s="12">
+        <v>3.4791073210559702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>92.445106920000001</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1585.9740101</v>
+      </c>
+      <c r="C89" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D89" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="E89" s="12">
+        <v>7.88</v>
+      </c>
+      <c r="F89" s="8">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="G89" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="H89" s="12">
+        <v>3.2061265838096098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>94.995940956666601</v>
+      </c>
+      <c r="B90" s="8">
+        <v>1621.2642272999999</v>
+      </c>
+      <c r="C90" s="8">
+        <v>5.03125</v>
+      </c>
+      <c r="D90" s="12">
+        <v>5.04</v>
+      </c>
+      <c r="E90" s="12">
+        <v>7.76</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G90" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="H90" s="12">
+        <v>2.6911291541927498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>94.876382969999995</v>
+      </c>
+      <c r="B91" s="8">
+        <v>1581.0362381</v>
+      </c>
+      <c r="C91" s="8">
+        <v>5</v>
+      </c>
+      <c r="D91" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="E91" s="12">
+        <v>7.72</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G91" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="H91" s="12">
+        <v>3.4661646859596602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>93.339966476666703</v>
+      </c>
+      <c r="B92" s="8">
+        <v>1559.6384038000001</v>
+      </c>
+      <c r="C92" s="8">
+        <v>5.38559322033898</v>
+      </c>
+      <c r="D92" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="E92" s="12">
+        <v>7.88</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G92" s="12">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H92" s="12">
+        <v>3.4981992198131202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>92.178127943333294</v>
+      </c>
+      <c r="B93" s="8">
+        <v>1507.6709980000001</v>
+      </c>
+      <c r="C93" s="8">
+        <v>5.7903225806451601</v>
+      </c>
+      <c r="D93" s="12">
+        <v>6.08</v>
+      </c>
+      <c r="E93" s="12">
+        <v>10</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="G93" s="12">
+        <v>7.23</v>
+      </c>
+      <c r="H93" s="12">
+        <v>3.2602739726027399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>87.476784416666703</v>
+      </c>
+      <c r="B94" s="8">
+        <v>1391.0555065000001</v>
+      </c>
+      <c r="C94" s="8">
+        <v>6.2222222222222197</v>
+      </c>
+      <c r="D94" s="12">
+        <v>6.36</v>
+      </c>
+      <c r="E94" s="12">
+        <v>10.68</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G94" s="12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H94" s="12">
+        <v>3.5362424022498402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>91.8312890866667</v>
+      </c>
+      <c r="B95" s="8">
+        <v>1410.1460173999999</v>
+      </c>
+      <c r="C95" s="8">
+        <v>6.3611111111111098</v>
+      </c>
+      <c r="D95" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="E95" s="12">
+        <v>11.04</v>
+      </c>
+      <c r="F95" s="8">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="G95" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="H95" s="12">
+        <v>3.8296108137530598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>98.766081549999996</v>
+      </c>
+      <c r="B96" s="8">
+        <v>1549.1133636</v>
+      </c>
+      <c r="C96" s="8">
+        <v>7.5564516129032304</v>
+      </c>
+      <c r="D96" s="12">
+        <v>7.56</v>
+      </c>
+      <c r="E96" s="12">
+        <v>11.56</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="G96" s="12">
+        <v>9.33</v>
+      </c>
+      <c r="H96" s="12">
+        <v>3.4835646678157799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>106.82739523333299</v>
+      </c>
+      <c r="B97" s="8">
+        <v>1919.2165454999999</v>
+      </c>
+      <c r="C97" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="D97" s="12">
+        <v>8.44</v>
+      </c>
+      <c r="E97" s="12">
+        <v>16.68</v>
+      </c>
+      <c r="F97" s="8">
+        <v>-0.133333333333333</v>
+      </c>
+      <c r="G97" s="12">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H97" s="12">
+        <v>1.77124799661314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>98.691259856065997</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1821.9369826</v>
+      </c>
+      <c r="C98" s="8">
+        <v>5.5039682539682504</v>
+      </c>
+      <c r="D98" s="12">
+        <v>5.04</v>
+      </c>
+      <c r="E98" s="12">
+        <v>12.36</v>
+      </c>
+      <c r="F98" s="8">
+        <v>-0.266666666666667</v>
+      </c>
+      <c r="G98" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="H98" s="12">
+        <v>1.5551059905047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>95.405262533672001</v>
+      </c>
+      <c r="B99" s="8">
+        <v>1701.9736089999999</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1.4385245901639301</v>
+      </c>
+      <c r="D99" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="E99" s="12">
+        <v>7.48</v>
+      </c>
+      <c r="F99" s="8">
+        <v>-6.6666666666666693E-2</v>
+      </c>
+      <c r="G99" s="12">
+        <v>3.13</v>
+      </c>
+      <c r="H99" s="12">
+        <v>2.1151425806646702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>95.620053829100698</v>
+      </c>
+      <c r="B100" s="8">
+        <v>1636.3756926000001</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0.52734375</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="E100" s="12">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F100" s="8">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G100" s="12">
+        <v>-0.6</v>
+      </c>
+      <c r="H100" s="12">
+        <v>2.6576657897124201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>93.229804839139703</v>
+      </c>
+      <c r="B101" s="8">
+        <v>1555.0642857</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="E101" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="F101" s="8">
+        <v>-0.266666666666667</v>
+      </c>
+      <c r="G101" s="12">
+        <v>-1.87</v>
+      </c>
+      <c r="H101" s="12">
+        <v>3.0157080649550898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>92.442857770408295</v>
+      </c>
+      <c r="B102" s="8">
+        <v>1556.3821086999999</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E102" s="12">
+        <v>4</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G102" s="12">
+        <v>-0.23</v>
+      </c>
+      <c r="H102" s="12">
+        <v>3.28060419123651</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>93.400383127469695</v>
+      </c>
+      <c r="B103" s="8">
+        <v>1590.4988808999999</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="E103" s="12">
+        <v>3.72</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H103" s="12">
+        <v>3.1875850494420801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>91.116655104198998</v>
+      </c>
+      <c r="B104" s="8">
+        <v>1534.9785194999999</v>
+      </c>
+      <c r="C104" s="8">
+        <v>1.7380952380952399</v>
+      </c>
+      <c r="D104" s="12">
+        <v>2.44</v>
+      </c>
+      <c r="E104" s="12">
+        <v>4.92</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G104" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="H104" s="12">
+        <v>3.2853276482506302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>88.462575039108302</v>
+      </c>
+      <c r="B105" s="8">
+        <v>1441.1362618999999</v>
+      </c>
+      <c r="C105" s="8">
+        <v>2.87903225806452</v>
+      </c>
+      <c r="D105" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="E105" s="12">
+        <v>5.96</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H105" s="12">
+        <v>3.91749826121141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>90.940553139494199</v>
+      </c>
+      <c r="B106" s="8">
+        <v>1444.7841263</v>
+      </c>
+      <c r="C106" s="8">
+        <v>3.4453125</v>
+      </c>
+      <c r="D106" s="12">
+        <v>3.92</v>
+      </c>
+      <c r="E106" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="F106" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G106" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="H106" s="12">
+        <v>4.3778085215760996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>90.9424146352316</v>
+      </c>
+      <c r="B107" s="8">
+        <v>1408.4605412000001</v>
+      </c>
+      <c r="C107" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="D107" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="E107" s="12">
+        <v>8.08</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G107" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="H107" s="12">
+        <v>4.1512791436088197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>91.136503424909606</v>
+      </c>
+      <c r="B108" s="8">
+        <v>1413.4214069</v>
+      </c>
+      <c r="C108" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D108" s="12">
+        <v>5.64</v>
+      </c>
+      <c r="E108" s="12">
+        <v>9.52</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="G108" s="12">
+        <v>3.13</v>
+      </c>
+      <c r="H108" s="12">
+        <v>4.0786507000513996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>95.324461766536103</v>
+      </c>
+      <c r="B109" s="8">
+        <v>1537.3537343</v>
+      </c>
+      <c r="C109" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D109" s="12">
+        <v>5.84</v>
+      </c>
+      <c r="E109" s="12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="G109" s="12">
+        <v>4</v>
+      </c>
+      <c r="H109" s="12">
+        <v>3.3969608999365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>91.243175022917399</v>
+      </c>
+      <c r="B110" s="8">
+        <v>1468.2235714000001</v>
+      </c>
+      <c r="C110" s="8">
+        <v>5.0346153846153801</v>
+      </c>
+      <c r="D110" s="12">
+        <v>5.48</v>
+      </c>
+      <c r="E110" s="12">
+        <v>9.68</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G110" s="12">
+        <v>4.13</v>
+      </c>
+      <c r="H110" s="12">
+        <v>3.7683616075478499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>91.239735011557897</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1488.7171903999999</v>
+      </c>
+      <c r="C111" s="8">
+        <v>5</v>
+      </c>
+      <c r="D111" s="12">
+        <v>5.76</v>
+      </c>
+      <c r="E111" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="F111" s="8">
+        <v>-6.6666666666666693E-2</v>
+      </c>
+      <c r="G111" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="H111" s="12">
+        <v>3.5682466963016699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>88.637001040298998</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1447.9003556</v>
+      </c>
+      <c r="C112" s="8">
+        <v>5</v>
+      </c>
+      <c r="D112" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="E112" s="12">
+        <v>9.24</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G112" s="12">
+        <v>2.63</v>
+      </c>
+      <c r="H112" s="12">
+        <v>3.5002903020956202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>87.989769112070405</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1433.0616484</v>
+      </c>
+      <c r="C113" s="8">
+        <v>5</v>
+      </c>
+      <c r="D113" s="12">
+        <v>5.76</v>
+      </c>
+      <c r="E113" s="12">
+        <v>9.16</v>
+      </c>
+      <c r="F113" s="8">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G113" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="H113" s="12">
+        <v>3.58739302670174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>87.293416532454501</v>
+      </c>
+      <c r="B114" s="8">
+        <v>1417.4971364</v>
+      </c>
+      <c r="C114" s="8">
+        <v>5</v>
+      </c>
+      <c r="D114" s="12">
+        <v>5.36</v>
+      </c>
+      <c r="E114" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G114" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="H114" s="12">
+        <v>3.5959130908101198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>88.633912026344802</v>
+      </c>
+      <c r="B115" s="8">
+        <v>1454.6061298</v>
+      </c>
+      <c r="C115" s="8">
+        <v>5</v>
+      </c>
+      <c r="D115" s="12">
+        <v>4.92</v>
+      </c>
+      <c r="E115" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F115" s="8">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G115" s="12">
+        <v>1.27</v>
+      </c>
+      <c r="H115" s="12">
+        <v>3.241189633796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>91.425537261750705</v>
+      </c>
+      <c r="B116" s="8">
+        <v>1522.1208441000001</v>
+      </c>
+      <c r="C116" s="8">
+        <v>5</v>
+      </c>
+      <c r="D116" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="E116" s="12">
+        <v>8.84</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G116" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="H116" s="12">
+        <v>3.2109634400798299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>92.716514007735995</v>
+      </c>
+      <c r="B117" s="8">
+        <v>1549.5068636000001</v>
+      </c>
+      <c r="C117" s="8">
+        <v>4.6895161290322598</v>
+      </c>
+      <c r="D117" s="12">
+        <v>4.76</v>
+      </c>
+      <c r="E117" s="12">
+        <v>8.48</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="G117" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H117" s="12">
+        <v>3.2444419244609701</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>97.564550036871196</v>
+      </c>
+      <c r="B118" s="8">
+        <v>1655.2813788000001</v>
+      </c>
+      <c r="C118" s="8">
+        <v>4.3373015873015897</v>
+      </c>
+      <c r="D118" s="12">
+        <v>4.24</v>
+      </c>
+      <c r="E118" s="12">
+        <v>8.36</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G118" s="12">
+        <v>3.17</v>
+      </c>
+      <c r="H118" s="12">
+        <v>3.1925474008890502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>97.396988490407693</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1663.1062856999999</v>
+      </c>
+      <c r="C119" s="8">
+        <v>4</v>
+      </c>
+      <c r="D119" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="E119" s="12">
+        <v>8.16</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G119" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="H119" s="12">
+        <v>3.0785327648250602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>99.806644660461203</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1730.7301818000001</v>
+      </c>
+      <c r="C120" s="8">
+        <v>3.62903225806452</v>
+      </c>
+      <c r="D120" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="E120" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G120" s="12">
+        <v>4.63</v>
+      </c>
+      <c r="H120" s="12">
+        <v>3.17174392935982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>97.760128064954799</v>
+      </c>
+      <c r="B121" s="8">
+        <v>1795.36</v>
+      </c>
+      <c r="C121" s="8">
+        <v>3.04838709677419</v>
+      </c>
+      <c r="D121" s="12">
+        <v>3.52</v>
+      </c>
+      <c r="E121" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G121" s="12">
+        <v>5.27</v>
+      </c>
+      <c r="H121" s="12">
+        <v>3.0033082342979802</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>96.930350858019906</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1873.0274999999999</v>
+      </c>
+      <c r="C122" s="8">
+        <v>3</v>
+      </c>
+      <c r="D122" s="12">
+        <v>3.32</v>
+      </c>
+      <c r="E122" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="G122" s="12">
+        <v>4.37</v>
+      </c>
+      <c r="H122" s="12">
+        <v>2.6374761861562201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>94.017065387270094</v>
+      </c>
+      <c r="B123" s="8">
+        <v>1852.32</v>
+      </c>
+      <c r="C123" s="8">
+        <v>3</v>
+      </c>
+      <c r="D123" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="E123" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G123" s="12">
+        <v>4.17</v>
+      </c>
+      <c r="H123" s="12">
+        <v>2.7461822250446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>98.990509553600901</v>
+      </c>
+      <c r="B124" s="8">
+        <v>2029.99</v>
+      </c>
+      <c r="C124" s="8">
+        <v>3</v>
+      </c>
+      <c r="D124" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="E124" s="12">
+        <v>5.36</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="G124" s="12">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H124" s="12">
+        <v>2.38197859022045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>98.869882264380394</v>
+      </c>
+      <c r="B125" s="8">
+        <v>2093.5523809523802</v>
+      </c>
+      <c r="C125" s="8">
+        <v>3.2419354838709702</v>
+      </c>
+      <c r="D125" s="12">
+        <v>3.84</v>
+      </c>
+      <c r="E125" s="12">
+        <v>5.72</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G125" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H125" s="12">
+        <v>2.2165547794006502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>96.5433741083868</v>
+      </c>
+      <c r="B126" s="8">
+        <v>2108.1</v>
+      </c>
+      <c r="C126" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D126" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="E126" s="12">
+        <v>5.64</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G126" s="12">
+        <v>4.67</v>
+      </c>
+      <c r="H126" s="12">
+        <v>2.1176600441501101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>95.576521951996497</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2032.87</v>
+      </c>
+      <c r="C127" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D127" s="12">
+        <v>3.72</v>
+      </c>
+      <c r="E127" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G127" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="H127" s="12">
+        <v>2.1455305573195398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>93.297388907374994</v>
+      </c>
+      <c r="B128" s="8">
+        <v>1985.09</v>
+      </c>
+      <c r="C128" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D128" s="12">
+        <v>3.72</v>
+      </c>
+      <c r="E128" s="12">
+        <v>5.52</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G128" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H128" s="12">
+        <v>2.1653466993256498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <v>92.055555067855096</v>
+      </c>
+      <c r="B129" s="8">
+        <v>1997.21</v>
+      </c>
+      <c r="C129" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D129" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="E129" s="12">
+        <v>5.24</v>
+      </c>
+      <c r="F129" s="8">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G129" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="H129" s="12">
+        <v>2.39524025522392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>91.389197208910005</v>
+      </c>
+      <c r="B130" s="8">
+        <v>1965.6</v>
+      </c>
+      <c r="C130" s="8">
+        <v>3.2578125</v>
+      </c>
+      <c r="D130" s="12">
+        <v>3.36</v>
+      </c>
+      <c r="E130" s="12">
+        <v>4.88</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="G130" s="12">
+        <v>2.73</v>
+      </c>
+      <c r="H130" s="12">
+        <v>2.6460582418579301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>93.327247294415699</v>
+      </c>
+      <c r="B131" s="8">
+        <v>1992.43</v>
+      </c>
+      <c r="C131" s="8">
+        <v>2.6639344262295102</v>
+      </c>
+      <c r="D131" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="E131" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F131" s="8">
+        <v>-3.3333333333333298E-2</v>
+      </c>
+      <c r="G131" s="12">
+        <v>2.33</v>
+      </c>
+      <c r="H131" s="12">
+        <v>2.5686670295442799</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <v>92.0674882907918</v>
+      </c>
+      <c r="B132" s="8">
+        <v>1927.95</v>
+      </c>
+      <c r="C132" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D132" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="E132" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="F132" s="8">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G132" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H132" s="12">
+        <v>2.87882457891076</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>90.937886275095494</v>
+      </c>
+      <c r="B133" s="8">
+        <v>1900.24</v>
+      </c>
+      <c r="C133" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D133" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="E133" s="12">
+        <v>4.12</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="G133" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H133" s="12">
+        <v>3.08810668602014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>88.525552552165294</v>
+      </c>
+      <c r="B134" s="8">
+        <v>1805.82</v>
+      </c>
+      <c r="C134" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D134" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="E134" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G134" s="12">
+        <v>2</v>
+      </c>
+      <c r="H134" s="12">
+        <v>3.1567117239710898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>89.714648042540006</v>
+      </c>
+      <c r="B135" s="8">
+        <v>1862.82</v>
+      </c>
+      <c r="C135" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D135" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="E135" s="12">
+        <v>4</v>
+      </c>
+      <c r="F135" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G135" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="H135" s="12">
+        <v>3.1169826725936698</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>92.021779681124698</v>
+      </c>
+      <c r="B136" s="8">
+        <v>1989.57</v>
+      </c>
+      <c r="C136" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D136" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="E136" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G136" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="H136" s="12">
+        <v>2.7681438809761398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>92.744165518944499</v>
+      </c>
+      <c r="B137" s="8">
+        <v>2036.44</v>
+      </c>
+      <c r="C137" s="8">
+        <v>2.69758064516129</v>
+      </c>
+      <c r="D137" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E137" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="F137" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G137" s="12">
+        <v>2.77</v>
+      </c>
+      <c r="H137" s="12">
+        <v>2.7976503674135902</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>92.062650497454996</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2001.04</v>
+      </c>
+      <c r="C138" s="8">
+        <v>2.9166666666666701</v>
+      </c>
+      <c r="D138" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="E138" s="12">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G138" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="H138" s="12">
+        <v>2.82156097855998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>93.176343388511199</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2051.81</v>
+      </c>
+      <c r="C139" s="8">
+        <v>2.87903225806452</v>
+      </c>
+      <c r="D139" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="E139" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="F139" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G139" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H139" s="12">
+        <v>2.7732680153618201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>94.556751192599904</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2118.1999999999998</v>
+      </c>
+      <c r="C140" s="8">
+        <v>2.3688524590163902</v>
+      </c>
+      <c r="D140" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E140" s="12">
+        <v>3.77</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G140" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H140" s="12">
+        <v>2.629851220176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>100.346819724881</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2267.9504999999999</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1.8174603174603201</v>
+      </c>
+      <c r="D141" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="E141" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G141" s="12">
+        <v>2.73</v>
+      </c>
+      <c r="H141" s="12">
+        <v>2.6709319906861402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>105.230280676703</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2408.4031818181802</v>
+      </c>
+      <c r="C142" s="8">
+        <v>1.62109375</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="E142" s="12">
+        <v>3.22</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G142" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="H142" s="12">
+        <v>2.5574299192597301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>102.78108807464599</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2468.90240601504</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E143" s="12">
+        <v>3.32</v>
+      </c>
+      <c r="F143" s="8">
+        <v>-6.6666666666666693E-2</v>
+      </c>
+      <c r="G143" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="H143" s="12">
+        <v>2.4228824578910801</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>100.848167481313</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2342.79337662338</v>
+      </c>
+      <c r="C144" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="E144" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="G144" s="12">
+        <v>2.67</v>
+      </c>
+      <c r="H144" s="12">
+        <v>2.9578865402643002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>100.865296333157</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2285.8801428571401</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="E145" s="12">
+        <v>2.82</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G145" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="H145" s="12">
+        <v>3.2540203816263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DA79BD2CC1084245B72D282E17C815C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f7d3d97f3cea2cd92d44983fa77646f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01768f6c-8666-4b39-8631-1a60aaf27a96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11d3ce836356862a8a90d6a7dac305c0" ns2:_="">
     <xsd:import namespace="01768f6c-8666-4b39-8631-1a60aaf27a96"/>
@@ -54626,16 +58448,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -54644,7 +58465,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215F1C9B-357A-4293-BA10-E887675FA630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54660,12 +58481,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769545C-9F1F-4D87-BF64-5BC4F38A2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E284B-1082-4C4B-B11C-A6FCC226B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-135" windowWidth="19875" windowHeight="10575" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="330" windowWidth="19875" windowHeight="10575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>Periodo</t>
   </si>
@@ -1467,6 +1467,9 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>ACTUALIZAR</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2108,6 +2111,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20658,7 +20664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -39676,7 +39682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC272FD2-5EC4-4BE4-878F-346441666433}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -47379,10 +47385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47393,8 +47399,8 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
         <v>18</v>
       </c>
@@ -47404,7 +47410,7 @@
       <c r="F2" s="85"/>
       <c r="G2" s="86"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -47423,8 +47429,11 @@
       <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -47446,7 +47455,7 @@
         <v>Sí</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
@@ -47465,7 +47474,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
@@ -47487,7 +47496,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
@@ -47506,7 +47515,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
@@ -47528,7 +47537,7 @@
         <v>Sí</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -47547,7 +47556,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
@@ -47569,7 +47578,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
@@ -47588,7 +47597,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
@@ -47610,7 +47619,7 @@
         <v>Sí</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
@@ -47629,7 +47638,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -47651,7 +47660,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
@@ -47685,7 +47694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF288-FF60-4900-B0A4-CB55DAD23E72}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2263636-AA51-4122-BB91-FFC52F37551A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF8291-4072-405F-B20D-0590AE30F866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-45" windowWidth="14400" windowHeight="8685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Base_graficada_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2159,26 +2160,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2205,6 +2191,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -38535,7 +38536,7 @@
       <c r="L136" s="29">
         <v>27662.195292398701</v>
       </c>
-      <c r="M136" s="102">
+      <c r="M136" s="101">
         <v>4576.1654957104001</v>
       </c>
       <c r="N136" s="63">
@@ -38591,7 +38592,7 @@
       <c r="L137" s="29">
         <v>28495.388223632002</v>
       </c>
-      <c r="M137" s="102">
+      <c r="M137" s="101">
         <v>5058.4090620241996</v>
       </c>
       <c r="N137" s="63">
@@ -38818,7 +38819,7 @@
       <c r="L141" s="56">
         <v>30207.094244189298</v>
       </c>
-      <c r="M141" s="103">
+      <c r="M141" s="102">
         <f t="shared" si="0"/>
         <v>5109.9192736873565</v>
       </c>
@@ -38849,7 +38850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC272FD2-5EC4-4BE4-878F-346441666433}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
@@ -46342,7 +46343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
   <dimension ref="A2:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -46356,14 +46357,14 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
@@ -47204,172 +47205,172 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="107"/>
+      <c r="C45" s="114"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="105"/>
+      <c r="C46" s="116"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="111" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="104" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="112" t="str">
+      <c r="C49" s="107" t="str">
         <f>C48</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="111" t="str">
+      <c r="C50" s="106" t="str">
         <f>C49</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="112" t="str">
-        <f t="shared" ref="C51:C62" si="4">C50</f>
+      <c r="C51" s="107" t="str">
+        <f t="shared" ref="C51" si="4">C50</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="111" t="str">
+      <c r="C52" s="106" t="str">
         <f>C51</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="112" t="str">
-        <f t="shared" ref="C53:C62" si="5">C52</f>
+      <c r="C53" s="107" t="str">
+        <f t="shared" ref="C53" si="5">C52</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="111" t="str">
+      <c r="C54" s="106" t="str">
         <f>C53</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="112" t="str">
-        <f t="shared" ref="C55:C62" si="6">C54</f>
+      <c r="C55" s="107" t="str">
+        <f t="shared" ref="C55" si="6">C54</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="111" t="str">
+      <c r="C56" s="106" t="str">
         <f>C55</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="112" t="str">
-        <f t="shared" ref="C57:C62" si="7">C56</f>
+      <c r="C57" s="107" t="str">
+        <f t="shared" ref="C57" si="7">C56</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="110" t="s">
+      <c r="B58" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="106" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="112" t="str">
+      <c r="C59" s="107" t="str">
         <f>C57</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="111" t="str">
+      <c r="C60" s="106" t="str">
         <f>C59</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="112" t="str">
-        <f t="shared" ref="C61:C62" si="8">C60</f>
+      <c r="C61" s="107" t="str">
+        <f t="shared" ref="C61" si="8">C60</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="111" t="str">
+      <c r="C62" s="106" t="str">
         <f>C61</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="112" t="str">
+      <c r="C63" s="107" t="str">
         <f>C62</f>
         <v>I[1]</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="114" t="str">
+      <c r="C64" s="109" t="str">
         <f>C63</f>
         <v>I[1]</v>
       </c>
@@ -54753,21 +54754,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DA79BD2CC1084245B72D282E17C815C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f7d3d97f3cea2cd92d44983fa77646f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01768f6c-8666-4b39-8631-1a60aaf27a96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11d3ce836356862a8a90d6a7dac305c0" ns2:_="">
     <xsd:import namespace="01768f6c-8666-4b39-8631-1a60aaf27a96"/>
@@ -54931,24 +54917,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215F1C9B-357A-4293-BA10-E887675FA630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54964,4 +54948,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF8291-4072-405F-B20D-0590AE30F866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFA692-3186-4800-83D4-EA2AD2FFC21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-45" windowWidth="14400" windowHeight="8685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="885" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Base_graficada_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1177,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="109">
   <si>
     <t>Periodo</t>
   </si>
@@ -1377,24 +1376,6 @@
     <t>Tasa de Desempleo</t>
   </si>
   <si>
-    <t>PIB Manufacturero</t>
-  </si>
-  <si>
-    <t>PIB de Servicios</t>
-  </si>
-  <si>
-    <t>PIB Minero</t>
-  </si>
-  <si>
-    <t>Valor Añadido de Manufacturas</t>
-  </si>
-  <si>
-    <t>Valor Añadido de Servicios</t>
-  </si>
-  <si>
-    <t>Valor Añadido de Minería</t>
-  </si>
-  <si>
     <t>Tendencia Política del Gobierno</t>
   </si>
   <si>
@@ -1404,10 +1385,124 @@
     <t>I[2]</t>
   </si>
   <si>
-    <t>Test ndiffs (kpps, adf, pp)</t>
+    <t>Pruebas de Raíz Unitaria</t>
   </si>
   <si>
-    <t>Pruebas de Raíz Unitaria</t>
+    <t>Test ndiffs (kpss, adf, pp)</t>
+  </si>
+  <si>
+    <t>I[0]</t>
+  </si>
+  <si>
+    <t>IPC General</t>
+  </si>
+  <si>
+    <t>Tasa de Política Monetaria</t>
+  </si>
+  <si>
+    <t>PIB Industria Manufacturera</t>
+  </si>
+  <si>
+    <t>PIB Servicios Personales</t>
+  </si>
+  <si>
+    <t>PIB Minería</t>
+  </si>
+  <si>
+    <t>Valor Añadido Sector Servicios</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR A1</t>
+  </si>
+  <si>
+    <t>Precio Cobre</t>
+  </si>
+  <si>
+    <t>Dólar Obs</t>
+  </si>
+  <si>
+    <t>PIB Manufacturas</t>
+  </si>
+  <si>
+    <t>PIB Servicios</t>
+  </si>
+  <si>
+    <t>Tasa Desempleo</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR A2</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR A3</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR B1</t>
+  </si>
+  <si>
+    <t>VA Manufacturas</t>
+  </si>
+  <si>
+    <t>VA Servicios</t>
+  </si>
+  <si>
+    <t>VA Minería</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR B2</t>
+  </si>
+  <si>
+    <t>Tipo de cambio real</t>
+  </si>
+  <si>
+    <t>Respuesta de las variables frente a impulso del precio del cobre VAR B3</t>
+  </si>
+  <si>
+    <t>IPC Variación Anual</t>
+  </si>
+  <si>
+    <t>Test de Dickey Fuller</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1515,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1529,8 +1624,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1587,24 +1690,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1885,12 +2006,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2134,7 +2281,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2157,63 +2303,107 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -38536,7 +38726,7 @@
       <c r="L136" s="29">
         <v>27662.195292398701</v>
       </c>
-      <c r="M136" s="101">
+      <c r="M136" s="99">
         <v>4576.1654957104001</v>
       </c>
       <c r="N136" s="63">
@@ -38592,7 +38782,7 @@
       <c r="L137" s="29">
         <v>28495.388223632002</v>
       </c>
-      <c r="M137" s="101">
+      <c r="M137" s="99">
         <v>5058.4090620241996</v>
       </c>
       <c r="N137" s="63">
@@ -38819,7 +39009,7 @@
       <c r="L141" s="56">
         <v>30207.094244189298</v>
       </c>
-      <c r="M141" s="102">
+      <c r="M141" s="100">
         <f t="shared" si="0"/>
         <v>5109.9192736873565</v>
       </c>
@@ -46341,30 +46531,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="A2:G64"/>
+  <dimension ref="A2:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
@@ -46395,7 +46586,7 @@
       <c r="C4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="94">
         <v>7.2379999999999996E-3</v>
       </c>
       <c r="E4" s="71">
@@ -46418,7 +46609,7 @@
       <c r="C5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="94">
         <v>1.6809999999999999E-2</v>
       </c>
       <c r="E5" s="71">
@@ -46438,7 +46629,7 @@
       <c r="C6" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="95">
         <v>3.0609999999999998E-2</v>
       </c>
       <c r="E6" s="84">
@@ -46461,7 +46652,7 @@
       <c r="C7" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="95">
         <v>2.209E-3</v>
       </c>
       <c r="E7" s="84">
@@ -46481,7 +46672,7 @@
       <c r="C8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="94">
         <v>4.879E-2</v>
       </c>
       <c r="E8" s="71">
@@ -46504,7 +46695,7 @@
       <c r="C9" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="94">
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="E9" s="71">
@@ -46524,7 +46715,7 @@
       <c r="C10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="95">
         <v>4.8160000000000001E-2</v>
       </c>
       <c r="E10" s="84">
@@ -46547,7 +46738,7 @@
       <c r="C11" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="95">
         <v>0.23669999999999999</v>
       </c>
       <c r="E11" s="84">
@@ -46567,7 +46758,7 @@
       <c r="C12" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="94">
         <v>0.61370000000000002</v>
       </c>
       <c r="E12" s="71">
@@ -46590,7 +46781,7 @@
       <c r="C13" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="94">
         <v>2.7589999999999998E-4</v>
       </c>
       <c r="E13" s="71">
@@ -46610,7 +46801,7 @@
       <c r="C14" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="95">
         <v>2.035E-2</v>
       </c>
       <c r="E14" s="84">
@@ -46633,7 +46824,7 @@
       <c r="C15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="95">
         <v>0.28920000000000001</v>
       </c>
       <c r="E15" s="84">
@@ -46653,7 +46844,7 @@
       <c r="C16" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <v>2.833E-3</v>
       </c>
       <c r="E16" s="71">
@@ -46676,7 +46867,7 @@
       <c r="C17" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="94">
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="E17" s="71">
@@ -46689,22 +46880,22 @@
       <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="83" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="96">
-        <v>0.1792</v>
+      <c r="D18" s="95">
+        <v>5.4229999999999999E-3</v>
       </c>
       <c r="E18" s="84">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F18" s="84" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
       <c r="G18" s="84" t="str">
         <f t="shared" si="2"/>
@@ -46719,7 +46910,7 @@
       <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="96">
         <v>0.64670000000000005</v>
       </c>
       <c r="E19" s="9">
@@ -46739,7 +46930,7 @@
       <c r="C20" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="94">
         <v>2.9440000000000001E-2</v>
       </c>
       <c r="E20" s="71">
@@ -46762,7 +46953,7 @@
       <c r="C21" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="97">
         <v>0.18709999999999999</v>
       </c>
       <c r="E21" s="88">
@@ -46782,7 +46973,7 @@
       <c r="C22" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="95">
         <v>1.108E-2</v>
       </c>
       <c r="E22" s="84">
@@ -46805,7 +46996,7 @@
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="96">
         <v>0.36409999999999998</v>
       </c>
       <c r="E23" s="76">
@@ -46818,22 +47009,23 @@
       <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="70" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="95">
-        <v>0.1507</v>
-      </c>
-      <c r="E24" s="71">
-        <v>12</v>
+      <c r="D24" s="94">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E24" s="109" t="str">
+        <f>"1:2"</f>
+        <v>1:2</v>
       </c>
       <c r="F24" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
       <c r="G24" s="71" t="str">
         <f t="shared" si="2"/>
@@ -46847,7 +47039,7 @@
       <c r="C25" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="95">
+      <c r="D25" s="94">
         <v>0.1173</v>
       </c>
       <c r="E25" s="71">
@@ -46866,13 +47058,13 @@
       <c r="C26" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="95">
         <v>1.984E-5</v>
       </c>
       <c r="E26" s="9">
         <v>4</v>
       </c>
-      <c r="F26" s="93" t="str">
+      <c r="F26" s="92" t="str">
         <f t="shared" si="3"/>
         <v>Sí</v>
       </c>
@@ -46888,35 +47080,36 @@
       <c r="C27" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="98">
         <v>3.6380000000000001E-11</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="93" t="str">
+      <c r="F27" s="92" t="str">
         <f t="shared" si="3"/>
         <v>Sí</v>
       </c>
       <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="70" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="95">
-        <v>0.25979999999999998</v>
-      </c>
-      <c r="E28" s="71">
-        <v>12</v>
+      <c r="D28" s="94">
+        <v>4.4740000000000002E-2</v>
+      </c>
+      <c r="E28" s="71" t="str">
+        <f>"1:5"</f>
+        <v>1:5</v>
       </c>
       <c r="F28" s="71" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
       <c r="G28" s="71" t="str">
         <f t="shared" si="2"/>
@@ -46930,7 +47123,7 @@
       <c r="C29" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="95">
+      <c r="D29" s="94">
         <v>0.2969</v>
       </c>
       <c r="E29" s="71">
@@ -46943,14 +47136,14 @@
       <c r="G29" s="71"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="96">
+      <c r="D30" s="95">
         <v>0.1573</v>
       </c>
       <c r="E30" s="9">
@@ -46960,7 +47153,7 @@
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="G30" s="94" t="str">
+      <c r="G30" s="93" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
@@ -46972,7 +47165,7 @@
       <c r="C31" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="95">
         <v>0.55979999999999996</v>
       </c>
       <c r="E31" s="9">
@@ -46982,7 +47175,7 @@
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="G31" s="94"/>
+      <c r="G31" s="93"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
@@ -46991,7 +47184,7 @@
       <c r="C32" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="95">
+      <c r="D32" s="94">
         <v>1.9940000000000001E-3</v>
       </c>
       <c r="E32" s="71">
@@ -47013,7 +47206,7 @@
       <c r="C33" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="94">
         <v>5.4120000000000001E-3</v>
       </c>
       <c r="E33" s="71">
@@ -47026,14 +47219,14 @@
       <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="83" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="96">
+      <c r="D34" s="95">
         <v>9.5960000000000004E-2</v>
       </c>
       <c r="E34" s="84">
@@ -47055,7 +47248,7 @@
       <c r="C35" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="95">
         <v>0.62050000000000005</v>
       </c>
       <c r="E35" s="84">
@@ -47068,14 +47261,14 @@
       <c r="G35" s="84"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="70" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="94">
         <v>6.8809999999999996E-2</v>
       </c>
       <c r="E36" s="71">
@@ -47099,7 +47292,7 @@
         <f>B36</f>
         <v>Dólar Observado diff2</v>
       </c>
-      <c r="D37" s="95">
+      <c r="D37" s="94">
         <v>0.93769999999999998</v>
       </c>
       <c r="E37" s="71">
@@ -47112,30 +47305,31 @@
       <c r="G37" s="71"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="90" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="97">
-        <v>0.5151</v>
-      </c>
-      <c r="E38" s="9">
-        <v>12</v>
+      <c r="D38" s="96">
+        <v>4.4729999999999999E-2</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f>"1:4"</f>
+        <v>1:4</v>
       </c>
       <c r="F38" s="76" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
       <c r="G38" s="84" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Sí</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="77" t="str">
         <f>C38</f>
         <v>Valor Añadido Servicios</v>
@@ -47144,7 +47338,7 @@
         <f>B38</f>
         <v>Precio del Cobre</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="96">
         <v>3.7940000000000001E-3</v>
       </c>
       <c r="E39" s="9">
@@ -47163,7 +47357,7 @@
       <c r="C40" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="94">
         <v>1.1039999999999999E-5</v>
       </c>
       <c r="E40" s="71">
@@ -47187,7 +47381,7 @@
         <f>B40</f>
         <v>Precio del Cobre</v>
       </c>
-      <c r="D41" s="95">
+      <c r="D41" s="94">
         <v>5.5250000000000002E-13</v>
       </c>
       <c r="E41" s="71">
@@ -47205,22 +47399,36 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="114"/>
+      <c r="B45" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="E45" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="115"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="116"/>
+      <c r="B46" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="117"/>
+      <c r="E46" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="117"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="102" t="s">
         <v>60</v>
       </c>
     </row>
@@ -47229,158 +47437,3179 @@
         <v>22</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E48" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="107" t="str">
-        <f>C48</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="106" t="str">
-        <f>C49</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="107" t="str">
-        <f t="shared" ref="C51" si="4">C50</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="106" t="str">
-        <f>C51</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="107" t="str">
-        <f t="shared" ref="C53" si="5">C52</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C53" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="106" t="str">
-        <f>C53</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="107" t="str">
-        <f t="shared" ref="C55" si="6">C54</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="106" t="str">
-        <f>C55</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="107" t="str">
-        <f t="shared" ref="C57" si="7">C56</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="105" t="s">
+      <c r="C63" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="106" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="107" t="str">
-        <f>C57</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="106" t="str">
-        <f>C59</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="107" t="str">
-        <f t="shared" ref="C61" si="8">C60</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="105" t="s">
+      <c r="E63" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="106" t="str">
-        <f>C61</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="107" t="str">
-        <f>C62</f>
-        <v>I[1]</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="108" t="s">
+      <c r="E64" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="109" t="str">
-        <f>C63</f>
-        <v>I[1]</v>
-      </c>
+      <c r="F64" s="108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="119">
+        <v>0.183094865</v>
+      </c>
+      <c r="D71" s="119">
+        <v>-9.4585353600000008</v>
+      </c>
+      <c r="E71" s="119">
+        <v>-1.7715529999999999E-3</v>
+      </c>
+      <c r="F71" s="119">
+        <v>-2.5187409000000001E-2</v>
+      </c>
+      <c r="G71" s="119">
+        <v>8.1534916000000006</v>
+      </c>
+      <c r="H71" s="119">
+        <v>-61.098790000000001</v>
+      </c>
+      <c r="I71" s="119">
+        <v>82.806051999999994</v>
+      </c>
+      <c r="J71" s="119">
+        <v>1.8431599999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="119">
+        <v>4.9200391000000003E-2</v>
+      </c>
+      <c r="D72" s="119">
+        <v>-0.75292236000000001</v>
+      </c>
+      <c r="E72" s="119">
+        <v>3.4889245999999999E-2</v>
+      </c>
+      <c r="F72" s="119">
+        <v>9.1192741999999993E-2</v>
+      </c>
+      <c r="G72" s="119">
+        <v>-5.1831975000000003</v>
+      </c>
+      <c r="H72" s="119">
+        <v>61.954203999999997</v>
+      </c>
+      <c r="I72" s="119">
+        <v>65.513285999999994</v>
+      </c>
+      <c r="J72" s="119">
+        <v>-3.165167E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="119">
+        <v>-2.7846111999999999E-2</v>
+      </c>
+      <c r="D73" s="119">
+        <v>0.78359078999999998</v>
+      </c>
+      <c r="E73" s="119">
+        <v>-4.0056231999999997E-2</v>
+      </c>
+      <c r="F73" s="119">
+        <v>0.188084262</v>
+      </c>
+      <c r="G73" s="119">
+        <v>14.3039904</v>
+      </c>
+      <c r="H73" s="119">
+        <v>178.45226199999999</v>
+      </c>
+      <c r="I73" s="119">
+        <v>-44.926276999999999</v>
+      </c>
+      <c r="J73" s="119">
+        <v>-0.15295211</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="119">
+        <v>-5.2465406999999999E-2</v>
+      </c>
+      <c r="D74" s="119">
+        <v>2.1382928300000001</v>
+      </c>
+      <c r="E74" s="119">
+        <v>8.2315740000000002E-3</v>
+      </c>
+      <c r="F74" s="119">
+        <v>4.6404464999999999E-2</v>
+      </c>
+      <c r="G74" s="119">
+        <v>17.911874999999998</v>
+      </c>
+      <c r="H74" s="119">
+        <v>-5.0295719999999999</v>
+      </c>
+      <c r="I74" s="119">
+        <v>-77.197045000000003</v>
+      </c>
+      <c r="J74" s="119">
+        <v>-7.6865550000000005E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="119">
+        <v>-1.3732523E-2</v>
+      </c>
+      <c r="D75" s="119">
+        <v>5.5491749999999999E-2</v>
+      </c>
+      <c r="E75" s="119">
+        <v>5.3312760000000002E-3</v>
+      </c>
+      <c r="F75" s="119">
+        <v>-2.3639932999999998E-2</v>
+      </c>
+      <c r="G75" s="119">
+        <v>-9.5088600999999997</v>
+      </c>
+      <c r="H75" s="119">
+        <v>-97.648398999999998</v>
+      </c>
+      <c r="I75" s="119">
+        <v>-12.700434</v>
+      </c>
+      <c r="J75" s="119">
+        <v>0.11538415</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="119">
+        <v>-6.4206940000000002E-3</v>
+      </c>
+      <c r="D76" s="119">
+        <v>1.32944833</v>
+      </c>
+      <c r="E76" s="119">
+        <v>-4.738384E-3</v>
+      </c>
+      <c r="F76" s="119">
+        <v>-1.8459150000000001E-3</v>
+      </c>
+      <c r="G76" s="119">
+        <v>-11.112252</v>
+      </c>
+      <c r="H76" s="119">
+        <v>-6.5166120000000003</v>
+      </c>
+      <c r="I76" s="119">
+        <v>38.322344999999999</v>
+      </c>
+      <c r="J76" s="119">
+        <v>8.4923209999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="119">
+        <v>5.8033579999999998E-3</v>
+      </c>
+      <c r="D77" s="119">
+        <v>-0.39875811</v>
+      </c>
+      <c r="E77" s="119">
+        <v>-1.7761480999999999E-2</v>
+      </c>
+      <c r="F77" s="119">
+        <v>3.8290540000000001E-3</v>
+      </c>
+      <c r="G77" s="119">
+        <v>-4.1783650000000003</v>
+      </c>
+      <c r="H77" s="119">
+        <v>72.497091999999995</v>
+      </c>
+      <c r="I77" s="119">
+        <v>4.7031660000000004</v>
+      </c>
+      <c r="J77" s="119">
+        <v>-7.5467270000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="119">
+        <v>1.0980213000000001E-2</v>
+      </c>
+      <c r="D78" s="119">
+        <v>-1.2956440899999999</v>
+      </c>
+      <c r="E78" s="119">
+        <v>4.3356940000000002E-3</v>
+      </c>
+      <c r="F78" s="119">
+        <v>-4.6808865999999998E-2</v>
+      </c>
+      <c r="G78" s="119">
+        <v>7.2005369000000004</v>
+      </c>
+      <c r="H78" s="119">
+        <v>-29.194655999999998</v>
+      </c>
+      <c r="I78" s="119">
+        <v>-26.401895</v>
+      </c>
+      <c r="J78" s="119">
+        <v>-3.7029300000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="119">
+        <v>6.0554399999999996E-3</v>
+      </c>
+      <c r="D79" s="119">
+        <v>-0.37531913</v>
+      </c>
+      <c r="E79" s="119">
+        <v>1.9262238000000001E-2</v>
+      </c>
+      <c r="F79" s="119">
+        <v>-2.8418736E-2</v>
+      </c>
+      <c r="G79" s="119">
+        <v>-2.0166792999999998</v>
+      </c>
+      <c r="H79" s="119">
+        <v>-70.851264999999998</v>
+      </c>
+      <c r="I79" s="119">
+        <v>-8.292662</v>
+      </c>
+      <c r="J79" s="119">
+        <v>0.11168538</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="119">
+        <v>-1.2066458E-2</v>
+      </c>
+      <c r="D80" s="119">
+        <v>1.42822513</v>
+      </c>
+      <c r="E80" s="119">
+        <v>-7.3088459999999999E-3</v>
+      </c>
+      <c r="F80" s="119">
+        <v>2.5151776000000001E-2</v>
+      </c>
+      <c r="G80" s="119">
+        <v>-0.89953709999999998</v>
+      </c>
+      <c r="H80" s="119">
+        <v>27.170963</v>
+      </c>
+      <c r="I80" s="119">
+        <v>24.685689</v>
+      </c>
+      <c r="J80" s="119">
+        <v>4.4723739999999998E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="119">
+        <v>-4.1681790000000002E-3</v>
+      </c>
+      <c r="D81" s="119">
+        <v>1.9035E-2</v>
+      </c>
+      <c r="E81" s="119">
+        <v>-1.5948575999999999E-2</v>
+      </c>
+      <c r="F81" s="119">
+        <v>1.4933701000000001E-2</v>
+      </c>
+      <c r="G81" s="119">
+        <v>-1.0725484000000001</v>
+      </c>
+      <c r="H81" s="119">
+        <v>69.068355999999994</v>
+      </c>
+      <c r="I81" s="119">
+        <v>6.529293</v>
+      </c>
+      <c r="J81" s="119">
+        <v>-0.10128363999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="119">
+        <v>8.7317880000000007E-3</v>
+      </c>
+      <c r="D82" s="119">
+        <v>-1.1091140100000001</v>
+      </c>
+      <c r="E82" s="119">
+        <v>6.1905689999999999E-3</v>
+      </c>
+      <c r="F82" s="119">
+        <v>-3.5512126999999998E-2</v>
+      </c>
+      <c r="G82" s="119">
+        <v>4.9603025000000001</v>
+      </c>
+      <c r="H82" s="119">
+        <v>-14.391389999999999</v>
+      </c>
+      <c r="I82" s="119">
+        <v>-17.417221000000001</v>
+      </c>
+      <c r="J82" s="119">
+        <v>-3.5861240000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="119">
+        <v>5.6562629999999999E-3</v>
+      </c>
+      <c r="D83" s="119">
+        <v>-7.5933589999999995E-2</v>
+      </c>
+      <c r="E83" s="119">
+        <v>1.7259765999999999E-2</v>
+      </c>
+      <c r="F83" s="119">
+        <v>-1.5415976E-2</v>
+      </c>
+      <c r="G83" s="119">
+        <v>-1.2905738</v>
+      </c>
+      <c r="H83" s="119">
+        <v>-62.533324999999998</v>
+      </c>
+      <c r="I83" s="119">
+        <v>-8.9894210000000001</v>
+      </c>
+      <c r="J83" s="119">
+        <v>9.4858499999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="119"/>
+      <c r="C84" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="124">
+        <f>COUNTIF(D71:D83,"&lt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="E84" s="125">
+        <f>COUNTIF(E71:E83,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="F84" s="124">
+        <f t="shared" ref="F84:J84" si="4">COUNTIF(F71:F83,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="G84" s="126">
+        <f>COUNTIF(G71:G83,"&lt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="H84" s="127">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I84" s="127">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J84" s="126">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="119"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
+      <c r="J87" s="119"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="J88" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="12">
+        <v>0.185855664</v>
+      </c>
+      <c r="D89" s="119">
+        <v>-0.68271410629999996</v>
+      </c>
+      <c r="E89" s="12">
+        <v>1.6427395E-3</v>
+      </c>
+      <c r="F89" s="119">
+        <v>-2.1389249999999999E-2</v>
+      </c>
+      <c r="G89" s="12">
+        <v>6.9132978999999999</v>
+      </c>
+      <c r="H89" s="12">
+        <v>-40.837639600000003</v>
+      </c>
+      <c r="I89" s="119">
+        <v>90.250386000000006</v>
+      </c>
+      <c r="J89" s="12">
+        <v>6.3927309999999996E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="119">
+        <v>5.4025763999999997E-2</v>
+      </c>
+      <c r="D90" s="119">
+        <v>0.2893988797</v>
+      </c>
+      <c r="E90" s="119">
+        <v>4.3902640999999999E-2</v>
+      </c>
+      <c r="F90" s="119">
+        <v>0.10758876000000001</v>
+      </c>
+      <c r="G90" s="119">
+        <v>-5.1224069999999999</v>
+      </c>
+      <c r="H90" s="119">
+        <v>69.297705100000002</v>
+      </c>
+      <c r="I90" s="119">
+        <v>71.286612000000005</v>
+      </c>
+      <c r="J90" s="119">
+        <v>-4.0122627000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="119">
+        <v>-2.294059E-2</v>
+      </c>
+      <c r="D91" s="119">
+        <v>0.3464815309</v>
+      </c>
+      <c r="E91" s="119">
+        <v>-3.0491876099999999E-2</v>
+      </c>
+      <c r="F91" s="119">
+        <v>0.19198355</v>
+      </c>
+      <c r="G91" s="119">
+        <v>15.7457607</v>
+      </c>
+      <c r="H91" s="119">
+        <v>172.56326670000001</v>
+      </c>
+      <c r="I91" s="119">
+        <v>-45.950358000000001</v>
+      </c>
+      <c r="J91" s="119">
+        <v>-0.14807862099999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="119">
+        <v>-5.6882408000000002E-2</v>
+      </c>
+      <c r="D92" s="119">
+        <v>0.23065222299999999</v>
+      </c>
+      <c r="E92" s="119">
+        <v>-6.1384980000000003E-4</v>
+      </c>
+      <c r="F92" s="119">
+        <v>5.7514469999999998E-2</v>
+      </c>
+      <c r="G92" s="119">
+        <v>16.579116200000001</v>
+      </c>
+      <c r="H92" s="119">
+        <v>-22.335055199999999</v>
+      </c>
+      <c r="I92" s="119">
+        <v>-79.987376999999995</v>
+      </c>
+      <c r="J92" s="119">
+        <v>-6.6296042999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="119">
+        <v>-1.7446128000000002E-2</v>
+      </c>
+      <c r="D93" s="119">
+        <v>-3.5078246799999997E-2</v>
+      </c>
+      <c r="E93" s="119">
+        <v>-2.2031612E-3</v>
+      </c>
+      <c r="F93" s="119">
+        <v>-2.7240219999999999E-2</v>
+      </c>
+      <c r="G93" s="119">
+        <v>-10.6787622</v>
+      </c>
+      <c r="H93" s="119">
+        <v>-95.562254300000006</v>
+      </c>
+      <c r="I93" s="119">
+        <v>-12.423749000000001</v>
+      </c>
+      <c r="J93" s="119">
+        <v>0.12646961400000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="119">
+        <v>-5.1458459999999999E-3</v>
+      </c>
+      <c r="D94" s="119">
+        <v>0.20737075199999999</v>
+      </c>
+      <c r="E94" s="119">
+        <v>-2.0650851E-3</v>
+      </c>
+      <c r="F94" s="119">
+        <v>-1.7012039999999999E-2</v>
+      </c>
+      <c r="G94" s="119">
+        <v>-11.8398442</v>
+      </c>
+      <c r="H94" s="119">
+        <v>0.54719249999999997</v>
+      </c>
+      <c r="I94" s="119">
+        <v>34.325068000000002</v>
+      </c>
+      <c r="J94" s="119">
+        <v>9.7718343999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="119">
+        <v>6.6687059999999999E-3</v>
+      </c>
+      <c r="D95" s="119">
+        <v>2.8308519999999999E-4</v>
+      </c>
+      <c r="E95" s="119">
+        <v>-1.42298392E-2</v>
+      </c>
+      <c r="F95" s="119">
+        <v>-1.556216E-2</v>
+      </c>
+      <c r="G95" s="119">
+        <v>-1.3668465999999999</v>
+      </c>
+      <c r="H95" s="119">
+        <v>70.866239100000001</v>
+      </c>
+      <c r="I95" s="119">
+        <v>-0.55893700000000002</v>
+      </c>
+      <c r="J95" s="119">
+        <v>-6.9620647999999993E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="119">
+        <v>6.8027019999999999E-3</v>
+      </c>
+      <c r="D96" s="119">
+        <v>-0.19583885649999999</v>
+      </c>
+      <c r="E96" s="119">
+        <v>2.8515419999999999E-4</v>
+      </c>
+      <c r="F96" s="119">
+        <v>-5.1238319999999997E-2</v>
+      </c>
+      <c r="G96" s="119">
+        <v>6.8914660000000003</v>
+      </c>
+      <c r="H96" s="119">
+        <v>-29.329101999999999</v>
+      </c>
+      <c r="I96" s="119">
+        <v>-28.341581000000001</v>
+      </c>
+      <c r="J96" s="119">
+        <v>-3.8390906000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="119">
+        <v>2.4972660000000002E-3</v>
+      </c>
+      <c r="D97" s="119">
+        <v>-5.9789995999999998E-3</v>
+      </c>
+      <c r="E97" s="119">
+        <v>1.6534240400000001E-2</v>
+      </c>
+      <c r="F97" s="119">
+        <v>-3.414147E-2</v>
+      </c>
+      <c r="G97" s="119">
+        <v>-2.2301956999999999</v>
+      </c>
+      <c r="H97" s="119">
+        <v>-62.6391724</v>
+      </c>
+      <c r="I97" s="119">
+        <v>-6.0427419999999996</v>
+      </c>
+      <c r="J97" s="119">
+        <v>0.108873505</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="119">
+        <v>-1.1619668999999999E-2</v>
+      </c>
+      <c r="D98" s="119">
+        <v>0.2174936395</v>
+      </c>
+      <c r="E98" s="119">
+        <v>-4.9364530000000004E-3</v>
+      </c>
+      <c r="F98" s="119">
+        <v>1.7922319999999999E-2</v>
+      </c>
+      <c r="G98" s="119">
+        <v>-0.89954999999999996</v>
+      </c>
+      <c r="H98" s="119">
+        <v>30.644883700000001</v>
+      </c>
+      <c r="I98" s="119">
+        <v>23.291003</v>
+      </c>
+      <c r="J98" s="119">
+        <v>4.5289998999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="119">
+        <v>-4.3639610000000004E-3</v>
+      </c>
+      <c r="D99" s="119">
+        <v>-4.6406797499999999E-2</v>
+      </c>
+      <c r="E99" s="119">
+        <v>-1.50073286E-2</v>
+      </c>
+      <c r="F99" s="119">
+        <v>1.3385869999999999E-2</v>
+      </c>
+      <c r="G99" s="119">
+        <v>0.30079650000000002</v>
+      </c>
+      <c r="H99" s="119">
+        <v>61.143445100000001</v>
+      </c>
+      <c r="I99" s="119">
+        <v>3.428372</v>
+      </c>
+      <c r="J99" s="119">
+        <v>-9.8932708999999994E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="119">
+        <v>7.8137580000000005E-3</v>
+      </c>
+      <c r="D100" s="119">
+        <v>-0.1947898327</v>
+      </c>
+      <c r="E100" s="119">
+        <v>5.6655927999999999E-3</v>
+      </c>
+      <c r="F100" s="119">
+        <v>-2.9356239999999999E-2</v>
+      </c>
+      <c r="G100" s="119">
+        <v>3.5247543000000001</v>
+      </c>
+      <c r="H100" s="119">
+        <v>-16.799789799999999</v>
+      </c>
+      <c r="I100" s="119">
+        <v>-17.261275999999999</v>
+      </c>
+      <c r="J100" s="119">
+        <v>-3.5062074999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="119">
+        <v>5.9585000000000003E-3</v>
+      </c>
+      <c r="D101" s="119">
+        <v>4.8949144299999997E-2</v>
+      </c>
+      <c r="E101" s="119">
+        <v>1.76265899E-2</v>
+      </c>
+      <c r="F101" s="119">
+        <v>-1.286786E-2</v>
+      </c>
+      <c r="G101" s="119">
+        <v>-1.7840962</v>
+      </c>
+      <c r="H101" s="119">
+        <v>-55.076634900000002</v>
+      </c>
+      <c r="I101" s="119">
+        <v>-5.5678349999999996</v>
+      </c>
+      <c r="J101" s="119">
+        <v>9.0097298000000006E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="118"/>
+      <c r="C102" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="124">
+        <f>COUNTIF(D89:D101,"&lt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="E102" s="125">
+        <f t="shared" ref="E102:F102" si="5">COUNTIF(E89:E101,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="F102" s="124">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="126">
+        <f>COUNTIF(G89:G101,"&lt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="H102" s="127">
+        <f t="shared" ref="H102:J102" si="6">COUNTIF(H89:H101,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I102" s="127">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J102" s="126">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="119"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="J105" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0.18431054999999999</v>
+      </c>
+      <c r="D106" s="119">
+        <v>-9.9011627099999995</v>
+      </c>
+      <c r="E106" s="12">
+        <v>-0.18200808199999999</v>
+      </c>
+      <c r="F106" s="119">
+        <v>-3.7192664E-2</v>
+      </c>
+      <c r="G106" s="12">
+        <v>8.5003525</v>
+      </c>
+      <c r="H106" s="119">
+        <v>-59.788110000000003</v>
+      </c>
+      <c r="I106" s="119">
+        <v>82.296890000000005</v>
+      </c>
+      <c r="J106" s="12">
+        <v>1.449346E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="119">
+        <v>5.0452151000000001E-2</v>
+      </c>
+      <c r="D107" s="119">
+        <v>-0.84932138000000001</v>
+      </c>
+      <c r="E107" s="119">
+        <v>6.2439138999999998E-2</v>
+      </c>
+      <c r="F107" s="119">
+        <v>8.0361349999999998E-2</v>
+      </c>
+      <c r="G107" s="119">
+        <v>-2.8366555999999998</v>
+      </c>
+      <c r="H107" s="119">
+        <v>58.960495299999998</v>
+      </c>
+      <c r="I107" s="119">
+        <v>65.761799999999994</v>
+      </c>
+      <c r="J107" s="119">
+        <v>-4.9044860000000003E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="119">
+        <v>-3.4026457000000003E-2</v>
+      </c>
+      <c r="D108" s="119">
+        <v>1.20461565</v>
+      </c>
+      <c r="E108" s="119">
+        <v>-6.3762910000000001E-3</v>
+      </c>
+      <c r="F108" s="119">
+        <v>0.19805609900000001</v>
+      </c>
+      <c r="G108" s="119">
+        <v>13.3521334</v>
+      </c>
+      <c r="H108" s="119">
+        <v>181.4709192</v>
+      </c>
+      <c r="I108" s="119">
+        <v>-41.488697999999999</v>
+      </c>
+      <c r="J108" s="119">
+        <v>-0.14978696999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="119">
+        <v>-4.7501245999999997E-2</v>
+      </c>
+      <c r="D109" s="119">
+        <v>1.74970603</v>
+      </c>
+      <c r="E109" s="119">
+        <v>0.11777658000000001</v>
+      </c>
+      <c r="F109" s="119">
+        <v>3.2612387E-2</v>
+      </c>
+      <c r="G109" s="119">
+        <v>16.917255999999998</v>
+      </c>
+      <c r="H109" s="119">
+        <v>0.85448020000000002</v>
+      </c>
+      <c r="I109" s="119">
+        <v>-67.729643999999993</v>
+      </c>
+      <c r="J109" s="119">
+        <v>-9.1481580000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="119">
+        <v>-8.6253979999999994E-3</v>
+      </c>
+      <c r="D110" s="119">
+        <v>-0.44704719999999998</v>
+      </c>
+      <c r="E110" s="119">
+        <v>5.4691019E-2</v>
+      </c>
+      <c r="F110" s="119">
+        <v>-2.5645174E-2</v>
+      </c>
+      <c r="G110" s="119">
+        <v>-10.098536599999999</v>
+      </c>
+      <c r="H110" s="119">
+        <v>-106.7959841</v>
+      </c>
+      <c r="I110" s="119">
+        <v>-12.8969</v>
+      </c>
+      <c r="J110" s="119">
+        <v>0.11759894</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="119">
+        <v>-2.9643299999999998E-3</v>
+      </c>
+      <c r="D111" s="119">
+        <v>1.2535834400000001</v>
+      </c>
+      <c r="E111" s="119">
+        <v>-7.4125976999999996E-2</v>
+      </c>
+      <c r="F111" s="119">
+        <v>7.8625110000000008E-3</v>
+      </c>
+      <c r="G111" s="119">
+        <v>-11.0394921</v>
+      </c>
+      <c r="H111" s="119">
+        <v>-13.199087</v>
+      </c>
+      <c r="I111" s="119">
+        <v>39.956434999999999</v>
+      </c>
+      <c r="J111" s="119">
+        <v>9.0929280000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="119">
+        <v>6.103608E-3</v>
+      </c>
+      <c r="D112" s="119">
+        <v>-0.33392835999999998</v>
+      </c>
+      <c r="E112" s="119">
+        <v>-2.4572120999999999E-2</v>
+      </c>
+      <c r="F112" s="119">
+        <v>2.0536878000000001E-2</v>
+      </c>
+      <c r="G112" s="119">
+        <v>-2.7633028999999998</v>
+      </c>
+      <c r="H112" s="119">
+        <v>78.856621500000003</v>
+      </c>
+      <c r="I112" s="119">
+        <v>7.4981669999999996</v>
+      </c>
+      <c r="J112" s="119">
+        <v>-8.8153620000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="119">
+        <v>1.0153746999999999E-2</v>
+      </c>
+      <c r="D113" s="119">
+        <v>-1.41949232</v>
+      </c>
+      <c r="E113" s="119">
+        <v>-4.2956014000000001E-2</v>
+      </c>
+      <c r="F113" s="119">
+        <v>-4.2984873999999999E-2</v>
+      </c>
+      <c r="G113" s="119">
+        <v>5.4294386000000001</v>
+      </c>
+      <c r="H113" s="119">
+        <v>-28.695434299999999</v>
+      </c>
+      <c r="I113" s="119">
+        <v>-28.541810000000002</v>
+      </c>
+      <c r="J113" s="119">
+        <v>-4.7950769999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="119">
+        <v>6.4744069999999997E-3</v>
+      </c>
+      <c r="D114" s="119">
+        <v>-0.44956068999999999</v>
+      </c>
+      <c r="E114" s="119">
+        <v>-2.9857970000000001E-3</v>
+      </c>
+      <c r="F114" s="119">
+        <v>-3.7700348000000002E-2</v>
+      </c>
+      <c r="G114" s="119">
+        <v>-1.3299996999999999</v>
+      </c>
+      <c r="H114" s="119">
+        <v>-77.003894200000005</v>
+      </c>
+      <c r="I114" s="119">
+        <v>-8.8866169999999993</v>
+      </c>
+      <c r="J114" s="119">
+        <v>0.12135965999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="119">
+        <v>-1.2447481999999999E-2</v>
+      </c>
+      <c r="D115" s="119">
+        <v>1.47714649</v>
+      </c>
+      <c r="E115" s="119">
+        <v>-1.6423900000000001E-3</v>
+      </c>
+      <c r="F115" s="119">
+        <v>2.3074232E-2</v>
+      </c>
+      <c r="G115" s="119">
+        <v>-0.929226</v>
+      </c>
+      <c r="H115" s="119">
+        <v>27.294792699999999</v>
+      </c>
+      <c r="I115" s="119">
+        <v>28.149263999999999</v>
+      </c>
+      <c r="J115" s="119">
+        <v>5.5069279999999998E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="119">
+        <v>-1.5110360000000001E-3</v>
+      </c>
+      <c r="D116" s="119">
+        <v>-8.7954969999999993E-2</v>
+      </c>
+      <c r="E116" s="119">
+        <v>-1.1374810000000001E-2</v>
+      </c>
+      <c r="F116" s="119">
+        <v>1.7451812000000001E-2</v>
+      </c>
+      <c r="G116" s="119">
+        <v>-0.75222719999999998</v>
+      </c>
+      <c r="H116" s="119">
+        <v>72.650949100000005</v>
+      </c>
+      <c r="I116" s="119">
+        <v>10.580264</v>
+      </c>
+      <c r="J116" s="119">
+        <v>-0.11290451999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="119">
+        <v>1.12503E-2</v>
+      </c>
+      <c r="D117" s="119">
+        <v>-1.32763746</v>
+      </c>
+      <c r="E117" s="119">
+        <v>1.4809070000000001E-2</v>
+      </c>
+      <c r="F117" s="119">
+        <v>-3.3820678E-2</v>
+      </c>
+      <c r="G117" s="119">
+        <v>4.6352617</v>
+      </c>
+      <c r="H117" s="119">
+        <v>-13.333145</v>
+      </c>
+      <c r="I117" s="119">
+        <v>-18.408809000000002</v>
+      </c>
+      <c r="J117" s="119">
+        <v>-4.1215109999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="119">
+        <v>6.111755E-3</v>
+      </c>
+      <c r="D118" s="119">
+        <v>-7.6243199999999997E-2</v>
+      </c>
+      <c r="E118" s="119">
+        <v>2.7484240000000002E-3</v>
+      </c>
+      <c r="F118" s="119">
+        <v>-1.3162623E-2</v>
+      </c>
+      <c r="G118" s="119">
+        <v>-1.4760271</v>
+      </c>
+      <c r="H118" s="119">
+        <v>-67.603893299999996</v>
+      </c>
+      <c r="I118" s="119">
+        <v>-10.350858000000001</v>
+      </c>
+      <c r="J118" s="119">
+        <v>0.10449964</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="118"/>
+      <c r="C119" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="124">
+        <f>COUNTIF(D106:D118,"&lt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="E119" s="125">
+        <f t="shared" ref="E119:F119" si="7">COUNTIF(E106:E118,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="F119" s="124">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="G119" s="126">
+        <f>COUNTIF(G106:G118,"&lt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="H119" s="127">
+        <f t="shared" ref="H119:J119" si="8">COUNTIF(H106:H118,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I119" s="127">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="J119" s="126">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C124" s="118"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="118"/>
+      <c r="G124" s="119"/>
+      <c r="H124" s="119"/>
+      <c r="I124" s="119"/>
+      <c r="J124" s="119"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="I125" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="J125" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="119">
+        <v>0.186022453</v>
+      </c>
+      <c r="D126" s="119">
+        <v>-9.7993351499999992</v>
+      </c>
+      <c r="E126" s="119">
+        <v>1.029821E-2</v>
+      </c>
+      <c r="F126" s="119">
+        <v>-2.3881289999999999E-2</v>
+      </c>
+      <c r="G126" s="119">
+        <v>8.4171880000000008E-3</v>
+      </c>
+      <c r="H126" s="119">
+        <v>-1.1731528000000001E-3</v>
+      </c>
+      <c r="I126" s="119">
+        <v>3.8709568999999999E-2</v>
+      </c>
+      <c r="J126" s="119">
+        <v>-4.6236109999999997E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="119">
+        <v>1.1281052999999999E-2</v>
+      </c>
+      <c r="D127" s="119">
+        <v>1.2896934900000001</v>
+      </c>
+      <c r="E127" s="119">
+        <v>2.5388363000000001E-2</v>
+      </c>
+      <c r="F127" s="119">
+        <v>0.11240312</v>
+      </c>
+      <c r="G127" s="119">
+        <v>-1.902852E-3</v>
+      </c>
+      <c r="H127" s="119">
+        <v>2.2645804000000001E-3</v>
+      </c>
+      <c r="I127" s="119">
+        <v>1.3635154999999999E-2</v>
+      </c>
+      <c r="J127" s="119">
+        <v>-2.3028107999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="119">
+        <v>-4.7583154000000003E-2</v>
+      </c>
+      <c r="D128" s="119">
+        <v>1.44222395</v>
+      </c>
+      <c r="E128" s="119">
+        <v>-4.8893444000000001E-2</v>
+      </c>
+      <c r="F128" s="119">
+        <v>0.18459956999999999</v>
+      </c>
+      <c r="G128" s="119">
+        <v>7.9320499999999995E-3</v>
+      </c>
+      <c r="H128" s="119">
+        <v>1.3227876E-2</v>
+      </c>
+      <c r="I128" s="119">
+        <v>-4.3382193999999999E-2</v>
+      </c>
+      <c r="J128" s="119">
+        <v>-0.100165305</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="119">
+        <v>-5.6983205000000002E-2</v>
+      </c>
+      <c r="D129" s="119">
+        <v>2.49237536</v>
+      </c>
+      <c r="E129" s="119">
+        <v>1.6006452000000001E-2</v>
+      </c>
+      <c r="F129" s="119">
+        <v>1.031229E-2</v>
+      </c>
+      <c r="G129" s="119">
+        <v>9.8716810000000011E-4</v>
+      </c>
+      <c r="H129" s="119">
+        <v>6.0967271000000002E-3</v>
+      </c>
+      <c r="I129" s="119">
+        <v>-5.6868854000000003E-2</v>
+      </c>
+      <c r="J129" s="119">
+        <v>-5.3984692000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="119">
+        <v>-3.3724010000000001E-3</v>
+      </c>
+      <c r="D130" s="119">
+        <v>-0.44911697</v>
+      </c>
+      <c r="E130" s="119">
+        <v>1.2672371E-2</v>
+      </c>
+      <c r="F130" s="119">
+        <v>-7.2936899999999999E-2</v>
+      </c>
+      <c r="G130" s="119">
+        <v>-1.7847270000000001E-3</v>
+      </c>
+      <c r="H130" s="119">
+        <v>7.5422231999999999E-3</v>
+      </c>
+      <c r="I130" s="119">
+        <v>5.3067940000000001E-3</v>
+      </c>
+      <c r="J130" s="119">
+        <v>6.2838143999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="119">
+        <v>1.595682E-2</v>
+      </c>
+      <c r="D131" s="119">
+        <v>0.68557517000000001</v>
+      </c>
+      <c r="E131" s="119">
+        <v>2.829355E-3</v>
+      </c>
+      <c r="F131" s="119">
+        <v>-4.4205910000000001E-2</v>
+      </c>
+      <c r="G131" s="119">
+        <v>-3.810178E-3</v>
+      </c>
+      <c r="H131" s="119">
+        <v>6.3228983000000001E-3</v>
+      </c>
+      <c r="I131" s="119">
+        <v>1.8114104999999998E-2</v>
+      </c>
+      <c r="J131" s="119">
+        <v>7.3580972999999994E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="119">
+        <v>2.0459150000000001E-3</v>
+      </c>
+      <c r="D132" s="119">
+        <v>0.46078786999999999</v>
+      </c>
+      <c r="E132" s="119">
+        <v>-2.3660404999999999E-2</v>
+      </c>
+      <c r="F132" s="119">
+        <v>1.300687E-2</v>
+      </c>
+      <c r="G132" s="119">
+        <v>1.6984159999999999E-3</v>
+      </c>
+      <c r="H132" s="119">
+        <v>9.8210842999999996E-3</v>
+      </c>
+      <c r="I132" s="119">
+        <v>-3.445296E-3</v>
+      </c>
+      <c r="J132" s="119">
+        <v>-2.8050195E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="119">
+        <v>-1.1773442E-2</v>
+      </c>
+      <c r="D133" s="119">
+        <v>-0.24615310000000001</v>
+      </c>
+      <c r="E133" s="119">
+        <v>-1.048289E-3</v>
+      </c>
+      <c r="F133" s="119">
+        <v>3.8954200000000001E-3</v>
+      </c>
+      <c r="G133" s="119">
+        <v>5.1287440000000002E-5</v>
+      </c>
+      <c r="H133" s="119">
+        <v>1.2859098000000001E-3</v>
+      </c>
+      <c r="I133" s="119">
+        <v>-2.9475067000000001E-2</v>
+      </c>
+      <c r="J133" s="119">
+        <v>-2.9682172999999999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="119">
+        <v>-1.0822826000000001E-2</v>
+      </c>
+      <c r="D134" s="119">
+        <v>6.5421400000000005E-2</v>
+      </c>
+      <c r="E134" s="119">
+        <v>1.1558715000000001E-2</v>
+      </c>
+      <c r="F134" s="119">
+        <v>-1.542989E-2</v>
+      </c>
+      <c r="G134" s="119">
+        <v>2.1437470000000001E-3</v>
+      </c>
+      <c r="H134" s="119">
+        <v>-6.5301370000000005E-4</v>
+      </c>
+      <c r="I134" s="119">
+        <v>-4.2523659999999996E-3</v>
+      </c>
+      <c r="J134" s="119">
+        <v>5.1599309000000003E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" s="119">
+        <v>-1.9389349999999999E-3</v>
+      </c>
+      <c r="D135" s="119">
+        <v>0.60899599999999998</v>
+      </c>
+      <c r="E135" s="119">
+        <v>3.4214029999999999E-3</v>
+      </c>
+      <c r="F135" s="119">
+        <v>-1.10562E-2</v>
+      </c>
+      <c r="G135" s="119">
+        <v>-1.0933049999999999E-3</v>
+      </c>
+      <c r="H135" s="119">
+        <v>-4.6461413999999996E-3</v>
+      </c>
+      <c r="I135" s="119">
+        <v>1.2348672999999999E-2</v>
+      </c>
+      <c r="J135" s="119">
+        <v>4.2508968000000001E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="119">
+        <v>4.6165959999999997E-3</v>
+      </c>
+      <c r="D136" s="119">
+        <v>3.8577609999999998E-2</v>
+      </c>
+      <c r="E136" s="119">
+        <v>-1.5867367E-2</v>
+      </c>
+      <c r="F136" s="119">
+        <v>-1.269985E-2</v>
+      </c>
+      <c r="G136" s="119">
+        <v>1.022273E-3</v>
+      </c>
+      <c r="H136" s="119">
+        <v>-1.7197817999999999E-3</v>
+      </c>
+      <c r="I136" s="119">
+        <v>1.5509125E-2</v>
+      </c>
+      <c r="J136" s="119">
+        <v>-4.1908496000000003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="119">
+        <v>5.8081579999999999E-3</v>
+      </c>
+      <c r="D137" s="119">
+        <v>-0.61898153</v>
+      </c>
+      <c r="E137" s="119">
+        <v>-2.8825209999999999E-3</v>
+      </c>
+      <c r="F137" s="119">
+        <v>-2.327889E-2</v>
+      </c>
+      <c r="G137" s="119">
+        <v>-1.337013E-3</v>
+      </c>
+      <c r="H137" s="119">
+        <v>-5.6268906E-3</v>
+      </c>
+      <c r="I137" s="119">
+        <v>-4.3107400000000004E-3</v>
+      </c>
+      <c r="J137" s="119">
+        <v>-2.7960358000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="119">
+        <v>3.1540790000000002E-3</v>
+      </c>
+      <c r="D138" s="119">
+        <v>-0.13279769999999999</v>
+      </c>
+      <c r="E138" s="119">
+        <v>8.9279570000000003E-3</v>
+      </c>
+      <c r="F138" s="119">
+        <v>-1.340883E-2</v>
+      </c>
+      <c r="G138" s="119">
+        <v>9.4769720000000002E-4</v>
+      </c>
+      <c r="H138" s="119">
+        <v>-3.5443511999999999E-3</v>
+      </c>
+      <c r="I138" s="119">
+        <v>2.3146260000000002E-3</v>
+      </c>
+      <c r="J138" s="119">
+        <v>3.6928573999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="118"/>
+      <c r="C139" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="124">
+        <f>COUNTIF(D126:D138,"&lt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="E139" s="125">
+        <f t="shared" ref="E139:F139" si="9">COUNTIF(E126:E138,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="F139" s="124">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="G139" s="126">
+        <f>COUNTIF(G126:G138,"&lt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="H139" s="127">
+        <f t="shared" ref="H139:J139" si="10">COUNTIF(H126:H138,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="I139" s="127">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J139" s="126">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="118"/>
+      <c r="D145" s="118"/>
+      <c r="E145" s="118"/>
+      <c r="F145" s="118"/>
+      <c r="G145" s="119"/>
+      <c r="H145" s="119"/>
+      <c r="I145" s="119"/>
+      <c r="J145" s="119"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="H146" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="I146" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="J146" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="119">
+        <v>0.18343214799999999</v>
+      </c>
+      <c r="D147" s="119">
+        <v>-0.82658157099999996</v>
+      </c>
+      <c r="E147" s="119">
+        <v>1.5543344299999999E-2</v>
+      </c>
+      <c r="F147" s="119">
+        <v>-1.3706789E-2</v>
+      </c>
+      <c r="G147" s="119">
+        <v>9.0735205999999992E-3</v>
+      </c>
+      <c r="H147" s="129">
+        <v>-9.5909850000000008E-6</v>
+      </c>
+      <c r="I147" s="119">
+        <v>4.2846591000000003E-2</v>
+      </c>
+      <c r="J147" s="119">
+        <v>-1.6324040000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="119">
+        <v>1.2185751E-2</v>
+      </c>
+      <c r="D148" s="119">
+        <v>0.405913144</v>
+      </c>
+      <c r="E148" s="119">
+        <v>3.4025362199999999E-2</v>
+      </c>
+      <c r="F148" s="119">
+        <v>0.124585605</v>
+      </c>
+      <c r="G148" s="119">
+        <v>-1.7781593E-3</v>
+      </c>
+      <c r="H148" s="130">
+        <v>9.0088009999999999E-4</v>
+      </c>
+      <c r="I148" s="119">
+        <v>1.2304493E-2</v>
+      </c>
+      <c r="J148" s="119">
+        <v>-1.9932999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="119">
+        <v>-4.5892036999999997E-2</v>
+      </c>
+      <c r="D149" s="119">
+        <v>0.21330966400000001</v>
+      </c>
+      <c r="E149" s="119">
+        <v>-4.3067242999999998E-2</v>
+      </c>
+      <c r="F149" s="119">
+        <v>0.17222747299999999</v>
+      </c>
+      <c r="G149" s="119">
+        <v>7.5692340000000002E-3</v>
+      </c>
+      <c r="H149" s="130">
+        <v>1.129173E-2</v>
+      </c>
+      <c r="I149" s="119">
+        <v>-4.5508580999999999E-2</v>
+      </c>
+      <c r="J149" s="119">
+        <v>-8.9441339999999994E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="119">
+        <v>-5.7696481000000001E-2</v>
+      </c>
+      <c r="D150" s="119">
+        <v>0.19056916400000001</v>
+      </c>
+      <c r="E150" s="119">
+        <v>9.7430559999999995E-4</v>
+      </c>
+      <c r="F150" s="119">
+        <v>5.9638599999999996E-3</v>
+      </c>
+      <c r="G150" s="119">
+        <v>3.3421889999999999E-4</v>
+      </c>
+      <c r="H150" s="130">
+        <v>3.2352380000000001E-3</v>
+      </c>
+      <c r="I150" s="119">
+        <v>-5.1516311000000002E-2</v>
+      </c>
+      <c r="J150" s="119">
+        <v>-4.9478250000000001E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="119">
+        <v>-4.9325790000000003E-3</v>
+      </c>
+      <c r="D151" s="119">
+        <v>-0.21006193300000001</v>
+      </c>
+      <c r="E151" s="119">
+        <v>5.5595918999999999E-3</v>
+      </c>
+      <c r="F151" s="119">
+        <v>-7.7467402000000005E-2</v>
+      </c>
+      <c r="G151" s="119">
+        <v>-1.5043115000000001E-3</v>
+      </c>
+      <c r="H151" s="130">
+        <v>6.3374160000000002E-3</v>
+      </c>
+      <c r="I151" s="119">
+        <v>1.1663725999999999E-2</v>
+      </c>
+      <c r="J151" s="119">
+        <v>6.6563529999999996E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="119">
+        <v>1.7072542E-2</v>
+      </c>
+      <c r="D152" s="119">
+        <v>4.7619135999999999E-2</v>
+      </c>
+      <c r="E152" s="119">
+        <v>1.2699461E-2</v>
+      </c>
+      <c r="F152" s="119">
+        <v>-4.1010201000000003E-2</v>
+      </c>
+      <c r="G152" s="119">
+        <v>-3.0022247000000002E-3</v>
+      </c>
+      <c r="H152" s="130">
+        <v>5.2488739999999997E-3</v>
+      </c>
+      <c r="I152" s="119">
+        <v>1.8140739999999999E-2</v>
+      </c>
+      <c r="J152" s="119">
+        <v>7.9573430000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="119">
+        <v>6.8650969999999997E-3</v>
+      </c>
+      <c r="D153" s="119">
+        <v>9.3475897000000002E-2</v>
+      </c>
+      <c r="E153" s="119">
+        <v>-1.39640479E-2</v>
+      </c>
+      <c r="F153" s="119">
+        <v>5.408843E-3</v>
+      </c>
+      <c r="G153" s="119">
+        <v>1.5472376999999999E-3</v>
+      </c>
+      <c r="H153" s="130">
+        <v>1.021422E-2</v>
+      </c>
+      <c r="I153" s="119">
+        <v>-5.4291579999999999E-3</v>
+      </c>
+      <c r="J153" s="119">
+        <v>-2.825517E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="119">
+        <v>-1.0920454E-2</v>
+      </c>
+      <c r="D154" s="119">
+        <v>-3.4251851999999999E-2</v>
+      </c>
+      <c r="E154" s="119">
+        <v>-6.6248128999999998E-3</v>
+      </c>
+      <c r="F154" s="119">
+        <v>7.8230130000000002E-3</v>
+      </c>
+      <c r="G154" s="119">
+        <v>-6.168066E-4</v>
+      </c>
+      <c r="H154" s="130">
+        <v>2.3392119999999998E-3</v>
+      </c>
+      <c r="I154" s="119">
+        <v>-2.7634382999999998E-2</v>
+      </c>
+      <c r="J154" s="119">
+        <v>-4.0332670000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C155" s="119">
+        <v>-1.2018571E-2</v>
+      </c>
+      <c r="D155" s="119">
+        <v>-1.5920680999999999E-2</v>
+      </c>
+      <c r="E155" s="119">
+        <v>8.0964334999999998E-3</v>
+      </c>
+      <c r="F155" s="119">
+        <v>-9.8748350000000002E-3</v>
+      </c>
+      <c r="G155" s="119">
+        <v>1.7056015999999999E-3</v>
+      </c>
+      <c r="H155" s="130">
+        <v>7.7660350000000001E-4</v>
+      </c>
+      <c r="I155" s="119">
+        <v>-4.6717080000000001E-3</v>
+      </c>
+      <c r="J155" s="119">
+        <v>4.5210119999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" s="119">
+        <v>-5.0926560000000001E-3</v>
+      </c>
+      <c r="D156" s="119">
+        <v>6.4506102999999995E-2</v>
+      </c>
+      <c r="E156" s="119">
+        <v>4.8121008E-3</v>
+      </c>
+      <c r="F156" s="119">
+        <v>-7.8397129999999999E-3</v>
+      </c>
+      <c r="G156" s="119">
+        <v>-6.2507440000000001E-4</v>
+      </c>
+      <c r="H156" s="130">
+        <v>-3.8555149999999999E-3</v>
+      </c>
+      <c r="I156" s="119">
+        <v>7.2549090000000004E-3</v>
+      </c>
+      <c r="J156" s="119">
+        <v>4.9488999999999998E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C157" s="119">
+        <v>2.5748009999999998E-3</v>
+      </c>
+      <c r="D157" s="119">
+        <v>-6.5061889999999999E-3</v>
+      </c>
+      <c r="E157" s="119">
+        <v>-1.43140353E-2</v>
+      </c>
+      <c r="F157" s="119">
+        <v>-1.2165321999999999E-2</v>
+      </c>
+      <c r="G157" s="119">
+        <v>1.1450309000000001E-3</v>
+      </c>
+      <c r="H157" s="130">
+        <v>-1.1546569999999999E-3</v>
+      </c>
+      <c r="I157" s="119">
+        <v>1.2920920000000001E-2</v>
+      </c>
+      <c r="J157" s="119">
+        <v>-3.3133299999999997E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" s="119">
+        <v>6.7265750000000003E-3</v>
+      </c>
+      <c r="D158" s="119">
+        <v>-7.8401483999999994E-2</v>
+      </c>
+      <c r="E158" s="119">
+        <v>-3.4140397E-3</v>
+      </c>
+      <c r="F158" s="119">
+        <v>-2.3610743E-2</v>
+      </c>
+      <c r="G158" s="119">
+        <v>-1.3015355000000001E-3</v>
+      </c>
+      <c r="H158" s="130">
+        <v>-4.9651820000000003E-3</v>
+      </c>
+      <c r="I158" s="119">
+        <v>-1.190265E-3</v>
+      </c>
+      <c r="J158" s="119">
+        <v>-3.0223719999999999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C159" s="119">
+        <v>5.4378969999999997E-3</v>
+      </c>
+      <c r="D159" s="119">
+        <v>6.5112700000000004E-3</v>
+      </c>
+      <c r="E159" s="119">
+        <v>8.1896773999999995E-3</v>
+      </c>
+      <c r="F159" s="119">
+        <v>-1.6191974000000001E-2</v>
+      </c>
+      <c r="G159" s="119">
+        <v>8.6343430000000005E-4</v>
+      </c>
+      <c r="H159" s="130">
+        <v>-3.2262480000000001E-3</v>
+      </c>
+      <c r="I159" s="119">
+        <v>3.738239E-3</v>
+      </c>
+      <c r="J159" s="119">
+        <v>2.8893459999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="118"/>
+      <c r="C160" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" s="124">
+        <f>COUNTIF(D147:D159,"&lt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="E160" s="125">
+        <f t="shared" ref="E160:F160" si="11">COUNTIF(E147:E159,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="F160" s="124">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G160" s="126">
+        <f>COUNTIF(G147:G159,"&lt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="H160" s="127">
+        <f t="shared" ref="H160:J160" si="12">COUNTIF(H147:H159,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="I160" s="127">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="J160" s="126">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" s="118"/>
+      <c r="D163" s="118"/>
+      <c r="E163" s="118"/>
+      <c r="F163" s="118"/>
+      <c r="G163" s="119"/>
+      <c r="H163" s="119"/>
+      <c r="I163" s="119"/>
+      <c r="J163" s="119"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D164" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="F164" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="H164" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="I164" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="J164" s="123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="119">
+        <v>0.18343214799999999</v>
+      </c>
+      <c r="D165" s="119">
+        <v>-10.27860735</v>
+      </c>
+      <c r="E165" s="119">
+        <v>-0.13527024000000001</v>
+      </c>
+      <c r="F165" s="119">
+        <v>-4.8336360799999999E-2</v>
+      </c>
+      <c r="G165" s="130">
+        <v>8.6392629999999995E-3</v>
+      </c>
+      <c r="H165" s="129">
+        <v>-5.7182010000000004E-4</v>
+      </c>
+      <c r="I165" s="119">
+        <v>3.2377783799999997E-2</v>
+      </c>
+      <c r="J165" s="119">
+        <v>-1.289973E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="119">
+        <v>1.2185751E-2</v>
+      </c>
+      <c r="D166" s="119">
+        <v>1.55188478</v>
+      </c>
+      <c r="E166" s="119">
+        <v>6.8944080000000005E-2</v>
+      </c>
+      <c r="F166" s="119">
+        <v>9.7607844999999999E-2</v>
+      </c>
+      <c r="G166" s="130">
+        <v>-1.943529E-3</v>
+      </c>
+      <c r="H166" s="130">
+        <v>4.4110890999999996E-3</v>
+      </c>
+      <c r="I166" s="119">
+        <v>8.6711562000000002E-3</v>
+      </c>
+      <c r="J166" s="119">
+        <v>-3.2770170000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="119">
+        <v>-4.5892036999999997E-2</v>
+      </c>
+      <c r="D167" s="119">
+        <v>1.92966503</v>
+      </c>
+      <c r="E167" s="119">
+        <v>-1.611375E-2</v>
+      </c>
+      <c r="F167" s="119">
+        <v>0.18593011139999999</v>
+      </c>
+      <c r="G167" s="130">
+        <v>6.5114379999999996E-3</v>
+      </c>
+      <c r="H167" s="130">
+        <v>1.5552553199999999E-2</v>
+      </c>
+      <c r="I167" s="119">
+        <v>-3.9674869600000003E-2</v>
+      </c>
+      <c r="J167" s="119">
+        <v>-9.5448759999999994E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" s="119">
+        <v>-5.7696481000000001E-2</v>
+      </c>
+      <c r="D168" s="119">
+        <v>2.3484208199999999</v>
+      </c>
+      <c r="E168" s="119">
+        <v>0.12563622999999999</v>
+      </c>
+      <c r="F168" s="119">
+        <v>-7.1270446000000001E-3</v>
+      </c>
+      <c r="G168" s="130">
+        <v>1.018662E-4</v>
+      </c>
+      <c r="H168" s="130">
+        <v>8.3193613999999992E-3</v>
+      </c>
+      <c r="I168" s="119">
+        <v>-5.3057920799999998E-2</v>
+      </c>
+      <c r="J168" s="119">
+        <v>-6.729773E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="119">
+        <v>-4.9325790000000003E-3</v>
+      </c>
+      <c r="D169" s="119">
+        <v>-0.60892369000000002</v>
+      </c>
+      <c r="E169" s="119">
+        <v>7.5054480000000007E-2</v>
+      </c>
+      <c r="F169" s="119">
+        <v>-6.0806600600000003E-2</v>
+      </c>
+      <c r="G169" s="130">
+        <v>-1.591367E-3</v>
+      </c>
+      <c r="H169" s="130">
+        <v>7.4948148000000001E-3</v>
+      </c>
+      <c r="I169" s="119">
+        <v>-4.3390049999999998E-4</v>
+      </c>
+      <c r="J169" s="119">
+        <v>7.4673489999999995E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" s="119">
+        <v>1.7072542E-2</v>
+      </c>
+      <c r="D170" s="119">
+        <v>0.76618319000000001</v>
+      </c>
+      <c r="E170" s="119">
+        <v>-2.1053479999999999E-2</v>
+      </c>
+      <c r="F170" s="119">
+        <v>-3.4899943500000002E-2</v>
+      </c>
+      <c r="G170" s="130">
+        <v>-3.2189290000000001E-3</v>
+      </c>
+      <c r="H170" s="130">
+        <v>4.6709281999999996E-3</v>
+      </c>
+      <c r="I170" s="119">
+        <v>2.1342252400000001E-2</v>
+      </c>
+      <c r="J170" s="119">
+        <v>8.3433579999999993E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C171" s="119">
+        <v>6.8650969999999997E-3</v>
+      </c>
+      <c r="D171" s="119">
+        <v>0.46166386999999998</v>
+      </c>
+      <c r="E171" s="119">
+        <v>7.1524700000000002E-3</v>
+      </c>
+      <c r="F171" s="119">
+        <v>3.0294448200000001E-2</v>
+      </c>
+      <c r="G171" s="130">
+        <v>2.5428E-3</v>
+      </c>
+      <c r="H171" s="130">
+        <v>7.0232269000000003E-3</v>
+      </c>
+      <c r="I171" s="119">
+        <v>-3.6501633999999998E-3</v>
+      </c>
+      <c r="J171" s="119">
+        <v>-3.9450800000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="119">
+        <v>-1.0920454E-2</v>
+      </c>
+      <c r="D172" s="119">
+        <v>2.998762E-2</v>
+      </c>
+      <c r="E172" s="119">
+        <v>-6.0433529999999999E-2</v>
+      </c>
+      <c r="F172" s="119">
+        <v>5.6577004999999996E-3</v>
+      </c>
+      <c r="G172" s="130">
+        <v>2.7840639999999998E-5</v>
+      </c>
+      <c r="H172" s="130">
+        <v>-1.5840989E-3</v>
+      </c>
+      <c r="I172" s="119">
+        <v>-2.9721195200000002E-2</v>
+      </c>
+      <c r="J172" s="119">
+        <v>-3.8395560000000002E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="119">
+        <v>-1.2018571E-2</v>
+      </c>
+      <c r="D173" s="119">
+        <v>-0.13591099000000001</v>
+      </c>
+      <c r="E173" s="119">
+        <v>-2.1879280000000001E-2</v>
+      </c>
+      <c r="F173" s="119">
+        <v>-3.3770054899999999E-2</v>
+      </c>
+      <c r="G173" s="130">
+        <v>1.8402900000000001E-3</v>
+      </c>
+      <c r="H173" s="130">
+        <v>-3.2708661999999999E-3</v>
+      </c>
+      <c r="I173" s="119">
+        <v>-1.1819208E-3</v>
+      </c>
+      <c r="J173" s="119">
+        <v>6.3839670000000001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" s="119">
+        <v>-5.0926560000000001E-3</v>
+      </c>
+      <c r="D174" s="119">
+        <v>0.42916248000000001</v>
+      </c>
+      <c r="E174" s="119">
+        <v>-2.9284979999999999E-2</v>
+      </c>
+      <c r="F174" s="119">
+        <v>-3.2439379999999997E-2</v>
+      </c>
+      <c r="G174" s="130">
+        <v>-1.4364309999999999E-3</v>
+      </c>
+      <c r="H174" s="130">
+        <v>-5.5924966E-3</v>
+      </c>
+      <c r="I174" s="119">
+        <v>1.8675003200000002E-2</v>
+      </c>
+      <c r="J174" s="119">
+        <v>5.5437840000000002E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C175" s="119">
+        <v>2.5748009999999998E-3</v>
+      </c>
+      <c r="D175" s="119">
+        <v>-0.1911804</v>
+      </c>
+      <c r="E175" s="119">
+        <v>-4.4353400000000001E-2</v>
+      </c>
+      <c r="F175" s="119">
+        <v>-1.9624587200000002E-2</v>
+      </c>
+      <c r="G175" s="130">
+        <v>7.1912199999999999E-4</v>
+      </c>
+      <c r="H175" s="130">
+        <v>-1.4275111E-3</v>
+      </c>
+      <c r="I175" s="119">
+        <v>1.9249156900000002E-2</v>
+      </c>
+      <c r="J175" s="119">
+        <v>-5.3638900000000003E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C176" s="119">
+        <v>6.7265750000000003E-3</v>
+      </c>
+      <c r="D176" s="119">
+        <v>-0.67728166999999995</v>
+      </c>
+      <c r="E176" s="119">
+        <v>-2.0127969999999999E-2</v>
+      </c>
+      <c r="F176" s="119">
+        <v>-1.48782033E-2</v>
+      </c>
+      <c r="G176" s="130">
+        <v>-1.2891720000000001E-3</v>
+      </c>
+      <c r="H176" s="130">
+        <v>-3.9508583999999999E-3</v>
+      </c>
+      <c r="I176" s="119">
+        <v>-6.8072349000000004E-3</v>
+      </c>
+      <c r="J176" s="119">
+        <v>-4.0544330000000003E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177" s="119">
+        <v>5.4378969999999997E-3</v>
+      </c>
+      <c r="D177" s="119">
+        <v>-2.5417100000000001E-2</v>
+      </c>
+      <c r="E177" s="119">
+        <v>-1.0426889999999999E-2</v>
+      </c>
+      <c r="F177" s="119">
+        <v>-2.9889750000000002E-4</v>
+      </c>
+      <c r="G177" s="130">
+        <v>5.4939479999999998E-4</v>
+      </c>
+      <c r="H177" s="130">
+        <v>-2.1453427E-3</v>
+      </c>
+      <c r="I177" s="119">
+        <v>-1.5446946999999999E-3</v>
+      </c>
+      <c r="J177" s="119">
+        <v>3.9840739999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="118"/>
+      <c r="C178" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D178" s="124">
+        <f>COUNTIF(D165:D177,"&lt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="E178" s="125">
+        <f t="shared" ref="E178:F178" si="13">COUNTIF(E165:E177,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="F178" s="124">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G178" s="126">
+        <f>COUNTIF(G165:G177,"&lt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="H178" s="127">
+        <f t="shared" ref="H178:J178" si="14">COUNTIF(H165:H177,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I178" s="127">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="J178" s="126">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
   </mergeCells>
+  <conditionalFormatting sqref="D160:J160 D139:J139 D119:J119 D102:J102 D84:J84">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178:J178">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -54754,6 +57983,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DA79BD2CC1084245B72D282E17C815C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f7d3d97f3cea2cd92d44983fa77646f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01768f6c-8666-4b39-8631-1a60aaf27a96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11d3ce836356862a8a90d6a7dac305c0" ns2:_="">
     <xsd:import namespace="01768f6c-8666-4b39-8631-1a60aaf27a96"/>
@@ -54917,22 +58161,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215F1C9B-357A-4293-BA10-E887675FA630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54948,21 +58194,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFA692-3186-4800-83D4-EA2AD2FFC21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F472E8-87EC-4BF7-8CD6-6CCB757BC98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="885" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="795" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="111">
   <si>
     <t>Periodo</t>
   </si>
@@ -1503,6 +1503,12 @@
   </si>
   <si>
     <t>Test de Dickey Fuller</t>
+  </si>
+  <si>
+    <t>Desde:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacia: </t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2369,6 +2375,15 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -46531,10 +46546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="A2:J181"/>
+  <dimension ref="A2:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46544,6 +46559,7 @@
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -50586,8 +50602,496 @@
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
     </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="113"/>
+      <c r="D182" s="113"/>
+      <c r="E182" s="113"/>
+      <c r="F182" s="113"/>
+      <c r="G182" s="113"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="94">
+        <v>1.6809999999999999E-2</v>
+      </c>
+      <c r="E184" s="71">
+        <v>1</v>
+      </c>
+      <c r="F184" s="88" t="str">
+        <f t="shared" ref="F184" si="15">IF(D184&lt;0.05, "Sí","No")</f>
+        <v>Sí</v>
+      </c>
+      <c r="G184" s="71" t="str">
+        <f t="shared" ref="G184" si="16">IF(AND(F184=F185, F184="Sí"), "Sí", "No")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="94">
+        <v>7.2379999999999996E-3</v>
+      </c>
+      <c r="E185" s="71">
+        <v>1</v>
+      </c>
+      <c r="F185" s="88" t="str">
+        <f>IF(D185&lt;0.05, "Sí","No")</f>
+        <v>Sí</v>
+      </c>
+      <c r="G185" s="71"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="95">
+        <v>3.0609999999999998E-2</v>
+      </c>
+      <c r="E186" s="84">
+        <v>8</v>
+      </c>
+      <c r="F186" s="131" t="str">
+        <f t="shared" ref="F186:F188" si="17">IF(D186&lt;0.05, "Sí","No")</f>
+        <v>Sí</v>
+      </c>
+      <c r="G186" s="84" t="str">
+        <f>IF(AND(F186=F187, F186="Sí"), "Sí", "No")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" s="95">
+        <v>2.209E-3</v>
+      </c>
+      <c r="E187" s="84">
+        <v>1</v>
+      </c>
+      <c r="F187" s="131" t="str">
+        <f t="shared" si="17"/>
+        <v>Sí</v>
+      </c>
+      <c r="G187" s="84"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" s="94">
+        <v>2.7589999999999998E-4</v>
+      </c>
+      <c r="E188" s="71">
+        <v>1</v>
+      </c>
+      <c r="F188" s="88" t="str">
+        <f t="shared" si="17"/>
+        <v>Sí</v>
+      </c>
+      <c r="G188" s="71" t="str">
+        <f>IF(AND(F188=F189, F188="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="94">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="E189" s="71">
+        <v>12</v>
+      </c>
+      <c r="F189" s="88" t="str">
+        <f t="shared" ref="F189:F201" si="18">IF(D189&lt;0.05, "Sí","No")</f>
+        <v>No</v>
+      </c>
+      <c r="G189" s="71"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="95">
+        <v>5.4229999999999999E-3</v>
+      </c>
+      <c r="E190" s="84">
+        <v>3</v>
+      </c>
+      <c r="F190" s="131" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G190" s="84" t="str">
+        <f t="shared" ref="G190" si="19">IF(AND(F190=F191, F190="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="96">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="E191" s="9">
+        <v>12</v>
+      </c>
+      <c r="F191" s="132" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="G191" s="84"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" s="94">
+        <v>2.9440000000000001E-2</v>
+      </c>
+      <c r="E192" s="71">
+        <v>2</v>
+      </c>
+      <c r="F192" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G192" s="71" t="str">
+        <f t="shared" ref="G192" si="20">IF(AND(F192=F193, F192="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="97">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="E193" s="88">
+        <v>12</v>
+      </c>
+      <c r="F193" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="G193" s="71"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="95">
+        <v>1.108E-2</v>
+      </c>
+      <c r="E194" s="84">
+        <v>6</v>
+      </c>
+      <c r="F194" s="131" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G194" s="84" t="str">
+        <f t="shared" ref="G194" si="21">IF(AND(F194=F195, F194="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="96">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="E195" s="76">
+        <v>12</v>
+      </c>
+      <c r="F195" s="132" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="G195" s="84"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" s="94">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E196" s="109" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="F196" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G196" s="71" t="str">
+        <f t="shared" ref="G196" si="22">IF(AND(F196=F197, F196="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C197" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="94">
+        <v>0.1173</v>
+      </c>
+      <c r="E197" s="71">
+        <v>12</v>
+      </c>
+      <c r="F197" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="G197" s="71"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D198" s="95">
+        <v>1.984E-5</v>
+      </c>
+      <c r="E198" s="9">
+        <v>4</v>
+      </c>
+      <c r="F198" s="133" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G198" s="84" t="str">
+        <f t="shared" ref="G198" si="23">IF(AND(F198=F199, F198="Sí"), "Sí", "No")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C199" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="98">
+        <v>3.6380000000000001E-11</v>
+      </c>
+      <c r="E199" s="9">
+        <v>1</v>
+      </c>
+      <c r="F199" s="133" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G199" s="84"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" s="94">
+        <v>4.4740000000000002E-2</v>
+      </c>
+      <c r="E200" s="71">
+        <v>5</v>
+      </c>
+      <c r="F200" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>Sí</v>
+      </c>
+      <c r="G200" s="71" t="str">
+        <f t="shared" ref="G200" si="24">IF(AND(F200=F201, F200="Sí"), "Sí", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C201" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="94">
+        <v>0.2969</v>
+      </c>
+      <c r="E201" s="71">
+        <v>12</v>
+      </c>
+      <c r="F201" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="G201" s="71"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" s="96">
+        <v>4.4729999999999999E-2</v>
+      </c>
+      <c r="E202" s="9" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="F202" s="133" t="str">
+        <f t="shared" ref="F202:F205" si="25">IF(D202&lt;0.05, "Sí","No")</f>
+        <v>Sí</v>
+      </c>
+      <c r="G202" s="84" t="str">
+        <f t="shared" ref="G202:G205" si="26">IF(AND(F202=F203, F202="Sí"), "Sí", "No")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="77" t="str">
+        <f>C202</f>
+        <v>Valor Añadido Servicios</v>
+      </c>
+      <c r="C203" s="77" t="str">
+        <f>B202</f>
+        <v>Precio del Cobre</v>
+      </c>
+      <c r="D203" s="96">
+        <v>3.7940000000000001E-3</v>
+      </c>
+      <c r="E203" s="9">
+        <v>1</v>
+      </c>
+      <c r="F203" s="133" t="str">
+        <f t="shared" si="25"/>
+        <v>Sí</v>
+      </c>
+      <c r="G203" s="84"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="94">
+        <v>1.1039999999999999E-5</v>
+      </c>
+      <c r="E204" s="71">
+        <v>4</v>
+      </c>
+      <c r="F204" s="88" t="str">
+        <f t="shared" si="25"/>
+        <v>Sí</v>
+      </c>
+      <c r="G204" s="71" t="str">
+        <f t="shared" ref="G204:G205" si="27">IF(AND(F204=F205, F204="Sí"), "Sí", "No")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="78" t="str">
+        <f>C204</f>
+        <v>Valor Añadido Minería</v>
+      </c>
+      <c r="C205" s="78" t="str">
+        <f>B204</f>
+        <v>Precio del Cobre</v>
+      </c>
+      <c r="D205" s="94">
+        <v>5.5250000000000002E-13</v>
+      </c>
+      <c r="E205" s="71">
+        <v>1</v>
+      </c>
+      <c r="F205" s="88" t="str">
+        <f t="shared" si="25"/>
+        <v>Sí</v>
+      </c>
+      <c r="G205" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B182:G182"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>

--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F472E8-87EC-4BF7-8CD6-6CCB757BC98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE302581-9AA9-4449-B343-0301B29CEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="795" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1710" windowWidth="18660" windowHeight="10755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -46548,8 +46548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
   <dimension ref="A2:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50681,10 +50681,10 @@
         <v>56</v>
       </c>
       <c r="D186" s="95">
-        <v>3.0609999999999998E-2</v>
+        <v>3.2930000000000001E-2</v>
       </c>
       <c r="E186" s="84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F186" s="131" t="str">
         <f t="shared" ref="F186:F188" si="17">IF(D186&lt;0.05, "Sí","No")</f>

--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE302581-9AA9-4449-B343-0301B29CEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC89CA-1447-4EDC-ADAF-52D62661998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1710" windowWidth="18660" windowHeight="10755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1965" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
   <si>
     <t>Periodo</t>
   </si>
@@ -1509,6 +1509,36 @@
   </si>
   <si>
     <t xml:space="preserve">Hacia: </t>
+  </si>
+  <si>
+    <t>Respuesta esperada FIR</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Signo negativo (-) Se espera una depreciación del dólar (apreciación de la moneda nacional)</t>
+  </si>
+  <si>
+    <t>Signo positivo (+) Se espera una respuesta de la politica monetaria ante inflacion o presiones cambiarias</t>
+  </si>
+  <si>
+    <t>Signo positivo (+) Se espera que la reasignación de recursos conlleve un aumento en el nivel de desempleo</t>
+  </si>
+  <si>
+    <t>Signo positivo (+) Se espera inflación por efecto gasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signo negativo (-) Se espera que el sector manufacturero se vea afectado negativamente </t>
+  </si>
+  <si>
+    <t>Signo positivo (+) Se espera que el sector de servicios se expanda</t>
+  </si>
+  <si>
+    <t>Signo positivo (+) Se espera que el sector minero se expanda</t>
+  </si>
+  <si>
+    <t>Signo negativo (-) Se espera una apreciación del tipo de cambio real (empeoran términos de intercambio por perdida de competitividad)</t>
   </si>
 </sst>
 </file>
@@ -2347,21 +2377,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2382,6 +2397,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -46546,32 +46576,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="A2:J205"/>
+  <dimension ref="A2:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
@@ -47415,24 +47446,24 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="E45" s="114" t="s">
+      <c r="C45" s="131"/>
+      <c r="E45" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="115"/>
+      <c r="F45" s="131"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="E46" s="116" t="s">
+      <c r="C46" s="133"/>
+      <c r="E46" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="117"/>
+      <c r="F46" s="133"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="101" t="s">
@@ -47698,454 +47729,454 @@
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="118"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="121" t="s">
+      <c r="B70" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="122" t="s">
+      <c r="D70" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="123" t="s">
+      <c r="E70" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="123" t="s">
+      <c r="F70" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="122" t="s">
+      <c r="G70" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="H70" s="123" t="s">
+      <c r="H70" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="I70" s="123" t="s">
+      <c r="I70" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J70" s="123" t="s">
+      <c r="J70" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="120" t="s">
+      <c r="B71" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="119">
+      <c r="C71" s="114">
         <v>0.183094865</v>
       </c>
-      <c r="D71" s="119">
+      <c r="D71" s="114">
         <v>-9.4585353600000008</v>
       </c>
-      <c r="E71" s="119">
+      <c r="E71" s="114">
         <v>-1.7715529999999999E-3</v>
       </c>
-      <c r="F71" s="119">
+      <c r="F71" s="114">
         <v>-2.5187409000000001E-2</v>
       </c>
-      <c r="G71" s="119">
+      <c r="G71" s="114">
         <v>8.1534916000000006</v>
       </c>
-      <c r="H71" s="119">
+      <c r="H71" s="114">
         <v>-61.098790000000001</v>
       </c>
-      <c r="I71" s="119">
+      <c r="I71" s="114">
         <v>82.806051999999994</v>
       </c>
-      <c r="J71" s="119">
+      <c r="J71" s="114">
         <v>1.8431599999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="120" t="s">
+      <c r="B72" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="119">
+      <c r="C72" s="114">
         <v>4.9200391000000003E-2</v>
       </c>
-      <c r="D72" s="119">
+      <c r="D72" s="114">
         <v>-0.75292236000000001</v>
       </c>
-      <c r="E72" s="119">
+      <c r="E72" s="114">
         <v>3.4889245999999999E-2</v>
       </c>
-      <c r="F72" s="119">
+      <c r="F72" s="114">
         <v>9.1192741999999993E-2</v>
       </c>
-      <c r="G72" s="119">
+      <c r="G72" s="114">
         <v>-5.1831975000000003</v>
       </c>
-      <c r="H72" s="119">
+      <c r="H72" s="114">
         <v>61.954203999999997</v>
       </c>
-      <c r="I72" s="119">
+      <c r="I72" s="114">
         <v>65.513285999999994</v>
       </c>
-      <c r="J72" s="119">
+      <c r="J72" s="114">
         <v>-3.165167E-2</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="119">
+      <c r="C73" s="114">
         <v>-2.7846111999999999E-2</v>
       </c>
-      <c r="D73" s="119">
+      <c r="D73" s="114">
         <v>0.78359078999999998</v>
       </c>
-      <c r="E73" s="119">
+      <c r="E73" s="114">
         <v>-4.0056231999999997E-2</v>
       </c>
-      <c r="F73" s="119">
+      <c r="F73" s="114">
         <v>0.188084262</v>
       </c>
-      <c r="G73" s="119">
+      <c r="G73" s="114">
         <v>14.3039904</v>
       </c>
-      <c r="H73" s="119">
+      <c r="H73" s="114">
         <v>178.45226199999999</v>
       </c>
-      <c r="I73" s="119">
+      <c r="I73" s="114">
         <v>-44.926276999999999</v>
       </c>
-      <c r="J73" s="119">
+      <c r="J73" s="114">
         <v>-0.15295211</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="119">
+      <c r="C74" s="114">
         <v>-5.2465406999999999E-2</v>
       </c>
-      <c r="D74" s="119">
+      <c r="D74" s="114">
         <v>2.1382928300000001</v>
       </c>
-      <c r="E74" s="119">
+      <c r="E74" s="114">
         <v>8.2315740000000002E-3</v>
       </c>
-      <c r="F74" s="119">
+      <c r="F74" s="114">
         <v>4.6404464999999999E-2</v>
       </c>
-      <c r="G74" s="119">
+      <c r="G74" s="114">
         <v>17.911874999999998</v>
       </c>
-      <c r="H74" s="119">
+      <c r="H74" s="114">
         <v>-5.0295719999999999</v>
       </c>
-      <c r="I74" s="119">
+      <c r="I74" s="114">
         <v>-77.197045000000003</v>
       </c>
-      <c r="J74" s="119">
+      <c r="J74" s="114">
         <v>-7.6865550000000005E-2</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="120" t="s">
+      <c r="B75" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="119">
+      <c r="C75" s="114">
         <v>-1.3732523E-2</v>
       </c>
-      <c r="D75" s="119">
+      <c r="D75" s="114">
         <v>5.5491749999999999E-2</v>
       </c>
-      <c r="E75" s="119">
+      <c r="E75" s="114">
         <v>5.3312760000000002E-3</v>
       </c>
-      <c r="F75" s="119">
+      <c r="F75" s="114">
         <v>-2.3639932999999998E-2</v>
       </c>
-      <c r="G75" s="119">
+      <c r="G75" s="114">
         <v>-9.5088600999999997</v>
       </c>
-      <c r="H75" s="119">
+      <c r="H75" s="114">
         <v>-97.648398999999998</v>
       </c>
-      <c r="I75" s="119">
+      <c r="I75" s="114">
         <v>-12.700434</v>
       </c>
-      <c r="J75" s="119">
+      <c r="J75" s="114">
         <v>0.11538415</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="120" t="s">
+      <c r="B76" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="119">
+      <c r="C76" s="114">
         <v>-6.4206940000000002E-3</v>
       </c>
-      <c r="D76" s="119">
+      <c r="D76" s="114">
         <v>1.32944833</v>
       </c>
-      <c r="E76" s="119">
+      <c r="E76" s="114">
         <v>-4.738384E-3</v>
       </c>
-      <c r="F76" s="119">
+      <c r="F76" s="114">
         <v>-1.8459150000000001E-3</v>
       </c>
-      <c r="G76" s="119">
+      <c r="G76" s="114">
         <v>-11.112252</v>
       </c>
-      <c r="H76" s="119">
+      <c r="H76" s="114">
         <v>-6.5166120000000003</v>
       </c>
-      <c r="I76" s="119">
+      <c r="I76" s="114">
         <v>38.322344999999999</v>
       </c>
-      <c r="J76" s="119">
+      <c r="J76" s="114">
         <v>8.4923209999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="120" t="s">
+      <c r="B77" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="119">
+      <c r="C77" s="114">
         <v>5.8033579999999998E-3</v>
       </c>
-      <c r="D77" s="119">
+      <c r="D77" s="114">
         <v>-0.39875811</v>
       </c>
-      <c r="E77" s="119">
+      <c r="E77" s="114">
         <v>-1.7761480999999999E-2</v>
       </c>
-      <c r="F77" s="119">
+      <c r="F77" s="114">
         <v>3.8290540000000001E-3</v>
       </c>
-      <c r="G77" s="119">
+      <c r="G77" s="114">
         <v>-4.1783650000000003</v>
       </c>
-      <c r="H77" s="119">
+      <c r="H77" s="114">
         <v>72.497091999999995</v>
       </c>
-      <c r="I77" s="119">
+      <c r="I77" s="114">
         <v>4.7031660000000004</v>
       </c>
-      <c r="J77" s="119">
+      <c r="J77" s="114">
         <v>-7.5467270000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="120" t="s">
+      <c r="B78" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="119">
+      <c r="C78" s="114">
         <v>1.0980213000000001E-2</v>
       </c>
-      <c r="D78" s="119">
+      <c r="D78" s="114">
         <v>-1.2956440899999999</v>
       </c>
-      <c r="E78" s="119">
+      <c r="E78" s="114">
         <v>4.3356940000000002E-3</v>
       </c>
-      <c r="F78" s="119">
+      <c r="F78" s="114">
         <v>-4.6808865999999998E-2</v>
       </c>
-      <c r="G78" s="119">
+      <c r="G78" s="114">
         <v>7.2005369000000004</v>
       </c>
-      <c r="H78" s="119">
+      <c r="H78" s="114">
         <v>-29.194655999999998</v>
       </c>
-      <c r="I78" s="119">
+      <c r="I78" s="114">
         <v>-26.401895</v>
       </c>
-      <c r="J78" s="119">
+      <c r="J78" s="114">
         <v>-3.7029300000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="120" t="s">
+      <c r="B79" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="119">
+      <c r="C79" s="114">
         <v>6.0554399999999996E-3</v>
       </c>
-      <c r="D79" s="119">
+      <c r="D79" s="114">
         <v>-0.37531913</v>
       </c>
-      <c r="E79" s="119">
+      <c r="E79" s="114">
         <v>1.9262238000000001E-2</v>
       </c>
-      <c r="F79" s="119">
+      <c r="F79" s="114">
         <v>-2.8418736E-2</v>
       </c>
-      <c r="G79" s="119">
+      <c r="G79" s="114">
         <v>-2.0166792999999998</v>
       </c>
-      <c r="H79" s="119">
+      <c r="H79" s="114">
         <v>-70.851264999999998</v>
       </c>
-      <c r="I79" s="119">
+      <c r="I79" s="114">
         <v>-8.292662</v>
       </c>
-      <c r="J79" s="119">
+      <c r="J79" s="114">
         <v>0.11168538</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="120" t="s">
+      <c r="B80" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="119">
+      <c r="C80" s="114">
         <v>-1.2066458E-2</v>
       </c>
-      <c r="D80" s="119">
+      <c r="D80" s="114">
         <v>1.42822513</v>
       </c>
-      <c r="E80" s="119">
+      <c r="E80" s="114">
         <v>-7.3088459999999999E-3</v>
       </c>
-      <c r="F80" s="119">
+      <c r="F80" s="114">
         <v>2.5151776000000001E-2</v>
       </c>
-      <c r="G80" s="119">
+      <c r="G80" s="114">
         <v>-0.89953709999999998</v>
       </c>
-      <c r="H80" s="119">
+      <c r="H80" s="114">
         <v>27.170963</v>
       </c>
-      <c r="I80" s="119">
+      <c r="I80" s="114">
         <v>24.685689</v>
       </c>
-      <c r="J80" s="119">
+      <c r="J80" s="114">
         <v>4.4723739999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="120" t="s">
+      <c r="B81" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="119">
+      <c r="C81" s="114">
         <v>-4.1681790000000002E-3</v>
       </c>
-      <c r="D81" s="119">
+      <c r="D81" s="114">
         <v>1.9035E-2</v>
       </c>
-      <c r="E81" s="119">
+      <c r="E81" s="114">
         <v>-1.5948575999999999E-2</v>
       </c>
-      <c r="F81" s="119">
+      <c r="F81" s="114">
         <v>1.4933701000000001E-2</v>
       </c>
-      <c r="G81" s="119">
+      <c r="G81" s="114">
         <v>-1.0725484000000001</v>
       </c>
-      <c r="H81" s="119">
+      <c r="H81" s="114">
         <v>69.068355999999994</v>
       </c>
-      <c r="I81" s="119">
+      <c r="I81" s="114">
         <v>6.529293</v>
       </c>
-      <c r="J81" s="119">
+      <c r="J81" s="114">
         <v>-0.10128363999999999</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="119">
+      <c r="C82" s="114">
         <v>8.7317880000000007E-3</v>
       </c>
-      <c r="D82" s="119">
+      <c r="D82" s="114">
         <v>-1.1091140100000001</v>
       </c>
-      <c r="E82" s="119">
+      <c r="E82" s="114">
         <v>6.1905689999999999E-3</v>
       </c>
-      <c r="F82" s="119">
+      <c r="F82" s="114">
         <v>-3.5512126999999998E-2</v>
       </c>
-      <c r="G82" s="119">
+      <c r="G82" s="114">
         <v>4.9603025000000001</v>
       </c>
-      <c r="H82" s="119">
+      <c r="H82" s="114">
         <v>-14.391389999999999</v>
       </c>
-      <c r="I82" s="119">
+      <c r="I82" s="114">
         <v>-17.417221000000001</v>
       </c>
-      <c r="J82" s="119">
+      <c r="J82" s="114">
         <v>-3.5861240000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="119">
+      <c r="C83" s="114">
         <v>5.6562629999999999E-3</v>
       </c>
-      <c r="D83" s="119">
+      <c r="D83" s="114">
         <v>-7.5933589999999995E-2</v>
       </c>
-      <c r="E83" s="119">
+      <c r="E83" s="114">
         <v>1.7259765999999999E-2</v>
       </c>
-      <c r="F83" s="119">
+      <c r="F83" s="114">
         <v>-1.5415976E-2</v>
       </c>
-      <c r="G83" s="119">
+      <c r="G83" s="114">
         <v>-1.2905738</v>
       </c>
-      <c r="H83" s="119">
+      <c r="H83" s="114">
         <v>-62.533324999999998</v>
       </c>
-      <c r="I83" s="119">
+      <c r="I83" s="114">
         <v>-8.9894210000000001</v>
       </c>
-      <c r="J83" s="119">
+      <c r="J83" s="114">
         <v>9.4858499999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="119"/>
-      <c r="C84" s="121" t="s">
+      <c r="B84" s="114"/>
+      <c r="C84" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="124">
+      <c r="D84" s="119">
         <f>COUNTIF(D71:D83,"&lt;0")</f>
         <v>7</v>
       </c>
-      <c r="E84" s="125">
+      <c r="E84" s="120">
         <f>COUNTIF(E71:E83,"&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="F84" s="124">
+      <c r="F84" s="119">
         <f t="shared" ref="F84:J84" si="4">COUNTIF(F71:F83,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="G84" s="126">
+      <c r="G84" s="121">
         <f>COUNTIF(G71:G83,"&lt;0")</f>
         <v>8</v>
       </c>
-      <c r="H84" s="127">
+      <c r="H84" s="122">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I84" s="127">
+      <c r="I84" s="122">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J84" s="126">
+      <c r="J84" s="121">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -48173,61 +48204,61 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="118" t="s">
+      <c r="B87" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="119"/>
-      <c r="H87" s="119"/>
-      <c r="I87" s="119"/>
-      <c r="J87" s="119"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="121" t="s">
+      <c r="B88" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="122" t="s">
+      <c r="D88" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="123" t="s">
+      <c r="E88" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="123" t="s">
+      <c r="F88" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="122" t="s">
+      <c r="G88" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="H88" s="123" t="s">
+      <c r="H88" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="I88" s="123" t="s">
+      <c r="I88" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J88" s="123" t="s">
+      <c r="J88" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="120" t="s">
+      <c r="B89" s="115" t="s">
         <v>84</v>
       </c>
       <c r="C89" s="12">
         <v>0.185855664</v>
       </c>
-      <c r="D89" s="119">
+      <c r="D89" s="114">
         <v>-0.68271410629999996</v>
       </c>
       <c r="E89" s="12">
         <v>1.6427395E-3</v>
       </c>
-      <c r="F89" s="119">
+      <c r="F89" s="114">
         <v>-2.1389249999999999E-2</v>
       </c>
       <c r="G89" s="12">
@@ -48236,7 +48267,7 @@
       <c r="H89" s="12">
         <v>-40.837639600000003</v>
       </c>
-      <c r="I89" s="119">
+      <c r="I89" s="114">
         <v>90.250386000000006</v>
       </c>
       <c r="J89" s="12">
@@ -48244,383 +48275,383 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="120" t="s">
+      <c r="B90" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="119">
+      <c r="C90" s="114">
         <v>5.4025763999999997E-2</v>
       </c>
-      <c r="D90" s="119">
+      <c r="D90" s="114">
         <v>0.2893988797</v>
       </c>
-      <c r="E90" s="119">
+      <c r="E90" s="114">
         <v>4.3902640999999999E-2</v>
       </c>
-      <c r="F90" s="119">
+      <c r="F90" s="114">
         <v>0.10758876000000001</v>
       </c>
-      <c r="G90" s="119">
+      <c r="G90" s="114">
         <v>-5.1224069999999999</v>
       </c>
-      <c r="H90" s="119">
+      <c r="H90" s="114">
         <v>69.297705100000002</v>
       </c>
-      <c r="I90" s="119">
+      <c r="I90" s="114">
         <v>71.286612000000005</v>
       </c>
-      <c r="J90" s="119">
+      <c r="J90" s="114">
         <v>-4.0122627000000001E-2</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="119">
+      <c r="C91" s="114">
         <v>-2.294059E-2</v>
       </c>
-      <c r="D91" s="119">
+      <c r="D91" s="114">
         <v>0.3464815309</v>
       </c>
-      <c r="E91" s="119">
+      <c r="E91" s="114">
         <v>-3.0491876099999999E-2</v>
       </c>
-      <c r="F91" s="119">
+      <c r="F91" s="114">
         <v>0.19198355</v>
       </c>
-      <c r="G91" s="119">
+      <c r="G91" s="114">
         <v>15.7457607</v>
       </c>
-      <c r="H91" s="119">
+      <c r="H91" s="114">
         <v>172.56326670000001</v>
       </c>
-      <c r="I91" s="119">
+      <c r="I91" s="114">
         <v>-45.950358000000001</v>
       </c>
-      <c r="J91" s="119">
+      <c r="J91" s="114">
         <v>-0.14807862099999999</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="120" t="s">
+      <c r="B92" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="119">
+      <c r="C92" s="114">
         <v>-5.6882408000000002E-2</v>
       </c>
-      <c r="D92" s="119">
+      <c r="D92" s="114">
         <v>0.23065222299999999</v>
       </c>
-      <c r="E92" s="119">
+      <c r="E92" s="114">
         <v>-6.1384980000000003E-4</v>
       </c>
-      <c r="F92" s="119">
+      <c r="F92" s="114">
         <v>5.7514469999999998E-2</v>
       </c>
-      <c r="G92" s="119">
+      <c r="G92" s="114">
         <v>16.579116200000001</v>
       </c>
-      <c r="H92" s="119">
+      <c r="H92" s="114">
         <v>-22.335055199999999</v>
       </c>
-      <c r="I92" s="119">
+      <c r="I92" s="114">
         <v>-79.987376999999995</v>
       </c>
-      <c r="J92" s="119">
+      <c r="J92" s="114">
         <v>-6.6296042999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="120" t="s">
+      <c r="B93" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="119">
+      <c r="C93" s="114">
         <v>-1.7446128000000002E-2</v>
       </c>
-      <c r="D93" s="119">
+      <c r="D93" s="114">
         <v>-3.5078246799999997E-2</v>
       </c>
-      <c r="E93" s="119">
+      <c r="E93" s="114">
         <v>-2.2031612E-3</v>
       </c>
-      <c r="F93" s="119">
+      <c r="F93" s="114">
         <v>-2.7240219999999999E-2</v>
       </c>
-      <c r="G93" s="119">
+      <c r="G93" s="114">
         <v>-10.6787622</v>
       </c>
-      <c r="H93" s="119">
+      <c r="H93" s="114">
         <v>-95.562254300000006</v>
       </c>
-      <c r="I93" s="119">
+      <c r="I93" s="114">
         <v>-12.423749000000001</v>
       </c>
-      <c r="J93" s="119">
+      <c r="J93" s="114">
         <v>0.12646961400000001</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="120" t="s">
+      <c r="B94" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="119">
+      <c r="C94" s="114">
         <v>-5.1458459999999999E-3</v>
       </c>
-      <c r="D94" s="119">
+      <c r="D94" s="114">
         <v>0.20737075199999999</v>
       </c>
-      <c r="E94" s="119">
+      <c r="E94" s="114">
         <v>-2.0650851E-3</v>
       </c>
-      <c r="F94" s="119">
+      <c r="F94" s="114">
         <v>-1.7012039999999999E-2</v>
       </c>
-      <c r="G94" s="119">
+      <c r="G94" s="114">
         <v>-11.8398442</v>
       </c>
-      <c r="H94" s="119">
+      <c r="H94" s="114">
         <v>0.54719249999999997</v>
       </c>
-      <c r="I94" s="119">
+      <c r="I94" s="114">
         <v>34.325068000000002</v>
       </c>
-      <c r="J94" s="119">
+      <c r="J94" s="114">
         <v>9.7718343999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="120" t="s">
+      <c r="B95" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="119">
+      <c r="C95" s="114">
         <v>6.6687059999999999E-3</v>
       </c>
-      <c r="D95" s="119">
+      <c r="D95" s="114">
         <v>2.8308519999999999E-4</v>
       </c>
-      <c r="E95" s="119">
+      <c r="E95" s="114">
         <v>-1.42298392E-2</v>
       </c>
-      <c r="F95" s="119">
+      <c r="F95" s="114">
         <v>-1.556216E-2</v>
       </c>
-      <c r="G95" s="119">
+      <c r="G95" s="114">
         <v>-1.3668465999999999</v>
       </c>
-      <c r="H95" s="119">
+      <c r="H95" s="114">
         <v>70.866239100000001</v>
       </c>
-      <c r="I95" s="119">
+      <c r="I95" s="114">
         <v>-0.55893700000000002</v>
       </c>
-      <c r="J95" s="119">
+      <c r="J95" s="114">
         <v>-6.9620647999999993E-2</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="120" t="s">
+      <c r="B96" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="119">
+      <c r="C96" s="114">
         <v>6.8027019999999999E-3</v>
       </c>
-      <c r="D96" s="119">
+      <c r="D96" s="114">
         <v>-0.19583885649999999</v>
       </c>
-      <c r="E96" s="119">
+      <c r="E96" s="114">
         <v>2.8515419999999999E-4</v>
       </c>
-      <c r="F96" s="119">
+      <c r="F96" s="114">
         <v>-5.1238319999999997E-2</v>
       </c>
-      <c r="G96" s="119">
+      <c r="G96" s="114">
         <v>6.8914660000000003</v>
       </c>
-      <c r="H96" s="119">
+      <c r="H96" s="114">
         <v>-29.329101999999999</v>
       </c>
-      <c r="I96" s="119">
+      <c r="I96" s="114">
         <v>-28.341581000000001</v>
       </c>
-      <c r="J96" s="119">
+      <c r="J96" s="114">
         <v>-3.8390906000000002E-2</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="120" t="s">
+      <c r="B97" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="119">
+      <c r="C97" s="114">
         <v>2.4972660000000002E-3</v>
       </c>
-      <c r="D97" s="119">
+      <c r="D97" s="114">
         <v>-5.9789995999999998E-3</v>
       </c>
-      <c r="E97" s="119">
+      <c r="E97" s="114">
         <v>1.6534240400000001E-2</v>
       </c>
-      <c r="F97" s="119">
+      <c r="F97" s="114">
         <v>-3.414147E-2</v>
       </c>
-      <c r="G97" s="119">
+      <c r="G97" s="114">
         <v>-2.2301956999999999</v>
       </c>
-      <c r="H97" s="119">
+      <c r="H97" s="114">
         <v>-62.6391724</v>
       </c>
-      <c r="I97" s="119">
+      <c r="I97" s="114">
         <v>-6.0427419999999996</v>
       </c>
-      <c r="J97" s="119">
+      <c r="J97" s="114">
         <v>0.108873505</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="120" t="s">
+      <c r="B98" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="119">
+      <c r="C98" s="114">
         <v>-1.1619668999999999E-2</v>
       </c>
-      <c r="D98" s="119">
+      <c r="D98" s="114">
         <v>0.2174936395</v>
       </c>
-      <c r="E98" s="119">
+      <c r="E98" s="114">
         <v>-4.9364530000000004E-3</v>
       </c>
-      <c r="F98" s="119">
+      <c r="F98" s="114">
         <v>1.7922319999999999E-2</v>
       </c>
-      <c r="G98" s="119">
+      <c r="G98" s="114">
         <v>-0.89954999999999996</v>
       </c>
-      <c r="H98" s="119">
+      <c r="H98" s="114">
         <v>30.644883700000001</v>
       </c>
-      <c r="I98" s="119">
+      <c r="I98" s="114">
         <v>23.291003</v>
       </c>
-      <c r="J98" s="119">
+      <c r="J98" s="114">
         <v>4.5289998999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="120" t="s">
+      <c r="B99" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="119">
+      <c r="C99" s="114">
         <v>-4.3639610000000004E-3</v>
       </c>
-      <c r="D99" s="119">
+      <c r="D99" s="114">
         <v>-4.6406797499999999E-2</v>
       </c>
-      <c r="E99" s="119">
+      <c r="E99" s="114">
         <v>-1.50073286E-2</v>
       </c>
-      <c r="F99" s="119">
+      <c r="F99" s="114">
         <v>1.3385869999999999E-2</v>
       </c>
-      <c r="G99" s="119">
+      <c r="G99" s="114">
         <v>0.30079650000000002</v>
       </c>
-      <c r="H99" s="119">
+      <c r="H99" s="114">
         <v>61.143445100000001</v>
       </c>
-      <c r="I99" s="119">
+      <c r="I99" s="114">
         <v>3.428372</v>
       </c>
-      <c r="J99" s="119">
+      <c r="J99" s="114">
         <v>-9.8932708999999994E-2</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="120" t="s">
+      <c r="B100" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="119">
+      <c r="C100" s="114">
         <v>7.8137580000000005E-3</v>
       </c>
-      <c r="D100" s="119">
+      <c r="D100" s="114">
         <v>-0.1947898327</v>
       </c>
-      <c r="E100" s="119">
+      <c r="E100" s="114">
         <v>5.6655927999999999E-3</v>
       </c>
-      <c r="F100" s="119">
+      <c r="F100" s="114">
         <v>-2.9356239999999999E-2</v>
       </c>
-      <c r="G100" s="119">
+      <c r="G100" s="114">
         <v>3.5247543000000001</v>
       </c>
-      <c r="H100" s="119">
+      <c r="H100" s="114">
         <v>-16.799789799999999</v>
       </c>
-      <c r="I100" s="119">
+      <c r="I100" s="114">
         <v>-17.261275999999999</v>
       </c>
-      <c r="J100" s="119">
+      <c r="J100" s="114">
         <v>-3.5062074999999998E-2</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="120" t="s">
+      <c r="B101" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="119">
+      <c r="C101" s="114">
         <v>5.9585000000000003E-3</v>
       </c>
-      <c r="D101" s="119">
+      <c r="D101" s="114">
         <v>4.8949144299999997E-2</v>
       </c>
-      <c r="E101" s="119">
+      <c r="E101" s="114">
         <v>1.76265899E-2</v>
       </c>
-      <c r="F101" s="119">
+      <c r="F101" s="114">
         <v>-1.286786E-2</v>
       </c>
-      <c r="G101" s="119">
+      <c r="G101" s="114">
         <v>-1.7840962</v>
       </c>
-      <c r="H101" s="119">
+      <c r="H101" s="114">
         <v>-55.076634900000002</v>
       </c>
-      <c r="I101" s="119">
+      <c r="I101" s="114">
         <v>-5.5678349999999996</v>
       </c>
-      <c r="J101" s="119">
+      <c r="J101" s="114">
         <v>9.0097298000000006E-2</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="118"/>
-      <c r="C102" s="128" t="s">
+      <c r="B102" s="113"/>
+      <c r="C102" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="124">
+      <c r="D102" s="119">
         <f>COUNTIF(D89:D101,"&lt;0")</f>
         <v>6</v>
       </c>
-      <c r="E102" s="125">
+      <c r="E102" s="120">
         <f t="shared" ref="E102:F102" si="5">COUNTIF(E89:E101,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="F102" s="124">
+      <c r="F102" s="119">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G102" s="126">
+      <c r="G102" s="121">
         <f>COUNTIF(G89:G101,"&lt;0")</f>
         <v>7</v>
       </c>
-      <c r="H102" s="127">
+      <c r="H102" s="122">
         <f t="shared" ref="H102:J102" si="6">COUNTIF(H89:H101,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="I102" s="127">
+      <c r="I102" s="122">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J102" s="126">
+      <c r="J102" s="121">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -48637,70 +48668,70 @@
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="118" t="s">
+      <c r="B104" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="118"/>
-      <c r="D104" s="118"/>
-      <c r="E104" s="118"/>
-      <c r="F104" s="118"/>
-      <c r="G104" s="119"/>
-      <c r="H104" s="119"/>
-      <c r="I104" s="119"/>
-      <c r="J104" s="119"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="113"/>
+      <c r="E104" s="113"/>
+      <c r="F104" s="113"/>
+      <c r="G104" s="114"/>
+      <c r="H104" s="114"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="114"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="121" t="s">
+      <c r="B105" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="122" t="s">
+      <c r="D105" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="E105" s="123" t="s">
+      <c r="E105" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="F105" s="123" t="s">
+      <c r="F105" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G105" s="122" t="s">
+      <c r="G105" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="H105" s="123" t="s">
+      <c r="H105" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="I105" s="123" t="s">
+      <c r="I105" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J105" s="123" t="s">
+      <c r="J105" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="120" t="s">
+      <c r="B106" s="115" t="s">
         <v>84</v>
       </c>
       <c r="C106" s="12">
         <v>0.18431054999999999</v>
       </c>
-      <c r="D106" s="119">
+      <c r="D106" s="114">
         <v>-9.9011627099999995</v>
       </c>
       <c r="E106" s="12">
         <v>-0.18200808199999999</v>
       </c>
-      <c r="F106" s="119">
+      <c r="F106" s="114">
         <v>-3.7192664E-2</v>
       </c>
       <c r="G106" s="12">
         <v>8.5003525</v>
       </c>
-      <c r="H106" s="119">
+      <c r="H106" s="114">
         <v>-59.788110000000003</v>
       </c>
-      <c r="I106" s="119">
+      <c r="I106" s="114">
         <v>82.296890000000005</v>
       </c>
       <c r="J106" s="12">
@@ -48708,383 +48739,383 @@
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="120" t="s">
+      <c r="B107" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C107" s="119">
+      <c r="C107" s="114">
         <v>5.0452151000000001E-2</v>
       </c>
-      <c r="D107" s="119">
+      <c r="D107" s="114">
         <v>-0.84932138000000001</v>
       </c>
-      <c r="E107" s="119">
+      <c r="E107" s="114">
         <v>6.2439138999999998E-2</v>
       </c>
-      <c r="F107" s="119">
+      <c r="F107" s="114">
         <v>8.0361349999999998E-2</v>
       </c>
-      <c r="G107" s="119">
+      <c r="G107" s="114">
         <v>-2.8366555999999998</v>
       </c>
-      <c r="H107" s="119">
+      <c r="H107" s="114">
         <v>58.960495299999998</v>
       </c>
-      <c r="I107" s="119">
+      <c r="I107" s="114">
         <v>65.761799999999994</v>
       </c>
-      <c r="J107" s="119">
+      <c r="J107" s="114">
         <v>-4.9044860000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="120" t="s">
+      <c r="B108" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="119">
+      <c r="C108" s="114">
         <v>-3.4026457000000003E-2</v>
       </c>
-      <c r="D108" s="119">
+      <c r="D108" s="114">
         <v>1.20461565</v>
       </c>
-      <c r="E108" s="119">
+      <c r="E108" s="114">
         <v>-6.3762910000000001E-3</v>
       </c>
-      <c r="F108" s="119">
+      <c r="F108" s="114">
         <v>0.19805609900000001</v>
       </c>
-      <c r="G108" s="119">
+      <c r="G108" s="114">
         <v>13.3521334</v>
       </c>
-      <c r="H108" s="119">
+      <c r="H108" s="114">
         <v>181.4709192</v>
       </c>
-      <c r="I108" s="119">
+      <c r="I108" s="114">
         <v>-41.488697999999999</v>
       </c>
-      <c r="J108" s="119">
+      <c r="J108" s="114">
         <v>-0.14978696999999999</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="120" t="s">
+      <c r="B109" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="119">
+      <c r="C109" s="114">
         <v>-4.7501245999999997E-2</v>
       </c>
-      <c r="D109" s="119">
+      <c r="D109" s="114">
         <v>1.74970603</v>
       </c>
-      <c r="E109" s="119">
+      <c r="E109" s="114">
         <v>0.11777658000000001</v>
       </c>
-      <c r="F109" s="119">
+      <c r="F109" s="114">
         <v>3.2612387E-2</v>
       </c>
-      <c r="G109" s="119">
+      <c r="G109" s="114">
         <v>16.917255999999998</v>
       </c>
-      <c r="H109" s="119">
+      <c r="H109" s="114">
         <v>0.85448020000000002</v>
       </c>
-      <c r="I109" s="119">
+      <c r="I109" s="114">
         <v>-67.729643999999993</v>
       </c>
-      <c r="J109" s="119">
+      <c r="J109" s="114">
         <v>-9.1481580000000007E-2</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="119">
+      <c r="C110" s="114">
         <v>-8.6253979999999994E-3</v>
       </c>
-      <c r="D110" s="119">
+      <c r="D110" s="114">
         <v>-0.44704719999999998</v>
       </c>
-      <c r="E110" s="119">
+      <c r="E110" s="114">
         <v>5.4691019E-2</v>
       </c>
-      <c r="F110" s="119">
+      <c r="F110" s="114">
         <v>-2.5645174E-2</v>
       </c>
-      <c r="G110" s="119">
+      <c r="G110" s="114">
         <v>-10.098536599999999</v>
       </c>
-      <c r="H110" s="119">
+      <c r="H110" s="114">
         <v>-106.7959841</v>
       </c>
-      <c r="I110" s="119">
+      <c r="I110" s="114">
         <v>-12.8969</v>
       </c>
-      <c r="J110" s="119">
+      <c r="J110" s="114">
         <v>0.11759894</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="119">
+      <c r="C111" s="114">
         <v>-2.9643299999999998E-3</v>
       </c>
-      <c r="D111" s="119">
+      <c r="D111" s="114">
         <v>1.2535834400000001</v>
       </c>
-      <c r="E111" s="119">
+      <c r="E111" s="114">
         <v>-7.4125976999999996E-2</v>
       </c>
-      <c r="F111" s="119">
+      <c r="F111" s="114">
         <v>7.8625110000000008E-3</v>
       </c>
-      <c r="G111" s="119">
+      <c r="G111" s="114">
         <v>-11.0394921</v>
       </c>
-      <c r="H111" s="119">
+      <c r="H111" s="114">
         <v>-13.199087</v>
       </c>
-      <c r="I111" s="119">
+      <c r="I111" s="114">
         <v>39.956434999999999</v>
       </c>
-      <c r="J111" s="119">
+      <c r="J111" s="114">
         <v>9.0929280000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="120" t="s">
+      <c r="B112" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="119">
+      <c r="C112" s="114">
         <v>6.103608E-3</v>
       </c>
-      <c r="D112" s="119">
+      <c r="D112" s="114">
         <v>-0.33392835999999998</v>
       </c>
-      <c r="E112" s="119">
+      <c r="E112" s="114">
         <v>-2.4572120999999999E-2</v>
       </c>
-      <c r="F112" s="119">
+      <c r="F112" s="114">
         <v>2.0536878000000001E-2</v>
       </c>
-      <c r="G112" s="119">
+      <c r="G112" s="114">
         <v>-2.7633028999999998</v>
       </c>
-      <c r="H112" s="119">
+      <c r="H112" s="114">
         <v>78.856621500000003</v>
       </c>
-      <c r="I112" s="119">
+      <c r="I112" s="114">
         <v>7.4981669999999996</v>
       </c>
-      <c r="J112" s="119">
+      <c r="J112" s="114">
         <v>-8.8153620000000002E-2</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="120" t="s">
+      <c r="B113" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C113" s="119">
+      <c r="C113" s="114">
         <v>1.0153746999999999E-2</v>
       </c>
-      <c r="D113" s="119">
+      <c r="D113" s="114">
         <v>-1.41949232</v>
       </c>
-      <c r="E113" s="119">
+      <c r="E113" s="114">
         <v>-4.2956014000000001E-2</v>
       </c>
-      <c r="F113" s="119">
+      <c r="F113" s="114">
         <v>-4.2984873999999999E-2</v>
       </c>
-      <c r="G113" s="119">
+      <c r="G113" s="114">
         <v>5.4294386000000001</v>
       </c>
-      <c r="H113" s="119">
+      <c r="H113" s="114">
         <v>-28.695434299999999</v>
       </c>
-      <c r="I113" s="119">
+      <c r="I113" s="114">
         <v>-28.541810000000002</v>
       </c>
-      <c r="J113" s="119">
+      <c r="J113" s="114">
         <v>-4.7950769999999997E-2</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="120" t="s">
+      <c r="B114" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="119">
+      <c r="C114" s="114">
         <v>6.4744069999999997E-3</v>
       </c>
-      <c r="D114" s="119">
+      <c r="D114" s="114">
         <v>-0.44956068999999999</v>
       </c>
-      <c r="E114" s="119">
+      <c r="E114" s="114">
         <v>-2.9857970000000001E-3</v>
       </c>
-      <c r="F114" s="119">
+      <c r="F114" s="114">
         <v>-3.7700348000000002E-2</v>
       </c>
-      <c r="G114" s="119">
+      <c r="G114" s="114">
         <v>-1.3299996999999999</v>
       </c>
-      <c r="H114" s="119">
+      <c r="H114" s="114">
         <v>-77.003894200000005</v>
       </c>
-      <c r="I114" s="119">
+      <c r="I114" s="114">
         <v>-8.8866169999999993</v>
       </c>
-      <c r="J114" s="119">
+      <c r="J114" s="114">
         <v>0.12135965999999999</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="120" t="s">
+      <c r="B115" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="119">
+      <c r="C115" s="114">
         <v>-1.2447481999999999E-2</v>
       </c>
-      <c r="D115" s="119">
+      <c r="D115" s="114">
         <v>1.47714649</v>
       </c>
-      <c r="E115" s="119">
+      <c r="E115" s="114">
         <v>-1.6423900000000001E-3</v>
       </c>
-      <c r="F115" s="119">
+      <c r="F115" s="114">
         <v>2.3074232E-2</v>
       </c>
-      <c r="G115" s="119">
+      <c r="G115" s="114">
         <v>-0.929226</v>
       </c>
-      <c r="H115" s="119">
+      <c r="H115" s="114">
         <v>27.294792699999999</v>
       </c>
-      <c r="I115" s="119">
+      <c r="I115" s="114">
         <v>28.149263999999999</v>
       </c>
-      <c r="J115" s="119">
+      <c r="J115" s="114">
         <v>5.5069279999999998E-2</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="120" t="s">
+      <c r="B116" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="119">
+      <c r="C116" s="114">
         <v>-1.5110360000000001E-3</v>
       </c>
-      <c r="D116" s="119">
+      <c r="D116" s="114">
         <v>-8.7954969999999993E-2</v>
       </c>
-      <c r="E116" s="119">
+      <c r="E116" s="114">
         <v>-1.1374810000000001E-2</v>
       </c>
-      <c r="F116" s="119">
+      <c r="F116" s="114">
         <v>1.7451812000000001E-2</v>
       </c>
-      <c r="G116" s="119">
+      <c r="G116" s="114">
         <v>-0.75222719999999998</v>
       </c>
-      <c r="H116" s="119">
+      <c r="H116" s="114">
         <v>72.650949100000005</v>
       </c>
-      <c r="I116" s="119">
+      <c r="I116" s="114">
         <v>10.580264</v>
       </c>
-      <c r="J116" s="119">
+      <c r="J116" s="114">
         <v>-0.11290451999999999</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="120" t="s">
+      <c r="B117" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="119">
+      <c r="C117" s="114">
         <v>1.12503E-2</v>
       </c>
-      <c r="D117" s="119">
+      <c r="D117" s="114">
         <v>-1.32763746</v>
       </c>
-      <c r="E117" s="119">
+      <c r="E117" s="114">
         <v>1.4809070000000001E-2</v>
       </c>
-      <c r="F117" s="119">
+      <c r="F117" s="114">
         <v>-3.3820678E-2</v>
       </c>
-      <c r="G117" s="119">
+      <c r="G117" s="114">
         <v>4.6352617</v>
       </c>
-      <c r="H117" s="119">
+      <c r="H117" s="114">
         <v>-13.333145</v>
       </c>
-      <c r="I117" s="119">
+      <c r="I117" s="114">
         <v>-18.408809000000002</v>
       </c>
-      <c r="J117" s="119">
+      <c r="J117" s="114">
         <v>-4.1215109999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="120" t="s">
+      <c r="B118" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="119">
+      <c r="C118" s="114">
         <v>6.111755E-3</v>
       </c>
-      <c r="D118" s="119">
+      <c r="D118" s="114">
         <v>-7.6243199999999997E-2</v>
       </c>
-      <c r="E118" s="119">
+      <c r="E118" s="114">
         <v>2.7484240000000002E-3</v>
       </c>
-      <c r="F118" s="119">
+      <c r="F118" s="114">
         <v>-1.3162623E-2</v>
       </c>
-      <c r="G118" s="119">
+      <c r="G118" s="114">
         <v>-1.4760271</v>
       </c>
-      <c r="H118" s="119">
+      <c r="H118" s="114">
         <v>-67.603893299999996</v>
       </c>
-      <c r="I118" s="119">
+      <c r="I118" s="114">
         <v>-10.350858000000001</v>
       </c>
-      <c r="J118" s="119">
+      <c r="J118" s="114">
         <v>0.10449964</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="118"/>
-      <c r="C119" s="128" t="s">
+      <c r="B119" s="113"/>
+      <c r="C119" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="124">
+      <c r="D119" s="119">
         <f>COUNTIF(D106:D118,"&lt;0")</f>
         <v>9</v>
       </c>
-      <c r="E119" s="125">
+      <c r="E119" s="120">
         <f t="shared" ref="E119:F119" si="7">COUNTIF(E106:E118,"&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="F119" s="124">
+      <c r="F119" s="119">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G119" s="126">
+      <c r="G119" s="121">
         <f>COUNTIF(G106:G118,"&lt;0")</f>
         <v>8</v>
       </c>
-      <c r="H119" s="127">
+      <c r="H119" s="122">
         <f t="shared" ref="H119:J119" si="8">COUNTIF(H106:H118,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="I119" s="127">
+      <c r="I119" s="122">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="J119" s="126">
+      <c r="J119" s="121">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -49134,454 +49165,454 @@
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="118" t="s">
+      <c r="B124" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="118"/>
-      <c r="D124" s="118"/>
-      <c r="E124" s="118"/>
-      <c r="F124" s="118"/>
-      <c r="G124" s="119"/>
-      <c r="H124" s="119"/>
-      <c r="I124" s="119"/>
-      <c r="J124" s="119"/>
+      <c r="C124" s="113"/>
+      <c r="D124" s="113"/>
+      <c r="E124" s="113"/>
+      <c r="F124" s="113"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114"/>
+      <c r="J124" s="114"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="121" t="s">
+      <c r="B125" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D125" s="122" t="s">
+      <c r="D125" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="E125" s="123" t="s">
+      <c r="E125" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F125" s="123" t="s">
+      <c r="F125" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G125" s="122" t="s">
+      <c r="G125" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="H125" s="123" t="s">
+      <c r="H125" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="I125" s="123" t="s">
+      <c r="I125" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="J125" s="123" t="s">
+      <c r="J125" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="120" t="s">
+      <c r="B126" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C126" s="119">
+      <c r="C126" s="114">
         <v>0.186022453</v>
       </c>
-      <c r="D126" s="119">
+      <c r="D126" s="114">
         <v>-9.7993351499999992</v>
       </c>
-      <c r="E126" s="119">
+      <c r="E126" s="114">
         <v>1.029821E-2</v>
       </c>
-      <c r="F126" s="119">
+      <c r="F126" s="114">
         <v>-2.3881289999999999E-2</v>
       </c>
-      <c r="G126" s="119">
+      <c r="G126" s="114">
         <v>8.4171880000000008E-3</v>
       </c>
-      <c r="H126" s="119">
+      <c r="H126" s="114">
         <v>-1.1731528000000001E-3</v>
       </c>
-      <c r="I126" s="119">
+      <c r="I126" s="114">
         <v>3.8709568999999999E-2</v>
       </c>
-      <c r="J126" s="119">
+      <c r="J126" s="114">
         <v>-4.6236109999999997E-3</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C127" s="119">
+      <c r="C127" s="114">
         <v>1.1281052999999999E-2</v>
       </c>
-      <c r="D127" s="119">
+      <c r="D127" s="114">
         <v>1.2896934900000001</v>
       </c>
-      <c r="E127" s="119">
+      <c r="E127" s="114">
         <v>2.5388363000000001E-2</v>
       </c>
-      <c r="F127" s="119">
+      <c r="F127" s="114">
         <v>0.11240312</v>
       </c>
-      <c r="G127" s="119">
+      <c r="G127" s="114">
         <v>-1.902852E-3</v>
       </c>
-      <c r="H127" s="119">
+      <c r="H127" s="114">
         <v>2.2645804000000001E-3</v>
       </c>
-      <c r="I127" s="119">
+      <c r="I127" s="114">
         <v>1.3635154999999999E-2</v>
       </c>
-      <c r="J127" s="119">
+      <c r="J127" s="114">
         <v>-2.3028107999999999E-2</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="120" t="s">
+      <c r="B128" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C128" s="119">
+      <c r="C128" s="114">
         <v>-4.7583154000000003E-2</v>
       </c>
-      <c r="D128" s="119">
+      <c r="D128" s="114">
         <v>1.44222395</v>
       </c>
-      <c r="E128" s="119">
+      <c r="E128" s="114">
         <v>-4.8893444000000001E-2</v>
       </c>
-      <c r="F128" s="119">
+      <c r="F128" s="114">
         <v>0.18459956999999999</v>
       </c>
-      <c r="G128" s="119">
+      <c r="G128" s="114">
         <v>7.9320499999999995E-3</v>
       </c>
-      <c r="H128" s="119">
+      <c r="H128" s="114">
         <v>1.3227876E-2</v>
       </c>
-      <c r="I128" s="119">
+      <c r="I128" s="114">
         <v>-4.3382193999999999E-2</v>
       </c>
-      <c r="J128" s="119">
+      <c r="J128" s="114">
         <v>-0.100165305</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" s="120" t="s">
+      <c r="B129" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="119">
+      <c r="C129" s="114">
         <v>-5.6983205000000002E-2</v>
       </c>
-      <c r="D129" s="119">
+      <c r="D129" s="114">
         <v>2.49237536</v>
       </c>
-      <c r="E129" s="119">
+      <c r="E129" s="114">
         <v>1.6006452000000001E-2</v>
       </c>
-      <c r="F129" s="119">
+      <c r="F129" s="114">
         <v>1.031229E-2</v>
       </c>
-      <c r="G129" s="119">
+      <c r="G129" s="114">
         <v>9.8716810000000011E-4</v>
       </c>
-      <c r="H129" s="119">
+      <c r="H129" s="114">
         <v>6.0967271000000002E-3</v>
       </c>
-      <c r="I129" s="119">
+      <c r="I129" s="114">
         <v>-5.6868854000000003E-2</v>
       </c>
-      <c r="J129" s="119">
+      <c r="J129" s="114">
         <v>-5.3984692000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="120" t="s">
+      <c r="B130" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="119">
+      <c r="C130" s="114">
         <v>-3.3724010000000001E-3</v>
       </c>
-      <c r="D130" s="119">
+      <c r="D130" s="114">
         <v>-0.44911697</v>
       </c>
-      <c r="E130" s="119">
+      <c r="E130" s="114">
         <v>1.2672371E-2</v>
       </c>
-      <c r="F130" s="119">
+      <c r="F130" s="114">
         <v>-7.2936899999999999E-2</v>
       </c>
-      <c r="G130" s="119">
+      <c r="G130" s="114">
         <v>-1.7847270000000001E-3</v>
       </c>
-      <c r="H130" s="119">
+      <c r="H130" s="114">
         <v>7.5422231999999999E-3</v>
       </c>
-      <c r="I130" s="119">
+      <c r="I130" s="114">
         <v>5.3067940000000001E-3</v>
       </c>
-      <c r="J130" s="119">
+      <c r="J130" s="114">
         <v>6.2838143999999999E-2</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="120" t="s">
+      <c r="B131" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C131" s="119">
+      <c r="C131" s="114">
         <v>1.595682E-2</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="114">
         <v>0.68557517000000001</v>
       </c>
-      <c r="E131" s="119">
+      <c r="E131" s="114">
         <v>2.829355E-3</v>
       </c>
-      <c r="F131" s="119">
+      <c r="F131" s="114">
         <v>-4.4205910000000001E-2</v>
       </c>
-      <c r="G131" s="119">
+      <c r="G131" s="114">
         <v>-3.810178E-3</v>
       </c>
-      <c r="H131" s="119">
+      <c r="H131" s="114">
         <v>6.3228983000000001E-3</v>
       </c>
-      <c r="I131" s="119">
+      <c r="I131" s="114">
         <v>1.8114104999999998E-2</v>
       </c>
-      <c r="J131" s="119">
+      <c r="J131" s="114">
         <v>7.3580972999999994E-2</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="120" t="s">
+      <c r="B132" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="119">
+      <c r="C132" s="114">
         <v>2.0459150000000001E-3</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="114">
         <v>0.46078786999999999</v>
       </c>
-      <c r="E132" s="119">
+      <c r="E132" s="114">
         <v>-2.3660404999999999E-2</v>
       </c>
-      <c r="F132" s="119">
+      <c r="F132" s="114">
         <v>1.300687E-2</v>
       </c>
-      <c r="G132" s="119">
+      <c r="G132" s="114">
         <v>1.6984159999999999E-3</v>
       </c>
-      <c r="H132" s="119">
+      <c r="H132" s="114">
         <v>9.8210842999999996E-3</v>
       </c>
-      <c r="I132" s="119">
+      <c r="I132" s="114">
         <v>-3.445296E-3</v>
       </c>
-      <c r="J132" s="119">
+      <c r="J132" s="114">
         <v>-2.8050195E-2</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="120" t="s">
+      <c r="B133" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C133" s="119">
+      <c r="C133" s="114">
         <v>-1.1773442E-2</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="114">
         <v>-0.24615310000000001</v>
       </c>
-      <c r="E133" s="119">
+      <c r="E133" s="114">
         <v>-1.048289E-3</v>
       </c>
-      <c r="F133" s="119">
+      <c r="F133" s="114">
         <v>3.8954200000000001E-3</v>
       </c>
-      <c r="G133" s="119">
+      <c r="G133" s="114">
         <v>5.1287440000000002E-5</v>
       </c>
-      <c r="H133" s="119">
+      <c r="H133" s="114">
         <v>1.2859098000000001E-3</v>
       </c>
-      <c r="I133" s="119">
+      <c r="I133" s="114">
         <v>-2.9475067000000001E-2</v>
       </c>
-      <c r="J133" s="119">
+      <c r="J133" s="114">
         <v>-2.9682172999999999E-2</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="120" t="s">
+      <c r="B134" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C134" s="119">
+      <c r="C134" s="114">
         <v>-1.0822826000000001E-2</v>
       </c>
-      <c r="D134" s="119">
+      <c r="D134" s="114">
         <v>6.5421400000000005E-2</v>
       </c>
-      <c r="E134" s="119">
+      <c r="E134" s="114">
         <v>1.1558715000000001E-2</v>
       </c>
-      <c r="F134" s="119">
+      <c r="F134" s="114">
         <v>-1.542989E-2</v>
       </c>
-      <c r="G134" s="119">
+      <c r="G134" s="114">
         <v>2.1437470000000001E-3</v>
       </c>
-      <c r="H134" s="119">
+      <c r="H134" s="114">
         <v>-6.5301370000000005E-4</v>
       </c>
-      <c r="I134" s="119">
+      <c r="I134" s="114">
         <v>-4.2523659999999996E-3</v>
       </c>
-      <c r="J134" s="119">
+      <c r="J134" s="114">
         <v>5.1599309000000003E-2</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="120" t="s">
+      <c r="B135" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C135" s="119">
+      <c r="C135" s="114">
         <v>-1.9389349999999999E-3</v>
       </c>
-      <c r="D135" s="119">
+      <c r="D135" s="114">
         <v>0.60899599999999998</v>
       </c>
-      <c r="E135" s="119">
+      <c r="E135" s="114">
         <v>3.4214029999999999E-3</v>
       </c>
-      <c r="F135" s="119">
+      <c r="F135" s="114">
         <v>-1.10562E-2</v>
       </c>
-      <c r="G135" s="119">
+      <c r="G135" s="114">
         <v>-1.0933049999999999E-3</v>
       </c>
-      <c r="H135" s="119">
+      <c r="H135" s="114">
         <v>-4.6461413999999996E-3</v>
       </c>
-      <c r="I135" s="119">
+      <c r="I135" s="114">
         <v>1.2348672999999999E-2</v>
       </c>
-      <c r="J135" s="119">
+      <c r="J135" s="114">
         <v>4.2508968000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="120" t="s">
+      <c r="B136" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="119">
+      <c r="C136" s="114">
         <v>4.6165959999999997E-3</v>
       </c>
-      <c r="D136" s="119">
+      <c r="D136" s="114">
         <v>3.8577609999999998E-2</v>
       </c>
-      <c r="E136" s="119">
+      <c r="E136" s="114">
         <v>-1.5867367E-2</v>
       </c>
-      <c r="F136" s="119">
+      <c r="F136" s="114">
         <v>-1.269985E-2</v>
       </c>
-      <c r="G136" s="119">
+      <c r="G136" s="114">
         <v>1.022273E-3</v>
       </c>
-      <c r="H136" s="119">
+      <c r="H136" s="114">
         <v>-1.7197817999999999E-3</v>
       </c>
-      <c r="I136" s="119">
+      <c r="I136" s="114">
         <v>1.5509125E-2</v>
       </c>
-      <c r="J136" s="119">
+      <c r="J136" s="114">
         <v>-4.1908496000000003E-2</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="120" t="s">
+      <c r="B137" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C137" s="119">
+      <c r="C137" s="114">
         <v>5.8081579999999999E-3</v>
       </c>
-      <c r="D137" s="119">
+      <c r="D137" s="114">
         <v>-0.61898153</v>
       </c>
-      <c r="E137" s="119">
+      <c r="E137" s="114">
         <v>-2.8825209999999999E-3</v>
       </c>
-      <c r="F137" s="119">
+      <c r="F137" s="114">
         <v>-2.327889E-2</v>
       </c>
-      <c r="G137" s="119">
+      <c r="G137" s="114">
         <v>-1.337013E-3</v>
       </c>
-      <c r="H137" s="119">
+      <c r="H137" s="114">
         <v>-5.6268906E-3</v>
       </c>
-      <c r="I137" s="119">
+      <c r="I137" s="114">
         <v>-4.3107400000000004E-3</v>
       </c>
-      <c r="J137" s="119">
+      <c r="J137" s="114">
         <v>-2.7960358000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="120" t="s">
+      <c r="B138" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="119">
+      <c r="C138" s="114">
         <v>3.1540790000000002E-3</v>
       </c>
-      <c r="D138" s="119">
+      <c r="D138" s="114">
         <v>-0.13279769999999999</v>
       </c>
-      <c r="E138" s="119">
+      <c r="E138" s="114">
         <v>8.9279570000000003E-3</v>
       </c>
-      <c r="F138" s="119">
+      <c r="F138" s="114">
         <v>-1.340883E-2</v>
       </c>
-      <c r="G138" s="119">
+      <c r="G138" s="114">
         <v>9.4769720000000002E-4</v>
       </c>
-      <c r="H138" s="119">
+      <c r="H138" s="114">
         <v>-3.5443511999999999E-3</v>
       </c>
-      <c r="I138" s="119">
+      <c r="I138" s="114">
         <v>2.3146260000000002E-3</v>
       </c>
-      <c r="J138" s="119">
+      <c r="J138" s="114">
         <v>3.6928573999999999E-2</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="118"/>
-      <c r="C139" s="128" t="s">
+      <c r="B139" s="113"/>
+      <c r="C139" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D139" s="124">
+      <c r="D139" s="119">
         <f>COUNTIF(D126:D138,"&lt;0")</f>
         <v>5</v>
       </c>
-      <c r="E139" s="125">
+      <c r="E139" s="120">
         <f t="shared" ref="E139:F139" si="9">COUNTIF(E126:E138,"&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="F139" s="124">
+      <c r="F139" s="119">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G139" s="126">
+      <c r="G139" s="121">
         <f>COUNTIF(G126:G138,"&lt;0")</f>
         <v>5</v>
       </c>
-      <c r="H139" s="127">
+      <c r="H139" s="122">
         <f t="shared" ref="H139:J139" si="10">COUNTIF(H126:H138,"&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="I139" s="127">
+      <c r="I139" s="122">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="J139" s="126">
+      <c r="J139" s="121">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -49642,454 +49673,454 @@
       <c r="J144" s="12"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C145" s="118"/>
-      <c r="D145" s="118"/>
-      <c r="E145" s="118"/>
-      <c r="F145" s="118"/>
-      <c r="G145" s="119"/>
-      <c r="H145" s="119"/>
-      <c r="I145" s="119"/>
-      <c r="J145" s="119"/>
+      <c r="C145" s="113"/>
+      <c r="D145" s="113"/>
+      <c r="E145" s="113"/>
+      <c r="F145" s="113"/>
+      <c r="G145" s="114"/>
+      <c r="H145" s="114"/>
+      <c r="I145" s="114"/>
+      <c r="J145" s="114"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" s="121" t="s">
+      <c r="B146" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D146" s="122" t="s">
+      <c r="D146" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E146" s="123" t="s">
+      <c r="E146" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F146" s="123" t="s">
+      <c r="F146" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G146" s="122" t="s">
+      <c r="G146" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="H146" s="123" t="s">
+      <c r="H146" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="I146" s="123" t="s">
+      <c r="I146" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="J146" s="123" t="s">
+      <c r="J146" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="120" t="s">
+      <c r="B147" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C147" s="119">
+      <c r="C147" s="114">
         <v>0.18343214799999999</v>
       </c>
-      <c r="D147" s="119">
+      <c r="D147" s="114">
         <v>-0.82658157099999996</v>
       </c>
-      <c r="E147" s="119">
+      <c r="E147" s="114">
         <v>1.5543344299999999E-2</v>
       </c>
-      <c r="F147" s="119">
+      <c r="F147" s="114">
         <v>-1.3706789E-2</v>
       </c>
-      <c r="G147" s="119">
+      <c r="G147" s="114">
         <v>9.0735205999999992E-3</v>
       </c>
-      <c r="H147" s="129">
+      <c r="H147" s="124">
         <v>-9.5909850000000008E-6</v>
       </c>
-      <c r="I147" s="119">
+      <c r="I147" s="114">
         <v>4.2846591000000003E-2</v>
       </c>
-      <c r="J147" s="119">
+      <c r="J147" s="114">
         <v>-1.6324040000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="120" t="s">
+      <c r="B148" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C148" s="119">
+      <c r="C148" s="114">
         <v>1.2185751E-2</v>
       </c>
-      <c r="D148" s="119">
+      <c r="D148" s="114">
         <v>0.405913144</v>
       </c>
-      <c r="E148" s="119">
+      <c r="E148" s="114">
         <v>3.4025362199999999E-2</v>
       </c>
-      <c r="F148" s="119">
+      <c r="F148" s="114">
         <v>0.124585605</v>
       </c>
-      <c r="G148" s="119">
+      <c r="G148" s="114">
         <v>-1.7781593E-3</v>
       </c>
-      <c r="H148" s="130">
+      <c r="H148" s="125">
         <v>9.0088009999999999E-4</v>
       </c>
-      <c r="I148" s="119">
+      <c r="I148" s="114">
         <v>1.2304493E-2</v>
       </c>
-      <c r="J148" s="119">
+      <c r="J148" s="114">
         <v>-1.9932999999999999E-2</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="120" t="s">
+      <c r="B149" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="119">
+      <c r="C149" s="114">
         <v>-4.5892036999999997E-2</v>
       </c>
-      <c r="D149" s="119">
+      <c r="D149" s="114">
         <v>0.21330966400000001</v>
       </c>
-      <c r="E149" s="119">
+      <c r="E149" s="114">
         <v>-4.3067242999999998E-2</v>
       </c>
-      <c r="F149" s="119">
+      <c r="F149" s="114">
         <v>0.17222747299999999</v>
       </c>
-      <c r="G149" s="119">
+      <c r="G149" s="114">
         <v>7.5692340000000002E-3</v>
       </c>
-      <c r="H149" s="130">
+      <c r="H149" s="125">
         <v>1.129173E-2</v>
       </c>
-      <c r="I149" s="119">
+      <c r="I149" s="114">
         <v>-4.5508580999999999E-2</v>
       </c>
-      <c r="J149" s="119">
+      <c r="J149" s="114">
         <v>-8.9441339999999994E-2</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="120" t="s">
+      <c r="B150" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="119">
+      <c r="C150" s="114">
         <v>-5.7696481000000001E-2</v>
       </c>
-      <c r="D150" s="119">
+      <c r="D150" s="114">
         <v>0.19056916400000001</v>
       </c>
-      <c r="E150" s="119">
+      <c r="E150" s="114">
         <v>9.7430559999999995E-4</v>
       </c>
-      <c r="F150" s="119">
+      <c r="F150" s="114">
         <v>5.9638599999999996E-3</v>
       </c>
-      <c r="G150" s="119">
+      <c r="G150" s="114">
         <v>3.3421889999999999E-4</v>
       </c>
-      <c r="H150" s="130">
+      <c r="H150" s="125">
         <v>3.2352380000000001E-3</v>
       </c>
-      <c r="I150" s="119">
+      <c r="I150" s="114">
         <v>-5.1516311000000002E-2</v>
       </c>
-      <c r="J150" s="119">
+      <c r="J150" s="114">
         <v>-4.9478250000000001E-2</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="120" t="s">
+      <c r="B151" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="119">
+      <c r="C151" s="114">
         <v>-4.9325790000000003E-3</v>
       </c>
-      <c r="D151" s="119">
+      <c r="D151" s="114">
         <v>-0.21006193300000001</v>
       </c>
-      <c r="E151" s="119">
+      <c r="E151" s="114">
         <v>5.5595918999999999E-3</v>
       </c>
-      <c r="F151" s="119">
+      <c r="F151" s="114">
         <v>-7.7467402000000005E-2</v>
       </c>
-      <c r="G151" s="119">
+      <c r="G151" s="114">
         <v>-1.5043115000000001E-3</v>
       </c>
-      <c r="H151" s="130">
+      <c r="H151" s="125">
         <v>6.3374160000000002E-3</v>
       </c>
-      <c r="I151" s="119">
+      <c r="I151" s="114">
         <v>1.1663725999999999E-2</v>
       </c>
-      <c r="J151" s="119">
+      <c r="J151" s="114">
         <v>6.6563529999999996E-2</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="120" t="s">
+      <c r="B152" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C152" s="119">
+      <c r="C152" s="114">
         <v>1.7072542E-2</v>
       </c>
-      <c r="D152" s="119">
+      <c r="D152" s="114">
         <v>4.7619135999999999E-2</v>
       </c>
-      <c r="E152" s="119">
+      <c r="E152" s="114">
         <v>1.2699461E-2</v>
       </c>
-      <c r="F152" s="119">
+      <c r="F152" s="114">
         <v>-4.1010201000000003E-2</v>
       </c>
-      <c r="G152" s="119">
+      <c r="G152" s="114">
         <v>-3.0022247000000002E-3</v>
       </c>
-      <c r="H152" s="130">
+      <c r="H152" s="125">
         <v>5.2488739999999997E-3</v>
       </c>
-      <c r="I152" s="119">
+      <c r="I152" s="114">
         <v>1.8140739999999999E-2</v>
       </c>
-      <c r="J152" s="119">
+      <c r="J152" s="114">
         <v>7.9573430000000001E-2</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="120" t="s">
+      <c r="B153" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C153" s="119">
+      <c r="C153" s="114">
         <v>6.8650969999999997E-3</v>
       </c>
-      <c r="D153" s="119">
+      <c r="D153" s="114">
         <v>9.3475897000000002E-2</v>
       </c>
-      <c r="E153" s="119">
+      <c r="E153" s="114">
         <v>-1.39640479E-2</v>
       </c>
-      <c r="F153" s="119">
+      <c r="F153" s="114">
         <v>5.408843E-3</v>
       </c>
-      <c r="G153" s="119">
+      <c r="G153" s="114">
         <v>1.5472376999999999E-3</v>
       </c>
-      <c r="H153" s="130">
+      <c r="H153" s="125">
         <v>1.021422E-2</v>
       </c>
-      <c r="I153" s="119">
+      <c r="I153" s="114">
         <v>-5.4291579999999999E-3</v>
       </c>
-      <c r="J153" s="119">
+      <c r="J153" s="114">
         <v>-2.825517E-2</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="120" t="s">
+      <c r="B154" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="119">
+      <c r="C154" s="114">
         <v>-1.0920454E-2</v>
       </c>
-      <c r="D154" s="119">
+      <c r="D154" s="114">
         <v>-3.4251851999999999E-2</v>
       </c>
-      <c r="E154" s="119">
+      <c r="E154" s="114">
         <v>-6.6248128999999998E-3</v>
       </c>
-      <c r="F154" s="119">
+      <c r="F154" s="114">
         <v>7.8230130000000002E-3</v>
       </c>
-      <c r="G154" s="119">
+      <c r="G154" s="114">
         <v>-6.168066E-4</v>
       </c>
-      <c r="H154" s="130">
+      <c r="H154" s="125">
         <v>2.3392119999999998E-3</v>
       </c>
-      <c r="I154" s="119">
+      <c r="I154" s="114">
         <v>-2.7634382999999998E-2</v>
       </c>
-      <c r="J154" s="119">
+      <c r="J154" s="114">
         <v>-4.0332670000000001E-2</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="120" t="s">
+      <c r="B155" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C155" s="119">
+      <c r="C155" s="114">
         <v>-1.2018571E-2</v>
       </c>
-      <c r="D155" s="119">
+      <c r="D155" s="114">
         <v>-1.5920680999999999E-2</v>
       </c>
-      <c r="E155" s="119">
+      <c r="E155" s="114">
         <v>8.0964334999999998E-3</v>
       </c>
-      <c r="F155" s="119">
+      <c r="F155" s="114">
         <v>-9.8748350000000002E-3</v>
       </c>
-      <c r="G155" s="119">
+      <c r="G155" s="114">
         <v>1.7056015999999999E-3</v>
       </c>
-      <c r="H155" s="130">
+      <c r="H155" s="125">
         <v>7.7660350000000001E-4</v>
       </c>
-      <c r="I155" s="119">
+      <c r="I155" s="114">
         <v>-4.6717080000000001E-3</v>
       </c>
-      <c r="J155" s="119">
+      <c r="J155" s="114">
         <v>4.5210119999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="120" t="s">
+      <c r="B156" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="119">
+      <c r="C156" s="114">
         <v>-5.0926560000000001E-3</v>
       </c>
-      <c r="D156" s="119">
+      <c r="D156" s="114">
         <v>6.4506102999999995E-2</v>
       </c>
-      <c r="E156" s="119">
+      <c r="E156" s="114">
         <v>4.8121008E-3</v>
       </c>
-      <c r="F156" s="119">
+      <c r="F156" s="114">
         <v>-7.8397129999999999E-3</v>
       </c>
-      <c r="G156" s="119">
+      <c r="G156" s="114">
         <v>-6.2507440000000001E-4</v>
       </c>
-      <c r="H156" s="130">
+      <c r="H156" s="125">
         <v>-3.8555149999999999E-3</v>
       </c>
-      <c r="I156" s="119">
+      <c r="I156" s="114">
         <v>7.2549090000000004E-3</v>
       </c>
-      <c r="J156" s="119">
+      <c r="J156" s="114">
         <v>4.9488999999999998E-2</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="120" t="s">
+      <c r="B157" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C157" s="119">
+      <c r="C157" s="114">
         <v>2.5748009999999998E-3</v>
       </c>
-      <c r="D157" s="119">
+      <c r="D157" s="114">
         <v>-6.5061889999999999E-3</v>
       </c>
-      <c r="E157" s="119">
+      <c r="E157" s="114">
         <v>-1.43140353E-2</v>
       </c>
-      <c r="F157" s="119">
+      <c r="F157" s="114">
         <v>-1.2165321999999999E-2</v>
       </c>
-      <c r="G157" s="119">
+      <c r="G157" s="114">
         <v>1.1450309000000001E-3</v>
       </c>
-      <c r="H157" s="130">
+      <c r="H157" s="125">
         <v>-1.1546569999999999E-3</v>
       </c>
-      <c r="I157" s="119">
+      <c r="I157" s="114">
         <v>1.2920920000000001E-2</v>
       </c>
-      <c r="J157" s="119">
+      <c r="J157" s="114">
         <v>-3.3133299999999997E-2</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="120" t="s">
+      <c r="B158" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C158" s="119">
+      <c r="C158" s="114">
         <v>6.7265750000000003E-3</v>
       </c>
-      <c r="D158" s="119">
+      <c r="D158" s="114">
         <v>-7.8401483999999994E-2</v>
       </c>
-      <c r="E158" s="119">
+      <c r="E158" s="114">
         <v>-3.4140397E-3</v>
       </c>
-      <c r="F158" s="119">
+      <c r="F158" s="114">
         <v>-2.3610743E-2</v>
       </c>
-      <c r="G158" s="119">
+      <c r="G158" s="114">
         <v>-1.3015355000000001E-3</v>
       </c>
-      <c r="H158" s="130">
+      <c r="H158" s="125">
         <v>-4.9651820000000003E-3</v>
       </c>
-      <c r="I158" s="119">
+      <c r="I158" s="114">
         <v>-1.190265E-3</v>
       </c>
-      <c r="J158" s="119">
+      <c r="J158" s="114">
         <v>-3.0223719999999999E-2</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="120" t="s">
+      <c r="B159" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="119">
+      <c r="C159" s="114">
         <v>5.4378969999999997E-3</v>
       </c>
-      <c r="D159" s="119">
+      <c r="D159" s="114">
         <v>6.5112700000000004E-3</v>
       </c>
-      <c r="E159" s="119">
+      <c r="E159" s="114">
         <v>8.1896773999999995E-3</v>
       </c>
-      <c r="F159" s="119">
+      <c r="F159" s="114">
         <v>-1.6191974000000001E-2</v>
       </c>
-      <c r="G159" s="119">
+      <c r="G159" s="114">
         <v>8.6343430000000005E-4</v>
       </c>
-      <c r="H159" s="130">
+      <c r="H159" s="125">
         <v>-3.2262480000000001E-3</v>
       </c>
-      <c r="I159" s="119">
+      <c r="I159" s="114">
         <v>3.738239E-3</v>
       </c>
-      <c r="J159" s="119">
+      <c r="J159" s="114">
         <v>2.8893459999999999E-2</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="118"/>
-      <c r="C160" s="128" t="s">
+      <c r="B160" s="113"/>
+      <c r="C160" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D160" s="124">
+      <c r="D160" s="119">
         <f>COUNTIF(D147:D159,"&lt;0")</f>
         <v>6</v>
       </c>
-      <c r="E160" s="125">
+      <c r="E160" s="120">
         <f t="shared" ref="E160:F160" si="11">COUNTIF(E147:E159,"&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="F160" s="124">
+      <c r="F160" s="119">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G160" s="126">
+      <c r="G160" s="121">
         <f>COUNTIF(G147:G159,"&lt;0")</f>
         <v>6</v>
       </c>
-      <c r="H160" s="127">
+      <c r="H160" s="122">
         <f t="shared" ref="H160:J160" si="12">COUNTIF(H147:H159,"&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="I160" s="127">
+      <c r="I160" s="122">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="J160" s="126">
+      <c r="J160" s="121">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
@@ -50117,454 +50148,454 @@
       <c r="J162" s="12"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="118" t="s">
+      <c r="B163" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="C163" s="118"/>
-      <c r="D163" s="118"/>
-      <c r="E163" s="118"/>
-      <c r="F163" s="118"/>
-      <c r="G163" s="119"/>
-      <c r="H163" s="119"/>
-      <c r="I163" s="119"/>
-      <c r="J163" s="119"/>
+      <c r="C163" s="113"/>
+      <c r="D163" s="113"/>
+      <c r="E163" s="113"/>
+      <c r="F163" s="113"/>
+      <c r="G163" s="114"/>
+      <c r="H163" s="114"/>
+      <c r="I163" s="114"/>
+      <c r="J163" s="114"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="121" t="s">
+      <c r="B164" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D164" s="122" t="s">
+      <c r="D164" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E164" s="123" t="s">
+      <c r="E164" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="F164" s="123" t="s">
+      <c r="F164" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="G164" s="122" t="s">
+      <c r="G164" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="H164" s="123" t="s">
+      <c r="H164" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="I164" s="123" t="s">
+      <c r="I164" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="J164" s="123" t="s">
+      <c r="J164" s="118" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="120" t="s">
+      <c r="B165" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C165" s="119">
-        <v>0.18343214799999999</v>
-      </c>
-      <c r="D165" s="119">
+      <c r="C165" s="114">
+        <v>0.1853593311</v>
+      </c>
+      <c r="D165" s="114">
         <v>-10.27860735</v>
       </c>
-      <c r="E165" s="119">
+      <c r="E165" s="114">
         <v>-0.13527024000000001</v>
       </c>
-      <c r="F165" s="119">
+      <c r="F165" s="114">
         <v>-4.8336360799999999E-2</v>
       </c>
-      <c r="G165" s="130">
+      <c r="G165" s="125">
         <v>8.6392629999999995E-3</v>
       </c>
-      <c r="H165" s="129">
+      <c r="H165" s="124">
         <v>-5.7182010000000004E-4</v>
       </c>
-      <c r="I165" s="119">
+      <c r="I165" s="114">
         <v>3.2377783799999997E-2</v>
       </c>
-      <c r="J165" s="119">
+      <c r="J165" s="114">
         <v>-1.289973E-2</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="120" t="s">
+      <c r="B166" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C166" s="119">
-        <v>1.2185751E-2</v>
-      </c>
-      <c r="D166" s="119">
+      <c r="C166" s="114">
+        <v>3.9541161999999998E-3</v>
+      </c>
+      <c r="D166" s="114">
         <v>1.55188478</v>
       </c>
-      <c r="E166" s="119">
+      <c r="E166" s="114">
         <v>6.8944080000000005E-2</v>
       </c>
-      <c r="F166" s="119">
+      <c r="F166" s="114">
         <v>9.7607844999999999E-2</v>
       </c>
-      <c r="G166" s="130">
+      <c r="G166" s="125">
         <v>-1.943529E-3</v>
       </c>
-      <c r="H166" s="130">
+      <c r="H166" s="125">
         <v>4.4110890999999996E-3</v>
       </c>
-      <c r="I166" s="119">
+      <c r="I166" s="114">
         <v>8.6711562000000002E-3</v>
       </c>
-      <c r="J166" s="119">
+      <c r="J166" s="114">
         <v>-3.2770170000000001E-2</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="120" t="s">
+      <c r="B167" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="C167" s="119">
-        <v>-4.5892036999999997E-2</v>
-      </c>
-      <c r="D167" s="119">
+      <c r="C167" s="114">
+        <v>-5.44785172E-2</v>
+      </c>
+      <c r="D167" s="114">
         <v>1.92966503</v>
       </c>
-      <c r="E167" s="119">
+      <c r="E167" s="114">
         <v>-1.611375E-2</v>
       </c>
-      <c r="F167" s="119">
+      <c r="F167" s="114">
         <v>0.18593011139999999</v>
       </c>
-      <c r="G167" s="130">
+      <c r="G167" s="125">
         <v>6.5114379999999996E-3</v>
       </c>
-      <c r="H167" s="130">
+      <c r="H167" s="125">
         <v>1.5552553199999999E-2</v>
       </c>
-      <c r="I167" s="119">
+      <c r="I167" s="114">
         <v>-3.9674869600000003E-2</v>
       </c>
-      <c r="J167" s="119">
+      <c r="J167" s="114">
         <v>-9.5448759999999994E-2</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="120" t="s">
+      <c r="B168" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="C168" s="119">
-        <v>-5.7696481000000001E-2</v>
-      </c>
-      <c r="D168" s="119">
+      <c r="C168" s="114">
+        <v>-5.3722070199999999E-2</v>
+      </c>
+      <c r="D168" s="114">
         <v>2.3484208199999999</v>
       </c>
-      <c r="E168" s="119">
+      <c r="E168" s="114">
         <v>0.12563622999999999</v>
       </c>
-      <c r="F168" s="119">
+      <c r="F168" s="114">
         <v>-7.1270446000000001E-3</v>
       </c>
-      <c r="G168" s="130">
+      <c r="G168" s="125">
         <v>1.018662E-4</v>
       </c>
-      <c r="H168" s="130">
+      <c r="H168" s="125">
         <v>8.3193613999999992E-3</v>
       </c>
-      <c r="I168" s="119">
+      <c r="I168" s="114">
         <v>-5.3057920799999998E-2</v>
       </c>
-      <c r="J168" s="119">
+      <c r="J168" s="114">
         <v>-6.729773E-2</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="120" t="s">
+      <c r="B169" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C169" s="119">
-        <v>-4.9325790000000003E-3</v>
-      </c>
-      <c r="D169" s="119">
+      <c r="C169" s="114">
+        <v>-9.4866860000000005E-4</v>
+      </c>
+      <c r="D169" s="114">
         <v>-0.60892369000000002</v>
       </c>
-      <c r="E169" s="119">
+      <c r="E169" s="114">
         <v>7.5054480000000007E-2</v>
       </c>
-      <c r="F169" s="119">
+      <c r="F169" s="114">
         <v>-6.0806600600000003E-2</v>
       </c>
-      <c r="G169" s="130">
+      <c r="G169" s="125">
         <v>-1.591367E-3</v>
       </c>
-      <c r="H169" s="130">
+      <c r="H169" s="125">
         <v>7.4948148000000001E-3</v>
       </c>
-      <c r="I169" s="119">
+      <c r="I169" s="114">
         <v>-4.3390049999999998E-4</v>
       </c>
-      <c r="J169" s="119">
+      <c r="J169" s="114">
         <v>7.4673489999999995E-2</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="120" t="s">
+      <c r="B170" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="119">
-        <v>1.7072542E-2</v>
-      </c>
-      <c r="D170" s="119">
+      <c r="C170" s="114">
+        <v>1.9267673700000001E-2</v>
+      </c>
+      <c r="D170" s="114">
         <v>0.76618319000000001</v>
       </c>
-      <c r="E170" s="119">
+      <c r="E170" s="114">
         <v>-2.1053479999999999E-2</v>
       </c>
-      <c r="F170" s="119">
+      <c r="F170" s="114">
         <v>-3.4899943500000002E-2</v>
       </c>
-      <c r="G170" s="130">
+      <c r="G170" s="125">
         <v>-3.2189290000000001E-3</v>
       </c>
-      <c r="H170" s="130">
+      <c r="H170" s="125">
         <v>4.6709281999999996E-3</v>
       </c>
-      <c r="I170" s="119">
+      <c r="I170" s="114">
         <v>2.1342252400000001E-2</v>
       </c>
-      <c r="J170" s="119">
+      <c r="J170" s="114">
         <v>8.3433579999999993E-2</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="120" t="s">
+      <c r="B171" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C171" s="119">
-        <v>6.8650969999999997E-3</v>
-      </c>
-      <c r="D171" s="119">
+      <c r="C171" s="114">
+        <v>3.1612930999999999E-3</v>
+      </c>
+      <c r="D171" s="114">
         <v>0.46166386999999998</v>
       </c>
-      <c r="E171" s="119">
+      <c r="E171" s="114">
         <v>7.1524700000000002E-3</v>
       </c>
-      <c r="F171" s="119">
+      <c r="F171" s="114">
         <v>3.0294448200000001E-2</v>
       </c>
-      <c r="G171" s="130">
+      <c r="G171" s="125">
         <v>2.5428E-3</v>
       </c>
-      <c r="H171" s="130">
+      <c r="H171" s="125">
         <v>7.0232269000000003E-3</v>
       </c>
-      <c r="I171" s="119">
+      <c r="I171" s="114">
         <v>-3.6501633999999998E-3</v>
       </c>
-      <c r="J171" s="119">
+      <c r="J171" s="114">
         <v>-3.9450800000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="120" t="s">
+      <c r="B172" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C172" s="119">
-        <v>-1.0920454E-2</v>
-      </c>
-      <c r="D172" s="119">
+      <c r="C172" s="114">
+        <v>-1.9424525500000001E-2</v>
+      </c>
+      <c r="D172" s="114">
         <v>2.998762E-2</v>
       </c>
-      <c r="E172" s="119">
+      <c r="E172" s="114">
         <v>-6.0433529999999999E-2</v>
       </c>
-      <c r="F172" s="119">
+      <c r="F172" s="114">
         <v>5.6577004999999996E-3</v>
       </c>
-      <c r="G172" s="130">
+      <c r="G172" s="125">
         <v>2.7840639999999998E-5</v>
       </c>
-      <c r="H172" s="130">
+      <c r="H172" s="125">
         <v>-1.5840989E-3</v>
       </c>
-      <c r="I172" s="119">
+      <c r="I172" s="114">
         <v>-2.9721195200000002E-2</v>
       </c>
-      <c r="J172" s="119">
+      <c r="J172" s="114">
         <v>-3.8395560000000002E-2</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="120" t="s">
+      <c r="B173" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C173" s="119">
-        <v>-1.2018571E-2</v>
-      </c>
-      <c r="D173" s="119">
+      <c r="C173" s="114">
+        <v>-1.1004192600000001E-2</v>
+      </c>
+      <c r="D173" s="114">
         <v>-0.13591099000000001</v>
       </c>
-      <c r="E173" s="119">
+      <c r="E173" s="114">
         <v>-2.1879280000000001E-2</v>
       </c>
-      <c r="F173" s="119">
+      <c r="F173" s="114">
         <v>-3.3770054899999999E-2</v>
       </c>
-      <c r="G173" s="130">
+      <c r="G173" s="125">
         <v>1.8402900000000001E-3</v>
       </c>
-      <c r="H173" s="130">
+      <c r="H173" s="125">
         <v>-3.2708661999999999E-3</v>
       </c>
-      <c r="I173" s="119">
+      <c r="I173" s="114">
         <v>-1.1819208E-3</v>
       </c>
-      <c r="J173" s="119">
+      <c r="J173" s="114">
         <v>6.3839670000000001E-2</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="120" t="s">
+      <c r="B174" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C174" s="119">
-        <v>-5.0926560000000001E-3</v>
-      </c>
-      <c r="D174" s="119">
+      <c r="C174" s="114">
+        <v>1.9518525E-3</v>
+      </c>
+      <c r="D174" s="114">
         <v>0.42916248000000001</v>
       </c>
-      <c r="E174" s="119">
+      <c r="E174" s="114">
         <v>-2.9284979999999999E-2</v>
       </c>
-      <c r="F174" s="119">
+      <c r="F174" s="114">
         <v>-3.2439379999999997E-2</v>
       </c>
-      <c r="G174" s="130">
+      <c r="G174" s="125">
         <v>-1.4364309999999999E-3</v>
       </c>
-      <c r="H174" s="130">
+      <c r="H174" s="125">
         <v>-5.5924966E-3</v>
       </c>
-      <c r="I174" s="119">
+      <c r="I174" s="114">
         <v>1.8675003200000002E-2</v>
       </c>
-      <c r="J174" s="119">
+      <c r="J174" s="114">
         <v>5.5437840000000002E-2</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B175" s="120" t="s">
+      <c r="B175" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C175" s="119">
-        <v>2.5748009999999998E-3</v>
-      </c>
-      <c r="D175" s="119">
+      <c r="C175" s="114">
+        <v>1.07114132E-2</v>
+      </c>
+      <c r="D175" s="114">
         <v>-0.1911804</v>
       </c>
-      <c r="E175" s="119">
+      <c r="E175" s="114">
         <v>-4.4353400000000001E-2</v>
       </c>
-      <c r="F175" s="119">
+      <c r="F175" s="114">
         <v>-1.9624587200000002E-2</v>
       </c>
-      <c r="G175" s="130">
+      <c r="G175" s="125">
         <v>7.1912199999999999E-4</v>
       </c>
-      <c r="H175" s="130">
+      <c r="H175" s="125">
         <v>-1.4275111E-3</v>
       </c>
-      <c r="I175" s="119">
+      <c r="I175" s="114">
         <v>1.9249156900000002E-2</v>
       </c>
-      <c r="J175" s="119">
+      <c r="J175" s="114">
         <v>-5.3638900000000003E-2</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B176" s="120" t="s">
+      <c r="B176" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C176" s="119">
-        <v>6.7265750000000003E-3</v>
-      </c>
-      <c r="D176" s="119">
+      <c r="C176" s="114">
+        <v>6.7506236999999997E-3</v>
+      </c>
+      <c r="D176" s="114">
         <v>-0.67728166999999995</v>
       </c>
-      <c r="E176" s="119">
+      <c r="E176" s="114">
         <v>-2.0127969999999999E-2</v>
       </c>
-      <c r="F176" s="119">
+      <c r="F176" s="114">
         <v>-1.48782033E-2</v>
       </c>
-      <c r="G176" s="130">
+      <c r="G176" s="125">
         <v>-1.2891720000000001E-3</v>
       </c>
-      <c r="H176" s="130">
+      <c r="H176" s="125">
         <v>-3.9508583999999999E-3</v>
       </c>
-      <c r="I176" s="119">
+      <c r="I176" s="114">
         <v>-6.8072349000000004E-3</v>
       </c>
-      <c r="J176" s="119">
+      <c r="J176" s="114">
         <v>-4.0544330000000003E-2</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="120" t="s">
+      <c r="B177" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="C177" s="119">
-        <v>5.4378969999999997E-3</v>
-      </c>
-      <c r="D177" s="119">
+      <c r="C177" s="114">
+        <v>4.0525650000000001E-4</v>
+      </c>
+      <c r="D177" s="114">
         <v>-2.5417100000000001E-2</v>
       </c>
-      <c r="E177" s="119">
+      <c r="E177" s="114">
         <v>-1.0426889999999999E-2</v>
       </c>
-      <c r="F177" s="119">
+      <c r="F177" s="114">
         <v>-2.9889750000000002E-4</v>
       </c>
-      <c r="G177" s="130">
+      <c r="G177" s="125">
         <v>5.4939479999999998E-4</v>
       </c>
-      <c r="H177" s="130">
+      <c r="H177" s="125">
         <v>-2.1453427E-3</v>
       </c>
-      <c r="I177" s="119">
+      <c r="I177" s="114">
         <v>-1.5446946999999999E-3</v>
       </c>
-      <c r="J177" s="119">
+      <c r="J177" s="114">
         <v>3.9840739999999999E-2</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B178" s="118"/>
-      <c r="C178" s="128" t="s">
+      <c r="B178" s="113"/>
+      <c r="C178" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D178" s="124">
+      <c r="D178" s="119">
         <f>COUNTIF(D165:D177,"&lt;0")</f>
         <v>6</v>
       </c>
-      <c r="E178" s="125">
+      <c r="E178" s="120">
         <f t="shared" ref="E178:F178" si="13">COUNTIF(E165:E177,"&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="F178" s="124">
+      <c r="F178" s="119">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="G178" s="126">
+      <c r="G178" s="121">
         <f>COUNTIF(G165:G177,"&lt;0")</f>
         <v>5</v>
       </c>
-      <c r="H178" s="127">
+      <c r="H178" s="122">
         <f t="shared" ref="H178:J178" si="14">COUNTIF(H165:H177,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="I178" s="127">
+      <c r="I178" s="122">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="J178" s="126">
+      <c r="J178" s="121">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
@@ -50603,14 +50634,14 @@
       <c r="J181" s="12"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="113" t="s">
+      <c r="B182" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="113"/>
-      <c r="D182" s="113"/>
-      <c r="E182" s="113"/>
-      <c r="F182" s="113"/>
-      <c r="G182" s="113"/>
+      <c r="C182" s="129"/>
+      <c r="D182" s="129"/>
+      <c r="E182" s="129"/>
+      <c r="F182" s="129"/>
+      <c r="G182" s="129"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="6" t="s">
@@ -50686,7 +50717,7 @@
       <c r="E186" s="84">
         <v>6</v>
       </c>
-      <c r="F186" s="131" t="str">
+      <c r="F186" s="126" t="str">
         <f t="shared" ref="F186:F188" si="17">IF(D186&lt;0.05, "Sí","No")</f>
         <v>Sí</v>
       </c>
@@ -50708,7 +50739,7 @@
       <c r="E187" s="84">
         <v>1</v>
       </c>
-      <c r="F187" s="131" t="str">
+      <c r="F187" s="126" t="str">
         <f t="shared" si="17"/>
         <v>Sí</v>
       </c>
@@ -50768,7 +50799,7 @@
       <c r="E190" s="84">
         <v>3</v>
       </c>
-      <c r="F190" s="131" t="str">
+      <c r="F190" s="126" t="str">
         <f t="shared" si="18"/>
         <v>Sí</v>
       </c>
@@ -50790,7 +50821,7 @@
       <c r="E191" s="9">
         <v>12</v>
       </c>
-      <c r="F191" s="132" t="str">
+      <c r="F191" s="127" t="str">
         <f t="shared" si="18"/>
         <v>No</v>
       </c>
@@ -50850,7 +50881,7 @@
       <c r="E194" s="84">
         <v>6</v>
       </c>
-      <c r="F194" s="131" t="str">
+      <c r="F194" s="126" t="str">
         <f t="shared" si="18"/>
         <v>Sí</v>
       </c>
@@ -50872,7 +50903,7 @@
       <c r="E195" s="76">
         <v>12</v>
       </c>
-      <c r="F195" s="132" t="str">
+      <c r="F195" s="127" t="str">
         <f t="shared" si="18"/>
         <v>No</v>
       </c>
@@ -50933,7 +50964,7 @@
       <c r="E198" s="9">
         <v>4</v>
       </c>
-      <c r="F198" s="133" t="str">
+      <c r="F198" s="128" t="str">
         <f t="shared" si="18"/>
         <v>Sí</v>
       </c>
@@ -50955,7 +50986,7 @@
       <c r="E199" s="9">
         <v>1</v>
       </c>
-      <c r="F199" s="133" t="str">
+      <c r="F199" s="128" t="str">
         <f t="shared" si="18"/>
         <v>Sí</v>
       </c>
@@ -51016,12 +51047,12 @@
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="F202" s="133" t="str">
+      <c r="F202" s="128" t="str">
         <f t="shared" ref="F202:F205" si="25">IF(D202&lt;0.05, "Sí","No")</f>
         <v>Sí</v>
       </c>
       <c r="G202" s="84" t="str">
-        <f t="shared" ref="G202:G205" si="26">IF(AND(F202=F203, F202="Sí"), "Sí", "No")</f>
+        <f t="shared" ref="G202" si="26">IF(AND(F202=F203, F202="Sí"), "Sí", "No")</f>
         <v>Sí</v>
       </c>
     </row>
@@ -51040,7 +51071,7 @@
       <c r="E203" s="9">
         <v>1</v>
       </c>
-      <c r="F203" s="133" t="str">
+      <c r="F203" s="128" t="str">
         <f t="shared" si="25"/>
         <v>Sí</v>
       </c>
@@ -51064,7 +51095,7 @@
         <v>Sí</v>
       </c>
       <c r="G204" s="71" t="str">
-        <f t="shared" ref="G204:G205" si="27">IF(AND(F204=F205, F204="Sí"), "Sí", "No")</f>
+        <f t="shared" ref="G204" si="27">IF(AND(F204=F205, F204="Sí"), "Sí", "No")</f>
         <v>Sí</v>
       </c>
     </row>
@@ -51088,6 +51119,115 @@
         <v>Sí</v>
       </c>
       <c r="G205" s="71"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="10"/>
+      <c r="C209" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D213" t="str">
+        <f>D212</f>
+        <v>Signo positivo (+) Se espera inflación por efecto gasto</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D219" t="str">
+        <f>D216</f>
+        <v xml:space="preserve">Signo negativo (-) Se espera que el sector manufacturero se vea afectado negativamente </v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D220" t="str">
+        <f>D217</f>
+        <v>Signo positivo (+) Se espera que el sector de servicios se expanda</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D221" t="str">
+        <f>D218</f>
+        <v>Signo positivo (+) Se espera que el sector minero se expanda</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -58487,21 +58627,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DA79BD2CC1084245B72D282E17C815C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f7d3d97f3cea2cd92d44983fa77646f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01768f6c-8666-4b39-8631-1a60aaf27a96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11d3ce836356862a8a90d6a7dac305c0" ns2:_="">
     <xsd:import namespace="01768f6c-8666-4b39-8631-1a60aaf27a96"/>
@@ -58665,24 +58790,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215F1C9B-357A-4293-BA10-E887675FA630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58698,4 +58821,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD32C1C-3DB8-4C8D-B863-300A0DFAA3C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD324055-1338-4DF6-8FEE-42FB9AAA38D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC89CA-1447-4EDC-ADAF-52D62661998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F259A0C-A51F-4D1D-9A4C-112983F5C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1965" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="0" windowWidth="17235" windowHeight="8685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="423">
   <si>
     <t>Periodo</t>
   </si>
@@ -1539,6 +1539,912 @@
   </si>
   <si>
     <t>Signo negativo (-) Se espera una apreciación del tipo de cambio real (empeoran términos de intercambio por perdida de competitividad)</t>
+  </si>
+  <si>
+    <t>IRF VAR A1</t>
+  </si>
+  <si>
+    <t>COEF</t>
+  </si>
+  <si>
+    <t>ILOW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Respuesta del dólar observado</t>
+  </si>
+  <si>
+    <t>Respuesta del IPC</t>
+  </si>
+  <si>
+    <t>Respuesta de la TPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]            -1.3825705</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]            -2.0083607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]            -1.3871543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]            -2.4483062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]            -3.0387896</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]            -1.9965681</t>
+  </si>
+  <si>
+    <t>[10,]            -0.3387728</t>
+  </si>
+  <si>
+    <t>[11,]            -1.1182074</t>
+  </si>
+  <si>
+    <t>[12,]            -2.2600945</t>
+  </si>
+  <si>
+    <t>[13,]            -1.2147909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] -0.041452262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,] -0.090352678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] -0.046280052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] -0.043708430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] -0.048457022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] -0.051839566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] -0.032540653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] -0.010377296</t>
+  </si>
+  <si>
+    <t>[10,] -0.030263574</t>
+  </si>
+  <si>
+    <t>[11,] -0.040018834</t>
+  </si>
+  <si>
+    <t>[12,] -0.016310843</t>
+  </si>
+  <si>
+    <t>[13,] -0.003676978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] -0.02751712</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]  0.05061281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] -0.05543139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] -0.13996803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] -0.07504088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] -0.07022921</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] -0.10386197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] -0.08195427</t>
+  </si>
+  <si>
+    <t>[10,] -0.02073829</t>
+  </si>
+  <si>
+    <t>[11,] -0.02699006</t>
+  </si>
+  <si>
+    <t>[12,] -0.06811248</t>
+  </si>
+  <si>
+    <t>[13,] -0.04877758</t>
+  </si>
+  <si>
+    <t>Respuesta de PIB manufacturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]            -24.735570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]             -4.557608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]             -2.903771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]            -33.230935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]            -25.139432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]            -20.400836</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]            -11.083408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]            -20.161946</t>
+  </si>
+  <si>
+    <t>[10,]            -11.613301</t>
+  </si>
+  <si>
+    <t>[11,]            -13.927436</t>
+  </si>
+  <si>
+    <t>[12,]             -7.470913</t>
+  </si>
+  <si>
+    <t>[13,]            -15.059543</t>
+  </si>
+  <si>
+    <t>Respuesta de PIB servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]         -24.609599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]          73.922161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]         -90.220540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]        -157.889366</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]         -71.167077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]         -21.595019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]         -90.057886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]        -124.666026</t>
+  </si>
+  <si>
+    <t>[10,]         -40.559734</t>
+  </si>
+  <si>
+    <t>[11,]          -2.747466</t>
+  </si>
+  <si>
+    <t>[12,]         -67.254374</t>
+  </si>
+  <si>
+    <t>[13,]        -111.453858</t>
+  </si>
+  <si>
+    <t>Respuesta de PIB minería</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]         6.025790</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]       -99.483644</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -126.012750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]       -48.729430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]       -13.542016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]       -47.295262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]       -55.650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]       -40.710170</t>
+  </si>
+  <si>
+    <t>[10,]        -6.721478</t>
+  </si>
+  <si>
+    <t>[11,]       -24.092831</t>
+  </si>
+  <si>
+    <t>[12,]       -43.714134</t>
+  </si>
+  <si>
+    <t>[13,]       -35.131669</t>
+  </si>
+  <si>
+    <t>Respuesta Tasa de Desempleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]        -0.123875129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]        -0.227377016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]        -0.192997441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]        -0.013021530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]        -0.019864679</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]        -0.166216713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]        -0.132319326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]         0.008697886</t>
+  </si>
+  <si>
+    <t>[10,]        -0.025080186</t>
+  </si>
+  <si>
+    <t>[11,]        -0.167141358</t>
+  </si>
+  <si>
+    <t>[12,]        -0.105616644</t>
+  </si>
+  <si>
+    <t>[13,]         0.008228900</t>
+  </si>
+  <si>
+    <t>IRF VAR A2</t>
+  </si>
+  <si>
+    <t>Respuesta del tipo de cambio real</t>
+  </si>
+  <si>
+    <t>Respuesta Tasa  Precio del Cobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]       0.002493997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]      -0.059442981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -0.083388416</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]      -0.045442029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]      -0.045036705</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]      -0.015855462</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]      -0.014806114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]      -0.016387021</t>
+  </si>
+  <si>
+    <t>[10,]      -0.036004233</t>
+  </si>
+  <si>
+    <t>[11,]      -0.019815496</t>
+  </si>
+  <si>
+    <t>[12,]      -0.006400713</t>
+  </si>
+  <si>
+    <t>[13,]      -0.009492166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]       -0.27605750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]       -0.09970187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]       -0.30196703</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]       -0.39244917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]       -0.11715209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]       -0.38068713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]       -0.47730409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]       -0.25699460</t>
+  </si>
+  <si>
+    <t>[10,]       -0.01400136</t>
+  </si>
+  <si>
+    <t>[11,]       -0.24664261</t>
+  </si>
+  <si>
+    <t>[12,]       -0.37929383</t>
+  </si>
+  <si>
+    <t>[13,]       -0.15255234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] -0.026197606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,] -0.090255605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] -0.054897759</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] -0.056334318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] -0.046889644</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] -0.046899660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] -0.024345812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] -0.018848806</t>
+  </si>
+  <si>
+    <t>[10,] -0.028092989</t>
+  </si>
+  <si>
+    <t>[11,] -0.030385219</t>
+  </si>
+  <si>
+    <t>[12,] -0.015205158</t>
+  </si>
+  <si>
+    <t>[13,] -0.006008642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] -0.01385514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]  0.05821094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] -0.02160516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] -0.07382420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] -0.08107870</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] -0.09803246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] -0.10743649</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] -0.08332358</t>
+  </si>
+  <si>
+    <t>[10,] -0.03569815</t>
+  </si>
+  <si>
+    <t>[11,] -0.03792368</t>
+  </si>
+  <si>
+    <t>[12,] -0.05425999</t>
+  </si>
+  <si>
+    <t>[13,] -0.04249587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]           -24.0504725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]            -3.5257109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]            -0.3176239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]           -26.4005375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]           -22.7999447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]           -20.4060487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]            -8.4019145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]           -16.4114152</t>
+  </si>
+  <si>
+    <t>[10,]           -11.0616267</t>
+  </si>
+  <si>
+    <t>[11,]           -13.8675719</t>
+  </si>
+  <si>
+    <t>[12,]            -7.9934878</t>
+  </si>
+  <si>
+    <t>[13,]           -11.9372184</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]          -10.56350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]           62.86287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]         -119.69863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]         -144.75959</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]          -76.49048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]          -20.89342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]          -98.86809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]         -123.04278</t>
+  </si>
+  <si>
+    <t>[10,]          -42.26311</t>
+  </si>
+  <si>
+    <t>[11,]            2.17812</t>
+  </si>
+  <si>
+    <t>[12,]          -61.46441</t>
+  </si>
+  <si>
+    <t>[13,]         -107.83660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]        20.922658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]      -104.814339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -129.304228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]       -50.111304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]        -8.582098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]       -31.193609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]       -62.790200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]       -44.701403</t>
+  </si>
+  <si>
+    <t>[10,]        -8.748888</t>
+  </si>
+  <si>
+    <t>[11,]       -26.477078</t>
+  </si>
+  <si>
+    <t>[12,]       -46.645416</t>
+  </si>
+  <si>
+    <t>[13,]       -26.228456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]        -0.093310819</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]        -0.237331535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]        -0.152897384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]        -0.001838158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]         0.007741880</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]        -0.197233604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]        -0.117577563</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]        -0.001085327</t>
+  </si>
+  <si>
+    <t>[10,]        -0.019922361</t>
+  </si>
+  <si>
+    <t>[11,]        -0.184460830</t>
+  </si>
+  <si>
+    <t>[12,]        -0.108561270</t>
+  </si>
+  <si>
+    <t>[13,]        -0.009452514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]      -0.002287516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]      -0.055492255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -0.090822313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]      -0.045616170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]      -0.039759203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]      -0.024193820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]      -0.016216054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]      -0.022963016</t>
+  </si>
+  <si>
+    <t>[10,]      -0.029126877</t>
+  </si>
+  <si>
+    <t>[11,]      -0.022592965</t>
+  </si>
+  <si>
+    <t>[12,]      -0.010732985</t>
+  </si>
+  <si>
+    <t>[13,]      -0.008869747</t>
+  </si>
+  <si>
+    <t>IRF VAR A3</t>
+  </si>
+  <si>
+    <t>Respuesta del IPC var Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]          -4.654194024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]          -2.234855352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]          -2.065907907</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]          -3.314890179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]          -1.457636397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]          -2.242981763</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]          -2.951773537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]          -2.018280061</t>
+  </si>
+  <si>
+    <t>[10,]           0.009004039</t>
+  </si>
+  <si>
+    <t>[11,]          -1.475353441</t>
+  </si>
+  <si>
+    <t>[12,]          -2.448424268</t>
+  </si>
+  <si>
+    <t>[13,]          -1.098800874</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]   -0.09266342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]   -0.20072786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]   -0.09750259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]   -0.09202981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]   -0.17745246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]   -0.14302591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]   -0.13927818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]   -0.08965819</t>
+  </si>
+  <si>
+    <t>[10,]   -0.07566493</t>
+  </si>
+  <si>
+    <t>[11,]   -0.08513157</t>
+  </si>
+  <si>
+    <t>[12,]   -0.02867248</t>
+  </si>
+  <si>
+    <t>[13,]   -0.05110185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] -0.01489904</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]  0.07438773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] -0.07330003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] -0.13093329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] -0.07133171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] -0.06202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] -0.10947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] -0.07516365</t>
+  </si>
+  <si>
+    <t>[10,] -0.03949777</t>
+  </si>
+  <si>
+    <t>[11,] -0.04173903</t>
+  </si>
+  <si>
+    <t>[12,] -0.07013578</t>
+  </si>
+  <si>
+    <t>[13,] -0.04440969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]            -17.670867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]             -8.178159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]             -2.770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]            -24.746032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]            -24.326658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]            -18.456755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]             -8.107992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]            -14.686165</t>
+  </si>
+  <si>
+    <t>[10,]            -10.616009</t>
+  </si>
+  <si>
+    <t>[11,]            -11.836482</t>
+  </si>
+  <si>
+    <t>[12,]             -6.593186</t>
+  </si>
+  <si>
+    <t>[13,]            -12.350381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]         -17.437436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]          62.723075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]         -77.150810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]        -169.834485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]         -78.584464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]         -23.882220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]         -95.154303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]        -129.516932</t>
+  </si>
+  <si>
+    <t>[10,]         -32.439212</t>
+  </si>
+  <si>
+    <t>[11,]           3.290904</t>
+  </si>
+  <si>
+    <t>[12,]         -71.147569</t>
+  </si>
+  <si>
+    <t>[13,]        -105.107333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]         2.975178</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]       -84.006626</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -106.854173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]       -63.646044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]       -12.922003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]       -29.750784</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]       -58.810583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]       -34.379632</t>
+  </si>
+  <si>
+    <t>[10,]       -11.219678</t>
+  </si>
+  <si>
+    <t>[11,]       -18.241056</t>
+  </si>
+  <si>
+    <t>[12,]       -45.434359</t>
+  </si>
+  <si>
+    <t>[13,]       -29.022208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]         -0.13108390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]         -0.22869212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]         -0.18196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]          0.01639284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]         -0.01087653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]         -0.16995690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]         -0.12310586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]          0.02331742</t>
+  </si>
+  <si>
+    <t>[10,]         -0.03266546</t>
+  </si>
+  <si>
+    <t>[11,]         -0.17831232</t>
+  </si>
+  <si>
+    <t>[12,]         -0.10956708</t>
+  </si>
+  <si>
+    <t>[13,]          0.01326996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,]      -0.007669584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,]      -0.068865533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,]      -0.084412491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,]      -0.046179361</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,]      -0.034853225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,]      -0.020338192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,]      -0.019783333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,]      -0.021101466</t>
+  </si>
+  <si>
+    <t>[10,]      -0.036514747</t>
+  </si>
+  <si>
+    <t>[11,]      -0.024299996</t>
+  </si>
+  <si>
+    <t>[12,]      -0.006718656</t>
+  </si>
+  <si>
+    <t>[13,]      -0.011798893</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2412,6 +3318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -46576,21 +47485,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="A2:J221"/>
+  <dimension ref="A2:AF272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="S256" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AE274" sqref="AE274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -51120,7 +52037,7 @@
       </c>
       <c r="G205" s="71"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B209" s="10"/>
       <c r="C209" s="10" t="s">
         <v>112</v>
@@ -51129,7 +52046,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C210" s="10" t="s">
         <v>56</v>
       </c>
@@ -51137,7 +52054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C211" s="10" t="s">
         <v>21</v>
       </c>
@@ -51145,7 +52062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C212" s="10" t="s">
         <v>27</v>
       </c>
@@ -51153,7 +52070,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C213" s="10" t="s">
         <v>107</v>
       </c>
@@ -51162,7 +52079,7 @@
         <v>Signo positivo (+) Se espera inflación por efecto gasto</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C214" s="10" t="s">
         <v>26</v>
       </c>
@@ -51170,7 +52087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C215" s="10" t="s">
         <v>65</v>
       </c>
@@ -51178,7 +52095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C216" s="10" t="s">
         <v>81</v>
       </c>
@@ -51186,7 +52103,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C217" s="10" t="s">
         <v>82</v>
       </c>
@@ -51194,7 +52111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C218" s="10" t="s">
         <v>76</v>
       </c>
@@ -51202,7 +52119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C219" s="10" t="s">
         <v>101</v>
       </c>
@@ -51211,7 +52128,7 @@
         <v xml:space="preserve">Signo negativo (-) Se espera que el sector manufacturero se vea afectado negativamente </v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C220" s="10" t="s">
         <v>102</v>
       </c>
@@ -51220,7 +52137,7 @@
         <v>Signo positivo (+) Se espera que el sector de servicios se expanda</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C221" s="10" t="s">
         <v>103</v>
       </c>
@@ -51229,8 +52146,3626 @@
         <v>Signo positivo (+) Se espera que el sector minero se expanda</v>
       </c>
     </row>
+    <row r="224" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C224" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="D224" s="134"/>
+      <c r="F224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="G224" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="H224" s="134"/>
+      <c r="J224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K224" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="L224" s="134"/>
+      <c r="N224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="O224" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="P224" s="134"/>
+      <c r="R224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S224" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="T224" s="134"/>
+      <c r="V224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="W224" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="X224" s="134"/>
+      <c r="Z224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA224" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB224" s="134"/>
+      <c r="AD224" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE224" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF224" s="134"/>
+    </row>
+    <row r="225" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="H225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="L225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="N225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="O225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="R225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="S225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="T225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="V225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="W225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="X225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB225" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD225" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE225" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF225" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="226" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B226" s="114">
+        <v>-9.4585353600000008</v>
+      </c>
+      <c r="C226" s="77">
+        <v>-12.758933000000001</v>
+      </c>
+      <c r="D226" s="77">
+        <f>(C226-B226)/-1.96</f>
+        <v>1.6838763469387754</v>
+      </c>
+      <c r="F226" s="114">
+        <v>-1.7715529999999999E-3</v>
+      </c>
+      <c r="G226" s="77">
+        <v>-5.9003886999999998E-2</v>
+      </c>
+      <c r="H226" s="77">
+        <f>(G226-F226)/-1.96</f>
+        <v>2.9200170408163265E-2</v>
+      </c>
+      <c r="J226" s="114">
+        <v>-2.5187409000000001E-2</v>
+      </c>
+      <c r="K226" s="77">
+        <v>-0.10374323000000001</v>
+      </c>
+      <c r="L226" s="77">
+        <f>(K226-J226)/-1.96</f>
+        <v>4.0079500510204084E-2</v>
+      </c>
+      <c r="N226" s="114">
+        <v>8.1534916000000006</v>
+      </c>
+      <c r="O226" s="77">
+        <v>-16.760152999999999</v>
+      </c>
+      <c r="P226" s="77">
+        <f>(O226-N226)/-1.96</f>
+        <v>12.711043163265305</v>
+      </c>
+      <c r="R226" s="114">
+        <v>-61.098790000000001</v>
+      </c>
+      <c r="S226" s="77">
+        <v>-135.05023399999999</v>
+      </c>
+      <c r="T226" s="77">
+        <f>(S226-R226)/-1.96</f>
+        <v>37.730328571428565</v>
+      </c>
+      <c r="V226" s="114">
+        <v>82.806051999999994</v>
+      </c>
+      <c r="W226" s="77">
+        <v>23.02253</v>
+      </c>
+      <c r="X226" s="77">
+        <f>(W226-V226)/-1.96</f>
+        <v>30.501796938775506</v>
+      </c>
+      <c r="Z226" s="114">
+        <v>1.8431599999999999E-2</v>
+      </c>
+      <c r="AA226" s="77">
+        <v>-7.6459733000000002E-2</v>
+      </c>
+      <c r="AB226" s="77">
+        <f>(AA226-Z226)/-1.96</f>
+        <v>4.841394540816326E-2</v>
+      </c>
+      <c r="AD226" s="114">
+        <v>0.183094865</v>
+      </c>
+      <c r="AE226" s="77">
+        <v>0.128039297</v>
+      </c>
+      <c r="AF226" s="77">
+        <f>(AE226-AD226)/-1.96</f>
+        <v>2.8089575510204082E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B227" s="114">
+        <v>-0.75292236000000001</v>
+      </c>
+      <c r="C227" s="77">
+        <v>-4.3865322000000004</v>
+      </c>
+      <c r="D227" s="77">
+        <f t="shared" ref="D227:D238" si="28">(C227-B227)/-1.96</f>
+        <v>1.8538825714285718</v>
+      </c>
+      <c r="F227" s="114">
+        <v>3.4889245999999999E-2</v>
+      </c>
+      <c r="G227" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H227" s="77" t="e">
+        <f t="shared" ref="H227:H238" si="29">(G227-F227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J227" s="114">
+        <v>9.1192741999999993E-2</v>
+      </c>
+      <c r="K227" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="L227" s="77" t="e">
+        <f t="shared" ref="L227:L238" si="30">(K227-J227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N227" s="114">
+        <v>-5.1831975000000003</v>
+      </c>
+      <c r="O227" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P227" s="77" t="e">
+        <f t="shared" ref="P227:P238" si="31">(O227-N227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R227" s="114">
+        <v>61.954203999999997</v>
+      </c>
+      <c r="S227" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="T227" s="77" t="e">
+        <f t="shared" ref="T227:T238" si="32">(S227-R227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V227" s="114">
+        <v>65.513285999999994</v>
+      </c>
+      <c r="W227" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="X227" s="77" t="e">
+        <f t="shared" ref="X227:X238" si="33">(W227-V227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z227" s="114">
+        <v>-3.165167E-2</v>
+      </c>
+      <c r="AA227" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB227" s="77" t="e">
+        <f t="shared" ref="AB227:AB238" si="34">(AA227-Z227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD227" s="114">
+        <v>4.9200391000000003E-2</v>
+      </c>
+      <c r="AE227" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF227" s="77" t="e">
+        <f t="shared" ref="AF227:AF238" si="35">(AE227-AD227)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="228" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B228" s="114">
+        <v>0.78359078999999998</v>
+      </c>
+      <c r="C228" s="77">
+        <v>-2.0402057999999998</v>
+      </c>
+      <c r="D228" s="77">
+        <f t="shared" si="28"/>
+        <v>1.4407125459183672</v>
+      </c>
+      <c r="F228" s="114">
+        <v>-4.0056231999999997E-2</v>
+      </c>
+      <c r="G228" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="H228" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J228" s="114">
+        <v>0.188084262</v>
+      </c>
+      <c r="K228" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="L228" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N228" s="114">
+        <v>14.3039904</v>
+      </c>
+      <c r="O228" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="P228" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R228" s="114">
+        <v>178.45226199999999</v>
+      </c>
+      <c r="S228" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="T228" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V228" s="114">
+        <v>-44.926276999999999</v>
+      </c>
+      <c r="W228" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="X228" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z228" s="114">
+        <v>-0.15295211</v>
+      </c>
+      <c r="AA228" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB228" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD228" s="114">
+        <v>-2.7846111999999999E-2</v>
+      </c>
+      <c r="AE228" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF228" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="229" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B229" s="114">
+        <v>2.1382928300000001</v>
+      </c>
+      <c r="C229" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D229" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F229" s="114">
+        <v>8.2315740000000002E-3</v>
+      </c>
+      <c r="G229" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H229" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J229" s="114">
+        <v>4.6404464999999999E-2</v>
+      </c>
+      <c r="K229" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="L229" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N229" s="114">
+        <v>17.911874999999998</v>
+      </c>
+      <c r="O229" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="P229" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R229" s="114">
+        <v>-5.0295719999999999</v>
+      </c>
+      <c r="S229" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="T229" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V229" s="114">
+        <v>-77.197045000000003</v>
+      </c>
+      <c r="W229" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="X229" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z229" s="114">
+        <v>-7.6865550000000005E-2</v>
+      </c>
+      <c r="AA229" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB229" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD229" s="114">
+        <v>-5.2465406999999999E-2</v>
+      </c>
+      <c r="AE229" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF229" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="230" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B230" s="114">
+        <v>5.5491749999999999E-2</v>
+      </c>
+      <c r="C230" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D230" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F230" s="114">
+        <v>5.3312760000000002E-3</v>
+      </c>
+      <c r="G230" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="H230" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J230" s="114">
+        <v>-2.3639932999999998E-2</v>
+      </c>
+      <c r="K230" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="L230" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N230" s="114">
+        <v>-9.5088600999999997</v>
+      </c>
+      <c r="O230" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P230" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R230" s="114">
+        <v>-97.648398999999998</v>
+      </c>
+      <c r="S230" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="T230" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V230" s="114">
+        <v>-12.700434</v>
+      </c>
+      <c r="W230" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="X230" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z230" s="114">
+        <v>0.11538415</v>
+      </c>
+      <c r="AA230" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB230" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD230" s="114">
+        <v>-1.3732523E-2</v>
+      </c>
+      <c r="AE230" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF230" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="231" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B231" s="114">
+        <v>1.32944833</v>
+      </c>
+      <c r="C231" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D231" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F231" s="114">
+        <v>-4.738384E-3</v>
+      </c>
+      <c r="G231" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="H231" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J231" s="114">
+        <v>-1.8459150000000001E-3</v>
+      </c>
+      <c r="K231" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="L231" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N231" s="114">
+        <v>-11.112252</v>
+      </c>
+      <c r="O231" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="P231" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R231" s="114">
+        <v>-6.5166120000000003</v>
+      </c>
+      <c r="S231" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="T231" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V231" s="114">
+        <v>38.322344999999999</v>
+      </c>
+      <c r="W231" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="X231" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z231" s="114">
+        <v>8.4923209999999999E-2</v>
+      </c>
+      <c r="AA231" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB231" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD231" s="114">
+        <v>-6.4206940000000002E-3</v>
+      </c>
+      <c r="AE231" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF231" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="232" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B232" s="114">
+        <v>-0.39875811</v>
+      </c>
+      <c r="C232" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D232" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F232" s="114">
+        <v>-1.7761480999999999E-2</v>
+      </c>
+      <c r="G232" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="H232" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J232" s="114">
+        <v>3.8290540000000001E-3</v>
+      </c>
+      <c r="K232" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="L232" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N232" s="114">
+        <v>-4.1783650000000003</v>
+      </c>
+      <c r="O232" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="P232" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R232" s="114">
+        <v>72.497091999999995</v>
+      </c>
+      <c r="S232" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="T232" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V232" s="114">
+        <v>4.7031660000000004</v>
+      </c>
+      <c r="W232" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="X232" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z232" s="114">
+        <v>-7.5467270000000003E-2</v>
+      </c>
+      <c r="AA232" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB232" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD232" s="114">
+        <v>5.8033579999999998E-3</v>
+      </c>
+      <c r="AE232" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF232" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="233" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B233" s="114">
+        <v>-1.2956440899999999</v>
+      </c>
+      <c r="C233" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D233" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F233" s="114">
+        <v>4.3356940000000002E-3</v>
+      </c>
+      <c r="G233" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="H233" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J233" s="114">
+        <v>-4.6808865999999998E-2</v>
+      </c>
+      <c r="K233" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="L233" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N233" s="114">
+        <v>7.2005369000000004</v>
+      </c>
+      <c r="O233" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="P233" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R233" s="114">
+        <v>-29.194655999999998</v>
+      </c>
+      <c r="S233" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="T233" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V233" s="114">
+        <v>-26.401895</v>
+      </c>
+      <c r="W233" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="X233" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z233" s="114">
+        <v>-3.7029300000000001E-2</v>
+      </c>
+      <c r="AA233" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB233" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD233" s="114">
+        <v>1.0980213000000001E-2</v>
+      </c>
+      <c r="AE233" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF233" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="234" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B234" s="114">
+        <v>-0.37531913</v>
+      </c>
+      <c r="C234" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D234" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F234" s="114">
+        <v>1.9262238000000001E-2</v>
+      </c>
+      <c r="G234" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H234" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J234" s="114">
+        <v>-2.8418736E-2</v>
+      </c>
+      <c r="K234" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="L234" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N234" s="114">
+        <v>-2.0166792999999998</v>
+      </c>
+      <c r="O234" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="P234" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R234" s="114">
+        <v>-70.851264999999998</v>
+      </c>
+      <c r="S234" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="T234" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V234" s="114">
+        <v>-8.292662</v>
+      </c>
+      <c r="W234" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="X234" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z234" s="114">
+        <v>0.11168538</v>
+      </c>
+      <c r="AA234" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB234" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD234" s="114">
+        <v>6.0554399999999996E-3</v>
+      </c>
+      <c r="AE234" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF234" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="235" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B235" s="114">
+        <v>1.42822513</v>
+      </c>
+      <c r="C235" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D235" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F235" s="114">
+        <v>-7.3088459999999999E-3</v>
+      </c>
+      <c r="G235" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="H235" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J235" s="114">
+        <v>2.5151776000000001E-2</v>
+      </c>
+      <c r="K235" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L235" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N235" s="114">
+        <v>-0.89953709999999998</v>
+      </c>
+      <c r="O235" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P235" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R235" s="114">
+        <v>27.170963</v>
+      </c>
+      <c r="S235" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="T235" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V235" s="114">
+        <v>24.685689</v>
+      </c>
+      <c r="W235" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="X235" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z235" s="114">
+        <v>4.4723739999999998E-2</v>
+      </c>
+      <c r="AA235" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB235" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD235" s="114">
+        <v>-1.2066458E-2</v>
+      </c>
+      <c r="AE235" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF235" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="236" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B236" s="114">
+        <v>1.9035E-2</v>
+      </c>
+      <c r="C236" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D236" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F236" s="114">
+        <v>-1.5948575999999999E-2</v>
+      </c>
+      <c r="G236" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="H236" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J236" s="114">
+        <v>1.4933701000000001E-2</v>
+      </c>
+      <c r="K236" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="L236" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N236" s="114">
+        <v>-1.0725484000000001</v>
+      </c>
+      <c r="O236" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="P236" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R236" s="114">
+        <v>69.068355999999994</v>
+      </c>
+      <c r="S236" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="T236" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V236" s="114">
+        <v>6.529293</v>
+      </c>
+      <c r="W236" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="X236" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z236" s="114">
+        <v>-0.10128363999999999</v>
+      </c>
+      <c r="AA236" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB236" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD236" s="114">
+        <v>-4.1681790000000002E-3</v>
+      </c>
+      <c r="AE236" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF236" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="237" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B237" s="114">
+        <v>-1.1091140100000001</v>
+      </c>
+      <c r="C237" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D237" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F237" s="114">
+        <v>6.1905689999999999E-3</v>
+      </c>
+      <c r="G237" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="H237" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J237" s="114">
+        <v>-3.5512126999999998E-2</v>
+      </c>
+      <c r="K237" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="L237" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N237" s="114">
+        <v>4.9603025000000001</v>
+      </c>
+      <c r="O237" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="P237" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R237" s="114">
+        <v>-14.391389999999999</v>
+      </c>
+      <c r="S237" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="T237" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V237" s="114">
+        <v>-17.417221000000001</v>
+      </c>
+      <c r="W237" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="X237" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z237" s="114">
+        <v>-3.5861240000000003E-2</v>
+      </c>
+      <c r="AA237" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB237" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD237" s="114">
+        <v>8.7317880000000007E-3</v>
+      </c>
+      <c r="AE237" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF237" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="238" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B238" s="114">
+        <v>-7.5933589999999995E-2</v>
+      </c>
+      <c r="C238" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D238" s="77" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F238" s="114">
+        <v>1.7259765999999999E-2</v>
+      </c>
+      <c r="G238" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H238" s="77" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J238" s="114">
+        <v>-1.5415976E-2</v>
+      </c>
+      <c r="K238" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L238" s="77" t="e">
+        <f t="shared" si="30"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N238" s="114">
+        <v>-1.2905738</v>
+      </c>
+      <c r="O238" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="P238" s="77" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R238" s="114">
+        <v>-62.533324999999998</v>
+      </c>
+      <c r="S238" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="T238" s="77" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V238" s="114">
+        <v>-8.9894210000000001</v>
+      </c>
+      <c r="W238" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="X238" s="77" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z238" s="114">
+        <v>9.4858499999999998E-2</v>
+      </c>
+      <c r="AA238" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB238" s="77" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD238" s="114">
+        <v>5.6562629999999999E-3</v>
+      </c>
+      <c r="AE238" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF238" s="77" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="241" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C241" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D241" s="134"/>
+      <c r="F241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G241" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="H241" s="134"/>
+      <c r="J241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="K241" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="L241" s="134"/>
+      <c r="N241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="O241" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="P241" s="134"/>
+      <c r="R241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="S241" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="T241" s="134"/>
+      <c r="V241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="W241" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="X241" s="134"/>
+      <c r="Z241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA241" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB241" s="134"/>
+      <c r="AD241" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE241" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF241" s="134"/>
+    </row>
+    <row r="242" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="H242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="L242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="N242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="O242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="R242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="S242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="T242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="V242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="W242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="X242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB242" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD242" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE242" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF242" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="243" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B243" s="114">
+        <v>-0.68271410629999996</v>
+      </c>
+      <c r="C243" s="77">
+        <v>-1.2528425299999999</v>
+      </c>
+      <c r="D243" s="77">
+        <f>(C243-B243)/-1.96</f>
+        <v>0.29088184882653056</v>
+      </c>
+      <c r="F243" s="12">
+        <v>1.6427395E-3</v>
+      </c>
+      <c r="G243" s="77">
+        <v>-4.6466286000000002E-2</v>
+      </c>
+      <c r="H243" s="77">
+        <f>(G243-F243)/-1.96</f>
+        <v>2.4545421173469389E-2</v>
+      </c>
+      <c r="J243" s="114">
+        <v>-2.1389249999999999E-2</v>
+      </c>
+      <c r="K243" s="77">
+        <v>-0.11154625999999999</v>
+      </c>
+      <c r="L243" s="77">
+        <f>(K243-J243)/-1.96</f>
+        <v>4.5998474489795917E-2</v>
+      </c>
+      <c r="N243" s="12">
+        <v>6.9132978999999999</v>
+      </c>
+      <c r="O243" s="77">
+        <v>-11.7387207</v>
+      </c>
+      <c r="P243" s="77">
+        <f>(O243-N243)/-1.96</f>
+        <v>9.5163360204081631</v>
+      </c>
+      <c r="R243" s="12">
+        <v>-40.837639600000003</v>
+      </c>
+      <c r="S243" s="77">
+        <v>-105.68975</v>
+      </c>
+      <c r="T243" s="77">
+        <f>(S243-R243)/-1.96</f>
+        <v>33.087811428571428</v>
+      </c>
+      <c r="V243" s="114">
+        <v>90.250386000000006</v>
+      </c>
+      <c r="W243">
+        <v>22.502434999999998</v>
+      </c>
+      <c r="X243" s="77">
+        <f>(W243-V243)/-1.96</f>
+        <v>34.56528112244898</v>
+      </c>
+      <c r="Z243" s="12">
+        <v>6.3927309999999996E-3</v>
+      </c>
+      <c r="AA243" s="77">
+        <v>-9.1008983000000002E-2</v>
+      </c>
+      <c r="AB243" s="77">
+        <f>(AA243-Z243)/-1.96</f>
+        <v>4.9694752040816324E-2</v>
+      </c>
+      <c r="AD243" s="12">
+        <v>0.185855664</v>
+      </c>
+      <c r="AE243" s="77">
+        <v>0.13017989299999999</v>
+      </c>
+      <c r="AF243" s="77">
+        <f>(AE243-AD243)/-1.96</f>
+        <v>2.8406005612244906E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B244" s="114">
+        <v>0.2893988797</v>
+      </c>
+      <c r="C244" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D244" s="77" t="e">
+        <f t="shared" ref="D244:D255" si="36">(C244-B244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F244" s="114">
+        <v>4.3902640999999999E-2</v>
+      </c>
+      <c r="G244" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="H244" s="77" t="e">
+        <f t="shared" ref="H244:H255" si="37">(G244-F244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J244" s="114">
+        <v>0.10758876000000001</v>
+      </c>
+      <c r="K244" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="L244" s="77" t="e">
+        <f t="shared" ref="L244:L255" si="38">(K244-J244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N244" s="114">
+        <v>-5.1224069999999999</v>
+      </c>
+      <c r="O244" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="P244" s="77" t="e">
+        <f t="shared" ref="P244:P255" si="39">(O244-N244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R244" s="114">
+        <v>69.297705100000002</v>
+      </c>
+      <c r="S244" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="T244" s="77" t="e">
+        <f t="shared" ref="T244:T255" si="40">(S244-R244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V244" s="114">
+        <v>71.286612000000005</v>
+      </c>
+      <c r="W244" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="X244" s="77" t="e">
+        <f t="shared" ref="X244:X255" si="41">(W244-V244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z244" s="114">
+        <v>-4.0122627000000001E-2</v>
+      </c>
+      <c r="AA244" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB244" s="77" t="e">
+        <f t="shared" ref="AB244:AB255" si="42">(AA244-Z244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD244" s="114">
+        <v>5.4025763999999997E-2</v>
+      </c>
+      <c r="AE244" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF244" s="77" t="e">
+        <f t="shared" ref="AF244:AF255" si="43">(AE244-AD244)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="245" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B245" s="114">
+        <v>0.3464815309</v>
+      </c>
+      <c r="C245" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D245" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F245" s="114">
+        <v>-3.0491876099999999E-2</v>
+      </c>
+      <c r="G245" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="H245" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J245" s="114">
+        <v>0.19198355</v>
+      </c>
+      <c r="K245" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="L245" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N245" s="114">
+        <v>15.7457607</v>
+      </c>
+      <c r="O245" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="P245" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R245" s="114">
+        <v>172.56326670000001</v>
+      </c>
+      <c r="S245" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="T245" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V245" s="114">
+        <v>-45.950358000000001</v>
+      </c>
+      <c r="W245" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="X245" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z245" s="114">
+        <v>-0.14807862099999999</v>
+      </c>
+      <c r="AA245" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB245" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD245" s="114">
+        <v>-2.294059E-2</v>
+      </c>
+      <c r="AE245" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF245" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="246" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B246" s="114">
+        <v>0.23065222299999999</v>
+      </c>
+      <c r="C246" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="D246" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F246" s="114">
+        <v>-6.1384980000000003E-4</v>
+      </c>
+      <c r="G246" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="H246" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J246" s="114">
+        <v>5.7514469999999998E-2</v>
+      </c>
+      <c r="K246" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="L246" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N246" s="114">
+        <v>16.579116200000001</v>
+      </c>
+      <c r="O246" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="P246" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R246" s="114">
+        <v>-22.335055199999999</v>
+      </c>
+      <c r="S246" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="T246" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V246" s="114">
+        <v>-79.987376999999995</v>
+      </c>
+      <c r="W246" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="X246" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z246" s="114">
+        <v>-6.6296042999999999E-2</v>
+      </c>
+      <c r="AA246" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB246" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD246" s="114">
+        <v>-5.6882408000000002E-2</v>
+      </c>
+      <c r="AE246" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF246" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="247" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B247" s="114">
+        <v>-3.5078246799999997E-2</v>
+      </c>
+      <c r="C247" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D247" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F247" s="114">
+        <v>-2.2031612E-3</v>
+      </c>
+      <c r="G247" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="H247" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J247" s="114">
+        <v>-2.7240219999999999E-2</v>
+      </c>
+      <c r="K247" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="L247" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N247" s="114">
+        <v>-10.6787622</v>
+      </c>
+      <c r="O247" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="P247" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R247" s="114">
+        <v>-95.562254300000006</v>
+      </c>
+      <c r="S247" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="T247" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V247" s="114">
+        <v>-12.423749000000001</v>
+      </c>
+      <c r="W247" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="X247" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z247" s="114">
+        <v>0.12646961400000001</v>
+      </c>
+      <c r="AA247" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB247" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD247" s="114">
+        <v>-1.7446128000000002E-2</v>
+      </c>
+      <c r="AE247" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF247" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="248" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B248" s="114">
+        <v>0.20737075199999999</v>
+      </c>
+      <c r="C248" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D248" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F248" s="114">
+        <v>-2.0650851E-3</v>
+      </c>
+      <c r="G248" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="H248" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J248" s="114">
+        <v>-1.7012039999999999E-2</v>
+      </c>
+      <c r="K248" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="L248" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N248" s="114">
+        <v>-11.8398442</v>
+      </c>
+      <c r="O248" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="P248" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R248" s="114">
+        <v>0.54719249999999997</v>
+      </c>
+      <c r="S248" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="T248" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V248" s="114">
+        <v>34.325068000000002</v>
+      </c>
+      <c r="W248" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="X248" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z248" s="114">
+        <v>9.7718343999999999E-2</v>
+      </c>
+      <c r="AA248" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB248" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD248" s="114">
+        <v>-5.1458459999999999E-3</v>
+      </c>
+      <c r="AE248" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF248" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="249" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B249" s="114">
+        <v>2.8308519999999999E-4</v>
+      </c>
+      <c r="C249" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D249" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F249" s="114">
+        <v>-1.42298392E-2</v>
+      </c>
+      <c r="G249" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="H249" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J249" s="114">
+        <v>-1.556216E-2</v>
+      </c>
+      <c r="K249" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="L249" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N249" s="114">
+        <v>-1.3668465999999999</v>
+      </c>
+      <c r="O249" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="P249" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R249" s="114">
+        <v>70.866239100000001</v>
+      </c>
+      <c r="S249" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="T249" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V249" s="114">
+        <v>-0.55893700000000002</v>
+      </c>
+      <c r="W249" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="X249" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z249" s="114">
+        <v>-6.9620647999999993E-2</v>
+      </c>
+      <c r="AA249" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB249" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD249" s="114">
+        <v>6.6687059999999999E-3</v>
+      </c>
+      <c r="AE249" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF249" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="250" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B250" s="114">
+        <v>-0.19583885649999999</v>
+      </c>
+      <c r="C250" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="D250" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F250" s="114">
+        <v>2.8515419999999999E-4</v>
+      </c>
+      <c r="G250" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="H250" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J250" s="114">
+        <v>-5.1238319999999997E-2</v>
+      </c>
+      <c r="K250" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="L250" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N250" s="114">
+        <v>6.8914660000000003</v>
+      </c>
+      <c r="O250" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="P250" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R250" s="114">
+        <v>-29.329101999999999</v>
+      </c>
+      <c r="S250" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="T250" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V250" s="114">
+        <v>-28.341581000000001</v>
+      </c>
+      <c r="W250" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="X250" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z250" s="114">
+        <v>-3.8390906000000002E-2</v>
+      </c>
+      <c r="AA250" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB250" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD250" s="114">
+        <v>6.8027019999999999E-3</v>
+      </c>
+      <c r="AE250" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF250" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="251" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B251" s="114">
+        <v>-5.9789995999999998E-3</v>
+      </c>
+      <c r="C251" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D251" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F251" s="114">
+        <v>1.6534240400000001E-2</v>
+      </c>
+      <c r="G251" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="H251" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J251" s="114">
+        <v>-3.414147E-2</v>
+      </c>
+      <c r="K251" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="L251" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N251" s="114">
+        <v>-2.2301956999999999</v>
+      </c>
+      <c r="O251" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="P251" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R251" s="114">
+        <v>-62.6391724</v>
+      </c>
+      <c r="S251" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="T251" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V251" s="114">
+        <v>-6.0427419999999996</v>
+      </c>
+      <c r="W251" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="X251" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z251" s="114">
+        <v>0.108873505</v>
+      </c>
+      <c r="AA251" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB251" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD251" s="114">
+        <v>2.4972660000000002E-3</v>
+      </c>
+      <c r="AE251" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF251" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="252" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B252" s="114">
+        <v>0.2174936395</v>
+      </c>
+      <c r="C252" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D252" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F252" s="114">
+        <v>-4.9364530000000004E-3</v>
+      </c>
+      <c r="G252" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="H252" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J252" s="114">
+        <v>1.7922319999999999E-2</v>
+      </c>
+      <c r="K252" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L252" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N252" s="114">
+        <v>-0.89954999999999996</v>
+      </c>
+      <c r="O252" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="P252" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R252" s="114">
+        <v>30.644883700000001</v>
+      </c>
+      <c r="S252" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="T252" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V252" s="114">
+        <v>23.291003</v>
+      </c>
+      <c r="W252" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="X252" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z252" s="114">
+        <v>4.5289998999999997E-2</v>
+      </c>
+      <c r="AA252" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB252" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD252" s="114">
+        <v>-1.1619668999999999E-2</v>
+      </c>
+      <c r="AE252" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF252" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="253" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B253" s="114">
+        <v>-4.6406797499999999E-2</v>
+      </c>
+      <c r="C253" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D253" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F253" s="114">
+        <v>-1.50073286E-2</v>
+      </c>
+      <c r="G253" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="H253" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J253" s="114">
+        <v>1.3385869999999999E-2</v>
+      </c>
+      <c r="K253" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="L253" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N253" s="114">
+        <v>0.30079650000000002</v>
+      </c>
+      <c r="O253" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="P253" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R253" s="114">
+        <v>61.143445100000001</v>
+      </c>
+      <c r="S253" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="T253" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V253" s="114">
+        <v>3.428372</v>
+      </c>
+      <c r="W253" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="X253" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z253" s="114">
+        <v>-9.8932708999999994E-2</v>
+      </c>
+      <c r="AA253" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB253" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD253" s="114">
+        <v>-4.3639610000000004E-3</v>
+      </c>
+      <c r="AE253" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF253" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="254" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B254" s="114">
+        <v>-0.1947898327</v>
+      </c>
+      <c r="C254" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D254" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F254" s="114">
+        <v>5.6655927999999999E-3</v>
+      </c>
+      <c r="G254" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="H254" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J254" s="114">
+        <v>-2.9356239999999999E-2</v>
+      </c>
+      <c r="K254" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="L254" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N254" s="114">
+        <v>3.5247543000000001</v>
+      </c>
+      <c r="O254" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="P254" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R254" s="114">
+        <v>-16.799789799999999</v>
+      </c>
+      <c r="S254" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="T254" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V254" s="114">
+        <v>-17.261275999999999</v>
+      </c>
+      <c r="W254" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="X254" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z254" s="114">
+        <v>-3.5062074999999998E-2</v>
+      </c>
+      <c r="AA254" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB254" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD254" s="114">
+        <v>7.8137580000000005E-3</v>
+      </c>
+      <c r="AE254" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF254" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="255" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B255" s="114">
+        <v>4.8949144299999997E-2</v>
+      </c>
+      <c r="C255" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D255" s="77" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F255" s="114">
+        <v>1.76265899E-2</v>
+      </c>
+      <c r="G255" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="H255" s="77" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J255" s="114">
+        <v>-1.286786E-2</v>
+      </c>
+      <c r="K255" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="L255" s="77" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N255" s="114">
+        <v>-1.7840962</v>
+      </c>
+      <c r="O255" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="P255" s="77" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R255" s="114">
+        <v>-55.076634900000002</v>
+      </c>
+      <c r="S255" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="T255" s="77" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V255" s="114">
+        <v>-5.5678349999999996</v>
+      </c>
+      <c r="W255" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="X255" s="77" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z255" s="114">
+        <v>9.0097298000000006E-2</v>
+      </c>
+      <c r="AA255" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB255" s="77" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD255" s="114">
+        <v>5.9585000000000003E-3</v>
+      </c>
+      <c r="AE255" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF255" s="77" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="258" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C258" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="D258" s="134"/>
+      <c r="F258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G258" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="H258" s="134"/>
+      <c r="J258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="K258" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="L258" s="134"/>
+      <c r="N258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="O258" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="P258" s="134"/>
+      <c r="R258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="S258" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="T258" s="134"/>
+      <c r="V258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="W258" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="X258" s="134"/>
+      <c r="Z258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA258" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB258" s="134"/>
+      <c r="AD258" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE258" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF258" s="134"/>
+    </row>
+    <row r="259" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="H259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="L259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="N259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="O259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="R259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="S259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="T259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="V259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="W259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="X259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB259" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD259" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE259" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF259" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="260" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B260" s="114">
+        <v>-9.9011627099999995</v>
+      </c>
+      <c r="C260" s="77">
+        <v>-13.27592014</v>
+      </c>
+      <c r="D260" s="77">
+        <f>(C260-B260)/-1.96</f>
+        <v>1.7218150153061229</v>
+      </c>
+      <c r="F260" s="12">
+        <v>-0.18200808199999999</v>
+      </c>
+      <c r="G260" s="77">
+        <v>-0.33226604999999998</v>
+      </c>
+      <c r="H260" s="77">
+        <f>(G260-F260)/-1.96</f>
+        <v>7.666222857142857E-2</v>
+      </c>
+      <c r="J260" s="114">
+        <v>-3.7192664E-2</v>
+      </c>
+      <c r="K260" s="77">
+        <v>-0.12921609000000001</v>
+      </c>
+      <c r="L260" s="77">
+        <f>(K260-J260)/-1.96</f>
+        <v>4.6950727551020414E-2</v>
+      </c>
+      <c r="N260" s="12">
+        <v>8.5003525</v>
+      </c>
+      <c r="O260" s="77">
+        <v>-11.43399</v>
+      </c>
+      <c r="P260" s="77">
+        <f>(O260-N260)/-1.96</f>
+        <v>10.170582908163265</v>
+      </c>
+      <c r="R260" s="114">
+        <v>-59.788110000000003</v>
+      </c>
+      <c r="S260" s="77">
+        <v>-129.69118399999999</v>
+      </c>
+      <c r="T260" s="77">
+        <f>(S260-R260)/-1.96</f>
+        <v>35.664833673469381</v>
+      </c>
+      <c r="V260" s="114">
+        <v>82.296890000000005</v>
+      </c>
+      <c r="W260">
+        <v>13.881529</v>
+      </c>
+      <c r="X260" s="77">
+        <f>(W260-V260)/-1.96</f>
+        <v>34.905796428571435</v>
+      </c>
+      <c r="Z260" s="12">
+        <v>1.449346E-2</v>
+      </c>
+      <c r="AA260" s="77">
+        <v>-7.2132619999999995E-2</v>
+      </c>
+      <c r="AB260" s="77">
+        <f>(AA260-Z260)/-1.96</f>
+        <v>4.419697959183673E-2</v>
+      </c>
+      <c r="AD260" s="12">
+        <v>0.18431054999999999</v>
+      </c>
+      <c r="AE260" s="77">
+        <v>0.12833212299999999</v>
+      </c>
+      <c r="AF260" s="77">
+        <f>(AE260-AD260)/-1.96</f>
+        <v>2.8560421938775508E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B261" s="114">
+        <v>-0.84932138000000001</v>
+      </c>
+      <c r="C261" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D261" s="77" t="e">
+        <f t="shared" ref="D261:D272" si="44">(C261-B261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F261" s="114">
+        <v>6.2439138999999998E-2</v>
+      </c>
+      <c r="G261" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="H261" s="77" t="e">
+        <f t="shared" ref="H261:H272" si="45">(G261-F261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J261" s="114">
+        <v>8.0361349999999998E-2</v>
+      </c>
+      <c r="K261" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="L261" s="77" t="e">
+        <f t="shared" ref="L261:L272" si="46">(K261-J261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N261" s="114">
+        <v>-2.8366555999999998</v>
+      </c>
+      <c r="O261" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="P261" s="77" t="e">
+        <f t="shared" ref="P261:P272" si="47">(O261-N261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R261" s="114">
+        <v>58.960495299999998</v>
+      </c>
+      <c r="S261" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="T261" s="77" t="e">
+        <f t="shared" ref="T261:T272" si="48">(S261-R261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V261" s="114">
+        <v>65.761799999999994</v>
+      </c>
+      <c r="W261" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="X261" s="77" t="e">
+        <f t="shared" ref="X261:X272" si="49">(W261-V261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z261" s="114">
+        <v>-4.9044860000000003E-2</v>
+      </c>
+      <c r="AA261" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB261" s="77" t="e">
+        <f t="shared" ref="AB261:AB272" si="50">(AA261-Z261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD261" s="114">
+        <v>5.0452151000000001E-2</v>
+      </c>
+      <c r="AE261" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF261" s="77" t="e">
+        <f t="shared" ref="AF261:AF272" si="51">(AE261-AD261)/-1.96</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="262" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B262" s="114">
+        <v>1.20461565</v>
+      </c>
+      <c r="C262" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D262" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F262" s="114">
+        <v>-6.3762910000000001E-3</v>
+      </c>
+      <c r="G262" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="H262" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J262" s="114">
+        <v>0.19805609900000001</v>
+      </c>
+      <c r="K262" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="L262" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N262" s="114">
+        <v>13.3521334</v>
+      </c>
+      <c r="O262" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="P262" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R262" s="114">
+        <v>181.4709192</v>
+      </c>
+      <c r="S262" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="T262" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V262" s="114">
+        <v>-41.488697999999999</v>
+      </c>
+      <c r="W262" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="X262" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z262" s="114">
+        <v>-0.14978696999999999</v>
+      </c>
+      <c r="AA262" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB262" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD262" s="114">
+        <v>-3.4026457000000003E-2</v>
+      </c>
+      <c r="AE262" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF262" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="263" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B263" s="114">
+        <v>1.74970603</v>
+      </c>
+      <c r="C263" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="D263" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F263" s="114">
+        <v>0.11777658000000001</v>
+      </c>
+      <c r="G263" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="H263" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J263" s="114">
+        <v>3.2612387E-2</v>
+      </c>
+      <c r="K263" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="L263" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N263" s="114">
+        <v>16.917255999999998</v>
+      </c>
+      <c r="O263" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="P263" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R263" s="114">
+        <v>0.85448020000000002</v>
+      </c>
+      <c r="S263" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="T263" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V263" s="114">
+        <v>-67.729643999999993</v>
+      </c>
+      <c r="W263" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="X263" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z263" s="114">
+        <v>-9.1481580000000007E-2</v>
+      </c>
+      <c r="AA263" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB263" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD263" s="114">
+        <v>-4.7501245999999997E-2</v>
+      </c>
+      <c r="AE263" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF263" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="264" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B264" s="114">
+        <v>-0.44704719999999998</v>
+      </c>
+      <c r="C264" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="D264" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F264" s="114">
+        <v>5.4691019E-2</v>
+      </c>
+      <c r="G264" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="H264" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J264" s="114">
+        <v>-2.5645174E-2</v>
+      </c>
+      <c r="K264" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="L264" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N264" s="114">
+        <v>-10.098536599999999</v>
+      </c>
+      <c r="O264" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="P264" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R264" s="114">
+        <v>-106.7959841</v>
+      </c>
+      <c r="S264" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="T264" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V264" s="114">
+        <v>-12.8969</v>
+      </c>
+      <c r="W264" s="77" t="s">
+        <v>390</v>
+      </c>
+      <c r="X264" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z264" s="114">
+        <v>0.11759894</v>
+      </c>
+      <c r="AA264" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB264" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD264" s="114">
+        <v>-8.6253979999999994E-3</v>
+      </c>
+      <c r="AE264" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF264" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="265" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B265" s="114">
+        <v>1.2535834400000001</v>
+      </c>
+      <c r="C265" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="D265" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F265" s="114">
+        <v>-7.4125976999999996E-2</v>
+      </c>
+      <c r="G265" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="H265" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J265" s="114">
+        <v>7.8625110000000008E-3</v>
+      </c>
+      <c r="K265" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="L265" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N265" s="114">
+        <v>-11.0394921</v>
+      </c>
+      <c r="O265" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="P265" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R265" s="114">
+        <v>-13.199087</v>
+      </c>
+      <c r="S265" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="T265" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V265" s="114">
+        <v>39.956434999999999</v>
+      </c>
+      <c r="W265" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="X265" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z265" s="114">
+        <v>9.0929280000000001E-2</v>
+      </c>
+      <c r="AA265" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB265" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD265" s="114">
+        <v>-2.9643299999999998E-3</v>
+      </c>
+      <c r="AE265" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF265" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="266" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B266" s="114">
+        <v>-0.33392835999999998</v>
+      </c>
+      <c r="C266" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="D266" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F266" s="114">
+        <v>-2.4572120999999999E-2</v>
+      </c>
+      <c r="G266" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="H266" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J266" s="114">
+        <v>2.0536878000000001E-2</v>
+      </c>
+      <c r="K266" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="L266" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N266" s="114">
+        <v>-2.7633028999999998</v>
+      </c>
+      <c r="O266" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="P266" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R266" s="114">
+        <v>78.856621500000003</v>
+      </c>
+      <c r="S266" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="T266" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V266" s="114">
+        <v>7.4981669999999996</v>
+      </c>
+      <c r="W266" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="X266" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z266" s="114">
+        <v>-8.8153620000000002E-2</v>
+      </c>
+      <c r="AA266" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB266" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD266" s="114">
+        <v>6.103608E-3</v>
+      </c>
+      <c r="AE266" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF266" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="267" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B267" s="114">
+        <v>-1.41949232</v>
+      </c>
+      <c r="C267" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D267" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F267" s="114">
+        <v>-4.2956014000000001E-2</v>
+      </c>
+      <c r="G267" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="H267" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J267" s="114">
+        <v>-4.2984873999999999E-2</v>
+      </c>
+      <c r="K267" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="L267" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N267" s="114">
+        <v>5.4294386000000001</v>
+      </c>
+      <c r="O267" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="P267" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R267" s="114">
+        <v>-28.695434299999999</v>
+      </c>
+      <c r="S267" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="T267" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V267" s="114">
+        <v>-28.541810000000002</v>
+      </c>
+      <c r="W267" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="X267" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z267" s="114">
+        <v>-4.7950769999999997E-2</v>
+      </c>
+      <c r="AA267" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB267" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD267" s="114">
+        <v>1.0153746999999999E-2</v>
+      </c>
+      <c r="AE267" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF267" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="268" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B268" s="114">
+        <v>-0.44956068999999999</v>
+      </c>
+      <c r="C268" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D268" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F268" s="114">
+        <v>-2.9857970000000001E-3</v>
+      </c>
+      <c r="G268" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="H268" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J268" s="114">
+        <v>-3.7700348000000002E-2</v>
+      </c>
+      <c r="K268" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="L268" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N268" s="114">
+        <v>-1.3299996999999999</v>
+      </c>
+      <c r="O268" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="P268" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R268" s="114">
+        <v>-77.003894200000005</v>
+      </c>
+      <c r="S268" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="T268" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V268" s="114">
+        <v>-8.8866169999999993</v>
+      </c>
+      <c r="W268" s="77" t="s">
+        <v>394</v>
+      </c>
+      <c r="X268" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z268" s="114">
+        <v>0.12135965999999999</v>
+      </c>
+      <c r="AA268" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB268" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD268" s="114">
+        <v>6.4744069999999997E-3</v>
+      </c>
+      <c r="AE268" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF268" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="269" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B269" s="114">
+        <v>1.47714649</v>
+      </c>
+      <c r="C269" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="D269" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F269" s="114">
+        <v>-1.6423900000000001E-3</v>
+      </c>
+      <c r="G269" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="H269" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J269" s="114">
+        <v>2.3074232E-2</v>
+      </c>
+      <c r="K269" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="L269" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N269" s="114">
+        <v>-0.929226</v>
+      </c>
+      <c r="O269" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="P269" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R269" s="114">
+        <v>27.294792699999999</v>
+      </c>
+      <c r="S269" s="77" t="s">
+        <v>383</v>
+      </c>
+      <c r="T269" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V269" s="114">
+        <v>28.149263999999999</v>
+      </c>
+      <c r="W269" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="X269" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z269" s="114">
+        <v>5.5069279999999998E-2</v>
+      </c>
+      <c r="AA269" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB269" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD269" s="114">
+        <v>-1.2447481999999999E-2</v>
+      </c>
+      <c r="AE269" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF269" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="270" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B270" s="114">
+        <v>-8.7954969999999993E-2</v>
+      </c>
+      <c r="C270" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="D270" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F270" s="114">
+        <v>-1.1374810000000001E-2</v>
+      </c>
+      <c r="G270" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="H270" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J270" s="114">
+        <v>1.7451812000000001E-2</v>
+      </c>
+      <c r="K270" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="L270" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N270" s="114">
+        <v>-0.75222719999999998</v>
+      </c>
+      <c r="O270" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="P270" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R270" s="114">
+        <v>72.650949100000005</v>
+      </c>
+      <c r="S270" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="T270" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V270" s="114">
+        <v>10.580264</v>
+      </c>
+      <c r="W270" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="X270" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z270" s="114">
+        <v>-0.11290451999999999</v>
+      </c>
+      <c r="AA270" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB270" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD270" s="114">
+        <v>-1.5110360000000001E-3</v>
+      </c>
+      <c r="AE270" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF270" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="271" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B271" s="114">
+        <v>-1.32763746</v>
+      </c>
+      <c r="C271" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="D271" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F271" s="114">
+        <v>1.4809070000000001E-2</v>
+      </c>
+      <c r="G271" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="H271" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J271" s="114">
+        <v>-3.3820678E-2</v>
+      </c>
+      <c r="K271" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="L271" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N271" s="114">
+        <v>4.6352617</v>
+      </c>
+      <c r="O271" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="P271" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R271" s="114">
+        <v>-13.333145</v>
+      </c>
+      <c r="S271" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="T271" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V271" s="114">
+        <v>-18.408809000000002</v>
+      </c>
+      <c r="W271" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="X271" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z271" s="114">
+        <v>-4.1215109999999999E-2</v>
+      </c>
+      <c r="AA271" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB271" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD271" s="114">
+        <v>1.12503E-2</v>
+      </c>
+      <c r="AE271" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF271" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="272" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B272" s="114">
+        <v>-7.6243199999999997E-2</v>
+      </c>
+      <c r="C272" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="D272" s="77" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F272" s="114">
+        <v>2.7484240000000002E-3</v>
+      </c>
+      <c r="G272" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="H272" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J272" s="114">
+        <v>-1.3162623E-2</v>
+      </c>
+      <c r="K272" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="L272" s="77" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N272" s="114">
+        <v>-1.4760271</v>
+      </c>
+      <c r="O272" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="P272" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R272" s="114">
+        <v>-67.603893299999996</v>
+      </c>
+      <c r="S272" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="T272" s="77" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V272" s="114">
+        <v>-10.350858000000001</v>
+      </c>
+      <c r="W272" s="77" t="s">
+        <v>398</v>
+      </c>
+      <c r="X272" s="77" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z272" s="114">
+        <v>0.10449964</v>
+      </c>
+      <c r="AA272" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB272" s="77" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD272" s="114">
+        <v>6.111755E-3</v>
+      </c>
+      <c r="AE272" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF272" s="77" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="30">
+    <mergeCell ref="AE224:AF224"/>
+    <mergeCell ref="AE241:AF241"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="O258:P258"/>
+    <mergeCell ref="S258:T258"/>
+    <mergeCell ref="W258:X258"/>
+    <mergeCell ref="AA258:AB258"/>
+    <mergeCell ref="AE258:AF258"/>
+    <mergeCell ref="O224:P224"/>
+    <mergeCell ref="S224:T224"/>
+    <mergeCell ref="W224:X224"/>
+    <mergeCell ref="AA224:AB224"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="O241:P241"/>
+    <mergeCell ref="S241:T241"/>
+    <mergeCell ref="W241:X241"/>
+    <mergeCell ref="AA241:AB241"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="K224:L224"/>
     <mergeCell ref="B182:G182"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B45:C45"/>

--- a/Base de Datos Oficial.xlsx
+++ b/Base de Datos Oficial.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcoyo\Documents\GitHub\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E74A6-F3CC-4688-87D4-A219D42D3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7AA93-921D-4A16-95E1-40EB1DB034D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="435" windowWidth="19185" windowHeight="11490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_NOMBRESLARGOS" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" r:id="rId2"/>
     <sheet name="DATOS.TS" sheetId="3" r:id="rId3"/>
     <sheet name="Estadistica Descriptiva" sheetId="4" r:id="rId4"/>
-    <sheet name="Base_graficada_1" sheetId="5" r:id="rId5"/>
-    <sheet name="Base_graficada_2" sheetId="6" r:id="rId6"/>
+    <sheet name="FIR" sheetId="7" r:id="rId5"/>
+    <sheet name="Base_graficada_1" sheetId="5" r:id="rId6"/>
+    <sheet name="Base_graficada_2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1176,7 +1177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="256">
   <si>
     <t>Periodo</t>
   </si>
@@ -1606,6 +1607,345 @@
   <si>
     <t>IRF VAR B3</t>
   </si>
+  <si>
+    <t>Pruebas Realizadas</t>
+  </si>
+  <si>
+    <t>Prueba de Normalidad</t>
+  </si>
+  <si>
+    <t>Prueba de Estabilidad</t>
+  </si>
+  <si>
+    <t>VAR A1</t>
+  </si>
+  <si>
+    <t>VAR A2</t>
+  </si>
+  <si>
+    <t>VAR A3</t>
+  </si>
+  <si>
+    <t>VAR B1</t>
+  </si>
+  <si>
+    <t>VAR B2</t>
+  </si>
+  <si>
+    <t>VAR B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de Autocorrelación Serial </t>
+  </si>
+  <si>
+    <t>Raices Polinomiales &lt; 0</t>
+  </si>
+  <si>
+    <t>Hipótesis para pruebas de autocorrelación serial de los residuales:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0: Los residuales no están correlacionados, -&gt; p value &gt; 0,05 </t>
+  </si>
+  <si>
+    <t>H1: Los residuales si están correlacionados, -&gt; p value &lt; 0,05</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value = 7.013e-13</t>
+  </si>
+  <si>
+    <t>kurtosis: p-value &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value =  1.032e-09</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value = 1.831e-11</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value = 5.214e-06</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value = 3.037e-05</t>
+  </si>
+  <si>
+    <t>Sesgo: p-value = 7.499e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0: Los residuales se distribuyen normal   -&gt; pvalue &gt; 0,05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1: Los residuales no se distribuyen normal -&gt; pvalue &lt; 0,05 </t>
+  </si>
+  <si>
+    <t>Hipotesis para pruebas de normalidad en los residuales</t>
+  </si>
+  <si>
+    <t>*0,183095</t>
+  </si>
+  <si>
+    <t>*-9,458535</t>
+  </si>
+  <si>
+    <t>*82,806052</t>
+  </si>
+  <si>
+    <t>*0,049200</t>
+  </si>
+  <si>
+    <t>*65,513286</t>
+  </si>
+  <si>
+    <t>*0,188084</t>
+  </si>
+  <si>
+    <t>*178,452262</t>
+  </si>
+  <si>
+    <t>*-0,152952</t>
+  </si>
+  <si>
+    <t>*-0,052465</t>
+  </si>
+  <si>
+    <t>*-77,197045</t>
+  </si>
+  <si>
+    <t>*-97,648399</t>
+  </si>
+  <si>
+    <t>*-70,851265</t>
+  </si>
+  <si>
+    <t>*0,111685</t>
+  </si>
+  <si>
+    <t>*-0,101283</t>
+  </si>
+  <si>
+    <t>*-0,035512</t>
+  </si>
+  <si>
+    <t>*-62,533325</t>
+  </si>
+  <si>
+    <t>*0,094859</t>
+  </si>
+  <si>
+    <t>*0,185856</t>
+  </si>
+  <si>
+    <t>*-0,682714</t>
+  </si>
+  <si>
+    <t>*90,250386</t>
+  </si>
+  <si>
+    <t>*71,286612</t>
+  </si>
+  <si>
+    <t>*0,191984</t>
+  </si>
+  <si>
+    <t>*172,563267</t>
+  </si>
+  <si>
+    <t>*-0,148079</t>
+  </si>
+  <si>
+    <t>*-0,056882</t>
+  </si>
+  <si>
+    <t>*-79,987377</t>
+  </si>
+  <si>
+    <t>*-95,562254</t>
+  </si>
+  <si>
+    <t>*-11,839844</t>
+  </si>
+  <si>
+    <t>*0,097718</t>
+  </si>
+  <si>
+    <t>*-62,639172</t>
+  </si>
+  <si>
+    <t>*61,143445</t>
+  </si>
+  <si>
+    <t>*-0,098933</t>
+  </si>
+  <si>
+    <t>*-0,194790</t>
+  </si>
+  <si>
+    <t>*-0,029356</t>
+  </si>
+  <si>
+    <t>*-55,076635</t>
+  </si>
+  <si>
+    <t>*0,184311</t>
+  </si>
+  <si>
+    <t>*-9,901163</t>
+  </si>
+  <si>
+    <t>*-0,182008</t>
+  </si>
+  <si>
+    <t>*82,296890</t>
+  </si>
+  <si>
+    <t>*65,761800</t>
+  </si>
+  <si>
+    <t>*0,198056</t>
+  </si>
+  <si>
+    <t>*181,470919</t>
+  </si>
+  <si>
+    <t>*-0,149787</t>
+  </si>
+  <si>
+    <t>*-0,047501</t>
+  </si>
+  <si>
+    <t>*-67,729644</t>
+  </si>
+  <si>
+    <t>*-0,091482</t>
+  </si>
+  <si>
+    <t>*-106,795984</t>
+  </si>
+  <si>
+    <t>*0,117599</t>
+  </si>
+  <si>
+    <t>*-0,088154</t>
+  </si>
+  <si>
+    <t>*-0,037700</t>
+  </si>
+  <si>
+    <t>*-77,003894</t>
+  </si>
+  <si>
+    <t>*0,121360</t>
+  </si>
+  <si>
+    <t>*1,477146</t>
+  </si>
+  <si>
+    <t>*72,650949</t>
+  </si>
+  <si>
+    <t>*-0,112905</t>
+  </si>
+  <si>
+    <t>*-1,327637</t>
+  </si>
+  <si>
+    <t>*-67,603893</t>
+  </si>
+  <si>
+    <t>*0,104500</t>
+  </si>
+  <si>
+    <t>*0,186022</t>
+  </si>
+  <si>
+    <t>*-9,799335</t>
+  </si>
+  <si>
+    <t>*-0,047583</t>
+  </si>
+  <si>
+    <t>*0,184600</t>
+  </si>
+  <si>
+    <t>*0,007932</t>
+  </si>
+  <si>
+    <t>*-0,043382</t>
+  </si>
+  <si>
+    <t>*-0,100165</t>
+  </si>
+  <si>
+    <t>*-0,056983</t>
+  </si>
+  <si>
+    <t>*-0,056869</t>
+  </si>
+  <si>
+    <t>*-0,029475</t>
+  </si>
+  <si>
+    <t>*0,183432</t>
+  </si>
+  <si>
+    <t>*-0,826582</t>
+  </si>
+  <si>
+    <t>*0,009074</t>
+  </si>
+  <si>
+    <t>*0,124586</t>
+  </si>
+  <si>
+    <t>*-0,045892</t>
+  </si>
+  <si>
+    <t>*0,172227</t>
+  </si>
+  <si>
+    <t>*-0,045509</t>
+  </si>
+  <si>
+    <t>*-0,057696</t>
+  </si>
+  <si>
+    <t>*-0,051516</t>
+  </si>
+  <si>
+    <t>*-0,077467</t>
+  </si>
+  <si>
+    <t>*-0,027634</t>
+  </si>
+  <si>
+    <t>*0,185359</t>
+  </si>
+  <si>
+    <t>*-10,278607</t>
+  </si>
+  <si>
+    <t>*0,008639</t>
+  </si>
+  <si>
+    <t>*-0,054479</t>
+  </si>
+  <si>
+    <t>*0,185930</t>
+  </si>
+  <si>
+    <t>*-0,039675</t>
+  </si>
+  <si>
+    <t>*-0,095449</t>
+  </si>
+  <si>
+    <t>*-0,053722</t>
+  </si>
+  <si>
+    <t>*-0,053058</t>
+  </si>
+  <si>
+    <t>*-0,029721</t>
+  </si>
 </sst>
 </file>
 
@@ -1618,7 +1958,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="\(0.000000\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1735,8 +2075,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,8 +2172,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2135,12 +2510,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2488,6 +2954,85 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -31228,8 +31773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBE68D-75F6-4A84-A8BB-49D71CA44100}">
   <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView topLeftCell="G27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46650,21 +47195,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EA5142-E3F9-4F44-9674-B41C6DD2952D}">
-  <dimension ref="A2:AF373"/>
+  <dimension ref="A2:AF388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R246" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281:H306"/>
+    <sheetView topLeftCell="A130" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E374" sqref="E374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
@@ -51844,111 +52389,118 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="10"/>
-      <c r="C235" s="10" t="s">
+      <c r="C235" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="D235" s="139" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C236" s="10" t="s">
+    <row r="236" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C236" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D236" s="139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C237" s="10" t="s">
+    <row r="237" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C237" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="139" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C238" s="10" t="s">
+    <row r="238" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C238" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D238" s="10" t="s">
+      <c r="D238" s="139" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C239" s="10" t="s">
+    <row r="239" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C239" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D239" t="str">
+      <c r="D239" s="140" t="str">
         <f>D238</f>
         <v>Signo positivo (+) Se espera inflación por efecto gasto</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C240" s="10" t="s">
+    <row r="240" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C240" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="D240" s="139" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="241" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C241" s="10" t="s">
+    <row r="241" spans="2:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="C241" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="D241" s="139" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="242" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C242" s="10" t="s">
+    <row r="242" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C242" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D242" s="139" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C243" s="10" t="s">
+    <row r="243" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C243" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D243" s="139" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C244" s="10" t="s">
+    <row r="244" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C244" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D244" s="139" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C245" s="10" t="s">
+    <row r="245" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C245" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D245" t="str">
+      <c r="D245" s="140" t="str">
         <f>D242</f>
         <v xml:space="preserve">Signo negativo (-) Se espera que el sector manufacturero se vea afectado negativamente </v>
       </c>
     </row>
-    <row r="246" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C246" s="10" t="s">
+    <row r="246" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C246" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D246" t="str">
+      <c r="D246" s="140" t="str">
         <f>D243</f>
         <v>Signo positivo (+) Se espera que el sector de servicios se expanda</v>
       </c>
     </row>
-    <row r="247" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C247" s="10" t="s">
+    <row r="247" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="C247" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D247" t="str">
+      <c r="D247" s="140" t="str">
         <f>D244</f>
         <v>Signo positivo (+) Se espera que el sector minero se expanda</v>
+      </c>
+    </row>
+    <row r="248" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="H248" s="10"/>
+      <c r="J248">
+        <f>(C262-B262)/-1.96</f>
+        <v>1.3860217499999998</v>
       </c>
     </row>
     <row r="250" spans="2:32" x14ac:dyDescent="0.25">
@@ -53090,7 +53642,7 @@
         <v>-0.33877279999999999</v>
       </c>
       <c r="D270" s="136">
-        <f t="shared" si="26"/>
+        <f>(C270-B270)/-1.96</f>
         <v>0.90152955612244901</v>
       </c>
       <c r="F270" s="114">
@@ -53312,7 +53864,7 @@
         <v>-2.2600945000000001</v>
       </c>
       <c r="D274" s="136">
-        <f t="shared" si="26"/>
+        <f>(C274-B274)/-1.96</f>
         <v>0.58723494387755104</v>
       </c>
       <c r="F274" s="114">
@@ -59819,11 +60371,158 @@
         <v>6.1787875000000004E-3</v>
       </c>
     </row>
+    <row r="377" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="378" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="C378" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="D378" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E378" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="F378" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="G378" s="148" t="s">
+        <v>150</v>
+      </c>
+      <c r="H378" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="379" spans="2:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="B379" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="C379" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D379" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E379" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="F379" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="G379" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="H379" s="152" t="s">
+        <v>153</v>
+      </c>
+      <c r="I379" s="10"/>
+    </row>
+    <row r="380" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B380" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C380" s="154">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D380" s="154">
+        <v>2.2E-16</v>
+      </c>
+      <c r="E380" s="154">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F380" s="154">
+        <v>2.2E-16</v>
+      </c>
+      <c r="G380" s="154">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H380" s="154">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="381" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B381" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="C381" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D381" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="E381" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="F381" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="G381" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="H381" s="156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="382" spans="2:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="157"/>
+      <c r="C382" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="D382" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="E382" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="F382" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="G382" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="H382" s="158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="386" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C386" s="146"/>
+      <c r="E386" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="F386" s="146"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C387" s="144"/>
+      <c r="E387" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="F387" s="144"/>
+    </row>
+    <row r="388" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C388" s="142"/>
+      <c r="E388" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="F388" s="142"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="W359:X359"/>
     <mergeCell ref="AA359:AB359"/>
     <mergeCell ref="AE359:AF359"/>
+    <mergeCell ref="B381:B382"/>
     <mergeCell ref="C359:D359"/>
     <mergeCell ref="G359:H359"/>
     <mergeCell ref="K359:L359"/>
@@ -59876,6 +60575,7 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D186:J186 D165:J165 D145:J145 D128:J128 D97:J97">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>7</formula>
@@ -59898,10 +60598,4841 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C57692-BFFC-4D7E-8C23-38CF734643FD}">
+  <dimension ref="B2:J190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="12"/>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12"/>
+    <col min="7" max="7" width="16.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="161"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="163">
+        <v>-1.7715529999999999E-3</v>
+      </c>
+      <c r="F4" s="163">
+        <v>-2.5187409000000001E-2</v>
+      </c>
+      <c r="G4" s="163">
+        <v>8.1534916000000006</v>
+      </c>
+      <c r="H4" s="163">
+        <v>-61.098790000000001</v>
+      </c>
+      <c r="I4" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="163">
+        <v>1.8431599999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="164"/>
+      <c r="C5" s="165">
+        <v>6.5182500000000001</v>
+      </c>
+      <c r="D5" s="165">
+        <v>-5.6171199999999999</v>
+      </c>
+      <c r="E5" s="165">
+        <v>-6.0669269228125482E-2</v>
+      </c>
+      <c r="F5" s="166">
+        <v>-0.62843620003665923</v>
+      </c>
+      <c r="G5" s="165">
+        <v>0.64144944638088008</v>
+      </c>
+      <c r="H5" s="165">
+        <v>-1.6193548350455471</v>
+      </c>
+      <c r="I5" s="165">
+        <v>2.7147929999999998</v>
+      </c>
+      <c r="J5" s="165">
+        <v>0.38070848894071285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="163">
+        <v>-0.75292236000000001</v>
+      </c>
+      <c r="E6" s="163">
+        <v>3.4889245999999999E-2</v>
+      </c>
+      <c r="F6" s="163">
+        <v>9.1192741999999993E-2</v>
+      </c>
+      <c r="G6" s="163">
+        <v>-5.1831975000000003</v>
+      </c>
+      <c r="H6" s="163">
+        <v>61.954203999999997</v>
+      </c>
+      <c r="I6" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="163">
+        <v>-3.165167E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="164"/>
+      <c r="C7" s="165">
+        <v>2.0646589999999998</v>
+      </c>
+      <c r="D7" s="165">
+        <v>-0.40613271390744576</v>
+      </c>
+      <c r="E7" s="165">
+        <v>0.89575021441808556</v>
+      </c>
+      <c r="F7" s="166">
+        <v>1.5056691273046883</v>
+      </c>
+      <c r="G7" s="165">
+        <v>-0.51958232178729225</v>
+      </c>
+      <c r="H7" s="165">
+        <v>1.4027830990743324</v>
+      </c>
+      <c r="I7" s="165">
+        <v>2.1585380000000001</v>
+      </c>
+      <c r="J7" s="165">
+        <v>-0.67268430259159973</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="163">
+        <v>-2.7846111999999999E-2</v>
+      </c>
+      <c r="D8" s="163">
+        <v>0.78359078999999998</v>
+      </c>
+      <c r="E8" s="163">
+        <v>-4.0056231999999997E-2</v>
+      </c>
+      <c r="F8" s="163" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="163">
+        <v>14.3039904</v>
+      </c>
+      <c r="H8" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="163">
+        <v>-44.926276999999999</v>
+      </c>
+      <c r="J8" s="163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="164"/>
+      <c r="C9" s="165">
+        <v>-1.7273350571539225</v>
+      </c>
+      <c r="D9" s="165">
+        <v>0.54389114068588074</v>
+      </c>
+      <c r="E9" s="165">
+        <v>-1.5609495493975853</v>
+      </c>
+      <c r="F9" s="166">
+        <v>2.6816119999999999</v>
+      </c>
+      <c r="G9" s="165">
+        <v>1.4863968890356609</v>
+      </c>
+      <c r="H9" s="165">
+        <v>3.3460830000000001</v>
+      </c>
+      <c r="I9" s="165">
+        <v>-1.6139983976866039</v>
+      </c>
+      <c r="J9" s="165">
+        <v>-4.028035</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="163">
+        <v>2.1382928300000001</v>
+      </c>
+      <c r="E10" s="163">
+        <v>8.2315740000000002E-3</v>
+      </c>
+      <c r="F10" s="163">
+        <v>4.6404464999999999E-2</v>
+      </c>
+      <c r="G10" s="163">
+        <v>17.911874999999998</v>
+      </c>
+      <c r="H10" s="163">
+        <v>-5.0295719999999999</v>
+      </c>
+      <c r="I10" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="163">
+        <v>-7.6865550000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="164"/>
+      <c r="C11" s="165">
+        <v>-3.3254269999999999</v>
+      </c>
+      <c r="D11" s="165">
+        <v>1.1903483759478959</v>
+      </c>
+      <c r="E11" s="165">
+        <v>0.29597145093415483</v>
+      </c>
+      <c r="F11" s="166">
+        <v>0.89313092525221105</v>
+      </c>
+      <c r="G11" s="165">
+        <v>1.6865810938560348</v>
+      </c>
+      <c r="H11" s="165">
+        <v>-0.11571603600043609</v>
+      </c>
+      <c r="I11" s="165">
+        <v>-3.0995400000000002</v>
+      </c>
+      <c r="J11" s="165">
+        <v>-1.2972877364065314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="163">
+        <v>-1.3732523E-2</v>
+      </c>
+      <c r="D12" s="163">
+        <v>5.5491749999999999E-2</v>
+      </c>
+      <c r="E12" s="163">
+        <v>5.3312760000000002E-3</v>
+      </c>
+      <c r="F12" s="163">
+        <v>-2.3639932999999998E-2</v>
+      </c>
+      <c r="G12" s="163">
+        <v>-9.5088600999999997</v>
+      </c>
+      <c r="H12" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="163">
+        <v>-12.700434</v>
+      </c>
+      <c r="J12" s="163">
+        <v>0.11538415</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="164"/>
+      <c r="C13" s="165">
+        <v>-0.84882259219049327</v>
+      </c>
+      <c r="D13" s="165">
+        <v>5.2699421414549287E-2</v>
+      </c>
+      <c r="E13" s="165">
+        <v>0.21307837693806728</v>
+      </c>
+      <c r="F13" s="166">
+        <v>-0.39830677089130068</v>
+      </c>
+      <c r="G13" s="165">
+        <v>-0.7856549595499337</v>
+      </c>
+      <c r="H13" s="165">
+        <v>-3.1770879999999999</v>
+      </c>
+      <c r="I13" s="165">
+        <v>-0.6909115824376566</v>
+      </c>
+      <c r="J13" s="165">
+        <v>1.7612377739053289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="163">
+        <v>-6.4206940000000002E-3</v>
+      </c>
+      <c r="D14" s="163">
+        <v>1.32944833</v>
+      </c>
+      <c r="E14" s="163">
+        <v>-4.738384E-3</v>
+      </c>
+      <c r="F14" s="163">
+        <v>-1.8459150000000001E-3</v>
+      </c>
+      <c r="G14" s="163">
+        <v>-11.112252</v>
+      </c>
+      <c r="H14" s="163">
+        <v>-6.5166120000000003</v>
+      </c>
+      <c r="I14" s="163">
+        <v>38.322344999999999</v>
+      </c>
+      <c r="J14" s="163">
+        <v>8.4923209999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="164"/>
+      <c r="C15" s="165">
+        <v>-0.32588970000034434</v>
+      </c>
+      <c r="D15" s="165">
+        <v>0.95918287718067929</v>
+      </c>
+      <c r="E15" s="165">
+        <v>-0.21243188408568445</v>
+      </c>
+      <c r="F15" s="166">
+        <v>-4.9429539313257415E-2</v>
+      </c>
+      <c r="G15" s="165">
+        <v>-1.5527008222607823</v>
+      </c>
+      <c r="H15" s="165">
+        <v>-0.19756330476509332</v>
+      </c>
+      <c r="I15" s="165">
+        <v>1.4482352573475261</v>
+      </c>
+      <c r="J15" s="165">
+        <v>1.5884420727284618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="163">
+        <v>5.8033579999999998E-3</v>
+      </c>
+      <c r="D16" s="163">
+        <v>-0.39875811</v>
+      </c>
+      <c r="E16" s="163">
+        <v>-1.7761480999999999E-2</v>
+      </c>
+      <c r="F16" s="163">
+        <v>3.8290540000000001E-3</v>
+      </c>
+      <c r="G16" s="163">
+        <v>-4.1783650000000003</v>
+      </c>
+      <c r="H16" s="163">
+        <v>72.497091999999995</v>
+      </c>
+      <c r="I16" s="163">
+        <v>4.7031660000000004</v>
+      </c>
+      <c r="J16" s="163">
+        <v>-7.5467270000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="164"/>
+      <c r="C17" s="165">
+        <v>0.52517088557917735</v>
+      </c>
+      <c r="D17" s="165">
+        <v>-0.38133571952439521</v>
+      </c>
+      <c r="E17" s="165">
+        <v>-1.0215510278819953</v>
+      </c>
+      <c r="F17" s="166">
+        <v>0.10133839810233737</v>
+      </c>
+      <c r="G17" s="165">
+        <v>-0.50483033071842143</v>
+      </c>
+      <c r="H17" s="165">
+        <v>1.5101616789105732</v>
+      </c>
+      <c r="I17" s="165">
+        <v>0.17727853926661014</v>
+      </c>
+      <c r="J17" s="165">
+        <v>-1.6299367170771508</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="163">
+        <v>1.0980213000000001E-2</v>
+      </c>
+      <c r="D18" s="163">
+        <v>-1.2956440899999999</v>
+      </c>
+      <c r="E18" s="163">
+        <v>4.3356940000000002E-3</v>
+      </c>
+      <c r="F18" s="163">
+        <v>-4.6808865999999998E-2</v>
+      </c>
+      <c r="G18" s="163">
+        <v>7.2005369000000004</v>
+      </c>
+      <c r="H18" s="163">
+        <v>-29.194655999999998</v>
+      </c>
+      <c r="I18" s="163">
+        <v>-26.401895</v>
+      </c>
+      <c r="J18" s="163">
+        <v>-3.7029300000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="164"/>
+      <c r="C19" s="165">
+        <v>0.83459802088137636</v>
+      </c>
+      <c r="D19" s="165">
+        <v>-1.4568275579013481</v>
+      </c>
+      <c r="E19" s="165">
+        <v>0.23044474117786121</v>
+      </c>
+      <c r="F19" s="166">
+        <v>-1.6080698669786659</v>
+      </c>
+      <c r="G19" s="165">
+        <v>0.77188223882691753</v>
+      </c>
+      <c r="H19" s="165">
+        <v>-0.94016577431069626</v>
+      </c>
+      <c r="I19" s="165">
+        <v>-1.7692177657276473</v>
+      </c>
+      <c r="J19" s="165">
+        <v>-0.76164768808017758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="163">
+        <v>6.0554399999999996E-3</v>
+      </c>
+      <c r="D20" s="163">
+        <v>-0.37531913</v>
+      </c>
+      <c r="E20" s="163">
+        <v>1.9262238000000001E-2</v>
+      </c>
+      <c r="F20" s="163">
+        <v>-2.8418736E-2</v>
+      </c>
+      <c r="G20" s="163">
+        <v>-2.0166792999999998</v>
+      </c>
+      <c r="H20" s="163" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="163">
+        <v>-8.292662</v>
+      </c>
+      <c r="J20" s="163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="164"/>
+      <c r="C21" s="165">
+        <v>0.52884852512387115</v>
+      </c>
+      <c r="D21" s="165">
+        <v>-0.45373999207536891</v>
+      </c>
+      <c r="E21" s="165">
+        <v>1.2737712569974953</v>
+      </c>
+      <c r="F21" s="166">
+        <v>-1.0404439518619542</v>
+      </c>
+      <c r="G21" s="165">
+        <v>-0.2178359510141562</v>
+      </c>
+      <c r="H21" s="165">
+        <v>-2.5804900000000002</v>
+      </c>
+      <c r="I21" s="165">
+        <v>-0.50138392870914084</v>
+      </c>
+      <c r="J21" s="165">
+        <v>2.1255329999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="163">
+        <v>-1.2066458E-2</v>
+      </c>
+      <c r="D22" s="163">
+        <v>1.42822513</v>
+      </c>
+      <c r="E22" s="163">
+        <v>-7.3088459999999999E-3</v>
+      </c>
+      <c r="F22" s="163">
+        <v>2.5151776000000001E-2</v>
+      </c>
+      <c r="G22" s="163">
+        <v>-0.89953709999999998</v>
+      </c>
+      <c r="H22" s="163">
+        <v>27.170963</v>
+      </c>
+      <c r="I22" s="163">
+        <v>24.685689</v>
+      </c>
+      <c r="J22" s="163">
+        <v>4.4723739999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="164"/>
+      <c r="C23" s="165">
+        <v>-0.98798897057057333</v>
+      </c>
+      <c r="D23" s="165">
+        <v>1.5842244109476686</v>
+      </c>
+      <c r="E23" s="165">
+        <v>-0.62406917476870116</v>
+      </c>
+      <c r="F23" s="166">
+        <v>1.0742516901152419</v>
+      </c>
+      <c r="G23" s="165">
+        <v>-0.16456333483324195</v>
+      </c>
+      <c r="H23" s="165">
+        <v>0.78627697393989615</v>
+      </c>
+      <c r="I23" s="165">
+        <v>1.5405385159380978</v>
+      </c>
+      <c r="J23" s="165">
+        <v>1.2557822378070824</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="163">
+        <v>-4.1681790000000002E-3</v>
+      </c>
+      <c r="D24" s="163">
+        <v>1.9035E-2</v>
+      </c>
+      <c r="E24" s="163">
+        <v>-1.5948575999999999E-2</v>
+      </c>
+      <c r="F24" s="163">
+        <v>1.4933701000000001E-2</v>
+      </c>
+      <c r="G24" s="163">
+        <v>-1.0725484000000001</v>
+      </c>
+      <c r="H24" s="163">
+        <v>69.068355999999994</v>
+      </c>
+      <c r="I24" s="163">
+        <v>6.529293</v>
+      </c>
+      <c r="J24" s="163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="164"/>
+      <c r="C25" s="165">
+        <v>-0.52211064938481155</v>
+      </c>
+      <c r="D25" s="165">
+        <v>3.2806198572969146E-2</v>
+      </c>
+      <c r="E25" s="165">
+        <v>-1.2986653055401396</v>
+      </c>
+      <c r="F25" s="166">
+        <v>0.69817338096169368</v>
+      </c>
+      <c r="G25" s="165">
+        <v>-0.16353273007225672</v>
+      </c>
+      <c r="H25" s="165">
+        <v>1.8850160589960245</v>
+      </c>
+      <c r="I25" s="165">
+        <v>0.41791399838887727</v>
+      </c>
+      <c r="J25" s="165">
+        <v>-3.0143149999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="163">
+        <v>8.7317880000000007E-3</v>
+      </c>
+      <c r="D26" s="163">
+        <v>-1.1091140100000001</v>
+      </c>
+      <c r="E26" s="163">
+        <v>6.1905689999999999E-3</v>
+      </c>
+      <c r="F26" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="163">
+        <v>4.9603025000000001</v>
+      </c>
+      <c r="H26" s="163">
+        <v>-14.391389999999999</v>
+      </c>
+      <c r="I26" s="163">
+        <v>-17.417221000000001</v>
+      </c>
+      <c r="J26" s="163">
+        <v>-3.5861240000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="164"/>
+      <c r="C27" s="165">
+        <v>1.1309633800784156</v>
+      </c>
+      <c r="D27" s="165">
+        <v>-1.8887057413110453</v>
+      </c>
+      <c r="E27" s="165">
+        <v>0.53923350410187587</v>
+      </c>
+      <c r="F27" s="166">
+        <v>-2.135062</v>
+      </c>
+      <c r="G27" s="165">
+        <v>0.78207902517658057</v>
+      </c>
+      <c r="H27" s="165">
+        <v>-0.53358933351170634</v>
+      </c>
+      <c r="I27" s="165">
+        <v>-1.2981658021989122</v>
+      </c>
+      <c r="J27" s="165">
+        <v>-1.0076356292051583</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="163">
+        <v>5.6562629999999999E-3</v>
+      </c>
+      <c r="D28" s="163">
+        <v>-7.5933589999999995E-2</v>
+      </c>
+      <c r="E28" s="163">
+        <v>1.7259765999999999E-2</v>
+      </c>
+      <c r="F28" s="163">
+        <v>-1.5415976E-2</v>
+      </c>
+      <c r="G28" s="163">
+        <v>-1.2905738</v>
+      </c>
+      <c r="H28" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="163">
+        <v>-8.9894210000000001</v>
+      </c>
+      <c r="J28" s="163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="167"/>
+      <c r="C29" s="168">
+        <v>0.73184324790379252</v>
+      </c>
+      <c r="D29" s="168">
+        <v>-0.13068347991725143</v>
+      </c>
+      <c r="E29" s="168">
+        <v>1.6157785260210469</v>
+      </c>
+      <c r="F29" s="168">
+        <v>-0.90569125393371364</v>
+      </c>
+      <c r="G29" s="168">
+        <v>-0.1837119839007266</v>
+      </c>
+      <c r="H29" s="168">
+        <v>-2.5053960000000002</v>
+      </c>
+      <c r="I29" s="168">
+        <v>-0.67397666642899257</v>
+      </c>
+      <c r="J29" s="168">
+        <v>2.1461790000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="169"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="169"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="161"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="163" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="163">
+        <v>1.6427395E-3</v>
+      </c>
+      <c r="F36" s="163">
+        <v>-2.1389249999999999E-2</v>
+      </c>
+      <c r="G36" s="163">
+        <v>6.9132978999999999</v>
+      </c>
+      <c r="H36" s="163">
+        <v>-40.837639600000003</v>
+      </c>
+      <c r="I36" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="J36" s="163">
+        <v>6.3927309999999996E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="164"/>
+      <c r="C37" s="165">
+        <v>6.5428300000000004</v>
+      </c>
+      <c r="D37" s="165">
+        <v>-2.3470499999999999</v>
+      </c>
+      <c r="E37" s="165">
+        <v>6.6926515067323486E-2</v>
+      </c>
+      <c r="F37" s="166">
+        <v>-0.46499911654124287</v>
+      </c>
+      <c r="G37" s="165">
+        <v>0.72646635061794329</v>
+      </c>
+      <c r="H37" s="165">
+        <v>-1.2342200295767092</v>
+      </c>
+      <c r="I37" s="165">
+        <v>2.6110129999999998</v>
+      </c>
+      <c r="J37" s="165">
+        <v>0.12863996171566344</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="163">
+        <v>5.4025763999999997E-2</v>
+      </c>
+      <c r="D38" s="163">
+        <v>0.2893988797</v>
+      </c>
+      <c r="E38" s="163">
+        <v>4.3902640999999999E-2</v>
+      </c>
+      <c r="F38" s="163">
+        <v>0.10758876000000001</v>
+      </c>
+      <c r="G38" s="163">
+        <v>-5.1224069999999999</v>
+      </c>
+      <c r="H38" s="163">
+        <v>69.297705100000002</v>
+      </c>
+      <c r="I38" s="163" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="163">
+        <v>-4.0122627000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="164"/>
+      <c r="C39" s="165">
+        <v>1.8803823439160356</v>
+      </c>
+      <c r="D39" s="165">
+        <v>1.0031221232536742</v>
+      </c>
+      <c r="E39" s="165">
+        <v>1.2275160223044577</v>
+      </c>
+      <c r="F39" s="166">
+        <v>1.7363899677134875</v>
+      </c>
+      <c r="G39" s="165">
+        <v>-0.53042492482921721</v>
+      </c>
+      <c r="H39" s="165">
+        <v>1.7007444581624525</v>
+      </c>
+      <c r="I39" s="165">
+        <v>2.774241</v>
+      </c>
+      <c r="J39" s="165">
+        <v>-1.4785302143754011</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="163">
+        <v>-2.294059E-2</v>
+      </c>
+      <c r="D40" s="163">
+        <v>0.3464815309</v>
+      </c>
+      <c r="E40" s="163">
+        <v>-3.0491876099999999E-2</v>
+      </c>
+      <c r="F40" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="163">
+        <v>15.7457607</v>
+      </c>
+      <c r="H40" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="163">
+        <v>-45.950358000000001</v>
+      </c>
+      <c r="J40" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="164"/>
+      <c r="C41" s="165">
+        <v>-1.381298203947479</v>
+      </c>
+      <c r="D41" s="165">
+        <v>1.5220283838308968</v>
+      </c>
+      <c r="E41" s="165">
+        <v>-1.0000058272133683</v>
+      </c>
+      <c r="F41" s="166">
+        <v>2.812891</v>
+      </c>
+      <c r="G41" s="165">
+        <v>1.6014184911545626</v>
+      </c>
+      <c r="H41" s="165">
+        <v>3.083161</v>
+      </c>
+      <c r="I41" s="165">
+        <v>-1.5300137732784331</v>
+      </c>
+      <c r="J41" s="165">
+        <v>-3.2518159999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="163">
+        <v>0.23065222299999999</v>
+      </c>
+      <c r="E42" s="163">
+        <v>-6.1384980000000003E-4</v>
+      </c>
+      <c r="F42" s="163">
+        <v>5.7514469999999998E-2</v>
+      </c>
+      <c r="G42" s="163">
+        <v>16.579116200000001</v>
+      </c>
+      <c r="H42" s="163">
+        <v>-22.335055199999999</v>
+      </c>
+      <c r="I42" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="163">
+        <v>-6.6296042999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="164"/>
+      <c r="C43" s="165">
+        <v>-3.28491</v>
+      </c>
+      <c r="D43" s="165">
+        <v>0.84878335609095967</v>
+      </c>
+      <c r="E43" s="165">
+        <v>-2.2163945554606452E-2</v>
+      </c>
+      <c r="F43" s="166">
+        <v>1.4247837256064013</v>
+      </c>
+      <c r="G43" s="165">
+        <v>1.923156038365057</v>
+      </c>
+      <c r="H43" s="165">
+        <v>-0.44962100335699667</v>
+      </c>
+      <c r="I43" s="165">
+        <v>-3.1789390000000002</v>
+      </c>
+      <c r="J43" s="165">
+        <v>-1.5004414802306583</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="163">
+        <v>-1.7446128000000002E-2</v>
+      </c>
+      <c r="D44" s="163">
+        <v>-3.5078246799999997E-2</v>
+      </c>
+      <c r="E44" s="163">
+        <v>-2.2031612E-3</v>
+      </c>
+      <c r="F44" s="163">
+        <v>-2.7240219999999999E-2</v>
+      </c>
+      <c r="G44" s="163">
+        <v>-10.6787622</v>
+      </c>
+      <c r="H44" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="I44" s="163">
+        <v>-12.423749000000001</v>
+      </c>
+      <c r="J44" s="163">
+        <v>0.12646961400000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="164"/>
+      <c r="C45" s="165">
+        <v>-1.2138572913735808</v>
+      </c>
+      <c r="D45" s="165">
+        <v>-0.19238656327258799</v>
+      </c>
+      <c r="E45" s="165">
+        <v>-7.9772837073380259E-2</v>
+      </c>
+      <c r="F45" s="166">
+        <v>-1.146120000910184</v>
+      </c>
+      <c r="G45" s="165">
+        <v>-1.3312983751904912</v>
+      </c>
+      <c r="H45" s="165">
+        <v>-3.8071579999999998</v>
+      </c>
+      <c r="I45" s="165">
+        <v>-0.64611641800589092</v>
+      </c>
+      <c r="J45" s="165">
+        <v>1.931920721372981</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="163">
+        <v>-5.1458459999999999E-3</v>
+      </c>
+      <c r="D46" s="163">
+        <v>0.20737075199999999</v>
+      </c>
+      <c r="E46" s="163">
+        <v>-2.0650851E-3</v>
+      </c>
+      <c r="F46" s="163">
+        <v>-1.7012039999999999E-2</v>
+      </c>
+      <c r="G46" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="163">
+        <v>0.54719249999999997</v>
+      </c>
+      <c r="I46" s="163">
+        <v>34.325068000000002</v>
+      </c>
+      <c r="J46" s="163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="164"/>
+      <c r="C47" s="165">
+        <v>-0.29138630384796249</v>
+      </c>
+      <c r="D47" s="165">
+        <v>1.2524439617720347</v>
+      </c>
+      <c r="E47" s="165">
+        <v>-9.0297972703530613E-2</v>
+      </c>
+      <c r="F47" s="166">
+        <v>-0.52045164208653927</v>
+      </c>
+      <c r="G47" s="165">
+        <v>-2.1173250000000001</v>
+      </c>
+      <c r="H47" s="165">
+        <v>1.3921725114423725E-2</v>
+      </c>
+      <c r="I47" s="165">
+        <v>1.5679696319258187</v>
+      </c>
+      <c r="J47" s="165">
+        <v>2.1286450000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="163">
+        <v>6.6687059999999999E-3</v>
+      </c>
+      <c r="D48" s="163">
+        <v>2.8308519999999999E-4</v>
+      </c>
+      <c r="E48" s="163">
+        <v>-1.42298392E-2</v>
+      </c>
+      <c r="F48" s="163">
+        <v>-1.556216E-2</v>
+      </c>
+      <c r="G48" s="163">
+        <v>-1.3668465999999999</v>
+      </c>
+      <c r="H48" s="163">
+        <v>70.866239100000001</v>
+      </c>
+      <c r="I48" s="163">
+        <v>-0.55893700000000002</v>
+      </c>
+      <c r="J48" s="163">
+        <v>-6.9620647999999993E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="164"/>
+      <c r="C49" s="165">
+        <v>0.42351244224144191</v>
+      </c>
+      <c r="D49" s="165">
+        <v>1.4564051725374882E-3</v>
+      </c>
+      <c r="E49" s="165">
+        <v>-0.85370792214446434</v>
+      </c>
+      <c r="F49" s="166">
+        <v>-0.36985234199463324</v>
+      </c>
+      <c r="G49" s="165">
+        <v>-0.14071069375328493</v>
+      </c>
+      <c r="H49" s="165">
+        <v>1.5137134335321436</v>
+      </c>
+      <c r="I49" s="165">
+        <v>-3.576067404932555E-2</v>
+      </c>
+      <c r="J49" s="165">
+        <v>-1.0692995002795795</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="163">
+        <v>6.8027019999999999E-3</v>
+      </c>
+      <c r="D50" s="163">
+        <v>-0.19583885649999999</v>
+      </c>
+      <c r="E50" s="163">
+        <v>2.8515419999999999E-4</v>
+      </c>
+      <c r="F50" s="163">
+        <v>-5.1238319999999997E-2</v>
+      </c>
+      <c r="G50" s="163">
+        <v>6.8914660000000003</v>
+      </c>
+      <c r="H50" s="163">
+        <v>-29.329101999999999</v>
+      </c>
+      <c r="I50" s="163">
+        <v>-28.341581000000001</v>
+      </c>
+      <c r="J50" s="163">
+        <v>-3.8390906000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="164"/>
+      <c r="C51" s="165">
+        <v>0.57923616376141251</v>
+      </c>
+      <c r="D51" s="165">
+        <v>-1.3637355987697855</v>
+      </c>
+      <c r="E51" s="165">
+        <v>2.2691039704321462E-2</v>
+      </c>
+      <c r="F51" s="166">
+        <v>-1.7870173922033403</v>
+      </c>
+      <c r="G51" s="165">
+        <v>0.88321044258331238</v>
+      </c>
+      <c r="H51" s="165">
+        <v>-0.8266591386115657</v>
+      </c>
+      <c r="I51" s="165">
+        <v>-1.6125319496842532</v>
+      </c>
+      <c r="J51" s="165">
+        <v>-0.95023806548620959</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="163">
+        <v>2.4972660000000002E-3</v>
+      </c>
+      <c r="D52" s="163">
+        <v>-5.9789995999999998E-3</v>
+      </c>
+      <c r="E52" s="163">
+        <v>1.6534240400000001E-2</v>
+      </c>
+      <c r="F52" s="163">
+        <v>-3.414147E-2</v>
+      </c>
+      <c r="G52" s="163">
+        <v>-2.2301956999999999</v>
+      </c>
+      <c r="H52" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="163">
+        <v>-6.0427419999999996</v>
+      </c>
+      <c r="J52" s="163">
+        <v>0.108873505</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="164"/>
+      <c r="C53" s="165">
+        <v>0.19224615658224053</v>
+      </c>
+      <c r="D53" s="165">
+        <v>-4.6685700798379533E-2</v>
+      </c>
+      <c r="E53" s="165">
+        <v>0.91589375368198933</v>
+      </c>
+      <c r="F53" s="166">
+        <v>-1.3606020807159354</v>
+      </c>
+      <c r="G53" s="165">
+        <v>-0.30823749480783363</v>
+      </c>
+      <c r="H53" s="165">
+        <v>-2.03254</v>
+      </c>
+      <c r="I53" s="165">
+        <v>-0.30636793964488318</v>
+      </c>
+      <c r="J53" s="165">
+        <v>1.9406542059304523</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="163">
+        <v>-1.1619668999999999E-2</v>
+      </c>
+      <c r="D54" s="163">
+        <v>0.2174936395</v>
+      </c>
+      <c r="E54" s="163">
+        <v>-4.9364530000000004E-3</v>
+      </c>
+      <c r="F54" s="163">
+        <v>1.7922319999999999E-2</v>
+      </c>
+      <c r="G54" s="163">
+        <v>-0.89954999999999996</v>
+      </c>
+      <c r="H54" s="163">
+        <v>30.644883700000001</v>
+      </c>
+      <c r="I54" s="163">
+        <v>23.291003</v>
+      </c>
+      <c r="J54" s="163">
+        <v>4.5289998999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="164"/>
+      <c r="C55" s="165">
+        <v>-1.3008671194173278</v>
+      </c>
+      <c r="D55" s="165">
+        <v>1.8414546074028695</v>
+      </c>
+      <c r="E55" s="165">
+        <v>-0.41782794628695763</v>
+      </c>
+      <c r="F55" s="166">
+        <v>0.65511822630424532</v>
+      </c>
+      <c r="G55" s="165">
+        <v>-0.17349977293519148</v>
+      </c>
+      <c r="H55" s="165">
+        <v>0.8238324634079186</v>
+      </c>
+      <c r="I55" s="165">
+        <v>1.4247977897303086</v>
+      </c>
+      <c r="J55" s="165">
+        <v>1.3612204502336676</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="163">
+        <v>-4.3639610000000004E-3</v>
+      </c>
+      <c r="D56" s="163">
+        <v>-4.6406797499999999E-2</v>
+      </c>
+      <c r="E56" s="163">
+        <v>-1.50073286E-2</v>
+      </c>
+      <c r="F56" s="163">
+        <v>1.3385869999999999E-2</v>
+      </c>
+      <c r="G56" s="163">
+        <v>0.30079650000000002</v>
+      </c>
+      <c r="H56" s="163" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="163">
+        <v>3.428372</v>
+      </c>
+      <c r="J56" s="163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="164"/>
+      <c r="C57" s="165">
+        <v>-0.46921727374682676</v>
+      </c>
+      <c r="D57" s="165">
+        <v>-0.45425102515065829</v>
+      </c>
+      <c r="E57" s="165">
+        <v>-1.9127697812178446</v>
+      </c>
+      <c r="F57" s="166">
+        <v>0.51133376145376441</v>
+      </c>
+      <c r="G57" s="165">
+        <v>4.1611082049504027E-2</v>
+      </c>
+      <c r="H57" s="165">
+        <v>2.0324</v>
+      </c>
+      <c r="I57" s="165">
+        <v>0.22469513483328291</v>
+      </c>
+      <c r="J57" s="165">
+        <v>-2.267185</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="163">
+        <v>7.8137580000000005E-3</v>
+      </c>
+      <c r="D58" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="163">
+        <v>5.6655927999999999E-3</v>
+      </c>
+      <c r="F58" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="163">
+        <v>3.5247543000000001</v>
+      </c>
+      <c r="H58" s="163">
+        <v>-16.799789799999999</v>
+      </c>
+      <c r="I58" s="163">
+        <v>-17.261275999999999</v>
+      </c>
+      <c r="J58" s="163">
+        <v>-3.5062074999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="164"/>
+      <c r="C59" s="165">
+        <v>0.82574960358268823</v>
+      </c>
+      <c r="D59" s="165">
+        <v>-2.069267</v>
+      </c>
+      <c r="E59" s="165">
+        <v>0.53206336439032176</v>
+      </c>
+      <c r="F59" s="166">
+        <v>-2.3104239999999998</v>
+      </c>
+      <c r="G59" s="165">
+        <v>0.59978930534894737</v>
+      </c>
+      <c r="H59" s="165">
+        <v>-0.73721858286393749</v>
+      </c>
+      <c r="I59" s="165">
+        <v>-1.1513728480738248</v>
+      </c>
+      <c r="J59" s="165">
+        <v>-0.93499890713088762</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="163">
+        <v>5.9585000000000003E-3</v>
+      </c>
+      <c r="D60" s="163">
+        <v>4.8949144299999997E-2</v>
+      </c>
+      <c r="E60" s="163">
+        <v>1.76265899E-2</v>
+      </c>
+      <c r="F60" s="163">
+        <v>-1.286786E-2</v>
+      </c>
+      <c r="G60" s="163">
+        <v>-1.7840962</v>
+      </c>
+      <c r="H60" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="163">
+        <v>-5.5678349999999996</v>
+      </c>
+      <c r="J60" s="163">
+        <v>9.0097298000000006E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="167"/>
+      <c r="C61" s="168">
+        <v>0.78759545885633009</v>
+      </c>
+      <c r="D61" s="168">
+        <v>0.47612712710920702</v>
+      </c>
+      <c r="E61" s="168">
+        <v>1.4617210590601399</v>
+      </c>
+      <c r="F61" s="168">
+        <v>-0.85125547075217001</v>
+      </c>
+      <c r="G61" s="168">
+        <v>-0.34440918597434</v>
+      </c>
+      <c r="H61" s="168">
+        <v>-2.0460630000000002</v>
+      </c>
+      <c r="I61" s="168">
+        <v>-0.52820080287034921</v>
+      </c>
+      <c r="J61" s="168">
+        <v>1.7738928937404725</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="169"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="169"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="170"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="169"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="161"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="163">
+        <v>-3.7192664E-2</v>
+      </c>
+      <c r="G68" s="163">
+        <v>8.5003525</v>
+      </c>
+      <c r="H68" s="163">
+        <v>-59.788110000000003</v>
+      </c>
+      <c r="I68" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" s="163">
+        <v>1.449346E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="164"/>
+      <c r="C69" s="165">
+        <v>6.4533550000000002</v>
+      </c>
+      <c r="D69" s="165">
+        <v>-5.7504220000000004</v>
+      </c>
+      <c r="E69" s="165">
+        <v>-2.3741560000000002</v>
+      </c>
+      <c r="F69" s="166">
+        <v>-0.7921637414368814</v>
+      </c>
+      <c r="G69" s="165">
+        <v>0.83577830068887404</v>
+      </c>
+      <c r="H69" s="165">
+        <v>-1.6763883030380042</v>
+      </c>
+      <c r="I69" s="165">
+        <v>2.357685</v>
+      </c>
+      <c r="J69" s="165">
+        <v>0.32792874386097121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="163">
+        <v>5.0452151000000001E-2</v>
+      </c>
+      <c r="D70" s="163">
+        <v>-0.84932138000000001</v>
+      </c>
+      <c r="E70" s="163">
+        <v>6.2439138999999998E-2</v>
+      </c>
+      <c r="F70" s="163">
+        <v>8.0361349999999998E-2</v>
+      </c>
+      <c r="G70" s="163">
+        <v>-2.8366555999999998</v>
+      </c>
+      <c r="H70" s="163">
+        <v>58.960495299999998</v>
+      </c>
+      <c r="I70" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="J70" s="163">
+        <v>-4.9044860000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="164"/>
+      <c r="C71" s="165">
+        <v>1.7013638006504797</v>
+      </c>
+      <c r="D71" s="165">
+        <v>-0.43751001953378393</v>
+      </c>
+      <c r="E71" s="165">
+        <v>0.78903090464161829</v>
+      </c>
+      <c r="F71" s="166">
+        <v>1.6534495187349116</v>
+      </c>
+      <c r="G71" s="165">
+        <v>-0.37479882321213237</v>
+      </c>
+      <c r="H71" s="165">
+        <v>1.5126400521790047</v>
+      </c>
+      <c r="I71" s="165">
+        <v>2.0528759999999999</v>
+      </c>
+      <c r="J71" s="165">
+        <v>-1.1717339159502598</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="163">
+        <v>-3.4026457000000003E-2</v>
+      </c>
+      <c r="D72" s="163">
+        <v>1.20461565</v>
+      </c>
+      <c r="E72" s="163">
+        <v>-6.3762910000000001E-3</v>
+      </c>
+      <c r="F72" s="163" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="163">
+        <v>13.3521334</v>
+      </c>
+      <c r="H72" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" s="163">
+        <v>-41.488697999999999</v>
+      </c>
+      <c r="J72" s="163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="164"/>
+      <c r="C73" s="165">
+        <v>-1.914283137704341</v>
+      </c>
+      <c r="D73" s="165">
+        <v>0.68645633954380991</v>
+      </c>
+      <c r="E73" s="165">
+        <v>-6.4303727643176378E-2</v>
+      </c>
+      <c r="F73" s="166">
+        <v>3.1389589999999998</v>
+      </c>
+      <c r="G73" s="165">
+        <v>1.2155051579327365</v>
+      </c>
+      <c r="H73" s="165">
+        <v>2.9952800000000002</v>
+      </c>
+      <c r="I73" s="165">
+        <v>-1.9125543483680578</v>
+      </c>
+      <c r="J73" s="165">
+        <v>-3.720701</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="163">
+        <v>1.74970603</v>
+      </c>
+      <c r="E74" s="163">
+        <v>0.11777658000000001</v>
+      </c>
+      <c r="F74" s="163">
+        <v>3.2612387E-2</v>
+      </c>
+      <c r="G74" s="163">
+        <v>16.917255999999998</v>
+      </c>
+      <c r="H74" s="163">
+        <v>0.85448020000000002</v>
+      </c>
+      <c r="I74" s="163" t="s">
+        <v>211</v>
+      </c>
+      <c r="J74" s="163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="164"/>
+      <c r="C75" s="165">
+        <v>-2.5223330000000002</v>
+      </c>
+      <c r="D75" s="165">
+        <v>0.89878689915268539</v>
+      </c>
+      <c r="E75" s="165">
+        <v>1.0722918376171739</v>
+      </c>
+      <c r="F75" s="166">
+        <v>0.60352015684808691</v>
+      </c>
+      <c r="G75" s="165">
+        <v>1.6841424906588964</v>
+      </c>
+      <c r="H75" s="165">
+        <v>2.1470097575510334E-2</v>
+      </c>
+      <c r="I75" s="165">
+        <v>-3.3930150000000001</v>
+      </c>
+      <c r="J75" s="165">
+        <v>-1.981681</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="163">
+        <v>-8.6253979999999994E-3</v>
+      </c>
+      <c r="D76" s="163">
+        <v>-0.44704719999999998</v>
+      </c>
+      <c r="E76" s="163">
+        <v>5.4691019E-2</v>
+      </c>
+      <c r="F76" s="163">
+        <v>-2.5645174E-2</v>
+      </c>
+      <c r="G76" s="163">
+        <v>-10.098536599999999</v>
+      </c>
+      <c r="H76" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="I76" s="163">
+        <v>-12.8969</v>
+      </c>
+      <c r="J76" s="163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="164"/>
+      <c r="C77" s="165">
+        <v>-0.45017299718807302</v>
+      </c>
+      <c r="D77" s="165">
+        <v>-0.30553015573590792</v>
+      </c>
+      <c r="E77" s="165">
+        <v>0.73060108759336406</v>
+      </c>
+      <c r="F77" s="166">
+        <v>-0.477399947397672</v>
+      </c>
+      <c r="G77" s="165">
+        <v>-1.3512980339287219</v>
+      </c>
+      <c r="H77" s="165">
+        <v>-3.3205119999999999</v>
+      </c>
+      <c r="I77" s="165">
+        <v>-0.49809557378938252</v>
+      </c>
+      <c r="J77" s="165">
+        <v>2.2774709999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="163">
+        <v>-2.9643299999999998E-3</v>
+      </c>
+      <c r="D78" s="163">
+        <v>1.2535834400000001</v>
+      </c>
+      <c r="E78" s="163">
+        <v>-7.4125976999999996E-2</v>
+      </c>
+      <c r="F78" s="163">
+        <v>7.8625110000000008E-3</v>
+      </c>
+      <c r="G78" s="163">
+        <v>-11.0394921</v>
+      </c>
+      <c r="H78" s="163">
+        <v>-13.199087</v>
+      </c>
+      <c r="I78" s="163">
+        <v>39.956434999999999</v>
+      </c>
+      <c r="J78" s="163">
+        <v>9.0929280000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="164"/>
+      <c r="C79" s="165">
+        <v>-0.18219780898648261</v>
+      </c>
+      <c r="D79" s="165">
+        <v>0.90624283168373709</v>
+      </c>
+      <c r="E79" s="165">
+        <v>-1.4060956175194697</v>
+      </c>
+      <c r="F79" s="166">
+        <v>0.19459149121499658</v>
+      </c>
+      <c r="G79" s="165">
+        <v>-1.6284439194064706</v>
+      </c>
+      <c r="H79" s="165">
+        <v>-0.39565743453616553</v>
+      </c>
+      <c r="I79" s="165">
+        <v>1.4810311265245768</v>
+      </c>
+      <c r="J79" s="165">
+        <v>1.7506013536948433</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="163">
+        <v>6.103608E-3</v>
+      </c>
+      <c r="D80" s="163">
+        <v>-0.33392835999999998</v>
+      </c>
+      <c r="E80" s="163">
+        <v>-2.4572120999999999E-2</v>
+      </c>
+      <c r="F80" s="163">
+        <v>2.0536878000000001E-2</v>
+      </c>
+      <c r="G80" s="163">
+        <v>-2.7633028999999998</v>
+      </c>
+      <c r="H80" s="163">
+        <v>78.856621500000003</v>
+      </c>
+      <c r="I80" s="163">
+        <v>7.4981669999999996</v>
+      </c>
+      <c r="J80" s="163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="164"/>
+      <c r="C81" s="165">
+        <v>0.45243030656006772</v>
+      </c>
+      <c r="D81" s="165">
+        <v>-0.34283985171471915</v>
+      </c>
+      <c r="E81" s="165">
+        <v>-0.40658350878079547</v>
+      </c>
+      <c r="F81" s="166">
+        <v>0.4875525131526342</v>
+      </c>
+      <c r="G81" s="165">
+        <v>-0.34511678179461858</v>
+      </c>
+      <c r="H81" s="165">
+        <v>1.5043870057654873</v>
+      </c>
+      <c r="I81" s="165">
+        <v>0.39454553552394001</v>
+      </c>
+      <c r="J81" s="165">
+        <v>-2.1121539999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="163">
+        <v>1.0153746999999999E-2</v>
+      </c>
+      <c r="D82" s="163">
+        <v>-1.41949232</v>
+      </c>
+      <c r="E82" s="163">
+        <v>-4.2956014000000001E-2</v>
+      </c>
+      <c r="F82" s="163">
+        <v>-4.2984873999999999E-2</v>
+      </c>
+      <c r="G82" s="163">
+        <v>5.4294386000000001</v>
+      </c>
+      <c r="H82" s="163">
+        <v>-28.695434299999999</v>
+      </c>
+      <c r="I82" s="163">
+        <v>-28.541810000000002</v>
+      </c>
+      <c r="J82" s="163">
+        <v>-4.7950769999999997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="164"/>
+      <c r="C83" s="165">
+        <v>0.66477238661886862</v>
+      </c>
+      <c r="D83" s="165">
+        <v>-1.8157273719292746</v>
+      </c>
+      <c r="E83" s="165">
+        <v>-0.87408528001747798</v>
+      </c>
+      <c r="F83" s="166">
+        <v>-1.2671320885741622</v>
+      </c>
+      <c r="G83" s="165">
+        <v>0.78609449388423824</v>
+      </c>
+      <c r="H83" s="165">
+        <v>-0.84628360861640728</v>
+      </c>
+      <c r="I83" s="165">
+        <v>-1.8481736144375591</v>
+      </c>
+      <c r="J83" s="165">
+        <v>-1.250527531801239</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="163">
+        <v>6.4744069999999997E-3</v>
+      </c>
+      <c r="D84" s="163">
+        <v>-0.44956068999999999</v>
+      </c>
+      <c r="E84" s="163">
+        <v>-2.9857970000000001E-3</v>
+      </c>
+      <c r="F84" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="163">
+        <v>-1.3299996999999999</v>
+      </c>
+      <c r="H84" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="I84" s="163">
+        <v>-8.8866169999999993</v>
+      </c>
+      <c r="J84" s="163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="164"/>
+      <c r="C85" s="165">
+        <v>0.46017900212986906</v>
+      </c>
+      <c r="D85" s="165">
+        <v>-0.56169316749005704</v>
+      </c>
+      <c r="E85" s="165">
+        <v>-6.7520486252179518E-2</v>
+      </c>
+      <c r="F85" s="166">
+        <v>-1.972402</v>
+      </c>
+      <c r="G85" s="165">
+        <v>-0.19517573745512118</v>
+      </c>
+      <c r="H85" s="165">
+        <v>-2.874098</v>
+      </c>
+      <c r="I85" s="165">
+        <v>-0.68323693058667245</v>
+      </c>
+      <c r="J85" s="165">
+        <v>2.4261469999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="163">
+        <v>-1.2447481999999999E-2</v>
+      </c>
+      <c r="D86" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="163">
+        <v>-1.6423900000000001E-3</v>
+      </c>
+      <c r="F86" s="163">
+        <v>2.3074232E-2</v>
+      </c>
+      <c r="G86" s="163">
+        <v>-0.929226</v>
+      </c>
+      <c r="H86" s="163">
+        <v>27.294792699999999</v>
+      </c>
+      <c r="I86" s="163">
+        <v>28.149263999999999</v>
+      </c>
+      <c r="J86" s="163">
+        <v>5.5069279999999998E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="164"/>
+      <c r="C87" s="165">
+        <v>-1.0137032487904212</v>
+      </c>
+      <c r="D87" s="165">
+        <v>1.972021</v>
+      </c>
+      <c r="E87" s="165">
+        <v>-4.3487894362987271E-2</v>
+      </c>
+      <c r="F87" s="166">
+        <v>0.72277525529708953</v>
+      </c>
+      <c r="G87" s="165">
+        <v>-0.18801731803014479</v>
+      </c>
+      <c r="H87" s="165">
+        <v>0.89560031946091834</v>
+      </c>
+      <c r="I87" s="165">
+        <v>1.4014234225547642</v>
+      </c>
+      <c r="J87" s="165">
+        <v>1.2302514237803632</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="163">
+        <v>-1.5110360000000001E-3</v>
+      </c>
+      <c r="D88" s="163">
+        <v>-8.7954969999999993E-2</v>
+      </c>
+      <c r="E88" s="163">
+        <v>-1.1374810000000001E-2</v>
+      </c>
+      <c r="F88" s="163">
+        <v>1.7451812000000001E-2</v>
+      </c>
+      <c r="G88" s="163">
+        <v>-0.75222719999999998</v>
+      </c>
+      <c r="H88" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="I88" s="163">
+        <v>10.580264</v>
+      </c>
+      <c r="J88" s="163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="164"/>
+      <c r="C89" s="165">
+        <v>-0.12995900471105307</v>
+      </c>
+      <c r="D89" s="165">
+        <v>-0.12425539223475184</v>
+      </c>
+      <c r="E89" s="165">
+        <v>-0.30227232866519621</v>
+      </c>
+      <c r="F89" s="166">
+        <v>0.57788587498045729</v>
+      </c>
+      <c r="G89" s="165">
+        <v>-0.13301438288841932</v>
+      </c>
+      <c r="H89" s="165">
+        <v>2.0529950000000001</v>
+      </c>
+      <c r="I89" s="165">
+        <v>0.71951310488208031</v>
+      </c>
+      <c r="J89" s="165">
+        <v>-3.3832789999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="163">
+        <v>1.12503E-2</v>
+      </c>
+      <c r="D90" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="163">
+        <v>1.4809070000000001E-2</v>
+      </c>
+      <c r="F90" s="163">
+        <v>-3.3820678E-2</v>
+      </c>
+      <c r="G90" s="163">
+        <v>4.6352617</v>
+      </c>
+      <c r="H90" s="163">
+        <v>-13.333145</v>
+      </c>
+      <c r="I90" s="163">
+        <v>-18.408809000000002</v>
+      </c>
+      <c r="J90" s="163">
+        <v>-4.1215109999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="164"/>
+      <c r="C91" s="165">
+        <v>1.2271490897968695</v>
+      </c>
+      <c r="D91" s="165">
+        <v>-2.3217349999999999</v>
+      </c>
+      <c r="E91" s="165">
+        <v>0.66754237601925415</v>
+      </c>
+      <c r="F91" s="166">
+        <v>-1.8253708575567269</v>
+      </c>
+      <c r="G91" s="165">
+        <v>0.8091156653826691</v>
+      </c>
+      <c r="H91" s="165">
+        <v>-0.4520146079808734</v>
+      </c>
+      <c r="I91" s="165">
+        <v>-1.3350797907905667</v>
+      </c>
+      <c r="J91" s="165">
+        <v>-1.1818476570609451</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="163">
+        <v>6.111755E-3</v>
+      </c>
+      <c r="D92" s="163">
+        <v>-7.6243199999999997E-2</v>
+      </c>
+      <c r="E92" s="163">
+        <v>2.7484240000000002E-3</v>
+      </c>
+      <c r="F92" s="163">
+        <v>-1.3162623E-2</v>
+      </c>
+      <c r="G92" s="163">
+        <v>-1.4760271</v>
+      </c>
+      <c r="H92" s="163" t="s">
+        <v>223</v>
+      </c>
+      <c r="I92" s="163">
+        <v>-10.350858000000001</v>
+      </c>
+      <c r="J92" s="163" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="167"/>
+      <c r="C93" s="168">
+        <v>0.66882224473397056</v>
+      </c>
+      <c r="D93" s="168">
+        <v>-0.14614009145854789</v>
+      </c>
+      <c r="E93" s="168">
+        <v>0.10003497920920515</v>
+      </c>
+      <c r="F93" s="168">
+        <v>-0.82563720556556552</v>
+      </c>
+      <c r="G93" s="168">
+        <v>-0.26604000040866793</v>
+      </c>
+      <c r="H93" s="168">
+        <v>-3.5331060000000001</v>
+      </c>
+      <c r="I93" s="168">
+        <v>-1.0865674779809711</v>
+      </c>
+      <c r="J93" s="168">
+        <v>2.2450950000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="169"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="170"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="169"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="170"/>
+      <c r="E95" s="170"/>
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="170"/>
+      <c r="J95" s="170"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="169"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="170"/>
+      <c r="E96" s="170"/>
+      <c r="F96" s="170"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="170"/>
+      <c r="J96" s="170"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="169"/>
+      <c r="C97" s="170"/>
+      <c r="D97" s="170"/>
+      <c r="E97" s="170"/>
+      <c r="F97" s="170"/>
+      <c r="G97" s="170"/>
+      <c r="H97" s="170"/>
+      <c r="I97" s="170"/>
+      <c r="J97" s="170"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="G99" s="160"/>
+      <c r="H99" s="160"/>
+      <c r="I99" s="160"/>
+      <c r="J99" s="161"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="H100" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="J100" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="163">
+        <v>1.029821E-2</v>
+      </c>
+      <c r="F101" s="163">
+        <v>-2.3881289999999999E-2</v>
+      </c>
+      <c r="G101" s="163">
+        <v>8.4171880000000008E-3</v>
+      </c>
+      <c r="H101" s="163">
+        <v>-1.1731528000000001E-3</v>
+      </c>
+      <c r="I101" s="163">
+        <v>3.8709568999999999E-2</v>
+      </c>
+      <c r="J101" s="163">
+        <v>-4.6236109999999997E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="164"/>
+      <c r="C102" s="165">
+        <v>5.9290630000000002</v>
+      </c>
+      <c r="D102" s="165">
+        <v>-4.5859920000000001</v>
+      </c>
+      <c r="E102" s="165">
+        <v>0.36335836191728432</v>
+      </c>
+      <c r="F102" s="166">
+        <v>-0.5999661379831428</v>
+      </c>
+      <c r="G102" s="165">
+        <v>1.9530857366809204</v>
+      </c>
+      <c r="H102" s="165">
+        <v>-0.16384651954722662</v>
+      </c>
+      <c r="I102" s="165">
+        <v>1.4532779104971687</v>
+      </c>
+      <c r="J102" s="165">
+        <v>-9.833809862067297E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="163">
+        <v>1.1281052999999999E-2</v>
+      </c>
+      <c r="D103" s="163">
+        <v>1.2896934900000001</v>
+      </c>
+      <c r="E103" s="163">
+        <v>2.5388363000000001E-2</v>
+      </c>
+      <c r="F103" s="163">
+        <v>0.11240312</v>
+      </c>
+      <c r="G103" s="163">
+        <v>-1.902852E-3</v>
+      </c>
+      <c r="H103" s="163">
+        <v>2.2645804000000001E-3</v>
+      </c>
+      <c r="I103" s="163">
+        <v>1.3635154999999999E-2</v>
+      </c>
+      <c r="J103" s="163">
+        <v>-2.3028107999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="164"/>
+      <c r="C104" s="165">
+        <v>0.49782387598361116</v>
+      </c>
+      <c r="D104" s="165">
+        <v>0.63075733340023354</v>
+      </c>
+      <c r="E104" s="165">
+        <v>0.96507221354240447</v>
+      </c>
+      <c r="F104" s="166">
+        <v>1.8940022076879153</v>
+      </c>
+      <c r="G104" s="165">
+        <v>-0.68911467482313404</v>
+      </c>
+      <c r="H104" s="165">
+        <v>0.24929380537092979</v>
+      </c>
+      <c r="I104" s="165">
+        <v>0.63165233163273082</v>
+      </c>
+      <c r="J104" s="165">
+        <v>-0.50631147271759047</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="163" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="163">
+        <v>1.44222395</v>
+      </c>
+      <c r="E105" s="163">
+        <v>-4.8893444000000001E-2</v>
+      </c>
+      <c r="F105" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="G105" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" s="163">
+        <v>1.3227876E-2</v>
+      </c>
+      <c r="I105" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="163" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="164"/>
+      <c r="C106" s="165">
+        <v>-2.8156409999999998</v>
+      </c>
+      <c r="D106" s="165">
+        <v>0.74144151643621858</v>
+      </c>
+      <c r="E106" s="165">
+        <v>-1.7433571529250973</v>
+      </c>
+      <c r="F106" s="166">
+        <v>2.7290839999999998</v>
+      </c>
+      <c r="G106" s="165">
+        <v>1.984334</v>
+      </c>
+      <c r="H106" s="165">
+        <v>1.1372189902045242</v>
+      </c>
+      <c r="I106" s="165">
+        <v>-2.6418339999999998</v>
+      </c>
+      <c r="J106" s="165">
+        <v>-1.983617</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="163">
+        <v>2.49237536</v>
+      </c>
+      <c r="E107" s="163">
+        <v>1.6006452000000001E-2</v>
+      </c>
+      <c r="F107" s="163">
+        <v>1.031229E-2</v>
+      </c>
+      <c r="G107" s="163">
+        <v>9.8716810000000011E-4</v>
+      </c>
+      <c r="H107" s="163">
+        <v>6.0967271000000002E-3</v>
+      </c>
+      <c r="I107" s="163" t="s">
+        <v>233</v>
+      </c>
+      <c r="J107" s="163">
+        <v>-5.3984692000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="164"/>
+      <c r="C108" s="165">
+        <v>-4.3352690000000003</v>
+      </c>
+      <c r="D108" s="165">
+        <v>1.596370606899459</v>
+      </c>
+      <c r="E108" s="165">
+        <v>0.5095373037878379</v>
+      </c>
+      <c r="F108" s="166">
+        <v>0.22404930907771842</v>
+      </c>
+      <c r="G108" s="165">
+        <v>0.32559842721874022</v>
+      </c>
+      <c r="H108" s="165">
+        <v>0.51932215215214939</v>
+      </c>
+      <c r="I108" s="165">
+        <v>-3.391858</v>
+      </c>
+      <c r="J108" s="165">
+        <v>-1.2672546690209987</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="163">
+        <v>-3.3724010000000001E-3</v>
+      </c>
+      <c r="D109" s="163">
+        <v>-0.44911697</v>
+      </c>
+      <c r="E109" s="163">
+        <v>1.2672371E-2</v>
+      </c>
+      <c r="F109" s="163">
+        <v>-7.2936899999999999E-2</v>
+      </c>
+      <c r="G109" s="163">
+        <v>-1.7847270000000001E-3</v>
+      </c>
+      <c r="H109" s="163">
+        <v>7.5422231999999999E-3</v>
+      </c>
+      <c r="I109" s="163">
+        <v>5.3067940000000001E-3</v>
+      </c>
+      <c r="J109" s="163">
+        <v>6.2838143999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="164"/>
+      <c r="C110" s="165">
+        <v>-0.16034304001484198</v>
+      </c>
+      <c r="D110" s="165">
+        <v>-0.35361474972157636</v>
+      </c>
+      <c r="E110" s="165">
+        <v>0.40850760831599503</v>
+      </c>
+      <c r="F110" s="166">
+        <v>-1.9495366853843907</v>
+      </c>
+      <c r="G110" s="165">
+        <v>-0.51074589417856842</v>
+      </c>
+      <c r="H110" s="165">
+        <v>0.77964814977118424</v>
+      </c>
+      <c r="I110" s="165">
+        <v>0.27910338436039239</v>
+      </c>
+      <c r="J110" s="165">
+        <v>1.0613360970424803</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="163">
+        <v>1.595682E-2</v>
+      </c>
+      <c r="D111" s="163">
+        <v>0.68557517000000001</v>
+      </c>
+      <c r="E111" s="163">
+        <v>2.829355E-3</v>
+      </c>
+      <c r="F111" s="163">
+        <v>-4.4205910000000001E-2</v>
+      </c>
+      <c r="G111" s="163">
+        <v>-3.810178E-3</v>
+      </c>
+      <c r="H111" s="163">
+        <v>6.3228983000000001E-3</v>
+      </c>
+      <c r="I111" s="163">
+        <v>1.8114104999999998E-2</v>
+      </c>
+      <c r="J111" s="163">
+        <v>7.3580972999999994E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="164"/>
+      <c r="C112" s="165">
+        <v>0.76927631810352182</v>
+      </c>
+      <c r="D112" s="165">
+        <v>0.41726823265239504</v>
+      </c>
+      <c r="E112" s="165">
+        <v>0.12408650667803961</v>
+      </c>
+      <c r="F112" s="166">
+        <v>-1.2095824508125577</v>
+      </c>
+      <c r="G112" s="165">
+        <v>-1.6134399691655423</v>
+      </c>
+      <c r="H112" s="165">
+        <v>0.75906999952708509</v>
+      </c>
+      <c r="I112" s="165">
+        <v>1.1166197697829372</v>
+      </c>
+      <c r="J112" s="165">
+        <v>1.1248531422888881</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" s="163">
+        <v>2.0459150000000001E-3</v>
+      </c>
+      <c r="D113" s="163">
+        <v>0.46078786999999999</v>
+      </c>
+      <c r="E113" s="163">
+        <v>-2.3660404999999999E-2</v>
+      </c>
+      <c r="F113" s="163">
+        <v>1.300687E-2</v>
+      </c>
+      <c r="G113" s="163">
+        <v>1.6984159999999999E-3</v>
+      </c>
+      <c r="H113" s="163">
+        <v>9.8210842999999996E-3</v>
+      </c>
+      <c r="I113" s="163">
+        <v>-3.445296E-3</v>
+      </c>
+      <c r="J113" s="163">
+        <v>-2.8050195E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="164"/>
+      <c r="C114" s="165">
+        <v>0.16156484472122265</v>
+      </c>
+      <c r="D114" s="165">
+        <v>0.33439451222643796</v>
+      </c>
+      <c r="E114" s="165">
+        <v>-1.4929629835311553</v>
+      </c>
+      <c r="F114" s="166">
+        <v>0.36608765330924176</v>
+      </c>
+      <c r="G114" s="165">
+        <v>0.54235033250753595</v>
+      </c>
+      <c r="H114" s="165">
+        <v>1.5939612460735735</v>
+      </c>
+      <c r="I114" s="165">
+        <v>-0.20215923025988411</v>
+      </c>
+      <c r="J114" s="165">
+        <v>-0.49644536016938151</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" s="163">
+        <v>-1.1773442E-2</v>
+      </c>
+      <c r="D115" s="163">
+        <v>-0.24615310000000001</v>
+      </c>
+      <c r="E115" s="163">
+        <v>-1.048289E-3</v>
+      </c>
+      <c r="F115" s="163">
+        <v>3.8954200000000001E-3</v>
+      </c>
+      <c r="G115" s="163">
+        <v>5.1287440000000002E-5</v>
+      </c>
+      <c r="H115" s="163">
+        <v>1.2859098000000001E-3</v>
+      </c>
+      <c r="I115" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="J115" s="163">
+        <v>-2.9682172999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="164"/>
+      <c r="C116" s="165">
+        <v>-0.99512605821871858</v>
+      </c>
+      <c r="D116" s="165">
+        <v>-0.25120049983924442</v>
+      </c>
+      <c r="E116" s="165">
+        <v>-5.6453354869346245E-2</v>
+      </c>
+      <c r="F116" s="166">
+        <v>0.1052958958073867</v>
+      </c>
+      <c r="G116" s="165">
+        <v>2.1700231858268908E-2</v>
+      </c>
+      <c r="H116" s="165">
+        <v>0.21264970861969701</v>
+      </c>
+      <c r="I116" s="165">
+        <v>-2.529785</v>
+      </c>
+      <c r="J116" s="165">
+        <v>-0.89086466553361765</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="163">
+        <v>-1.0822826000000001E-2</v>
+      </c>
+      <c r="D117" s="163">
+        <v>6.5421400000000005E-2</v>
+      </c>
+      <c r="E117" s="163">
+        <v>1.1558715000000001E-2</v>
+      </c>
+      <c r="F117" s="163">
+        <v>-1.542989E-2</v>
+      </c>
+      <c r="G117" s="163">
+        <v>2.1437470000000001E-3</v>
+      </c>
+      <c r="H117" s="163">
+        <v>-6.5301370000000005E-4</v>
+      </c>
+      <c r="I117" s="163">
+        <v>-4.2523659999999996E-3</v>
+      </c>
+      <c r="J117" s="163">
+        <v>5.1599309000000003E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="164"/>
+      <c r="C118" s="165">
+        <v>-1.0489151118421418</v>
+      </c>
+      <c r="D118" s="165">
+        <v>7.7155290780189636E-2</v>
+      </c>
+      <c r="E118" s="165">
+        <v>0.74618297407933365</v>
+      </c>
+      <c r="F118" s="166">
+        <v>-0.58288027259196573</v>
+      </c>
+      <c r="G118" s="165">
+        <v>0.74291769431124144</v>
+      </c>
+      <c r="H118" s="165">
+        <v>-9.3396818408696763E-2</v>
+      </c>
+      <c r="I118" s="165">
+        <v>-0.23525795301037991</v>
+      </c>
+      <c r="J118" s="165">
+        <v>1.2653663620363786</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="163">
+        <v>-1.9389349999999999E-3</v>
+      </c>
+      <c r="D119" s="163">
+        <v>0.60899599999999998</v>
+      </c>
+      <c r="E119" s="163">
+        <v>3.4214029999999999E-3</v>
+      </c>
+      <c r="F119" s="163">
+        <v>-1.10562E-2</v>
+      </c>
+      <c r="G119" s="163">
+        <v>-1.0933049999999999E-3</v>
+      </c>
+      <c r="H119" s="163">
+        <v>-4.6461413999999996E-3</v>
+      </c>
+      <c r="I119" s="163">
+        <v>1.2348672999999999E-2</v>
+      </c>
+      <c r="J119" s="163">
+        <v>4.2508968000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="164"/>
+      <c r="C120" s="165">
+        <v>-0.17076560731050339</v>
+      </c>
+      <c r="D120" s="165">
+        <v>0.83814743231225475</v>
+      </c>
+      <c r="E120" s="165">
+        <v>0.25349078356038363</v>
+      </c>
+      <c r="F120" s="166">
+        <v>-0.35495510742091424</v>
+      </c>
+      <c r="G120" s="165">
+        <v>-0.65224814724177349</v>
+      </c>
+      <c r="H120" s="165">
+        <v>-0.63770391393032266</v>
+      </c>
+      <c r="I120" s="165">
+        <v>0.77834612905809908</v>
+      </c>
+      <c r="J120" s="165">
+        <v>0.91966453918334101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="163">
+        <v>4.6165959999999997E-3</v>
+      </c>
+      <c r="D121" s="163">
+        <v>3.8577609999999998E-2</v>
+      </c>
+      <c r="E121" s="163">
+        <v>-1.5867367E-2</v>
+      </c>
+      <c r="F121" s="163">
+        <v>-1.269985E-2</v>
+      </c>
+      <c r="G121" s="163">
+        <v>1.022273E-3</v>
+      </c>
+      <c r="H121" s="163">
+        <v>-1.7197817999999999E-3</v>
+      </c>
+      <c r="I121" s="163">
+        <v>1.5509125E-2</v>
+      </c>
+      <c r="J121" s="163">
+        <v>-4.1908496000000003E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="164"/>
+      <c r="C122" s="165">
+        <v>0.45049612221553087</v>
+      </c>
+      <c r="D122" s="165">
+        <v>5.3809370611587332E-2</v>
+      </c>
+      <c r="E122" s="165">
+        <v>-1.2618346785244894</v>
+      </c>
+      <c r="F122" s="166">
+        <v>-0.45554601986029886</v>
+      </c>
+      <c r="G122" s="165">
+        <v>0.42416458217253689</v>
+      </c>
+      <c r="H122" s="165">
+        <v>-0.25509608160635144</v>
+      </c>
+      <c r="I122" s="165">
+        <v>0.95207771749794734</v>
+      </c>
+      <c r="J122" s="165">
+        <v>-1.0130254023660801</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="163">
+        <v>5.8081579999999999E-3</v>
+      </c>
+      <c r="D123" s="163">
+        <v>-0.61898153</v>
+      </c>
+      <c r="E123" s="163">
+        <v>-2.8825209999999999E-3</v>
+      </c>
+      <c r="F123" s="163">
+        <v>-2.327889E-2</v>
+      </c>
+      <c r="G123" s="163">
+        <v>-1.337013E-3</v>
+      </c>
+      <c r="H123" s="163">
+        <v>-5.6268906E-3</v>
+      </c>
+      <c r="I123" s="163">
+        <v>-4.3107400000000004E-3</v>
+      </c>
+      <c r="J123" s="163">
+        <v>-2.7960358000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="164"/>
+      <c r="C124" s="165">
+        <v>0.64014560514114316</v>
+      </c>
+      <c r="D124" s="165">
+        <v>-0.93788642328384053</v>
+      </c>
+      <c r="E124" s="165">
+        <v>-0.21208557883752929</v>
+      </c>
+      <c r="F124" s="166">
+        <v>-0.9679770519640376</v>
+      </c>
+      <c r="G124" s="165">
+        <v>-0.78508172287770217</v>
+      </c>
+      <c r="H124" s="165">
+        <v>-1.1608190631261184</v>
+      </c>
+      <c r="I124" s="165">
+        <v>-0.46981739565128183</v>
+      </c>
+      <c r="J124" s="165">
+        <v>-0.80009957142159693</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125" s="163">
+        <v>3.1540790000000002E-3</v>
+      </c>
+      <c r="D125" s="163">
+        <v>-0.13279769999999999</v>
+      </c>
+      <c r="E125" s="163">
+        <v>8.9279570000000003E-3</v>
+      </c>
+      <c r="F125" s="163">
+        <v>-1.340883E-2</v>
+      </c>
+      <c r="G125" s="163">
+        <v>9.4769720000000002E-4</v>
+      </c>
+      <c r="H125" s="163">
+        <v>-3.5443511999999999E-3</v>
+      </c>
+      <c r="I125" s="163">
+        <v>2.3146260000000002E-3</v>
+      </c>
+      <c r="J125" s="163">
+        <v>3.6928573999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="167"/>
+      <c r="C126" s="168">
+        <v>0.43724610263947061</v>
+      </c>
+      <c r="D126" s="168">
+        <v>-0.24348989644615041</v>
+      </c>
+      <c r="E126" s="168">
+        <v>0.88488738021782565</v>
+      </c>
+      <c r="F126" s="168">
+        <v>-0.62073853773412557</v>
+      </c>
+      <c r="G126" s="168">
+        <v>0.45621124067467989</v>
+      </c>
+      <c r="H126" s="168">
+        <v>-1.0597998341343522</v>
+      </c>
+      <c r="I126" s="168">
+        <v>0.19778991625508638</v>
+      </c>
+      <c r="J126" s="168">
+        <v>1.0383106334276839</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="169"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="170"/>
+      <c r="J127" s="170"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="169"/>
+      <c r="C128" s="170"/>
+      <c r="D128" s="170"/>
+      <c r="E128" s="170"/>
+      <c r="F128" s="170"/>
+      <c r="G128" s="170"/>
+      <c r="H128" s="170"/>
+      <c r="I128" s="170"/>
+      <c r="J128" s="170"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="159" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="160"/>
+      <c r="D130" s="160"/>
+      <c r="E130" s="160"/>
+      <c r="F130" s="160"/>
+      <c r="G130" s="160"/>
+      <c r="H130" s="160"/>
+      <c r="I130" s="160"/>
+      <c r="J130" s="161"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="I131" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="J131" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="163" t="s">
+        <v>236</v>
+      </c>
+      <c r="E132" s="163">
+        <v>1.5543344299999999E-2</v>
+      </c>
+      <c r="F132" s="163">
+        <v>-1.3706789E-2</v>
+      </c>
+      <c r="G132" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="H132" s="163">
+        <v>-9.5909850000000008E-6</v>
+      </c>
+      <c r="I132" s="163">
+        <v>4.2846591000000003E-2</v>
+      </c>
+      <c r="J132" s="163">
+        <v>-1.6324040000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="164"/>
+      <c r="C133" s="165">
+        <v>6.4958</v>
+      </c>
+      <c r="D133" s="165">
+        <v>-4.1288650000000002</v>
+      </c>
+      <c r="E133" s="165">
+        <v>0.55611407788985301</v>
+      </c>
+      <c r="F133" s="166">
+        <v>-0.33967589359502476</v>
+      </c>
+      <c r="G133" s="165">
+        <v>2.0930249999999999</v>
+      </c>
+      <c r="H133" s="165">
+        <v>-1.9988652848265975E-3</v>
+      </c>
+      <c r="I133" s="165">
+        <v>1.7798324014993696</v>
+      </c>
+      <c r="J133" s="165">
+        <v>-0.38544689929928311</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="163">
+        <v>1.2185751E-2</v>
+      </c>
+      <c r="D134" s="163">
+        <v>0.405913144</v>
+      </c>
+      <c r="E134" s="163">
+        <v>3.4025362199999999E-2</v>
+      </c>
+      <c r="F134" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="G134" s="163">
+        <v>-1.7781593E-3</v>
+      </c>
+      <c r="H134" s="163">
+        <v>9.0088009999999999E-4</v>
+      </c>
+      <c r="I134" s="163">
+        <v>1.2304493E-2</v>
+      </c>
+      <c r="J134" s="163">
+        <v>-1.9932999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="164"/>
+      <c r="C135" s="165">
+        <v>0.53601693399057959</v>
+      </c>
+      <c r="D135" s="165">
+        <v>1.4893228186637928</v>
+      </c>
+      <c r="E135" s="165">
+        <v>1.1068548202571982</v>
+      </c>
+      <c r="F135" s="166">
+        <v>2.6458810000000001</v>
+      </c>
+      <c r="G135" s="165">
+        <v>-0.67837099194149453</v>
+      </c>
+      <c r="H135" s="165">
+        <v>0.14348349643390013</v>
+      </c>
+      <c r="I135" s="165">
+        <v>0.56201806959585998</v>
+      </c>
+      <c r="J135" s="165">
+        <v>-0.44835153233071484</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="163">
+        <v>0.21330966400000001</v>
+      </c>
+      <c r="E136" s="163">
+        <v>-4.3067242999999998E-2</v>
+      </c>
+      <c r="F136" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="G136" s="163">
+        <v>7.5692340000000002E-3</v>
+      </c>
+      <c r="H136" s="163">
+        <v>1.129173E-2</v>
+      </c>
+      <c r="I136" s="163" t="s">
+        <v>241</v>
+      </c>
+      <c r="J136" s="163">
+        <v>-8.9441339999999994E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="164"/>
+      <c r="C137" s="165">
+        <v>-3.0360849999999999</v>
+      </c>
+      <c r="D137" s="165">
+        <v>0.81343137628381512</v>
+      </c>
+      <c r="E137" s="165">
+        <v>-1.7313476241302757</v>
+      </c>
+      <c r="F137" s="166">
+        <v>2.8338540000000001</v>
+      </c>
+      <c r="G137" s="165">
+        <v>1.8709600110242086</v>
+      </c>
+      <c r="H137" s="165">
+        <v>1.4003614196655578</v>
+      </c>
+      <c r="I137" s="165">
+        <v>-2.9835349999999998</v>
+      </c>
+      <c r="J137" s="165">
+        <v>-1.9425191102165706</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="163" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="163">
+        <v>0.19056916400000001</v>
+      </c>
+      <c r="E138" s="163">
+        <v>9.7430559999999995E-4</v>
+      </c>
+      <c r="F138" s="163">
+        <v>5.9638599999999996E-3</v>
+      </c>
+      <c r="G138" s="163">
+        <v>3.3421889999999999E-4</v>
+      </c>
+      <c r="H138" s="163">
+        <v>3.2352380000000001E-3</v>
+      </c>
+      <c r="I138" s="163" t="s">
+        <v>243</v>
+      </c>
+      <c r="J138" s="163">
+        <v>-4.9478250000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="164"/>
+      <c r="C139" s="165">
+        <v>-3.0130180000000002</v>
+      </c>
+      <c r="D139" s="165">
+        <v>0.71015198710766037</v>
+      </c>
+      <c r="E139" s="165">
+        <v>2.9232929979793196E-2</v>
+      </c>
+      <c r="F139" s="166">
+        <v>0.11997821557385294</v>
+      </c>
+      <c r="G139" s="165">
+        <v>0.1004898484963026</v>
+      </c>
+      <c r="H139" s="165">
+        <v>0.44291678846576032</v>
+      </c>
+      <c r="I139" s="165">
+        <v>-2.969319</v>
+      </c>
+      <c r="J139" s="165">
+        <v>-0.94597846314032197</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="163">
+        <v>-4.9325790000000003E-3</v>
+      </c>
+      <c r="D140" s="163">
+        <v>-0.21006193300000001</v>
+      </c>
+      <c r="E140" s="163">
+        <v>5.5595918999999999E-3</v>
+      </c>
+      <c r="F140" s="163" t="s">
+        <v>244</v>
+      </c>
+      <c r="G140" s="163">
+        <v>-1.5043115000000001E-3</v>
+      </c>
+      <c r="H140" s="163">
+        <v>6.3374160000000002E-3</v>
+      </c>
+      <c r="I140" s="163">
+        <v>1.1663725999999999E-2</v>
+      </c>
+      <c r="J140" s="163">
+        <v>6.6563529999999996E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="164"/>
+      <c r="C141" s="165">
+        <v>-0.2509304939867269</v>
+      </c>
+      <c r="D141" s="165">
+        <v>-1.0684688186299685</v>
+      </c>
+      <c r="E141" s="165">
+        <v>0.2308431742801185</v>
+      </c>
+      <c r="F141" s="166">
+        <v>-2.670029</v>
+      </c>
+      <c r="G141" s="165">
+        <v>-0.4526274400574436</v>
+      </c>
+      <c r="H141" s="165">
+        <v>0.74871423420373751</v>
+      </c>
+      <c r="I141" s="165">
+        <v>0.72869149134880362</v>
+      </c>
+      <c r="J141" s="165">
+        <v>1.1751846176670269</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="163">
+        <v>1.7072542E-2</v>
+      </c>
+      <c r="D142" s="163">
+        <v>4.7619135999999999E-2</v>
+      </c>
+      <c r="E142" s="163">
+        <v>1.2699461E-2</v>
+      </c>
+      <c r="F142" s="163">
+        <v>-4.1010201000000003E-2</v>
+      </c>
+      <c r="G142" s="163">
+        <v>-3.0022247000000002E-3</v>
+      </c>
+      <c r="H142" s="163">
+        <v>5.2488739999999997E-3</v>
+      </c>
+      <c r="I142" s="163">
+        <v>1.8140739999999999E-2</v>
+      </c>
+      <c r="J142" s="163">
+        <v>7.9573430000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="164"/>
+      <c r="C143" s="165">
+        <v>0.9183660999771438</v>
+      </c>
+      <c r="D143" s="165">
+        <v>0.28991905408766222</v>
+      </c>
+      <c r="E143" s="165">
+        <v>0.57583107121733179</v>
+      </c>
+      <c r="F143" s="166">
+        <v>-1.2140694797908242</v>
+      </c>
+      <c r="G143" s="165">
+        <v>-1.6848391124442403</v>
+      </c>
+      <c r="H143" s="165">
+        <v>0.66169478958254824</v>
+      </c>
+      <c r="I143" s="165">
+        <v>0.95581776944108476</v>
+      </c>
+      <c r="J143" s="165">
+        <v>1.1944068214567536</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="163">
+        <v>6.8650969999999997E-3</v>
+      </c>
+      <c r="D144" s="163">
+        <v>9.3475897000000002E-2</v>
+      </c>
+      <c r="E144" s="163">
+        <v>-1.39640479E-2</v>
+      </c>
+      <c r="F144" s="163">
+        <v>5.408843E-3</v>
+      </c>
+      <c r="G144" s="163">
+        <v>1.5472376999999999E-3</v>
+      </c>
+      <c r="H144" s="163">
+        <v>1.021422E-2</v>
+      </c>
+      <c r="I144" s="163">
+        <v>-5.4291579999999999E-3</v>
+      </c>
+      <c r="J144" s="163">
+        <v>-2.825517E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="164"/>
+      <c r="C145" s="165">
+        <v>0.45221152556134953</v>
+      </c>
+      <c r="D145" s="165">
+        <v>0.64400240729052471</v>
+      </c>
+      <c r="E145" s="165">
+        <v>-0.86504804993909779</v>
+      </c>
+      <c r="F145" s="166">
+        <v>0.11830132522233419</v>
+      </c>
+      <c r="G145" s="165">
+        <v>0.43168529764794189</v>
+      </c>
+      <c r="H145" s="165">
+        <v>1.3229036401890404</v>
+      </c>
+      <c r="I145" s="165">
+        <v>-0.3841872499645369</v>
+      </c>
+      <c r="J145" s="165">
+        <v>-0.62255814800525555</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="163">
+        <v>-1.0920454E-2</v>
+      </c>
+      <c r="D146" s="163">
+        <v>-3.4251851999999999E-2</v>
+      </c>
+      <c r="E146" s="163">
+        <v>-6.6248128999999998E-3</v>
+      </c>
+      <c r="F146" s="163">
+        <v>7.8230130000000002E-3</v>
+      </c>
+      <c r="G146" s="163">
+        <v>-6.168066E-4</v>
+      </c>
+      <c r="H146" s="163">
+        <v>2.3392119999999998E-3</v>
+      </c>
+      <c r="I146" s="163" t="s">
+        <v>245</v>
+      </c>
+      <c r="J146" s="163">
+        <v>-4.0332670000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="164"/>
+      <c r="C147" s="165">
+        <v>-0.73684737229845565</v>
+      </c>
+      <c r="D147" s="165">
+        <v>-0.26237259640340815</v>
+      </c>
+      <c r="E147" s="165">
+        <v>-0.33942736372239718</v>
+      </c>
+      <c r="F147" s="166">
+        <v>0.21132836390976312</v>
+      </c>
+      <c r="G147" s="165">
+        <v>-0.26534813499544641</v>
+      </c>
+      <c r="H147" s="165">
+        <v>0.45813855785627955</v>
+      </c>
+      <c r="I147" s="165">
+        <v>-2.3752900000000001</v>
+      </c>
+      <c r="J147" s="165">
+        <v>-0.88594036144092225</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="163">
+        <v>-1.2018571E-2</v>
+      </c>
+      <c r="D148" s="163">
+        <v>-1.5920680999999999E-2</v>
+      </c>
+      <c r="E148" s="163">
+        <v>8.0964334999999998E-3</v>
+      </c>
+      <c r="F148" s="163">
+        <v>-9.8748350000000002E-3</v>
+      </c>
+      <c r="G148" s="163">
+        <v>1.7056015999999999E-3</v>
+      </c>
+      <c r="H148" s="163">
+        <v>7.7660350000000001E-4</v>
+      </c>
+      <c r="I148" s="163">
+        <v>-4.6717080000000001E-3</v>
+      </c>
+      <c r="J148" s="163">
+        <v>4.5210119999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="164"/>
+      <c r="C149" s="165">
+        <v>-1.2700599682867801</v>
+      </c>
+      <c r="D149" s="165">
+        <v>-0.15763056944875795</v>
+      </c>
+      <c r="E149" s="165">
+        <v>0.55695952369583368</v>
+      </c>
+      <c r="F149" s="166">
+        <v>-0.30899141075734332</v>
+      </c>
+      <c r="G149" s="165">
+        <v>0.67851901857243779</v>
+      </c>
+      <c r="H149" s="165">
+        <v>0.12422257371789261</v>
+      </c>
+      <c r="I149" s="165">
+        <v>-0.48488038823272678</v>
+      </c>
+      <c r="J149" s="165">
+        <v>1.0458255323910044</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" s="163">
+        <v>-5.0926560000000001E-3</v>
+      </c>
+      <c r="D150" s="163">
+        <v>6.4506102999999995E-2</v>
+      </c>
+      <c r="E150" s="163">
+        <v>4.8121008E-3</v>
+      </c>
+      <c r="F150" s="163">
+        <v>-7.8397129999999999E-3</v>
+      </c>
+      <c r="G150" s="163">
+        <v>-6.2507440000000001E-4</v>
+      </c>
+      <c r="H150" s="163">
+        <v>-3.8555149999999999E-3</v>
+      </c>
+      <c r="I150" s="163">
+        <v>7.2549090000000004E-3</v>
+      </c>
+      <c r="J150" s="163">
+        <v>4.9488999999999998E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="164"/>
+      <c r="C151" s="165">
+        <v>-0.46346034778078604</v>
+      </c>
+      <c r="D151" s="165">
+        <v>0.72236679708395046</v>
+      </c>
+      <c r="E151" s="165">
+        <v>0.35523422297011459</v>
+      </c>
+      <c r="F151" s="166">
+        <v>-0.28257033075403803</v>
+      </c>
+      <c r="G151" s="165">
+        <v>-0.22841998904236591</v>
+      </c>
+      <c r="H151" s="165">
+        <v>-0.61852940495184694</v>
+      </c>
+      <c r="I151" s="165">
+        <v>0.65131809724492895</v>
+      </c>
+      <c r="J151" s="165">
+        <v>1.0939359897308207</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="163">
+        <v>2.5748009999999998E-3</v>
+      </c>
+      <c r="D152" s="163">
+        <v>-6.5061889999999999E-3</v>
+      </c>
+      <c r="E152" s="163">
+        <v>-1.43140353E-2</v>
+      </c>
+      <c r="F152" s="163">
+        <v>-1.2165321999999999E-2</v>
+      </c>
+      <c r="G152" s="163">
+        <v>1.1450309000000001E-3</v>
+      </c>
+      <c r="H152" s="163">
+        <v>-1.1546569999999999E-3</v>
+      </c>
+      <c r="I152" s="163">
+        <v>1.2920920000000001E-2</v>
+      </c>
+      <c r="J152" s="163">
+        <v>-3.3133299999999997E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="164"/>
+      <c r="C153" s="165">
+        <v>0.2461964638635469</v>
+      </c>
+      <c r="D153" s="165">
+        <v>-5.8050219854992376E-2</v>
+      </c>
+      <c r="E153" s="165">
+        <v>-1.7104092684832126</v>
+      </c>
+      <c r="F153" s="166">
+        <v>-0.41177981489896315</v>
+      </c>
+      <c r="G153" s="165">
+        <v>0.48210508958584225</v>
+      </c>
+      <c r="H153" s="165">
+        <v>-0.22310688227650419</v>
+      </c>
+      <c r="I153" s="165">
+        <v>1.2743008102287823</v>
+      </c>
+      <c r="J153" s="165">
+        <v>-0.98218472092826292</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="163">
+        <v>6.7265750000000003E-3</v>
+      </c>
+      <c r="D154" s="163">
+        <v>-7.8401483999999994E-2</v>
+      </c>
+      <c r="E154" s="163">
+        <v>-3.4140397E-3</v>
+      </c>
+      <c r="F154" s="163">
+        <v>-2.3610743E-2</v>
+      </c>
+      <c r="G154" s="163">
+        <v>-1.3015355000000001E-3</v>
+      </c>
+      <c r="H154" s="163">
+        <v>-4.9651820000000003E-3</v>
+      </c>
+      <c r="I154" s="163">
+        <v>-1.190265E-3</v>
+      </c>
+      <c r="J154" s="163">
+        <v>-3.0223719999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="164"/>
+      <c r="C155" s="165">
+        <v>0.74970737494742878</v>
+      </c>
+      <c r="D155" s="165">
+        <v>-0.93186119935950773</v>
+      </c>
+      <c r="E155" s="165">
+        <v>-0.40534827453454692</v>
+      </c>
+      <c r="F155" s="166">
+        <v>-0.9532755922215097</v>
+      </c>
+      <c r="G155" s="165">
+        <v>-0.67560121330212741</v>
+      </c>
+      <c r="H155" s="165">
+        <v>-1.244900312102724</v>
+      </c>
+      <c r="I155" s="165">
+        <v>-0.16366685061407707</v>
+      </c>
+      <c r="J155" s="165">
+        <v>-0.86195581941943966</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="163">
+        <v>5.4378969999999997E-3</v>
+      </c>
+      <c r="D156" s="163">
+        <v>6.5112700000000004E-3</v>
+      </c>
+      <c r="E156" s="163">
+        <v>8.1896773999999995E-3</v>
+      </c>
+      <c r="F156" s="163">
+        <v>-1.6191974000000001E-2</v>
+      </c>
+      <c r="G156" s="163">
+        <v>8.6343430000000005E-4</v>
+      </c>
+      <c r="H156" s="163">
+        <v>-3.2262480000000001E-3</v>
+      </c>
+      <c r="I156" s="163">
+        <v>3.738239E-3</v>
+      </c>
+      <c r="J156" s="163">
+        <v>2.8893459999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="167"/>
+      <c r="C157" s="168">
+        <v>0.90893065623370894</v>
+      </c>
+      <c r="D157" s="168">
+        <v>7.5815140430793557E-2</v>
+      </c>
+      <c r="E157" s="168">
+        <v>0.70203741290763533</v>
+      </c>
+      <c r="F157" s="168">
+        <v>-0.92257223610183869</v>
+      </c>
+      <c r="G157" s="168">
+        <v>0.45312410843793732</v>
+      </c>
+      <c r="H157" s="168">
+        <v>-0.89045438837858049</v>
+      </c>
+      <c r="I157" s="168">
+        <v>0.40141369837857205</v>
+      </c>
+      <c r="J157" s="168">
+        <v>0.78594883264815785</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="169"/>
+      <c r="C158" s="170"/>
+      <c r="D158" s="170"/>
+      <c r="E158" s="170"/>
+      <c r="F158" s="170"/>
+      <c r="G158" s="170"/>
+      <c r="H158" s="170"/>
+      <c r="I158" s="170"/>
+      <c r="J158" s="170"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="169"/>
+      <c r="C159" s="170"/>
+      <c r="D159" s="170"/>
+      <c r="E159" s="170"/>
+      <c r="F159" s="170"/>
+      <c r="G159" s="170"/>
+      <c r="H159" s="170"/>
+      <c r="I159" s="170"/>
+      <c r="J159" s="170"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" s="160"/>
+      <c r="D161" s="160"/>
+      <c r="E161" s="160"/>
+      <c r="F161" s="160"/>
+      <c r="G161" s="160"/>
+      <c r="H161" s="160"/>
+      <c r="I161" s="160"/>
+      <c r="J161" s="161"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162" s="162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="F162" s="162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="H162" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="I162" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="J162" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="171" t="s">
+        <v>246</v>
+      </c>
+      <c r="D163" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="E163" s="171">
+        <v>-0.13527024000000001</v>
+      </c>
+      <c r="F163" s="171">
+        <v>-4.8336360799999999E-2</v>
+      </c>
+      <c r="G163" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="H163" s="171">
+        <v>-5.7182010000000004E-4</v>
+      </c>
+      <c r="I163" s="171">
+        <v>3.2377783799999997E-2</v>
+      </c>
+      <c r="J163" s="171">
+        <v>-1.289973E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="164"/>
+      <c r="C164" s="165">
+        <v>6.9099029999999999</v>
+      </c>
+      <c r="D164" s="165">
+        <v>-7.152622</v>
+      </c>
+      <c r="E164" s="165">
+        <v>-1.9519722092645209</v>
+      </c>
+      <c r="F164" s="166">
+        <v>-1.0490255597508709</v>
+      </c>
+      <c r="G164" s="165">
+        <v>2.1054409999999999</v>
+      </c>
+      <c r="H164" s="165">
+        <v>-9.5277246788994116E-2</v>
+      </c>
+      <c r="I164" s="165">
+        <v>1.5849921199284032</v>
+      </c>
+      <c r="J164" s="165">
+        <v>-0.28922876891254157</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" s="163">
+        <v>3.9541161999999998E-3</v>
+      </c>
+      <c r="D165" s="163">
+        <v>1.55188478</v>
+      </c>
+      <c r="E165" s="163">
+        <v>6.8944080000000005E-2</v>
+      </c>
+      <c r="F165" s="163">
+        <v>9.7607844999999999E-2</v>
+      </c>
+      <c r="G165" s="163">
+        <v>-1.943529E-3</v>
+      </c>
+      <c r="H165" s="163">
+        <v>4.4110890999999996E-3</v>
+      </c>
+      <c r="I165" s="163">
+        <v>8.6711562000000002E-3</v>
+      </c>
+      <c r="J165" s="163">
+        <v>-3.2770170000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="164"/>
+      <c r="C166" s="165">
+        <v>0.17917649574861122</v>
+      </c>
+      <c r="D166" s="165">
+        <v>0.76780439207470674</v>
+      </c>
+      <c r="E166" s="165">
+        <v>0.99981234096127303</v>
+      </c>
+      <c r="F166" s="166">
+        <v>1.8029652085161243</v>
+      </c>
+      <c r="G166" s="165">
+        <v>-0.4945030272387882</v>
+      </c>
+      <c r="H166" s="165">
+        <v>0.64591925936262962</v>
+      </c>
+      <c r="I166" s="165">
+        <v>0.2992551663442265</v>
+      </c>
+      <c r="J166" s="165">
+        <v>-0.6623092580845007</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="163" t="s">
+        <v>249</v>
+      </c>
+      <c r="D167" s="163">
+        <v>1.92966503</v>
+      </c>
+      <c r="E167" s="163">
+        <v>-1.611375E-2</v>
+      </c>
+      <c r="F167" s="163" t="s">
+        <v>250</v>
+      </c>
+      <c r="G167" s="163">
+        <v>6.5114379999999996E-3</v>
+      </c>
+      <c r="H167" s="163">
+        <v>1.5552553199999999E-2</v>
+      </c>
+      <c r="I167" s="163" t="s">
+        <v>251</v>
+      </c>
+      <c r="J167" s="163" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="164"/>
+      <c r="C168" s="165">
+        <v>-3.078665</v>
+      </c>
+      <c r="D168" s="165">
+        <v>0.93683017589820439</v>
+      </c>
+      <c r="E168" s="165">
+        <v>-0.19184164811449361</v>
+      </c>
+      <c r="F168" s="166">
+        <v>2.9589400000000001</v>
+      </c>
+      <c r="G168" s="165">
+        <v>1.7929832394298169</v>
+      </c>
+      <c r="H168" s="165">
+        <v>1.558116116584914</v>
+      </c>
+      <c r="I168" s="165">
+        <v>-2.3114539999999999</v>
+      </c>
+      <c r="J168" s="165">
+        <v>-2.702912</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="D169" s="163">
+        <v>2.3484208199999999</v>
+      </c>
+      <c r="E169" s="163">
+        <v>0.12563622999999999</v>
+      </c>
+      <c r="F169" s="163">
+        <v>-7.1270446000000001E-3</v>
+      </c>
+      <c r="G169" s="163">
+        <v>1.018662E-4</v>
+      </c>
+      <c r="H169" s="163">
+        <v>8.3193613999999992E-3</v>
+      </c>
+      <c r="I169" s="163" t="s">
+        <v>254</v>
+      </c>
+      <c r="J169" s="163">
+        <v>-6.729773E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="164"/>
+      <c r="C170" s="165">
+        <v>-2.854063</v>
+      </c>
+      <c r="D170" s="165">
+        <v>1.428664652204743</v>
+      </c>
+      <c r="E170" s="165">
+        <v>1.3383420314392722</v>
+      </c>
+      <c r="F170" s="166">
+        <v>-0.14218764362977596</v>
+      </c>
+      <c r="G170" s="165">
+        <v>2.534315148010571E-2</v>
+      </c>
+      <c r="H170" s="165">
+        <v>0.91241457859356256</v>
+      </c>
+      <c r="I170" s="165">
+        <v>-3.4533610000000001</v>
+      </c>
+      <c r="J170" s="165">
+        <v>-1.1949429527486617</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" s="163">
+        <v>-9.4866860000000005E-4</v>
+      </c>
+      <c r="D171" s="163">
+        <v>-0.60892369000000002</v>
+      </c>
+      <c r="E171" s="163">
+        <v>7.5054480000000007E-2</v>
+      </c>
+      <c r="F171" s="163">
+        <v>-6.0806600600000003E-2</v>
+      </c>
+      <c r="G171" s="163">
+        <v>-1.591367E-3</v>
+      </c>
+      <c r="H171" s="163">
+        <v>7.4948148000000001E-3</v>
+      </c>
+      <c r="I171" s="163">
+        <v>-4.3390049999999998E-4</v>
+      </c>
+      <c r="J171" s="163">
+        <v>7.4673489999999995E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="164"/>
+      <c r="C172" s="165">
+        <v>-5.0212561552561152E-2</v>
+      </c>
+      <c r="D172" s="165">
+        <v>-0.41439199570045504</v>
+      </c>
+      <c r="E172" s="165">
+        <v>1.1023649756947596</v>
+      </c>
+      <c r="F172" s="166">
+        <v>-1.335604664952712</v>
+      </c>
+      <c r="G172" s="165">
+        <v>-0.62712503978242151</v>
+      </c>
+      <c r="H172" s="165">
+        <v>0.92172568489213613</v>
+      </c>
+      <c r="I172" s="165">
+        <v>-2.3613235656970977E-2</v>
+      </c>
+      <c r="J172" s="165">
+        <v>1.2122146109588112</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" s="163">
+        <v>1.9267673700000001E-2</v>
+      </c>
+      <c r="D173" s="163">
+        <v>0.76618319000000001</v>
+      </c>
+      <c r="E173" s="163">
+        <v>-2.1053479999999999E-2</v>
+      </c>
+      <c r="F173" s="163">
+        <v>-3.4899943500000002E-2</v>
+      </c>
+      <c r="G173" s="163">
+        <v>-3.2189290000000001E-3</v>
+      </c>
+      <c r="H173" s="163">
+        <v>4.6709281999999996E-3</v>
+      </c>
+      <c r="I173" s="163">
+        <v>2.1342252400000001E-2</v>
+      </c>
+      <c r="J173" s="163">
+        <v>8.3433579999999993E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="164"/>
+      <c r="C174" s="165">
+        <v>1.2343757020486716</v>
+      </c>
+      <c r="D174" s="165">
+        <v>0.45598383418900096</v>
+      </c>
+      <c r="E174" s="165">
+        <v>-0.31937524312173488</v>
+      </c>
+      <c r="F174" s="166">
+        <v>-1.1026326389831933</v>
+      </c>
+      <c r="G174" s="165">
+        <v>-1.1733474690710071</v>
+      </c>
+      <c r="H174" s="165">
+        <v>0.70533962405068851</v>
+      </c>
+      <c r="I174" s="165">
+        <v>0.96153081182830613</v>
+      </c>
+      <c r="J174" s="165">
+        <v>1.2627203937177871</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C175" s="163">
+        <v>3.1612930999999999E-3</v>
+      </c>
+      <c r="D175" s="163">
+        <v>0.46166386999999998</v>
+      </c>
+      <c r="E175" s="163">
+        <v>7.1524700000000002E-3</v>
+      </c>
+      <c r="F175" s="163">
+        <v>3.0294448200000001E-2</v>
+      </c>
+      <c r="G175" s="163">
+        <v>2.5428E-3</v>
+      </c>
+      <c r="H175" s="163">
+        <v>7.0232269000000003E-3</v>
+      </c>
+      <c r="I175" s="163">
+        <v>-3.6501633999999998E-3</v>
+      </c>
+      <c r="J175" s="163">
+        <v>-3.9450800000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="164"/>
+      <c r="C176" s="165">
+        <v>0.22504315909776373</v>
+      </c>
+      <c r="D176" s="165">
+        <v>0.33104429991146</v>
+      </c>
+      <c r="E176" s="165">
+        <v>0.10950362403376739</v>
+      </c>
+      <c r="F176" s="166">
+        <v>0.86470760402576141</v>
+      </c>
+      <c r="G176" s="165">
+        <v>0.98624380605578388</v>
+      </c>
+      <c r="H176" s="165">
+        <v>1.054551103517509</v>
+      </c>
+      <c r="I176" s="165">
+        <v>-0.20247945409499848</v>
+      </c>
+      <c r="J176" s="165">
+        <v>-0.90525424798349641</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="163">
+        <v>-1.9424525500000001E-2</v>
+      </c>
+      <c r="D177" s="163">
+        <v>2.998762E-2</v>
+      </c>
+      <c r="E177" s="163">
+        <v>-6.0433529999999999E-2</v>
+      </c>
+      <c r="F177" s="163">
+        <v>5.6577004999999996E-3</v>
+      </c>
+      <c r="G177" s="163">
+        <v>2.7840639999999998E-5</v>
+      </c>
+      <c r="H177" s="163">
+        <v>-1.5840989E-3</v>
+      </c>
+      <c r="I177" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="J177" s="163">
+        <v>-3.8395560000000002E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="164"/>
+      <c r="C178" s="165">
+        <v>-1.6537903972649437</v>
+      </c>
+      <c r="D178" s="165">
+        <v>2.453563103467743E-2</v>
+      </c>
+      <c r="E178" s="165">
+        <v>-0.8615425393912074</v>
+      </c>
+      <c r="F178" s="166">
+        <v>0.15459417087553745</v>
+      </c>
+      <c r="G178" s="165">
+        <v>9.8458476705857566E-3</v>
+      </c>
+      <c r="H178" s="165">
+        <v>-0.25533733499463079</v>
+      </c>
+      <c r="I178" s="165">
+        <v>-2.4625028000000002</v>
+      </c>
+      <c r="J178" s="165">
+        <v>-0.76913687454794044</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" s="163">
+        <v>-1.1004192600000001E-2</v>
+      </c>
+      <c r="D179" s="163">
+        <v>-0.13591099000000001</v>
+      </c>
+      <c r="E179" s="163">
+        <v>-2.1879280000000001E-2</v>
+      </c>
+      <c r="F179" s="163">
+        <v>-3.3770054899999999E-2</v>
+      </c>
+      <c r="G179" s="163">
+        <v>1.8402900000000001E-3</v>
+      </c>
+      <c r="H179" s="163">
+        <v>-3.2708661999999999E-3</v>
+      </c>
+      <c r="I179" s="163">
+        <v>-1.1819208E-3</v>
+      </c>
+      <c r="J179" s="163">
+        <v>6.3839670000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="164"/>
+      <c r="C180" s="165">
+        <v>-0.92196012388269688</v>
+      </c>
+      <c r="D180" s="165">
+        <v>-0.16885783136324267</v>
+      </c>
+      <c r="E180" s="165">
+        <v>-0.25048616234648202</v>
+      </c>
+      <c r="F180" s="166">
+        <v>-0.96682138561923026</v>
+      </c>
+      <c r="G180" s="165">
+        <v>0.84502158912024361</v>
+      </c>
+      <c r="H180" s="165">
+        <v>-0.4689495615379678</v>
+      </c>
+      <c r="I180" s="165">
+        <v>-8.5858716077563735E-2</v>
+      </c>
+      <c r="J180" s="165">
+        <v>1.3036745031141614</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" s="163">
+        <v>1.9518525E-3</v>
+      </c>
+      <c r="D181" s="163">
+        <v>0.42916248000000001</v>
+      </c>
+      <c r="E181" s="163">
+        <v>-2.9284979999999999E-2</v>
+      </c>
+      <c r="F181" s="163">
+        <v>-3.2439379999999997E-2</v>
+      </c>
+      <c r="G181" s="163">
+        <v>-1.4364309999999999E-3</v>
+      </c>
+      <c r="H181" s="163">
+        <v>-5.5924966E-3</v>
+      </c>
+      <c r="I181" s="163">
+        <v>1.8675003200000002E-2</v>
+      </c>
+      <c r="J181" s="163">
+        <v>5.5437840000000002E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="164"/>
+      <c r="C182" s="165">
+        <v>0.13619343526671257</v>
+      </c>
+      <c r="D182" s="165">
+        <v>0.63067810646687072</v>
+      </c>
+      <c r="E182" s="165">
+        <v>-0.61003897226474346</v>
+      </c>
+      <c r="F182" s="166">
+        <v>-0.96493629505484046</v>
+      </c>
+      <c r="G182" s="165">
+        <v>-0.52486255005774429</v>
+      </c>
+      <c r="H182" s="165">
+        <v>-0.79788946857324794</v>
+      </c>
+      <c r="I182" s="165">
+        <v>1.6434483226130485</v>
+      </c>
+      <c r="J182" s="165">
+        <v>1.1551319286893327</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C183" s="163">
+        <v>1.07114132E-2</v>
+      </c>
+      <c r="D183" s="163">
+        <v>-0.1911804</v>
+      </c>
+      <c r="E183" s="163">
+        <v>-4.4353400000000001E-2</v>
+      </c>
+      <c r="F183" s="163">
+        <v>-1.9624587200000002E-2</v>
+      </c>
+      <c r="G183" s="163">
+        <v>7.1912199999999999E-4</v>
+      </c>
+      <c r="H183" s="163">
+        <v>-1.4275111E-3</v>
+      </c>
+      <c r="I183" s="163">
+        <v>1.9249156900000002E-2</v>
+      </c>
+      <c r="J183" s="163">
+        <v>-5.3638900000000003E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="164"/>
+      <c r="C184" s="165">
+        <v>0.96836797253481166</v>
+      </c>
+      <c r="D184" s="165">
+        <v>-0.18957186339502552</v>
+      </c>
+      <c r="E184" s="165">
+        <v>-0.90107110469714913</v>
+      </c>
+      <c r="F184" s="166">
+        <v>-0.73878856486362388</v>
+      </c>
+      <c r="G184" s="165">
+        <v>0.35919079524210795</v>
+      </c>
+      <c r="H184" s="165">
+        <v>-0.22541523755680146</v>
+      </c>
+      <c r="I184" s="165">
+        <v>1.0200087997117808</v>
+      </c>
+      <c r="J184" s="165">
+        <v>-1.6817332760450345</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="163">
+        <v>6.7506236999999997E-3</v>
+      </c>
+      <c r="D185" s="163">
+        <v>-0.67728166999999995</v>
+      </c>
+      <c r="E185" s="163">
+        <v>-2.0127969999999999E-2</v>
+      </c>
+      <c r="F185" s="163">
+        <v>-1.48782033E-2</v>
+      </c>
+      <c r="G185" s="163">
+        <v>-1.2891720000000001E-3</v>
+      </c>
+      <c r="H185" s="163">
+        <v>-3.9508583999999999E-3</v>
+      </c>
+      <c r="I185" s="163">
+        <v>-6.8072349000000004E-3</v>
+      </c>
+      <c r="J185" s="163">
+        <v>-4.0544330000000003E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="164"/>
+      <c r="C186" s="165">
+        <v>0.84737088610544975</v>
+      </c>
+      <c r="D186" s="165">
+        <v>-1.0329983123137163</v>
+      </c>
+      <c r="E186" s="165">
+        <v>-0.54553846221924018</v>
+      </c>
+      <c r="F186" s="166">
+        <v>-0.6480785183908675</v>
+      </c>
+      <c r="G186" s="165">
+        <v>-0.57512824590601519</v>
+      </c>
+      <c r="H186" s="165">
+        <v>-0.81977895041463633</v>
+      </c>
+      <c r="I186" s="165">
+        <v>-0.51114561089179189</v>
+      </c>
+      <c r="J186" s="165">
+        <v>-1.1311252368524136</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C187" s="163">
+        <v>4.0525650000000001E-4</v>
+      </c>
+      <c r="D187" s="163">
+        <v>-2.5417100000000001E-2</v>
+      </c>
+      <c r="E187" s="163">
+        <v>-1.0426889999999999E-2</v>
+      </c>
+      <c r="F187" s="163">
+        <v>-2.9889750000000002E-4</v>
+      </c>
+      <c r="G187" s="163">
+        <v>5.4939479999999998E-4</v>
+      </c>
+      <c r="H187" s="163">
+        <v>-2.1453427E-3</v>
+      </c>
+      <c r="I187" s="163">
+        <v>-1.5446946999999999E-3</v>
+      </c>
+      <c r="J187" s="163">
+        <v>3.9840739999999999E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="167"/>
+      <c r="C188" s="168">
+        <v>6.558835370208152E-2</v>
+      </c>
+      <c r="D188" s="168">
+        <v>-4.9668084600670417E-2</v>
+      </c>
+      <c r="E188" s="168">
+        <v>-0.3538928674585633</v>
+      </c>
+      <c r="F188" s="168">
+        <v>-1.4933098233027428E-2</v>
+      </c>
+      <c r="G188" s="168">
+        <v>0.34768199787499543</v>
+      </c>
+      <c r="H188" s="168">
+        <v>-0.49668405050891112</v>
+      </c>
+      <c r="I188" s="168">
+        <v>-0.1642229981146639</v>
+      </c>
+      <c r="J188" s="168">
+        <v>1.0756917202242913</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="169"/>
+      <c r="C189" s="170"/>
+      <c r="D189" s="170"/>
+      <c r="E189" s="170"/>
+      <c r="F189" s="170"/>
+      <c r="G189" s="170"/>
+      <c r="H189" s="170"/>
+      <c r="I189" s="170"/>
+      <c r="J189" s="170"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="169"/>
+      <c r="C190" s="170"/>
+      <c r="D190" s="170"/>
+      <c r="E190" s="170"/>
+      <c r="F190" s="170"/>
+      <c r="G190" s="170"/>
+      <c r="H190" s="170"/>
+      <c r="I190" s="170"/>
+      <c r="J190" s="170"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B130:J130"/>
+    <mergeCell ref="B161:J161"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEF288-FF60-4900-B0A4-CB55DAD23E72}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -63579,7 +69110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F09773-A2D8-472C-B8B9-9A59940625B5}">
   <dimension ref="A1:H141"/>
   <sheetViews>
